--- a/ЕГЭ Илья Казанцев.xlsx
+++ b/ЕГЭ Илья Казанцев.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE098289-2E93-441A-9D09-FEC737F90298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847038F5-661E-4A4C-8B15-8EB1175A0E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -607,9 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="6" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,13 +641,19 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="8" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="6" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1499,7 +1502,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1511,7 @@
     <col min="2" max="2" width="6" style="15"/>
     <col min="3" max="3" width="6" style="16"/>
     <col min="4" max="4" width="6" style="15"/>
-    <col min="5" max="5" width="6" style="33"/>
+    <col min="5" max="5" width="6" style="32"/>
     <col min="6" max="6" width="6.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="6" style="16"/>
     <col min="8" max="8" width="6" style="15"/>
@@ -1521,187 +1524,191 @@
     <col min="16" max="16" width="6" style="16"/>
     <col min="17" max="17" width="6" style="15"/>
     <col min="18" max="18" width="6" style="16"/>
-    <col min="19" max="19" width="6" style="28"/>
+    <col min="19" max="19" width="6" style="27"/>
     <col min="20" max="20" width="6" style="16"/>
-    <col min="21" max="21" width="6" style="28"/>
+    <col min="21" max="21" width="6" style="27"/>
     <col min="22" max="22" width="6" style="16"/>
     <col min="23" max="23" width="6" style="15"/>
     <col min="24" max="24" width="6" style="16"/>
-    <col min="25" max="25" width="6" style="28"/>
-    <col min="26" max="26" width="6" style="29"/>
-    <col min="27" max="27" width="6" style="28"/>
+    <col min="25" max="25" width="6" style="27"/>
+    <col min="26" max="26" width="6" style="28"/>
+    <col min="27" max="27" width="6" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
-      <c r="B1" s="37">
+      <c r="B1" s="36">
         <v>1</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="23">
         <v>2</v>
       </c>
-      <c r="D1" s="37">
+      <c r="D1" s="36">
         <v>3</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="23">
         <v>4</v>
       </c>
-      <c r="F1" s="37">
+      <c r="F1" s="36">
         <v>5</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="23">
         <v>6</v>
       </c>
-      <c r="H1" s="37">
+      <c r="H1" s="36">
         <v>7</v>
       </c>
       <c r="I1" s="38">
         <v>8</v>
       </c>
       <c r="J1" s="39"/>
-      <c r="K1" s="37">
+      <c r="K1" s="36">
         <v>9</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="23">
         <v>10</v>
       </c>
-      <c r="M1" s="37">
+      <c r="M1" s="36">
         <v>11</v>
       </c>
-      <c r="N1" s="24">
+      <c r="N1" s="23">
         <v>12</v>
       </c>
-      <c r="O1" s="37">
+      <c r="O1" s="36">
         <v>13</v>
       </c>
-      <c r="P1" s="24">
+      <c r="P1" s="23">
         <v>14</v>
       </c>
-      <c r="Q1" s="37">
+      <c r="Q1" s="36">
         <v>15</v>
       </c>
-      <c r="R1" s="24">
+      <c r="R1" s="23">
         <v>16</v>
       </c>
-      <c r="S1" s="37">
+      <c r="S1" s="36">
         <v>17</v>
       </c>
-      <c r="T1" s="24">
+      <c r="T1" s="23">
         <v>18</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="24">
+      <c r="V1" s="23">
         <v>22</v>
       </c>
-      <c r="W1" s="37">
+      <c r="W1" s="36">
         <v>23</v>
       </c>
-      <c r="X1" s="24">
+      <c r="X1" s="23">
         <v>24</v>
       </c>
-      <c r="Y1" s="37">
+      <c r="Y1" s="36">
         <v>25</v>
       </c>
-      <c r="Z1" s="24">
+      <c r="Z1" s="23">
         <v>26</v>
       </c>
-      <c r="AA1" s="37">
+      <c r="AA1" s="36">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="30" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="U2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="W2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="Z2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="37">
         <v>45176</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="40">
+        <v>9889</v>
+      </c>
+      <c r="C3" s="41">
+        <v>15787</v>
+      </c>
       <c r="D3" s="20"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="20"/>
       <c r="G3" s="21"/>
       <c r="H3" s="20"/>
@@ -1711,25 +1718,25 @@
       <c r="L3" s="21"/>
       <c r="M3" s="20"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="32"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="26"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="26"/>
+      <c r="U3" s="25"/>
       <c r="V3" s="21"/>
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="26"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
       <c r="C4" s="18"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
       <c r="H4" s="20"/>
@@ -1743,21 +1750,21 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="26"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="26"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="21"/>
       <c r="W4" s="20"/>
       <c r="X4" s="21"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="26"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="25"/>
     </row>
     <row r="5" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="18"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="20"/>
@@ -1771,21 +1778,21 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="26"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="26"/>
+      <c r="U5" s="25"/>
       <c r="V5" s="21"/>
       <c r="W5" s="20"/>
       <c r="X5" s="21"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="26"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="25"/>
     </row>
     <row r="6" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="20"/>
@@ -1799,21 +1806,21 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="26"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="26"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="21"/>
       <c r="W6" s="20"/>
       <c r="X6" s="21"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="26"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="18"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
@@ -1827,21 +1834,21 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="26"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="21"/>
-      <c r="U7" s="26"/>
+      <c r="U7" s="25"/>
       <c r="V7" s="21"/>
       <c r="W7" s="20"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="26"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="25"/>
     </row>
     <row r="8" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="18"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="33"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
@@ -1855,21 +1862,21 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="20"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="26"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="26"/>
+      <c r="U8" s="25"/>
       <c r="V8" s="21"/>
       <c r="W8" s="20"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="26"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="25"/>
     </row>
     <row r="9" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="18"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>
@@ -1883,21 +1890,21 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="26"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="26"/>
+      <c r="U9" s="25"/>
       <c r="V9" s="21"/>
       <c r="W9" s="20"/>
       <c r="X9" s="21"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="26"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="25"/>
     </row>
     <row r="10" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="18"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
@@ -1911,21 +1918,21 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="26"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="26"/>
+      <c r="U10" s="25"/>
       <c r="V10" s="21"/>
       <c r="W10" s="20"/>
       <c r="X10" s="21"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="26"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="25"/>
     </row>
     <row r="11" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="18"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="33"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
@@ -1939,21 +1946,21 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="26"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="26"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="21"/>
       <c r="W11" s="20"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="26"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="25"/>
     </row>
     <row r="12" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="18"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="20"/>
@@ -1967,21 +1974,21 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="26"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="21"/>
-      <c r="U12" s="26"/>
+      <c r="U12" s="25"/>
       <c r="V12" s="21"/>
       <c r="W12" s="20"/>
       <c r="X12" s="21"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="26"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="25"/>
     </row>
     <row r="13" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="20"/>
@@ -1995,21 +2002,21 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="26"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="21"/>
-      <c r="U13" s="26"/>
+      <c r="U13" s="25"/>
       <c r="V13" s="21"/>
       <c r="W13" s="20"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="26"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="25"/>
     </row>
     <row r="14" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
@@ -2023,21 +2030,21 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="26"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="26"/>
+      <c r="U14" s="25"/>
       <c r="V14" s="21"/>
       <c r="W14" s="20"/>
       <c r="X14" s="21"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="26"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="25"/>
     </row>
     <row r="15" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
@@ -2051,21 +2058,21 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="26"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="26"/>
+      <c r="U15" s="25"/>
       <c r="V15" s="21"/>
       <c r="W15" s="20"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="26"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="25"/>
     </row>
     <row r="16" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="18"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
@@ -2079,21 +2086,21 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="26"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="26"/>
+      <c r="U16" s="25"/>
       <c r="V16" s="21"/>
       <c r="W16" s="20"/>
       <c r="X16" s="21"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="26"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="25"/>
     </row>
     <row r="17" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
@@ -2107,21 +2114,21 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="26"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="26"/>
+      <c r="U17" s="25"/>
       <c r="V17" s="21"/>
       <c r="W17" s="20"/>
       <c r="X17" s="21"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="26"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="25"/>
     </row>
     <row r="18" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
@@ -2135,21 +2142,21 @@
       <c r="P18" s="21"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="26"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="21"/>
-      <c r="U18" s="26"/>
+      <c r="U18" s="25"/>
       <c r="V18" s="21"/>
       <c r="W18" s="20"/>
       <c r="X18" s="21"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="26"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="25"/>
     </row>
     <row r="19" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
@@ -2163,21 +2170,21 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="26"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="26"/>
+      <c r="U19" s="25"/>
       <c r="V19" s="21"/>
       <c r="W19" s="20"/>
       <c r="X19" s="21"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="26"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="25"/>
     </row>
     <row r="20" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
@@ -2191,21 +2198,21 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="26"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="26"/>
+      <c r="U20" s="25"/>
       <c r="V20" s="21"/>
       <c r="W20" s="20"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="26"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="25"/>
     </row>
     <row r="21" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
@@ -2219,15 +2226,15 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="26"/>
+      <c r="S21" s="25"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="26"/>
+      <c r="U21" s="25"/>
       <c r="V21" s="21"/>
       <c r="W21" s="20"/>
       <c r="X21" s="21"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="26"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="25"/>
     </row>
     <row r="22" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="18"/>

--- a/ЕГЭ Илья Казанцев.xlsx
+++ b/ЕГЭ Илья Казанцев.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847038F5-661E-4A4C-8B15-8EB1175A0E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CDEAB1-F5DD-43D9-82BF-FDF6AB3F56A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,7 +566,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -644,16 +645,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="8" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="6" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="8" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="6" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="7" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="8" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="6" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,6 +699,1198 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>13974</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>60324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>92073</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073B66F4-583C-4256-8D88-1380E2DB481D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="61583574" y="22348824"/>
+          <a:ext cx="7393299" cy="9855199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>84415</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>91615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>352255</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>99840</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F7B7C5-6C74-421D-B1A7-8B9B04B58FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="65311615" y="25809115"/>
+            <a:ext cx="267840" cy="389225"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F7B7C5-6C74-421D-B1A7-8B9B04B58FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="65302975" y="25800113"/>
+              <a:ext cx="285480" cy="406868"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>70790</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>112015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>341280</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>131270</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D17BE6-AF98-4ED4-AB99-29074DA007CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="68345990" y="26210515"/>
+            <a:ext cx="270490" cy="400255"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D17BE6-AF98-4ED4-AB99-29074DA007CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="68336986" y="26201360"/>
+              <a:ext cx="288138" cy="418199"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>34920</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>48535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>525895</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>116095</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD105F3-E04B-4435-980D-5128BE62CAE2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="64652520" y="26528035"/>
+            <a:ext cx="490975" cy="448560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD105F3-E04B-4435-980D-5128BE62CAE2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="64634765" y="26510395"/>
+              <a:ext cx="526847" cy="484200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>583855</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>15115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>72840</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>123235</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627DC0F2-3AE8-4668-A480-BD098A085885}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="63372655" y="26304115"/>
+            <a:ext cx="708185" cy="870120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627DC0F2-3AE8-4668-A480-BD098A085885}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="63364014" y="26295475"/>
+              <a:ext cx="725827" cy="887760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>142615</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>340800</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>153775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818415AF-AB1D-4793-ABBB-D0F5734644D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="62321815" y="28042260"/>
+            <a:ext cx="6903785" cy="496015"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818415AF-AB1D-4793-ABBB-D0F5734644D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="62312815" y="28033621"/>
+              <a:ext cx="6921425" cy="513653"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>27240</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>55920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>199320</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>94740</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F926FE34-9A89-4FBE-8F2F-C4E71797E10B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="61596840" y="29583420"/>
+            <a:ext cx="2000880" cy="229320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F926FE34-9A89-4FBE-8F2F-C4E71797E10B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="61588200" y="29574420"/>
+              <a:ext cx="2018520" cy="246960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>123055</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>161515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>181255</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>75235</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6FCBAC-B0FA-4DC6-9EC5-569C4B952D93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="64740655" y="29117515"/>
+            <a:ext cx="667800" cy="675720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6FCBAC-B0FA-4DC6-9EC5-569C4B952D93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="64732015" y="29108515"/>
+              <a:ext cx="685440" cy="693360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>231675</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102436F1-FD66-4D6D-B0C5-627A407D4E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64306450" y="22161499"/>
+          <a:ext cx="15782825" cy="1406525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>387120</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>148560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>503280</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>183480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="49" name="Ink 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376C5822-DE74-46BC-8C4A-2EAC3D6B4F3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="68052720" y="22437060"/>
+            <a:ext cx="6212160" cy="34920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="49" name="Ink 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376C5822-DE74-46BC-8C4A-2EAC3D6B4F3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="68043720" y="22428060"/>
+              <a:ext cx="6229800" cy="52560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>9480</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>61860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>84720</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>182760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="50" name="Ink 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5280C6BF-D01F-4507-A080-8D3ACA596CA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="71332680" y="22159860"/>
+            <a:ext cx="75240" cy="311400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Ink 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5280C6BF-D01F-4507-A080-8D3ACA596CA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="71323680" y="22151220"/>
+              <a:ext cx="92880" cy="329040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>5160</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>582120</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>67500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF127BA3-A65F-4543-8737-B065E6A142C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="71328360" y="22068060"/>
+            <a:ext cx="3015360" cy="478440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF127BA3-A65F-4543-8737-B065E6A142C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="71319720" y="22059420"/>
+              <a:ext cx="3033000" cy="496080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>36240</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>174360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>44095</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>168770</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="65" name="Ink 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33CAA2A-CB26-439B-876D-5ADD5FE75D49}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="67092240" y="26272860"/>
+            <a:ext cx="1836655" cy="1327910"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="65" name="Ink 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33CAA2A-CB26-439B-876D-5ADD5FE75D49}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="67083600" y="26263817"/>
+              <a:ext cx="1854294" cy="1345635"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:44:17.859"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">159 507 540 0 0,'-5'0'7084'0'0,"3"4"-6866"0"0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-5 3 0 0 0,-7 11 466 0 0,6-3-346 0 0,0 1-1 0 0,-7 23 1 0 0,6-15-80 0 0,0 1 105 0 0,-7 33-1 0 0,-4 15 47 0 0,12-32-181 0 0,8-33-173 0 0,-1 0-1 0 0,0 0 1 0 0,-4 13 0 0 0,-10 46 161 0 0,14-27-80 0 0,2-25-83 0 0,-2-9-50 0 0,-1 8 251 0 0,2-12-101 0 0,3-7-38 0 0,31-57 14 0 0,-23 45-142 0 0,14-34 0 0 0,-11 16-1 0 0,-2 0 0 0 0,12-56 1 0 0,-4 9-9 0 0,-11 49 51 0 0,6-35-1 0 0,-5 31 49 0 0,-8 32 122 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-8 0 0 0,-8 31 448 0 0,2-2-421 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 19-1 0 0,-8 121 240 0 0,10 58-372 0 0,-5-367-424 0 0,-25-169 0 0 0,24 276 325 0 0,2-56 0 0 0,5 76 68 0 0,2-1 1 0 0,7-33-1 0 0,-9 48-17 0 0,1-8 40 0 0,1 20-7 0 0,1 13 40 0 0,-3-6-76 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 7 1 0 0,-1 14 95 0 0,8 50 722 0 0,-9 147 0 0 0,-3-75-405 0 0,4-108-397 0 0,-3 25 9 0 0,-5 16-17 0 0,-7 38-26 0 0,1-44-9 0 0,10-32-83 0 0,5-43 59 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3-13-221 0 0,-1 6 137 0 0,4-13-149 0 0,0 0 1 0 0,4-37 0 0 0,2-11-146 0 0,-8 46 163 0 0,2-40 0 0 0,-1 3-52 0 0,16-178-315 0 0,-18 192 562 0 0,3-171 54 0 0,-1 23 761 0 0,-5 149-117 0 0,-2 41-478 0 0,-1 9-55 0 0,-3 9 29 0 0,-9 74 926 0 0,-4 128-1 0 0,13-49-274 0 0,-3 38-32 0 0,-6-32-487 0 0,13-152-286 0 0,2-10-10 0 0,-2 1 0 0 0,-4 16-1 0 0,5-13-166 0 0,2-26-582 0 0,-2-19-144 0 0,2 0-1 0 0,8-48 1 0 0,-8 60 736 0 0,-1 16 144 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 0 0 0,6-14-94 0 0,-7 16 98 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,2-1-1 0 0,3-2 7 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,8-7 0 0 0,-5 5-5 0 0,164-142-123 0 0,-70 58 151 0 0,-3 12 62 0 0,-77 59-36 0 0,-11 10 3 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,15-24-1 0 0,-14 21 59 0 0,-11 13-78 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,-1 3 111 0 0,-2 1-132 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-2 3 1 0 0,-7 5-8 0 0,-70 48 18 0 0,34-22 17 0 0,-67 65 0 0 0,87-76-19 0 0,13-11-6 0 0,-1-1-3 0 0,0 1 0 0 0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-10 18 0 0 0,6-11-9 0 0,14-20 0 0 0,10-15 2 0 0,55-61-73 0 0,-16 18 29 0 0,148-214 70 0 0,-154 210 7 0 0,-7 15 18 0 0,-19 26 290 0 0,-17 24-321 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-4 2 1 0 0,-9 13 88 0 0,-81 117 168 0 0,55-81-260 0 0,-42 45 25 0 0,-2 3-14 0 0,10-10-107 0 0,49-62 19 0 0,18-22-13 0 0,0 1 0 0 0,1 0 0 0 0,-9 13 1 0 0,14-17-261 0 0,8-17 219 0 0,13-17 65 0 0,-11 21 38 0 0,6-4 12 0 0,-11 11 23 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,4 2 0 0 0,10 5 274 0 0,33 19 0 0 0,-24-12-146 0 0,38 24 249 0 0,-2 2-1 0 0,80 69 0 0 0,-106-81-297 0 0,-15-8 132 0 0,-17-19-93 0 0,-8-4 13 0 0,-11-4-81 0 0,-68-56-140 0 0,-107-57 0 0 0,178 111 67 0 0,-113-79-6 0 0,95 63-10 0 0,38 36 11 0 0,156 154 913 0 0,-162-164-902 0 0,194 178 938 0 0,-187-171-878 0 0,-6-5-35 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,6 2 0 0 0,-37-41 142 0 0,-79-66-241 0 0,34 34 39 0 0,-2-4 33 0 0,-5-15 65 0 0,80 84 9 0 0,6 5-44 0 0,8 9 44 0 0,21 27 304 0 0,53 43 0 0 0,-36-33-144 0 0,141 129 316 0 0,-156-145-233 0 0,-53-56-304 0 0,-41-29-101 0 0,-95-115 0 0 0,127 136 66 0 0,0-1 0 0 0,-20-38 0 0 0,41 59 2 0 0,13 19 35 0 0,16 24 54 0 0,65 88 182 0 0,-64-81-201 0 0,17 25-1278 0 0,-46-63 581 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-3-3-1 0 0,-1 1 222 0 0,-18-6-3117 0 0,-36-19 0 0 0,52 23 2516 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-8 0 0 0,0-1-723 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1252.07">95 222 104 0 0,'-1'-5'424'0'0,"1"1"0"0"0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-1-3 0 0 0,-4-17 1300 0 0,0 1-653 0 0,5 20-767 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-10 0 0 0,1 12-18 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-3-3 0 0 0,-6 29 2203 0 0,8-9-1858 0 0,1 0 1 0 0,0-1-1 0 0,3 28 1 0 0,0-2 179 0 0,33 374 2377 0 0,-20-47-2157 0 0,-15-320-1005 0 0,-3-23-1 0 0,1-20-29 0 0,2-18-55 0 0,7-116-1022 0 0,1 0 17 0 0,-3-201-325 0 0,5 16 1204 0 0,-9 282 228 0 0,0 21 66 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-5-15 1 0 0,7 26-86 0 0,-4-5 227 0 0,-2 14-138 0 0,-3 12 36 0 0,2 0 0 0 0,0 0 1 0 0,2 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 41 0 0 0,11 129 839 0 0,-2-137-810 0 0,6 43 132 0 0,2 46 52 0 0,-6 126-128 0 0,-6-257-306 0 0,-1-18-98 0 0,0-21-163 0 0,-13-371-2483 0 0,4 230 2591 0 0,7 93 218 0 0,-1-83 90 0 0,0 32 1472 0 0,2 237-203 0 0,1-30-430 0 0,8 83 0 0 0,7-16-36 0 0,8 66-253 0 0,-18-149-580 0 0,-3-48-69 0 0,0 0 0 0 0,7 34 0 0 0,1-5-610 0 0,-6-16-3313 0 0,-4-25 1972 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:47:06.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">221 43 336 0 0,'7'-16'4710'0'0,"-7"16"-4586"0"0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0 372 0 0,-1 1-372 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 24 3119 0 0,0-22-2977 0 0,0-1-219 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,8 6 849 0 0,4 2 292 0 0,-6-5-698 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,7 7 0 0 0,-12-11-484 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 2 1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-4 2 0 0 0,-98 47 54 0 0,87-46 427 0 0,15-4-164 0 0,9-1-137 0 0,-6 0-183 0 0,40-16 907 0 0,335-14 477 0 0,497 19-691 0 0,-818 11-688 0 0,305 8 18 0 0,349 1 8 0 0,-432-11 112 0 0,593 5-80 0 0,-65 0 28 0 0,-430-6 17 0 0,-42-6-70 0 0,-141 0-2 0 0,-145 7-65 0 0,64-12 0 0 0,5 0-14 0 0,499-1 161 0 0,-252-2-33 0 0,-195 6-48 0 0,37-5 13 0 0,124-3-116 0 0,-4 22 165 0 0,75-9 317 0 0,-374 9-387 0 0,-24-3-32 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 2 1 0 0,5 5 13 0 0,1-1 3 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 0 1 0 0,7 15-1 0 0,-2-2 76 0 0,-2 1 0 0 0,6 25 1 0 0,-11-39-70 0 0,2 6 59 0 0,-1 0 0 0 0,-1 1 0 0 0,1 21-1 0 0,-2-25-18 0 0,0 0-1 0 0,5 19 0 0 0,-4-19 19 0 0,0 1 0 0 0,1 21 0 0 0,7 48 270 0 0,0-6-22 0 0,-10-57-262 0 0,0-7-6 0 0,0 1 0 0 0,0-1 0 0 0,5 20 0 0 0,-4-18-7 0 0,1 0 0 0 0,-2 0 0 0 0,1 0-1 0 0,-3 17 1 0 0,0 5 86 0 0,7 185 644 0 0,-10-194-591 0 0,5-25-61 0 0,-25-1 323 0 0,12 3-433 0 0,-1 0 0 0 0,1-2 1 0 0,-26 1-1 0 0,-2 0-4 0 0,-115 7-17 0 0,-38 4-68 0 0,34 1 20 0 0,31-4 85 0 0,-32 2 41 0 0,-113 18-34 0 0,199-22-27 0 0,-371 46-64 0 0,-213 1-103 0 0,548-50 207 0 0,-223 14 56 0 0,264-14-103 0 0,-251 28-7 0 0,171-23-4 0 0,35-4-19 0 0,-285 1-85 0 0,246-8 38 0 0,-181-5 204 0 0,120-9-78 0 0,28 0-29 0 0,44 6-24 0 0,-143-9-32 0 0,157 12 8 0 0,-405-21-49 0 0,-83 18 228 0 0,587 9-158 0 0,-214 9-20 0 0,4 3-11 0 0,-44 2-88 0 0,268-13 106 0 0,-179 7-64 0 0,107-5 128 0 0,-90-10 0 0 0,154 5-45 0 0,4 1-3 0 0,-39-2 25 0 0,-67-13-1 0 0,87 10-21 0 0,30 5-6 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-10-7 0 0 0,-18-11-4 0 0,31 20 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-9-7 0 0 0,1-7 0 0 0,1-13 0 0 0,-6-25 0 0 0,17 54 0 0 0,-2-14 0 0 0,0 1 0 0 0,1-1 0 0 0,0-16 0 0 0,-8-67 0 0 0,10-75 0 0 0,5 90 0 0 0,0 12 0 0 0,0 12 0 0 0,5-30 0 0 0,0-1 0 0 0,-5 41 0 0 0,-4 41 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,4-10 0 0 0,-1 4 0 0 0,15-27 0 0 0,-19 40 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,5-2 0 0 0,31-10 0 0 0,22 0 0 0 0,0 4 0 0 0,86-3 0 0 0,125 11 0 0 0,-128 3 0 0 0,314-8 0 0 0,-34-3 0 0 0,-97 6 0 0 0,60-9 0 0 0,227 9 0 0 0,-38-12 0 0 0,-21 9 0 0 0,-432 6 0 0 0,392 9 0 0 0,92-9 0 0 0,-211-6 0 0 0,524 0 0 0 0,-717 6 0 0 0,100 0 0 0 0,-176 0 0 0 0,42 11 0 0 0,-86-4 0 0 0,72 9 0 0 0,-53-2 0 0 0,-71-10 0 0 0,0 1 0 0 0,-1 2 0 0 0,0 1 0 0 0,0 2 0 0 0,-1 0 0 0 0,37 20 0 0 0,-55-22 0 0 0,1-1 0 0 0,14 16 0 0 0,-6-7 0 0 0,-6-4 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,10 23 0 0 0,0 11 0 0 0,20 77 0 0 0,-19-42 0 0 0,10 93 0 0 0,-27-135 0 0 0,-1 51 0 0 0,-2-73 0 0 0,-10 52 0 0 0,10-68 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-4 2 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-13 2 0 0 0,-96 13 0 0 0,-59-2 0 0 0,-1 0 0 0 0,-17-1 0 0 0,-11 1 0 0 0,-31 4 0 0 0,-24-2 0 0 0,131-11 0 0 0,7-1 0 0 0,-180 18 0 0 0,1 11 0 0 0,191-23 0 0 0,-209 11 0 0 0,107-16 0 0 0,88-4 0 0 0,-278 1 0 0 0,299-4 0 0 0,-230-9 0 0 0,133 2 0 0 0,67 5 0 0 0,-147 2 0 0 0,-59-6 0 0 0,113-1 0 0 0,-49-11 0 0 0,2 0 0 0 0,-339-24 0 0 0,469 31 0 0 0,-33 0 0 0 0,-54-5 0 0 0,-496-4 0 0 0,512 22 0 0 0,-6 7 0 0 0,110-6 0 0 0,105-3 0 0 0,0 2 0 0 0,1-1-9 0 0,64 1-28811 0 0,-31-7 25530 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:48:26.117"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3613 50 176 0 0,'10'-9'27159'0'0,"-2"15"-24605"0"0,-16-9-1775 0 0,-5-1-516 0 0,9 2-127 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-7 0-1 0 0,8-1 84 0 0,-3-3 291 0 0,14 6-225 0 0,35 10-286 0 0,3 2 0 0 0,-28-8 0 0 0,-16-4 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,2 1 0 0 0,11 7 0 0 0,-14-10 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,27 21 0 0 0,-14-12 0 0 0,19 8 0 0 0,-31-19 0 0 0,-3-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-25 0 0 0,-1 19 0 0 0,1 3-2 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-7-4 0 0 0,7 4 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-4 5-1 0 0,3-2-3 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 7 0 0 0,1-8 3 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,3 3-1 0 0,-2-3 3 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,9 1 0 0 0,-13-1 2 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,2-3 0 0 0,-3 2 1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-2-2 0 0 0,2 2-3 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-4-2 0 0 0,3 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-6 1 1 0 0,-2 1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-17 11 1 0 0,21-12-2 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 11 0 0 0,6-14 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,15-5 0 0 0,-13 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,11-12 0 0 0,-14 15 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-9 0 0 0,-3 13 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3-5 0 0 0,3 7 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-31 8 0 0 0,17-3 0 0 0,1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-18 15 0 0 0,23-15 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-5 12 0 0 0,10-19 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 1 0 0 0,-3-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-5 0 0 0,-3 3 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-9 0 0 0,3 7 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-8-6 0 0 0,9 9 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5 1 0 0 0,4 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-6 10 0 0 0,8-8 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 7 0 0 0,0-4 0 0 0,0 0 0 0 0,-1 0 0 0 0,-3 11 0 0 0,-11 23 0 0 0,-2-1 0 0 0,-47 79 0 0 0,-264 349 0 0 0,277-401 0 0 0,33-45 0 0 0,-656 834 0 0 0,102-220 0 0 0,413-472 0 0 0,149-158-20 0 0,11-15-71 0 0,15-18-483 0 0,105-135-5953 0 0,-38 54 2056 0 0,236-308-11653 0 0,-229 300 12916 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.03">3768 248 1080 0 0,'-24'-17'5412'0'0,"22"16"-4865"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-8-10 9118 0 0,12 15-8339 0 0,1 6-483 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,3 18-1 0 0,4 16-126 0 0,50 178 1519 0 0,79 194-1600 0 0,25-9-262 0 0,-151-379-373 0 0,270 563 0 0 0,2 62 0 0 0,-271-602 0 0 0,-14-51-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-12-2164 0 0,-2-19-2829 0 0,-5-55-10442 0 0,2 28 8716 0 0,2 23 4256 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1877.57">107 3164 848 0 0,'63'-91'2508'0'0,"83"-158"1"0"0,-100 164 619 0 0,-43 81-2672 0 0,-1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-5-1 0 0,-2 9-366 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 144 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-11 7 629 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-16 22 1 0 0,5 0-41 0 0,-35 72-1 0 0,48-87-731 0 0,1 1 1 0 0,1 0-1 0 0,-7 32 0 0 0,12-43-70 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,5 17 0 0 0,-5-26-14 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,3 1-1 0 0,-2-1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,3-3-1 0 0,4-4 4 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,14-17 1 0 0,-8 4 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,11-33 1 0 0,-6 1 70 0 0,12-76 0 0 0,-21 97 16 0 0,-3 21 53 0 0,-1 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,-1-28 0 0 0,1 41-129 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-2 0-1 0 0,1 0 13 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-6 5 112 0 0,1-1-1 0 0,-13 15 0 0 0,18-19-87 0 0,-13 16 135 0 0,0 1 1 0 0,1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-13 28 1 0 0,-43 115 420 0 0,63-149-570 0 0,-10 29-12 0 0,2 1 0 0 0,-10 54 0 0 0,21-60-27 0 0,3-36 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1 3 0 0 0,-1-5 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,30-26 0 0 0,-2-6 0 0 0,-2-1 0 0 0,-1-1 0 0 0,-2-2 0 0 0,30-61 0 0 0,62-174 0 0 0,-79 179 0 0 0,-16 34 0 0 0,-12 33 0 0 0,1-1 0 0 0,27-48 0 0 0,-37 76 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2 0 0 0,2 4 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 11 0 0 0,7 28 0 0 0,11 92 0 0 0,-16-85 0 0 0,30 476 0 0 0,-30-313 0 0 0,7-45 0 0 0,-15-169 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-3-5 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,5-12 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-27 0 0 0,-2-3 0 0 0,-2 1 0 0 0,-9-45 0 0 0,9 73 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-11-20 0 0 0,12 28 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-6-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,-18 3 0 0 0,-15 3 0 0 0,-50 13 0 0 0,46-8 0 0 0,-99 25 0 0 0,76-16 0 0 0,48-11 0 0 0,47-11-389 0 0,1 0 0 0 0,0 2-1 0 0,43 2 1 0 0,-17 0-8833 0 0,-47-1 8471 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1-1 1 0 0,2-3-1750 0 0,-4 0 480 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2233.35">288 3062 1300 0 0,'3'-7'1574'0'0,"0"1"-1"0"0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-11 0 0 0,-2 18-1472 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-16 15 3424 0 0,-5 17-684 0 0,-36 59 482 0 0,18-16-2273 0 0,5 3 0 0 0,-30 96 0 0 0,17-8-212 0 0,44-138-701 0 0,4-29-136 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,10-13-141 0 0,1-10-672 0 0,11-31-1 0 0,-6 13-725 0 0,-2 6-284 0 0,-9 20 345 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,15-16 0 0 0,72-68-10293 0 0,-70 71 9267 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3537.6">1417 2933 844 0 0,'1'-2'253'0'0,"-1"1"0"0"0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,26-15 533 0 0,-8 3 34 0 0,23-21 7834 0 0,-38 29-9064 0 0,2-1 416 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,5-8 0 0 0,-8 10 19 0 0,-2 3 2 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 2 29 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,0 0 74 0 0,0-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,-2 0 1 0 0,-3 2 86 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-8 9 1 0 0,11-12-192 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 6 0 0 0,-1-7-12 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,6 0 0 0 0,-5 0 54 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-7 0 0 0,-3 3 212 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-12 0 0 0,-3 15-192 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-4 0 0 0,-1 1-12 0 0,1 1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-10-6 0 0 0,13 8-69 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 2 0 0 0,1 1-57 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,2 5 1 0 0,-1-4-271 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,8 6-1 0 0,-2-4-812 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,17 3-1 0 0,3-1-2922 0 0,57 1 1 0 0,-28-5 1130 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4910.34">4643 2786 1500 0 0,'-10'0'1777'0'0,"-3"-1"-83"0"0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-15 4-1 0 0,28-5-1682 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,11 2 323 0 0,14-1-50 0 0,49-6 58 0 0,-1-4-1 0 0,0-3 1 0 0,81-24 0 0 0,-150 32 1023 0 0,-11 1-647 0 0,-15 1-6 0 0,10 3-418 0 0,-80 12 1791 0 0,80-11-1931 0 0,1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,0 1 1 0 0,-18 9 0 0 0,28-14-154 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,2-1 0 0 0,1 1-3 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,4 0 1 0 0,-4-1-3 0 0,8-2-20 0 0,0 0 0 0 0,20-9 0 0 0,-29 11 26 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-3-1 0 0,-3 5 4 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,-26-2 26 0 0,-31 9 93 0 0,-7 9 222 0 0,60-11-301 0 0,11 0 7 0 0,13-1 1 0 0,13-7-26 0 0,0-1 0 0 0,49-15 0 0 0,-81 20-23 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-9-2 5 0 0,-14 0-3 0 0,-27 4 115 0 0,-54 10 1 0 0,26-2 297 0 0,7 2 342 0 0,62-8-582 0 0,19-1-100 0 0,18-1-35 0 0,386-26-18 0 0,-373 15 110 0 0,-41 9-129 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-9-2 135 0 0,-13 0 45 0 0,-382 16 3520 0 0,336-11-3501 0 0,56-3-158 0 0,8 0-30 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-3 2-1 0 0,8-2-9 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,3 0 1 0 0,516 1-164 0 0,-467-1 175 0 0,-372 21 483 0 0,317-21-502 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-2-17 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,24 5-1882 0 0,-10-3-400 0 0,-1 2 0 0 0,16 5 0 0 0,-27-8 1389 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,2 3 1 0 0,-2 3-1651 0 0,-2 3 545 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5242.75">4412 3536 1736 0 0,'-7'-8'15325'0'0,"6"8"-14686"0"0,0 0-243 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 396 0 0,1 0-396 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-430 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0-260 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 1 0 0 0,0-2-172 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 1-1393 0 0,-1-2 1393 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 1 0 0,3 3-2078 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5585.48">4798 3461 2128 0 0,'-28'-18'16299'0'0,"15"9"-5088"0"0,15 9-11317 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 2 0 0 0,5 10-5398 0 0,-5-4 202 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5926.87">5012 3488 1676 0 0,'5'-1'995'0'0,"6"-1"3863"0"0,0-1 0 0 0,18-6 1 0 0,4 0 4459 0 0,-34 25-12631 0 0,-2-9 1417 0 0,0 2-1449 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-9 13 0 0 0,-1-4-297 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:45:44.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">498 148 764 0 0,'3'-17'1848'0'0,"-1"1"1833"0"0,-21 38-1607 0 0,-172 325-275 0 0,96-128-1686 0 0,92-211-106 0 0,2-5 11 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 5-1 0 0,30-66 302 0 0,9-43-242 0 0,-25 63-70 0 0,6-17 14 0 0,13-67-1 0 0,4-30-11 0 0,-13 63 0 0 0,1 20 173 0 0,-21 57 85 0 0,-8 19 78 0 0,-8 20 76 0 0,-131 322 809 0 0,129-314-1213 0 0,-120 299 178 0 0,113-284-160 0 0,16-38-17 0 0,0 1 1 0 0,1 0-1 0 0,-5 16 0 0 0,1-8 59 0 0,7-19 13 0 0,7-12-41 0 0,52-115-110 0 0,-44 93 54 0 0,93-267 4 0 0,-61 172 13 0 0,-11 32 5 0 0,-17 41-19 0 0,-10 27 24 0 0,2 1 1 0 0,22-50 0 0 0,-49 139 299 0 0,-107 336 100 0 0,97-280-297 0 0,6-25 0 0 0,-2-2-54 0 0,13-40-34 0 0,11-45 12 0 0,5-15-5 0 0,60-197-124 0 0,0-3 1 0 0,-23 81 61 0 0,-20 62 19 0 0,-8 24-9 0 0,3 0 0 0 0,22-42 0 0 0,-33 71 8 0 0,0 0 18 0 0,-7 22 27 0 0,-47 139 106 0 0,30-98-136 0 0,-147 479 179 0 0,121-374-149 0 0,42-147-21 0 0,7-15-27 0 0,5-15-13 0 0,70-183-297 0 0,33-107-63 0 0,-86 227 370 0 0,14-42 46 0 0,-28 80-28 0 0,-12 37-9 0 0,2-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,6-13 1 0 0,-9 22-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 12 35 0 0,-5 13 24 0 0,-50 168 105 0 0,-44 116 31 0 0,67-204-91 0 0,14-47-48 0 0,-13 61 0 0 0,32-114-54 0 0,-3 12 8 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-10 20 0 0 0,13-26 23 0 0,1-7-6 0 0,0-4 34 0 0,1-10-69 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,7-21-1 0 0,3-10-35 0 0,67-251-543 0 0,-46 165 461 0 0,77-194-1 0 0,-57 193 124 0 0,-51 122 10 0 0,-2 5 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 63 372 0 0,-1 21-224 0 0,4 0 0 0 0,16 99 0 0 0,-8-117-136 0 0,32 141 211 0 0,-30-150-132 0 0,7 24 47 0 0,33 71 449 0 0,-52-135-363 0 0,-2-10-207 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,0-25 908 0 0,-4-30-882 0 0,-3 0 0 0 0,-3 1 0 0 0,-24-89 0 0 0,8 40-14 0 0,-10-29-8 0 0,-9-48 4 0 0,20 84-41 0 0,18 57 18 0 0,12 51-32 0 0,33 162 64 0 0,-6-6 136 0 0,-1-10 44 0 0,-1-8 99 0 0,-18-97-226 0 0,-7-34 86 0 0,-7-28 459 0 0,-17-127-467 0 0,1 11-149 0 0,0 31 3 0 0,-46-222 31 0 0,56 278-62 0 0,4 20 4 0 0,-1 1 1 0 0,-6-18-1 0 0,3-1-17 0 0,6 29-8 0 0,5 23 13 0 0,6 34-4 0 0,-2-11 8 0 0,4 43 1 0 0,-9-54 0 0 0,12 44 1 0 0,-3-16 10 0 0,26 101 47 0 0,-11-56 0 0 0,-14-50 62 0 0,27 72 0 0 0,-36-113-95 0 0,-2-6 566 0 0,-2-16-197 0 0,-1-12-321 0 0,-2-1 1 0 0,-7-30 0 0 0,1 3-35 0 0,0-3-13 0 0,-2 1 0 0 0,-20-58-1 0 0,-5-26-1 0 0,25 104-8 0 0,-9-49-1 0 0,11 34-14 0 0,6 40-10 0 0,7 34 2 0 0,20 116 103 0 0,26 117 128 0 0,-9-108 81 0 0,3 27 162 0 0,-23-94-223 0 0,-17-69-194 0 0,1 12 668 0 0,-6-53-302 0 0,0 26-411 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-3-1 0 0,-1-2-7 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5-10 0 0 0,-4-10-10 0 0,7 7 6 0 0,-5-10-8 0 0,-3-12-10 0 0,11 39 26 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0-3 0 0 0,0 2 0 0 0,-1 3 5 0 0,-2-1-4 0 0,2 2 8 0 0,-19-6 1316 0 0,-5 6-1282 0 0,6-1-28 0 0,0 1 0 0 0,0 1 0 0 0,-20 4 1 0 0,-190 35 116 0 0,149-23-117 0 0,192-25-90 0 0,131-37 13 0 0,-222 40 74 0 0,-12 2-1 0 0,1 1 1 0 0,0 0-1 0 0,16-1 1 0 0,-25 3 162 0 0,-28 3-105 0 0,8 1-52 0 0,-38 5 0 0 0,4-2 16 0 0,-18 4 16 0 0,46-9-17 0 0,-50 13 1 0 0,65-11-23 0 0,2-1-7 0 0,6-4-34 0 0,5-1 30 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 0-1 0 0,4-1-4 0 0,99-18-55 0 0,-67 14 59 0 0,55-16-1 0 0,-92 20 9 0 0,-3 0-2 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 1 0 0,-9 0 93 0 0,-35 5 93 0 0,-217 16-43 0 0,149-17-130 0 0,100-4-17 0 0,146-12-130 0 0,-105 9 119 0 0,-1-1 0 0 0,59-14-1 0 0,-67 12 41 0 0,-23 4 32 0 0,-17 2-22 0 0,-19 2-18 0 0,28-2-21 0 0,-290 36 157 0 0,263-31-148 0 0,-28 3 6 0 0,55-8-17 0 0,26-3-152 0 0,57-1 82 0 0,134-23-1 0 0,-149 16 100 0 0,-33 8-9 0 0,-33 3 27 0 0,-37 3-16 0 0,-172 30-116 0 0,173-27-928 0 0,-62 20 1 0 0,83-22 329 0 0,-13 3-1743 0 0,10-5-2080 0 0,16-2 3906 0 0,2-13-880 0 0,-1 12 1500 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6-5 364 0 0,-12-7 116 0 0,13 11 3501 0 0,3 26-1931 0 0,3-18-1889 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 5 1 0 0,-1 18 270 0 0,-9 17-5 0 0,-1 0 0 0 0,-24 59 0 0 0,21-62-310 0 0,10-28-76 0 0,4-15-50 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,11-23 178 0 0,-8 17-186 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-8 0 0 0,8-25-25 0 0,7-23-20 0 0,-2 5 11 0 0,-9 35 22 0 0,-5 16 10 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,6-9 0 0 0,-19 40 206 0 0,-14 34 32 0 0,16-35-156 0 0,-2-1 1 0 0,-15 27-1 0 0,-12 29 42 0 0,23-52-100 0 0,12-25-20 0 0,0 1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 4 0 0 0,-2-1 13 0 0,4-6-14 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,2 0 31 0 0,15-22 51 0 0,2-1-97 0 0,-2 0 0 0 0,23-41 0 0 0,-22 31-4 0 0,23-48-10 0 0,-35 74 28 0 0,-1-4 18 0 0,-4 11 65 0 0,-10 18 19 0 0,2-1-61 0 0,0 0 1 0 0,-7 28-1 0 0,-4 8 8 0 0,16-46-33 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 11 0 0 0,13-40 87 0 0,-7 11-107 0 0,0 0 1 0 0,1 0-1 0 0,1 0 0 0 0,9-14 0 0 0,-11 19 3 0 0,-3 3 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-5 0 0 0,0 7 64 0 0,-15 27 178 0 0,-26 54-10 0 0,35-70-235 0 0,3-5 61 0 0,7-6 222 0 0,-2-1-270 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1-2 1 0 0,0 2-3 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-3 0 0 0,-2 3-5 0 0,-1-1 1 0 0,-19 25 279 0 0,16-21-262 0 0,5-1 3 0 0,4-3 0 0 0,9-10 184 0 0,-9 2-1748 0 0,-7 2-4406 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2127.86">379 169 264 0 0,'0'0'81'0'0,"-1"-1"0"0"0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,2-3 2362 0 0,13-2 459 0 0,8-24-920 0 0,-17 22-1679 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-16 0 0 0,-5 11 172 0 0,-8 13-352 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,-20 36 246 0 0,2-1-155 0 0,14-27-148 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 7 1 0 0,2-9-9 0 0,-2 4 620 0 0,3-9-669 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,8-18 834 0 0,45-71-576 0 0,-46 73-171 0 0,-6 13-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2-3 0 0 0,-3 6 49 0 0,-11 6 383 0 0,-95 132 396 0 0,96-125-789 0 0,8-13-125 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 245 0 0,1-4-176 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,5-4 0 0 0,1-5-37 0 0,1-4 6 0 0,13-32-1 0 0,-18 37-18 0 0,-2 8 0 0 0,-2 2-18 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 36 0 0,1 1-38 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,-10 13 41 0 0,11-12-41 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-4 2-1 0 0,5-4 21 0 0,26-31 961 0 0,-1-18-862 0 0,-21 41 82 0 0,-8 10-57 0 0,-7 9-62 0 0,-61 87 9 0 0,60-77-21 0 0,12-19 110 0 0,8-13-41 0 0,32-43-116 0 0,-30 36-35 0 0,-8 15 6 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0-1 0 0 0,-1 3 3 0 0,-1-1 0 0 0,0-1 0 0 0,-5 29 0 0 0,7-10 18 0 0,-2-17-19 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,16-19 139 0 0,-15 16-162 0 0,9-13 28 0 0,-7 11-7 0 0,-1 0-1 0 0,2 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,7-6-1 0 0,-6 2-6 0 0,-4 8 6 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1-3 0 0,-3 1 3 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 7-3 0 0,7 4 3 0 0,-7-11 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 3-61 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,3 9-1 0 0,-2-9-521 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 7 1 0 0,-3 10-4881 0 0,-1 1 0 0 0,-16 41 1 0 0,7-39 2632 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3313.11">750 835 696 0 0,'-4'5'11638'0'0,"3"8"-7691"0"0,1 18-4764 0 0,0-23 2422 0 0,0 27 2028 0 0,0-34-3624 0 0,-5 9-2442 0 0,-25 18-11538 0 0,20-21 11144 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:45:54.999"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">521 214 1724 0 0,'-23'-51'20062'0'0,"23"52"-19905"0"0,17 6 2160 0 0,14 13-1309 0 0,116 116 850 0 0,-29-24-1483 0 0,205 151-791 0 0,-203-178-2768 0 0,-65-47-2667 0 0,-54-37 5408 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.36">1316 103 740 0 0,'-4'-10'1459'0'0,"1"1"0"0"0,-1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-14-14 0 0 0,18 20-1248 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-2 4-1 0 0,-59 50 2929 0 0,-71 81 1 0 0,-43 72-2275 0 0,-40 43-2058 0 0,29-59-2831 0 0,-7-7-5080 0 0,54-48 1042 0 0,76-75 4836 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:05.940"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">275 8 332 0 0,'-15'-7'16497'0'0,"5"12"-15566"0"0,-44 35 7451 0 0,53-39-8315 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,1 2 76 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,7 8 0 0 0,29 27 1025 0 0,75 57 1 0 0,31 18-462 0 0,-60-54-404 0 0,-35-22-196 0 0,-25-18-21 0 0,30 18 0 0 0,-35-24-86 0 0,22 18 0 0 0,-29-21 0 0 0,7 7 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,15 22 0 0 0,-25-30 0 0 0,5 7 0 0 0,-4-11 0 0 0,0 1 0 0 0,14 20 0 0 0,10 10 0 0 0,5 7 0 0 0,-16-18 0 0 0,33 46 0 0 0,0-12 0 0 0,70 57 0 0 0,-114-109 0 0 0,83 77 0 0 0,-23-25 0 0 0,-51-44 0 0 0,2-2 0 0 0,27 18 0 0 0,-28-22 0 0 0,-7-6 0 0 0,-1 1 0 0 0,23 18 0 0 0,19 7 0 0 0,-48-27 0 0 0,1 0 0 0 0,0-1 0 0 0,11 6 0 0 0,19 13 0 0 0,-26-11 0 0 0,11 7 0 0 0,-10-6 0 0 0,3 8 0 0 0,-14-20 0 0 0,-38-21 0 0 0,-1 2 0 0 0,-47-16 0 0 0,4 1 0 0 0,-23-9 0 0 0,45 19 0 0 0,-105-56 0 0 0,140 65 0 0 0,-29-10 0 0 0,28 13 0 0 0,-27-16 0 0 0,19 7 0 0 0,-48-31 0 0 0,70 42 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-10-15 0 0 0,-37-43 0 0 0,42 50 0 0 0,0 0 0 0 0,-1 1 0 0 0,-17-14 0 0 0,0 1 0 0 0,-51-48 0 0 0,45 39 0 0 0,-44-49 0 0 0,17 18 0 0 0,38 39 0 0 0,21 23 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-14-9 0 0 0,2 3 0 0 0,-26-23 0 0 0,7 5 0 0 0,10 8 0 0 0,1-2 0 0 0,-24-28 0 0 0,-22-21 0 0 0,56 59 0 0 0,-1 0 0 0 0,-31-19 0 0 0,15 4 0 0 0,31 23 0 0 0,-3 2 0 0 0,5 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-1 0 0 0,14 7 0 0 0,0 0 0 0 0,28 18 0 0 0,78 60 0 0 0,-35-23 0 0 0,14 9 0 0 0,56 35 0 0 0,-139-95 0 0 0,11 8 0 0 0,1-2 0 0 0,53 22 0 0 0,-47-24 0 0 0,-37-15 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 8 0 0 0,-8-10 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-20-12 0 0 0,24 17 0 0 0,-61-44 0 0 0,-274-185 0 0 0,268 186 0 0 0,2-3 0 0 0,-85-79 0 0 0,101 67 0 0 0,66 65 0 0 0,8 6 0 0 0,85 74 0 0 0,144 147 0 0 0,-27-21 0 0 0,-200-191 0 0 0,-7-7 0 0 0,-1 1 0 0 0,15 16 0 0 0,-22-22 0 0 0,-12-15 0 0 0,-16-19 0 0 0,3 11 0 0 0,-145-124 0 0 0,131 117 0 0 0,0 1 0 0 0,-1 1 0 0 0,-51-23 0 0 0,43 27 0 0 0,-46-14 0 0 0,87 32 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,4 12 0 0 0,20 20 0 0 0,-20-30 0 0 0,23 28 0 0 0,1-2 0 0 0,37 31 0 0 0,-10-11 0 0 0,269 225 0 0 0,22-27 0 0 0,-135-103 0 0 0,96 65 0 0 0,-284-193 0 0 0,-10-7 0 0 0,0-1 0 0 0,26 13 0 0 0,-38-21 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3-9 0 0 0,-8-10 0 0 0,-9-4 0 0 0,-1 2 0 0 0,0 0 0 0 0,-33-24 0 0 0,-153-127 0 0 0,-185-139 0 0 0,376 300 0 0 0,-30-22 0 0 0,-76-40 0 0 0,41 25 0 0 0,172 124 0 0 0,-61-50 0 0 0,483 384 0 0 0,-404-327 0 0 0,103 69 0 0 0,-212-152 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-10 0 0 0,-11-14 0 0 0,-237-212 0 0 0,204 193 0 0 0,-92-72 0 0 0,-283-174 0 0 0,397 270 0 0 0,21 14 0 0 0,0 0 0 0 0,0 0 0 0 0,-15-6 0 0 0,46 42 0 0 0,20 24 0 0 0,38 42 0 0 0,5-7 0 0 0,180 143 0 0 0,-221-197 0 0 0,331 276 0 0 0,-364-300-49 0 0,5 4-693 0 0,-1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,20 31 1 0 0,-35-48 233 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-2 2-1 0 0,-1 1-1248 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-8 6-1 0 0,3-2 777 0 0,-16 14-2471 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2159.13">1571 1646 532 0 0,'-6'-1'519'0'0,"1"0"-1"0"0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-8 3-1 0 0,6-1-196 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-7 9 1 0 0,1 0-11 0 0,1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,2 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-3 21-1 0 0,7-27-262 0 0,1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,2 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,15 4 1 0 0,-11-5-31 0 0,0-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-2 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 0 0 0 0,26-13-1 0 0,-31 13 105 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,3-20 0 0 0,-4 14 13 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-2 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-15-21 0 0 0,18 31-61 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,-6-1-1 0 0,3 1-22 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-11 8 0 0 0,-10 9-282 0 0,2 0 0 0 0,0 2 1 0 0,2 1-1 0 0,0 2 0 0 0,2 0 0 0 0,-36 50 1 0 0,30-31-2300 0 0,1 2 0 0 0,2 1 0 0 0,-34 86 0 0 0,13 8-3683 0 0,45-131 5820 0 0,-22 70-2251 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:22.492"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1745 354 104 0 0,'-9'-1'2128'0'0,"-1"-2"-1"0"0,1 1 1 0 0,0-1-1 0 0,-17-9 1 0 0,25 12-2045 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,13-5 1900 0 0,21 3-61 0 0,-33 2-1758 0 0,166-8 6014 0 0,81-22-4190 0 0,-84 9-1235 0 0,-25 7-124 0 0,0 6-1 0 0,0 7 1 0 0,216 24 0 0 0,184 19 36 0 0,1-29-236 0 0,-469-12-375 0 0,1719-8 1031 0 0,-1520 3-1033 0 0,776-3 150 0 0,574-31-106 0 0,-701 13 0 0 0,-43-16 47 0 0,-718 32-109 0 0,2011-77 165 0 0,-1453 64-264 0 0,261 3 115 0 0,-358 10-73 0 0,638-6 44 0 0,-626 10-17 0 0,993 11-4 0 0,-1358 5 0 0 0,-252-12-231 0 0,-24-3-302 0 0,-25-3-480 0 0,-326-12-1476 0 0,189 14 1737 0 0,-136-3-3436 0 0,-1 10-3718 0 0,-71 5-2905 0 0,232-5 7767 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1041.43">2949 903 784 0 0,'-130'25'1982'0'0,"49"-11"-155"0"0,-141 43-1 0 0,215-55-1698 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,-12 8 1 0 0,18-11-94 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 9 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,2 1-1 0 0,9 6 247 0 0,1-1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,31 4 0 0 0,-16-2 91 0 0,101 14 249 0 0,1-5 1 0 0,214-7 0 0 0,268-48 483 0 0,-523 33-865 0 0,756-67 89 0 0,1000-83 3443 0 0,145 49-922 0 0,-1701 103-2838 0 0,-277 8-46 0 0,-24 1-2 0 0,-25 2-5 0 0,-500 46 94 0 0,301-31-155 0 0,-1633 125-740 0 0,1409-113 888 0 0,-702 56 289 0 0,-1306 85 426 0 0,1461-122-654 0 0,466-24-143 0 0,-46-12 392 0 0,572-14-347 0 0,8-1-10 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-4-1 1 0 0,9 2-8 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,13-7-6 0 0,21-4 46 0 0,2 1 0 0 0,70-10 0 0 0,-62 13 42 0 0,1018-130 3066 0 0,-805 109-2842 0 0,3697-325 585 0 0,-1975 253-612 0 0,2 89-4056 0 0,-1561 24-1996 0 0,-4 10-4638 0 0,-297-12 7126 0 0,-15 1 500 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:24.548"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">124 636 1224 0 0,'112'-45'6075'0'0,"2"8"-4221"0"0,120-25-1395 0 0,-212 57-147 0 0,717-133 1915 0 0,12 57-307 0 0,601-14-1065 0 0,-1226 88-790 0 0,953-40 1179 0 0,-619 30-921 0 0,-35 2-224 0 0,-406 13-19 0 0,-34 1 77 0 0,-41 2 36 0 0,-610 3 629 0 0,-12 1-761 0 0,-241 27 253 0 0,-524 14 936 0 0,597-22-657 0 0,4 23 797 0 0,819-46-1336 0 0,16-2-33 0 0,1 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-11 4-1 0 0,17-5-18 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,113 8 207 0 0,175-11 0 0 0,-160-2 25 0 0,908-48 635 0 0,2-36-7108 0 0,-242-3-7062 0 0,-793 92 13234 0 0,196-27-2626 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:25.271"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 1072 1984 0 0,'-1'2'622'0'0,"1"0"0"0"0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-2 3-1 0 0,-5 5 2044 0 0,29-35 4309 0 0,60-69-4358 0 0,-21 26-2426 0 0,-2-3 1 0 0,-4-2-1 0 0,-2-2 1 0 0,63-132-1 0 0,-6 1 796 0 0,-82 151 176 0 0,-25 54-949 0 0,-5 18 400 0 0,-8 47 212 0 0,-3 76-1 0 0,-18 363 935 0 0,18-289-1755 0 0,11-134-12 0 0,8 93 1 0 0,-4-161-137 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,5 16 0 0 0,-7-26 40 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,5-4-1428 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,6-8 1 0 0,42-56-10271 0 0,-54 69 11428 0 0,17-24-2601 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="852.79">1705 148 228 0 0,'1'-4'585'0'0,"0"0"0"0"0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-6 0 0 0,2 8-322 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-5 0 0 0 0,-7 0 484 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 2 0 0 0,1 0 1 0 0,-24 6-1 0 0,11 0 520 0 0,0 1 1 0 0,-39 20-1 0 0,44-18-943 0 0,1 2 0 0 0,0 0 1 0 0,1 2-1 0 0,1 0 0 0 0,0 1 0 0 0,1 1 1 0 0,1 0-1 0 0,0 2 0 0 0,1 0 1 0 0,-13 23-1 0 0,8-9-76 0 0,2 1 1 0 0,1 1-1 0 0,2 0 1 0 0,1 2-1 0 0,-16 62 0 0 0,26-77-219 0 0,1 1 0 0 0,0-1 0 0 0,2 1-1 0 0,1 0 1 0 0,0-1 0 0 0,2 1 0 0 0,0 0-1 0 0,2-1 1 0 0,0 1 0 0 0,2-1 0 0 0,0 0-1 0 0,13 32 1 0 0,-15-46-34 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-2 1 0 0,12 12-1 0 0,-15-15-50 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,6-1 0 0 0,8-4-738 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,17-27 1 0 0,2-14-2055 0 0,-3-1 0 0 0,-2-1-1 0 0,26-89 1 0 0,-41 115 2029 0 0,38-116-936 0 0,-4-1 4644 0 0,-40 129-1200 0 0,0 0 0 0 0,-1 0 0 0 0,2-40 0 0 0,-6 60-1632 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-15 13 2658 0 0,9 0-1716 0 0,0 1 0 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 20 0 0 0,3-33-933 0 0,-5 70 997 0 0,4-1 1 0 0,6 85-1 0 0,-2-123-850 0 0,16 137 547 0 0,-10-109-570 0 0,33 136 221 0 0,-7-46-128 0 0,-21-78-118 0 0,1-4 136 0 0,-4 0 0 0 0,3 89 1 0 0,-13-135-197 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-11 39 1 0 0,10-52-72 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-12 8 0 0 0,0-3 4 0 0,0-1 1 0 0,-1 0-1 0 0,0-2 0 0 0,0 0 0 0 0,-40 9 1 0 0,-111 10-88 0 0,116-19-63 0 0,-103 6-1376 0 0,28-2-3298 0 0,4 10-8304 0 0,115-20 10996 0 0,0 2-1 0 0,0-1 1 0 0,-12 7 0 0 0,-2 4-1071 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:52.279"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 17 572 0 0,'-5'-6'14863'0'0,"9"5"-11864"0"0,13-1-1533 0 0,-7 2-934 0 0,39-1 1408 0 0,71 10 0 0 0,-57-5-946 0 0,-46-4-810 0 0,0 1 0 0 0,20 3 0 0 0,-20 0 52 0 0,-1-2 0 0 0,24 2 0 0 0,333-1 560 0 0,-285-2-766 0 0,119-5 125 0 0,-115-2-79 0 0,-40 1-55 0 0,84 3 1 0 0,-80 3 10 0 0,493 5 150 0 0,-340-9-169 0 0,-50-3-29 0 0,-76 2-2 0 0,90 7 1 0 0,-134-1 3 0 0,40-4 1 0 0,-11 0-15 0 0,311-10-12 0 0,-77 7 139 0 0,-178 7-64 0 0,257 1-17 0 0,-136 7-78 0 0,-155-5 32 0 0,863 26 82 0 0,-332-14-86 0 0,-51-7-37 0 0,-225-6 147 0 0,668 3-153 0 0,-402-19 123 0 0,-327 4 18 0 0,-2 1-44 0 0,-197 1-14 0 0,-20-3 0 0 0,-29-3 8 0 0,-14 6-24 0 0,-19 5 7 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,4 1-1 0 0,250-5-74 0 0,152 3-12 0 0,120 17 245 0 0,133-8-193 0 0,-479-7-10 0 0,137-12-70 0 0,245 9 278 0 0,-441 4-143 0 0,177-5-39 0 0,-100 0-8 0 0,23-1-46 0 0,-43 5 5 0 0,-78 3 53 0 0,270 13 155 0 0,-176-5-117 0 0,504 21-95 0 0,-444-25-33 0 0,166 7 142 0 0,-29-12 51 0 0,-204-3-84 0 0,-154 1 4 0 0,169-6-40 0 0,65 1-9 0 0,-160 7-6 0 0,-42 0 26 0 0,-38 0 11 0 0,51-3 1 0 0,-22-4-10 0 0,97-14 65 0 0,-125 14-21 0 0,38-1 1 0 0,11-1-12 0 0,-57 5-14 0 0,-1 1 0 0 0,29 2 0 0 0,-7 1 12 0 0,29 1 387 0 0,-25 0-4567 0 0,-62 1-6595 0 0,2 0 7078 0 0,-9-3-296 0 0,-8-1 520 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:58.833"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">209 157 60 0 0,'-2'-2'130'0'0,"1"1"0"0"0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0-3 0 0 0,-11-25 1209 0 0,10 28-1231 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-3 1 0 0,-1 3 4 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,-27-22 4768 0 0,28 24-4747 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-9 19 1570 0 0,0 31-932 0 0,8-43-149 0 0,-6 64 1093 0 0,4 96 0 0 0,4-109-1389 0 0,9 82 384 0 0,-5-94-53 0 0,-5-46-646 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-66 198 0 0,6-156-194 0 0,-4 171-26 0 0,-1 33 4 0 0,1 0 0 0 0,3-20 0 0 0,0 11 20 0 0,2-54-1 0 0,4 30 466 0 0,-20 95 112 0 0,5 52 107 0 0,-5 109 156 0 0,10 195-182 0 0,-1-416-648 0 0,-6-31 1 0 0,4 32-26 0 0,-1-33 1 0 0,-6-363-80 0 0,5 381 47 0 0,-4 53 14 0 0,3 25 72 0 0,3 0 0 0 0,2 0 0 0 0,9 87 0 0 0,-6-120-37 0 0,8 85 62 0 0,4 63 84 0 0,-14-161-138 0 0,0-23 56 0 0,-10-127-79 0 0,10 103-4 0 0,1 11 3 0 0,-6-64 0 0 0,4 51-42 0 0,-14 81-34 0 0,10-13 65 0 0,1 1 1 0 0,-2 34-1 0 0,-1 2 15 0 0,-17 139 18 0 0,19-153-17 0 0,1-18-4 0 0,-1 14 7 0 0,0-7 60 0 0,5-31-41 0 0,5-17 32 0 0,-4 0-62 0 0,1 0-1 0 0,1 0 0 0 0,9-30 1 0 0,1-4-51 0 0,-10 32 30 0 0,37-221-246 0 0,-34 155 170 0 0,-31 145 32 0 0,-19 81-218 0 0,42-135 557 0 0,-3 7-3083 0 0,4-14 2669 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-2-5-637 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-8 0 0 0,6-52-3852 0 0,-6 62 4311 0 0,2-16-1105 0 0,14-80-4326 0 0,-7 56 3859 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,11 +2700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5145FF9-7B28-45D3-AEB3-2B0CC8A016D3}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,8 +2712,8 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="15"/>
     <col min="3" max="3" width="6" style="16"/>
-    <col min="4" max="4" width="6" style="15"/>
-    <col min="5" max="5" width="6" style="32"/>
+    <col min="4" max="4" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="6" style="16"/>
     <col min="8" max="8" width="6" style="15"/>
@@ -1558,10 +2760,10 @@
       <c r="H1" s="36">
         <v>7</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="43">
         <v>8</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="36">
         <v>9</v>
       </c>
@@ -1627,7 +2829,7 @@
       <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="35" t="s">
@@ -1701,10 +2903,10 @@
       <c r="A3" s="37">
         <v>45176</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <v>9889</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>15787</v>
       </c>
       <c r="D3" s="20"/>
@@ -1734,7 +2936,9 @@
     </row>
     <row r="4" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
+      <c r="C4" s="40">
+        <v>15970</v>
+      </c>
       <c r="D4" s="20"/>
       <c r="E4" s="32"/>
       <c r="F4" s="20"/>
@@ -1761,10 +2965,19 @@
       <c r="AA4" s="25"/>
     </row>
     <row r="5" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>45183</v>
+      </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="39">
+        <v>48423</v>
+      </c>
+      <c r="D5" s="41">
+        <v>40978</v>
+      </c>
+      <c r="E5" s="40">
+        <v>29112</v>
+      </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="20"/>
@@ -1792,7 +3005,9 @@
       <c r="B6" s="20"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="42">
+        <v>33176</v>
+      </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="20"/>
@@ -1817,11 +3032,16 @@
       <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>45190</v>
+      </c>
       <c r="B7" s="20"/>
       <c r="C7" s="18"/>
       <c r="D7" s="20"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="41">
+        <v>33750</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
@@ -1849,7 +3069,9 @@
       <c r="C8" s="18"/>
       <c r="D8" s="20"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="20">
+        <v>59828</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
       <c r="I8" s="21"/>
@@ -2361,4 +3583,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A0098B-1913-4B5D-954A-7F83D92431EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="CQ116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CX134" sqref="CX134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ЕГЭ Илья Казанцев.xlsx
+++ b/ЕГЭ Илья Казанцев.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DFAFB0-530E-4D2F-BDD6-80FDF6E9BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39283141-5674-4A51-AC55-FE502AF047F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="F9" authorId="0" shapeId="0" xr:uid="{095F4286-0A80-4477-8BD7-0FA57DE7B72D}">
@@ -48,7 +48,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -275,15 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFC715"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -305,6 +296,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFEAB200"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -411,9 +411,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -453,17 +453,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +491,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,16 +501,17 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="C ошибками" xfId="5" xr:uid="{922DC132-B90D-4AF8-93ED-4C06A4E3F9D5}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="В планах" xfId="4" xr:uid="{D63E453C-D689-4D2C-9687-DD16B0AA9344}"/>
     <cellStyle name="Изучено" xfId="1" xr:uid="{F9EA2905-B505-4DF2-B757-3CFB6B937701}"/>
     <cellStyle name="Неправильно" xfId="2" xr:uid="{FAA8A681-B47A-43BF-8131-35BA9E398EBB}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Правильно" xfId="3" xr:uid="{3EDBD2DB-A7B3-4CBB-89DD-9F5A20D9123F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEAB200"/>
       <color rgb="FF75ABDD"/>
       <color rgb="FFC03A3A"/>
       <color rgb="FFEFFFFA"/>
@@ -540,7 +542,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>589227</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -582,9 +584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>425161</xdr:colOff>
+      <xdr:colOff>428336</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>145699</xdr:rowOff>
+      <xdr:rowOff>148874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -628,7 +630,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>118080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>27540</xdr:rowOff>
+      <xdr:rowOff>30715</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -693,7 +695,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>459240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180775</xdr:rowOff>
+      <xdr:rowOff>183950</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -758,7 +760,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>419160</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>27060</xdr:rowOff>
+      <xdr:rowOff>30235</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -821,7 +823,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>464520</xdr:colOff>
+      <xdr:colOff>467695</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114720</xdr:rowOff>
     </xdr:to>
@@ -888,7 +890,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>150055</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>68575</xdr:rowOff>
+      <xdr:rowOff>71750</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -951,9 +953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>273055</xdr:colOff>
+      <xdr:colOff>276230</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28195</xdr:rowOff>
+      <xdr:rowOff>31370</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1146,9 +1148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352615</xdr:colOff>
+      <xdr:colOff>355790</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>90055</xdr:rowOff>
+      <xdr:rowOff>93230</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1276,9 +1278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>312830</xdr:colOff>
+      <xdr:colOff>316005</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>88910</xdr:rowOff>
+      <xdr:rowOff>92085</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1341,7 +1343,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>392575</xdr:colOff>
+      <xdr:colOff>395750</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>37195</xdr:rowOff>
     </xdr:to>
@@ -1406,9 +1408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>5280</xdr:colOff>
+      <xdr:colOff>8455</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>120540</xdr:rowOff>
+      <xdr:rowOff>123715</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1536,7 +1538,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>449695</xdr:colOff>
+      <xdr:colOff>452870</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>131460</xdr:rowOff>
     </xdr:to>
@@ -1603,7 +1605,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>414415</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>107635</xdr:rowOff>
+      <xdr:rowOff>110810</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1668,7 +1670,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>575520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>145495</xdr:rowOff>
+      <xdr:rowOff>148670</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1798,7 +1800,7 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>304920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>81840</xdr:rowOff>
+      <xdr:rowOff>85015</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1863,7 +1865,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>2160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>30175</xdr:rowOff>
+      <xdr:rowOff>33350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1928,7 +1930,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>129600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>5335</xdr:rowOff>
+      <xdr:rowOff>8510</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1991,9 +1993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>279895</xdr:colOff>
+      <xdr:colOff>283070</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>87055</xdr:rowOff>
+      <xdr:rowOff>90230</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2063,7 +2065,7 @@
       <xdr:col>113</xdr:col>
       <xdr:colOff>92073</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:rowOff>12698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2122,7 +2124,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
-      <xdr:colOff>352255</xdr:colOff>
+      <xdr:colOff>355430</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>99840</xdr:rowOff>
     </xdr:to>
@@ -2252,7 +2254,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>525895</xdr:colOff>
+      <xdr:colOff>529070</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>116095</xdr:rowOff>
     </xdr:to>
@@ -2319,7 +2321,7 @@
       <xdr:col>105</xdr:col>
       <xdr:colOff>72840</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>123235</xdr:rowOff>
+      <xdr:rowOff>126410</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2447,7 +2449,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>104</xdr:col>
-      <xdr:colOff>199320</xdr:colOff>
+      <xdr:colOff>202495</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>94740</xdr:rowOff>
     </xdr:to>
@@ -2512,7 +2514,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
-      <xdr:colOff>181255</xdr:colOff>
+      <xdr:colOff>184430</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>75235</xdr:rowOff>
     </xdr:to>
@@ -2621,9 +2623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
+      <xdr:colOff>506455</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>183480</xdr:rowOff>
+      <xdr:rowOff>186655</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2686,9 +2688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>117</xdr:col>
-      <xdr:colOff>84720</xdr:colOff>
+      <xdr:colOff>87895</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>182760</xdr:rowOff>
+      <xdr:rowOff>185935</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2751,9 +2753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>582120</xdr:colOff>
+      <xdr:colOff>585295</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>67500</xdr:rowOff>
+      <xdr:rowOff>70675</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2816,7 +2818,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>113</xdr:col>
-      <xdr:colOff>44095</xdr:colOff>
+      <xdr:colOff>47270</xdr:colOff>
       <xdr:row>144</xdr:row>
       <xdr:rowOff>168770</xdr:rowOff>
     </xdr:to>
@@ -6117,7 +6119,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>380143</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6165,9 +6167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>143215</xdr:colOff>
+      <xdr:colOff>146390</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>47515</xdr:rowOff>
+      <xdr:rowOff>50690</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -6360,9 +6362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>509575</xdr:colOff>
+      <xdr:colOff>512750</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>48595</xdr:rowOff>
+      <xdr:rowOff>51770</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -6555,7 +6557,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>584040</xdr:colOff>
+      <xdr:colOff>587215</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>78415</xdr:rowOff>
     </xdr:to>
@@ -6620,7 +6622,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>199735</xdr:colOff>
+      <xdr:colOff>202910</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>169500</xdr:rowOff>
     </xdr:to>
@@ -6685,7 +6687,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>255895</xdr:colOff>
+      <xdr:colOff>259070</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>21595</xdr:rowOff>
     </xdr:to>
@@ -6750,9 +6752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>144055</xdr:colOff>
+      <xdr:colOff>147230</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>52315</xdr:rowOff>
+      <xdr:rowOff>55490</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -6882,7 +6884,7 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>550320</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>12775</xdr:rowOff>
+      <xdr:rowOff>15950</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -6947,7 +6949,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>324600</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>86335</xdr:rowOff>
+      <xdr:rowOff>89510</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7010,7 +7012,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>353455</xdr:colOff>
+      <xdr:colOff>356630</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>92335</xdr:rowOff>
     </xdr:to>
@@ -7075,7 +7077,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8095</xdr:colOff>
+      <xdr:colOff>11270</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>114780</xdr:rowOff>
     </xdr:to>
@@ -7142,7 +7144,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>604920</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>163255</xdr:rowOff>
+      <xdr:rowOff>166430</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7205,9 +7207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>353455</xdr:colOff>
+      <xdr:colOff>356630</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>28680</xdr:rowOff>
+      <xdr:rowOff>31855</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7335,9 +7337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>143760</xdr:colOff>
+      <xdr:colOff>146935</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>146460</xdr:rowOff>
+      <xdr:rowOff>149635</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7402,7 +7404,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>442440</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>146095</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7530,9 +7532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>15415</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>87055</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7597,7 +7599,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>233095</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>177475</xdr:rowOff>
+      <xdr:rowOff>180650</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7662,7 +7664,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>23160</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>88135</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -7727,7 +7729,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>307080</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>183835</xdr:rowOff>
+      <xdr:rowOff>187010</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -10379,7 +10381,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">168 157 512 0 0,'-17'31'1227'0'0,"0"2"-1"0"0,-14 41 1 0 0,11-15-909 0 0,-15 71 0 0 0,19-44-60 0 0,3 1-1 0 0,-3 147 0 0 0,15-217-349 0 0,1-13-54 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 9-1 0 0,-2-18-2969 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.45">127 136 712 0 0,'6'-23'1061'0'0,"-5"15"-829"0"0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,4-11 0 0 0,-5 16-214 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,5-3 0 0 0,9-3 65 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,33 1-1 0 0,-41 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,9 5 0 0 0,-12-6-6 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,4 10-1 0 0,3 9 55 0 0,-2 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-2 0-1 0 0,0 32 0 0 0,-20 184 554 0 0,2-133-522 0 0,-4 33-902 0 0,11-61-3747 0 0,9-68 3075 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.09">798 694 680 0 0,'-1'6'2870'0'0,"-4"1"-2592"0"0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 11 0 0 0,-5 42 431 0 0,3-38-359 0 0,-1 46-1 0 0,1 182-345 0 0,5-249-123 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-3 1-1 0 0,4-3 33 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-80 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-3-1 0 0,-1-12-976 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.66">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.63">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1418.21">1213 1084 612 0 0,'10'6'6161'0'0,"-5"-6"-5141"0"0,0 0-1012 0 0,0 0-528 0 0,-5-3-1353 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.04">1808 544 576 0 0,'4'4'3217'0'0,"12"12"-2153"0"0,15-10 527 0 0,-30-5-1547 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-29 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-23-3 328 0 0,12 5-300 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-14 19 0 0 0,18-22-10 0 0,0 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 14 0 0 0,7-17-31 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 9 0 0 0,-2-6-310 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,9-1 1 0 0,9 0-891 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2098.19">2168 712 656 0 0,'23'-18'1981'0'0,"45"-25"-1"0"0,-49 32-1201 0 0,-19 10-749 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 12 759 0 0,-7 23-343 0 0,5-24-230 0 0,-9 44 100 0 0,6-27-263 0 0,5-23-49 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-4 6 1 0 0,0-1 14 0 0,3-5 1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-6 5 1 0 0,9-9-19 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-4 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,1-3-5 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,3-8 0 0 0,0 0-10 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,13-12 0 0 0,-16 18 15 0 0,-1-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,10-4 0 0 0,-13 6 43 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 1 1 0 0,-8 0 9 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 5-1 0 0,1 3 117 0 0,0 1 0 0 0,-1-1 0 0 0,0 18 0 0 0,-2-6-97 0 0,-2-1 1 0 0,0 1-1 0 0,-7 24 0 0 0,-4 22-1089 0 0,14-64 834 0 0,-1 0-418 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 7 0 0 0,-1-4-1246 0 0,-1-4 155 0 0</inkml:trace>
@@ -11775,10 +11777,10 @@
   <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11788,8 +11790,8 @@
     <col min="3" max="3" width="6" style="3"/>
     <col min="4" max="4" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6" style="3"/>
+    <col min="6" max="6" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="3"/>
@@ -11797,7 +11799,7 @@
     <col min="12" max="12" width="6" style="3"/>
     <col min="13" max="13" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="2"/>
+    <col min="15" max="15" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="3"/>
     <col min="17" max="17" width="6" style="2"/>
     <col min="18" max="18" width="6" style="3"/>
@@ -11835,10 +11837,10 @@
       <c r="H1" s="22">
         <v>7</v>
       </c>
-      <c r="I1" s="31">
+      <c r="I1" s="32">
         <v>8</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="22">
         <v>9</v>
       </c>
@@ -12515,9 +12517,7 @@
       <c r="F19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="29" t="s">
         <v>27</v>
       </c>
@@ -12643,17 +12643,46 @@
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
-      <c r="N24" s="3">
+      <c r="N24" s="25">
         <v>33184</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>45274</v>
+      </c>
       <c r="C25" s="5"/>
+      <c r="K25" s="2">
+        <v>59687</v>
+      </c>
+      <c r="N25" s="26">
+        <v>33514</v>
+      </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
+      <c r="A26" s="30">
+        <v>45281</v>
+      </c>
+      <c r="C26" s="26">
+        <v>10084</v>
+      </c>
+      <c r="F26" s="17">
+        <v>10087</v>
+      </c>
+      <c r="G26" s="31">
+        <v>10088</v>
+      </c>
+      <c r="K26" s="24">
+        <v>10091</v>
+      </c>
+      <c r="M26" s="24">
+        <v>10093</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>45302</v>
+      </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12667,6 +12696,7 @@
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>

--- a/ЕГЭ Илья Казанцев.xlsx
+++ b/ЕГЭ Илья Казанцев.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39283141-5674-4A51-AC55-FE502AF047F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A0AC1-3B15-4936-9ED6-FB47CCC77B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>СГ1</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -10381,7 +10384,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">168 157 512 0 0,'-17'31'1227'0'0,"0"2"-1"0"0,-14 41 1 0 0,11-15-909 0 0,-15 71 0 0 0,19-44-60 0 0,3 1-1 0 0,-3 147 0 0 0,15-217-349 0 0,1-13-54 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 9-1 0 0,-2-18-2969 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.45">127 136 712 0 0,'6'-23'1061'0'0,"-5"15"-829"0"0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,4-11 0 0 0,-5 16-214 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,5-3 0 0 0,9-3 65 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,33 1-1 0 0,-41 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,9 5 0 0 0,-12-6-6 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,4 10-1 0 0,3 9 55 0 0,-2 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-2 0-1 0 0,0 32 0 0 0,-20 184 554 0 0,2-133-522 0 0,-4 33-902 0 0,11-61-3747 0 0,9-68 3075 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.09">798 694 680 0 0,'-1'6'2870'0'0,"-4"1"-2592"0"0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 11 0 0 0,-5 42 431 0 0,3-38-359 0 0,-1 46-1 0 0,1 182-345 0 0,5-249-123 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-3 1-1 0 0,4-3 33 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-80 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-3-1 0 0,-1-12-976 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.63">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.62">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1418.21">1213 1084 612 0 0,'10'6'6161'0'0,"-5"-6"-5141"0"0,0 0-1012 0 0,0 0-528 0 0,-5-3-1353 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.04">1808 544 576 0 0,'4'4'3217'0'0,"12"12"-2153"0"0,15-10 527 0 0,-30-5-1547 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-29 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-23-3 328 0 0,12 5-300 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-14 19 0 0 0,18-22-10 0 0,0 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 14 0 0 0,7-17-31 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 9 0 0 0,-2-6-310 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,9-1 1 0 0,9 0-891 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2098.19">2168 712 656 0 0,'23'-18'1981'0'0,"45"-25"-1"0"0,-49 32-1201 0 0,-19 10-749 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 12 759 0 0,-7 23-343 0 0,5-24-230 0 0,-9 44 100 0 0,6-27-263 0 0,5-23-49 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-4 6 1 0 0,0-1 14 0 0,3-5 1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-6 5 1 0 0,9-9-19 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-4 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,1-3-5 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,3-8 0 0 0,0 0-10 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,13-12 0 0 0,-16 18 15 0 0,-1-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,10-4 0 0 0,-13 6 43 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 1 1 0 0,-8 0 9 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 5-1 0 0,1 3 117 0 0,0 1 0 0 0,-1-1 0 0 0,0 18 0 0 0,-2-6-97 0 0,-2-1 1 0 0,0 1-1 0 0,-7 24 0 0 0,-4 22-1089 0 0,14-64 834 0 0,-1 0-418 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 7 0 0 0,-1-4-1246 0 0,-1-4 155 0 0</inkml:trace>
@@ -11777,10 +11780,10 @@
   <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11893,7 +11896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="16" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="16" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -12684,6 +12687,9 @@
         <v>45302</v>
       </c>
       <c r="C27" s="5"/>
+      <c r="O27" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>

--- a/ЕГЭ Илья Казанцев.xlsx
+++ b/ЕГЭ Илья Казанцев.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A0AC1-3B15-4936-9ED6-FB47CCC77B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3786DA00-75E8-4868-9625-E76349428A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -178,9 +179,6 @@
   </si>
   <si>
     <t>СГ1</t>
-  </si>
-  <si>
-    <t>***</t>
   </si>
 </sst>
 </file>
@@ -537,6 +535,3806 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>319255</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>188471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68617</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93161</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Рукописный ввод 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B17632-2554-4739-9B91-7C464E484C06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="319255" y="380520"/>
+            <a:ext cx="2190240" cy="1441080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Рукописный ввод 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B17632-2554-4739-9B91-7C464E484C06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="310615" y="371880"/>
+              <a:ext cx="2207880" cy="1458720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83802</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>72223</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149805</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Рукописный ввод 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E7ECF7-2BFA-43DB-8F7B-4DCC0404617F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2524680" y="820080"/>
+            <a:ext cx="1819080" cy="97920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Рукописный ввод 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E7ECF7-2BFA-43DB-8F7B-4DCC0404617F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2515680" y="811440"/>
+              <a:ext cx="1836720" cy="115560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52063</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138103</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101205</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Рукописный ввод 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ECB6AE-D630-468C-801B-554BAA2AC983}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4323600" y="808200"/>
+            <a:ext cx="86040" cy="61200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Рукописный ввод 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ECB6AE-D630-468C-801B-554BAA2AC983}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4314960" y="799560"/>
+              <a:ext cx="103680" cy="78840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358423</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>48535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371299</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Рукописный ввод 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C0201D-0A67-4BE3-965D-E566551DAE96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4629960" y="48535"/>
+            <a:ext cx="623095" cy="138240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Рукописный ввод 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C0201D-0A67-4BE3-965D-E566551DAE96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4621321" y="39688"/>
+              <a:ext cx="640733" cy="156303"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166728</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>529909</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8771</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="64" name="Рукописный ввод 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E83E043-CA5D-4581-BEC2-BD5E7FD1EE5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3828045" y="462240"/>
+            <a:ext cx="2193840" cy="2043165"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="64" name="Рукописный ввод 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E83E043-CA5D-4581-BEC2-BD5E7FD1EE5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3819032" y="453228"/>
+              <a:ext cx="2211506" cy="2060828"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281483</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Рисунок 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B82C34-6109-47D4-ABA3-9E5E741A4328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3181273"/>
+          <a:ext cx="8824556" cy="1714739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22981</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>287562</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140534</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="66" name="Рукописный ввод 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28374DF2-40FE-481D-8884-A053CFF4691B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1853640" y="4736385"/>
+            <a:ext cx="874800" cy="13320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Рукописный ввод 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28374DF2-40FE-481D-8884-A053CFF4691B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1845000" y="4727385"/>
+              <a:ext cx="892440" cy="30960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>362763</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>153854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1284</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167894</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="67" name="Рукописный ввод 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1307CC4-8194-4CAB-95EE-81EF1A2FEB3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4024080" y="4763025"/>
+            <a:ext cx="858960" cy="14040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="Рукописный ввод 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1307CC4-8194-4CAB-95EE-81EF1A2FEB3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4015440" y="4754385"/>
+              <a:ext cx="876600" cy="31680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542678</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>321959</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47758</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="70" name="Рукописный ввод 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DAA45C-8528-4FFE-B1A6-23D1F87581CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4814215" y="4434345"/>
+            <a:ext cx="999720" cy="30535"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="70" name="Рукописный ввод 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DAA45C-8528-4FFE-B1A6-23D1F87581CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4805215" y="4424702"/>
+              <a:ext cx="1017360" cy="50222"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546703</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341464</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28552</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="71" name="Рукописный ввод 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81F6C37-EE8F-4C17-9BDA-55530C503EC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4818240" y="4208625"/>
+            <a:ext cx="1015200" cy="45000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="71" name="Рукописный ввод 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81F6C37-EE8F-4C17-9BDA-55530C503EC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4809240" y="4199625"/>
+              <a:ext cx="1032840" cy="62640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207614</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269488</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Рисунок 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D425643-5160-4EC1-9BFB-795EFEBAD051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7530248" y="272586"/>
+          <a:ext cx="3112972" cy="2285613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>154955</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171304</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>125990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Рисунок 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A327CAAF-00E1-46E6-A6A7-7E3E00106FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1375394" y="5368072"/>
+          <a:ext cx="6728764" cy="1095528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>492035</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28004</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="80" name="Рукописный ввод 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33584D-74D9-4224-AC47-C1DDA5E91F79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="822960" y="5573532"/>
+            <a:ext cx="279295" cy="215935"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="80" name="Рукописный ввод 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33584D-74D9-4224-AC47-C1DDA5E91F79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="814221" y="5564895"/>
+              <a:ext cx="297138" cy="233570"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>118780</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>181195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>530555</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9137</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="88" name="Рукописный ввод 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48B626A-B7CA-41E8-B458-1E2A09EAC221}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="729000" y="6134707"/>
+            <a:ext cx="411775" cy="212040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="88" name="Рукописный ввод 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48B626A-B7CA-41E8-B458-1E2A09EAC221}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="720009" y="6126067"/>
+              <a:ext cx="429397" cy="229680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>93515</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51016</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20126</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="98" name="Рукописный ввод 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01F94FA-613B-4DF2-9E8A-EC4D58ED789B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="703735" y="4995732"/>
+            <a:ext cx="567720" cy="401760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="98" name="Рукописный ввод 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01F94FA-613B-4DF2-9E8A-EC4D58ED789B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="695095" y="4987084"/>
+              <a:ext cx="585360" cy="419416"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>602195</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38776</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27261</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="103" name="Рукописный ввод 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0098343C-E4AD-4E18-A2BD-DBF46460402F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1212415" y="5375532"/>
+            <a:ext cx="46800" cy="29095"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="103" name="Рукописный ввод 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0098343C-E4AD-4E18-A2BD-DBF46460402F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1203775" y="5365967"/>
+              <a:ext cx="64440" cy="48625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342681</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441282</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146885</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="113" name="Рукописный ввод 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AC7206-8CA8-40EF-A262-999FC39A0C76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1563120" y="5176027"/>
+            <a:ext cx="1319040" cy="156175"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="113" name="Рукописный ввод 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AC7206-8CA8-40EF-A262-999FC39A0C76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1554480" y="5167208"/>
+              <a:ext cx="1336680" cy="174181"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>130877</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367738</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166390</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="120" name="Рукописный ввод 119">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF8A82A-A16C-404A-B3A8-A9258C156B41}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3181975" y="5144772"/>
+            <a:ext cx="847080" cy="206935"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="120" name="Рукописный ввод 119">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF8A82A-A16C-404A-B3A8-A9258C156B41}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3172975" y="5136135"/>
+              <a:ext cx="864720" cy="224569"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>479763</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261878</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="125" name="Рукописный ввод 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33134166-077D-4DA4-ADAC-A9CA403AE448}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4141080" y="5176027"/>
+            <a:ext cx="392335" cy="145865"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="125" name="Рукописный ввод 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33134166-077D-4DA4-ADAC-A9CA403AE448}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4132081" y="5167023"/>
+              <a:ext cx="409972" cy="163513"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586238</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217939</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149830</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="127" name="Рукописный ввод 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E30598-04B1-4E97-A653-CC6FDFBB747A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4857775" y="5186892"/>
+            <a:ext cx="241920" cy="148255"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="127" name="Рукописный ввод 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E30598-04B1-4E97-A653-CC6FDFBB747A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4849135" y="5178063"/>
+              <a:ext cx="259560" cy="166281"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>498444</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>70785</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="128" name="Рукописный ввод 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BAE6E5-6D51-460C-A2B7-306978DFBA94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5345640" y="5094732"/>
+            <a:ext cx="34560" cy="1697760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="128" name="Рукописный ввод 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BAE6E5-6D51-460C-A2B7-306978DFBA94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5336640" y="5085732"/>
+              <a:ext cx="52200" cy="1715400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333204</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>189304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390804</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139815</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="129" name="Рукописный ввод 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED4A07B-C10A-4DE5-B1DD-E8136F67FB8C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5214960" y="5182572"/>
+            <a:ext cx="57600" cy="142560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="129" name="Рукописный ввод 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED4A07B-C10A-4DE5-B1DD-E8136F67FB8C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5205960" y="5173932"/>
+              <a:ext cx="75240" cy="160200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550579</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162430</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="135" name="Рукописный ввод 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB6CB29-1E33-429D-BAFD-EC580F3BCDE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5432335" y="5218932"/>
+            <a:ext cx="784080" cy="128815"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="135" name="Рукописный ввод 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB6CB29-1E33-429D-BAFD-EC580F3BCDE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5423335" y="5209705"/>
+              <a:ext cx="801720" cy="146901"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>354340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534661</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151695</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="144" name="Рукописный ввод 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2524104-96EE-45AB-AF18-9CD4AD5366F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6456535" y="5222532"/>
+            <a:ext cx="1400760" cy="114480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="144" name="Рукописный ввод 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2524104-96EE-45AB-AF18-9CD4AD5366F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6447537" y="5213560"/>
+              <a:ext cx="1418395" cy="132065"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588103</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>110260</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30354</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="149" name="Рукописный ввод 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B775C5FB-5F65-42EE-9BEE-13DE2A2FCCA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4859640" y="6628624"/>
+            <a:ext cx="1352815" cy="507535"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="149" name="Рукописный ввод 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B775C5FB-5F65-42EE-9BEE-13DE2A2FCCA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4850980" y="6619567"/>
+              <a:ext cx="1370496" cy="525286"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277744</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97326</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171573</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="150" name="Рукописный ввод 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B473FA03-0424-4AB7-9437-DF76A58C10FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5769720" y="4762024"/>
+            <a:ext cx="1650240" cy="18720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="150" name="Рукописный ввод 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B473FA03-0424-4AB7-9437-DF76A58C10FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5760720" y="4753384"/>
+              <a:ext cx="1667880" cy="36360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>424401</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>435201</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8797</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="151" name="Рукописный ввод 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3124B7F2-19C1-41C0-8F12-C7550C28CBA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1644840" y="5779069"/>
+            <a:ext cx="10800" cy="183240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="151" name="Рукописный ввод 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3124B7F2-19C1-41C0-8F12-C7550C28CBA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1635840" y="5770429"/>
+              <a:ext cx="28440" cy="200880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560481</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>574161</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11677</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="152" name="Рукописный ввод 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C24F96-EB53-4DDE-8593-CE200B12119E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1780920" y="5786629"/>
+            <a:ext cx="13680" cy="178560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="152" name="Рукописный ввод 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C24F96-EB53-4DDE-8593-CE200B12119E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1771920" y="5777629"/>
+              <a:ext cx="31320" cy="196200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>162661</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173461</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32917</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="153" name="Рукописный ввод 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572ECCED-DF4B-4D5A-86F2-5262B57D3E73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1993320" y="5820109"/>
+            <a:ext cx="10800" cy="166320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="153" name="Рукописный ввод 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572ECCED-DF4B-4D5A-86F2-5262B57D3E73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1984680" y="5811469"/>
+              <a:ext cx="28440" cy="183960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366781</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16357</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="154" name="Рукописный ввод 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8BBC48-29DC-4077-AFEE-10C879FC8EB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2186640" y="5801389"/>
+            <a:ext cx="10800" cy="168480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="154" name="Рукописный ввод 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8BBC48-29DC-4077-AFEE-10C879FC8EB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2177640" y="5792389"/>
+              <a:ext cx="28440" cy="186120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525181</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557221</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17077</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="155" name="Рукописный ввод 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A6A1E4-30BF-4BE5-97B4-52A2B547472E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2355840" y="5800669"/>
+            <a:ext cx="32040" cy="169920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="155" name="Рукописный ввод 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A6A1E4-30BF-4BE5-97B4-52A2B547472E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2347200" y="5792029"/>
+              <a:ext cx="49680" cy="187560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116202</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123402</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17077</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="156" name="Рукописный ввод 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46AA214-FB3C-4A39-9A0F-6F6220C251C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2557080" y="5783389"/>
+            <a:ext cx="7200" cy="187200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="156" name="Рукописный ввод 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46AA214-FB3C-4A39-9A0F-6F6220C251C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2548080" y="5774749"/>
+              <a:ext cx="24840" cy="204840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32539</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395844</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190406</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="170" name="Рукописный ввод 169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0172644B-333C-493E-8927-D6C81D6542A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4914295" y="5799589"/>
+            <a:ext cx="363305" cy="152280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="170" name="Рукописный ввод 169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0172644B-333C-493E-8927-D6C81D6542A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4905293" y="5790929"/>
+              <a:ext cx="380948" cy="169962"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>379258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271303</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14492</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="171" name="Рукописный ввод 170">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919EC73A-89AF-496C-8629-CA8A05B6A015}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4040575" y="5782309"/>
+            <a:ext cx="502265" cy="185695"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="171" name="Рукописный ввод 170">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919EC73A-89AF-496C-8629-CA8A05B6A015}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4031580" y="5773519"/>
+              <a:ext cx="519895" cy="203642"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>606142</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192778</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>877</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="172" name="Рукописный ввод 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564B9731-0C92-4DD3-AF38-41552E61FA1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3657240" y="5783029"/>
+            <a:ext cx="196855" cy="171360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="172" name="Рукописный ввод 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564B9731-0C92-4DD3-AF38-41552E61FA1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3648587" y="5774214"/>
+              <a:ext cx="214521" cy="188637"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226702</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391157</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10532</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="173" name="Рукописный ввод 172">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48D2C34-C321-43DD-A75F-3E8D2AB54FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3277800" y="5794909"/>
+            <a:ext cx="164455" cy="169135"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="173" name="Рукописный ввод 172">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48D2C34-C321-43DD-A75F-3E8D2AB54FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3268623" y="5786254"/>
+              <a:ext cx="182442" cy="186806"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290082</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456402</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32492</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="174" name="Рукописный ввод 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188558A1-9DB9-49C7-961E-73048EC90BFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2730960" y="5794909"/>
+            <a:ext cx="166320" cy="191095"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="174" name="Рукописный ввод 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188558A1-9DB9-49C7-961E-73048EC90BFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2721960" y="5786123"/>
+              <a:ext cx="183960" cy="209033"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303712</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>124054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="Рисунок 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170D48D3-B387-40A4-BE44-2F681DE0D9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7502292"/>
+          <a:ext cx="8846785" cy="1648055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>484161</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>74081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155082</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>105041</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="176" name="Рукописный ввод 175">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAC56A3-1327-40FC-B6B7-23B6115B627F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1704600" y="8908325"/>
+            <a:ext cx="891360" cy="30960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="176" name="Рукописный ввод 175">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAC56A3-1327-40FC-B6B7-23B6115B627F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1695600" y="8899685"/>
+              <a:ext cx="909000" cy="48600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>405282</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54963</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133121</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="177" name="Рукописный ввод 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC4B0D0-BB56-4750-A8CB-E742C115812F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2846160" y="8948645"/>
+            <a:ext cx="870120" cy="18720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="177" name="Рукописный ввод 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC4B0D0-BB56-4750-A8CB-E742C115812F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2837520" y="8939645"/>
+              <a:ext cx="887760" cy="36360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>391465</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>143921</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="178" name="Рукописный ввод 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20C663E-A4AC-4C55-9E0D-D04561BB7282}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6275520" y="8941085"/>
+            <a:ext cx="828360" cy="37080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="178" name="Рукописный ввод 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20C663E-A4AC-4C55-9E0D-D04561BB7282}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6266520" y="8932445"/>
+              <a:ext cx="846000" cy="54720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123980</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604479</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>135672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Рисунок 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AB7824-A777-4DEA-BF0D-1DFFEF130381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1344419" y="9590126"/>
+          <a:ext cx="6582694" cy="1108229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281776</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385777</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>48141</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="188" name="Рукописный ввод 187">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3762921B-0AC4-4B74-848E-4889D32FDB16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1502215" y="10054646"/>
+            <a:ext cx="1324440" cy="172080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="188" name="Рукописный ввод 187">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3762921B-0AC4-4B74-848E-4889D32FDB16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1493575" y="10045646"/>
+              <a:ext cx="1342080" cy="189720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>507823</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>90134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>522223</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>30566</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="197" name="Рукописный ввод 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433F162E-C29D-47EA-8481-A0A5C0A26F10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4779360" y="10076671"/>
+            <a:ext cx="14400" cy="132480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="197" name="Рукописный ввод 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433F162E-C29D-47EA-8481-A0A5C0A26F10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4770360" y="10068031"/>
+              <a:ext cx="32040" cy="150120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>103858</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>72789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207518</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56126</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="203" name="Рукописный ввод 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE050CF-D4F7-46D3-BBC1-A6086B89698C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3765175" y="10059326"/>
+            <a:ext cx="713880" cy="175385"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="203" name="Рукописный ввод 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE050CF-D4F7-46D3-BBC1-A6086B89698C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3756175" y="10050840"/>
+              <a:ext cx="731520" cy="192711"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60742</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>73934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492677</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36326</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="204" name="Рукописный ввод 203">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA735E56-5AD8-4E93-9EB0-40CE690BF60B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3111840" y="10060471"/>
+            <a:ext cx="431935" cy="154440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="204" name="Рукописный ввод 203">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA735E56-5AD8-4E93-9EB0-40CE690BF60B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3103136" y="10051831"/>
+              <a:ext cx="449706" cy="172080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129739</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582599</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54916</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="209" name="Рукописный ввод 208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CB1554-6CE6-4447-B885-5DCA689001FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5011495" y="10058311"/>
+            <a:ext cx="1063080" cy="175190"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="209" name="Рукописный ввод 208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CB1554-6CE6-4447-B885-5DCA689001FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5002826" y="10049515"/>
+              <a:ext cx="1080780" cy="193149"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314380</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266185</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>48141</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="214" name="Рукописный ввод 213">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E93E39-D13D-4308-AC2D-F34877B6FB17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6416575" y="10055366"/>
+            <a:ext cx="562025" cy="171360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="214" name="Рукописный ввод 213">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E93E39-D13D-4308-AC2D-F34877B6FB17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6407574" y="10046193"/>
+              <a:ext cx="579667" cy="189340"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288165</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72865</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>137801</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="218" name="Рукописный ввод 217">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC81FF9-53EE-461A-86DE-EE01898426F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6390360" y="9389431"/>
+            <a:ext cx="394920" cy="158760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="218" name="Рукописный ввод 217">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC81FF9-53EE-461A-86DE-EE01898426F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6381720" y="9380431"/>
+              <a:ext cx="412560" cy="176400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200305</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259345</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>134921</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="219" name="Рукописный ввод 218">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33012BB-74A5-4973-BB71-D7F872234153}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6912720" y="9439831"/>
+            <a:ext cx="59040" cy="105480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="219" name="Рукописный ввод 218">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33012BB-74A5-4973-BB71-D7F872234153}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6904080" y="9431191"/>
+              <a:ext cx="76680" cy="123120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>363745</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>34990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>453661</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>151695</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="235" name="Рукописный ввод 234">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBDA528-57D7-4BC0-B3F8-F005C156BE63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7076160" y="9445380"/>
+            <a:ext cx="700135" cy="116705"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="235" name="Рукописный ввод 234">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBDA528-57D7-4BC0-B3F8-F005C156BE63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7067521" y="9436430"/>
+              <a:ext cx="717773" cy="134247"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279301</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>100113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355621</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94905</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="236" name="Рукописный ввод 235">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3C499C-1B6E-4D3D-8F68-27B1FD15FA10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2109960" y="10854845"/>
+            <a:ext cx="76320" cy="186840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="236" name="Рукописный ввод 235">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3C499C-1B6E-4D3D-8F68-27B1FD15FA10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2100960" y="10846205"/>
+              <a:ext cx="93960" cy="204480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218763</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>160953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>308763</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137385</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="237" name="Рукописный ввод 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F04F32E-CAAB-4D7F-A1AB-A65E38550669}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3880080" y="10915685"/>
+            <a:ext cx="90000" cy="168480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="237" name="Рукописный ввод 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F04F32E-CAAB-4D7F-A1AB-A65E38550669}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3871440" y="10906685"/>
+              <a:ext cx="107640" cy="186120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>499884</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>159873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587724</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138105</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="238" name="Рукописный ввод 237">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FCC827-CF14-4ACD-9A81-E2829A59EEF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5381640" y="10914605"/>
+            <a:ext cx="87840" cy="170280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="238" name="Рукописный ввод 237">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FCC827-CF14-4ACD-9A81-E2829A59EEF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5372640" y="10905605"/>
+              <a:ext cx="105480" cy="187920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243145</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>162393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>367345</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>14096</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="239" name="Рукописный ввод 238">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2579E8-0653-4695-9034-CBABF6B13813}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6955560" y="10917125"/>
+            <a:ext cx="124200" cy="235800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="239" name="Рукописный ввод 238">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2579E8-0653-4695-9034-CBABF6B13813}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6946560" y="10908485"/>
+              <a:ext cx="141840" cy="253440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22242</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114042</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165713</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="247" name="Рукописный ввод 246">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F52EF6F-3AA9-4A47-A21B-15568A8644B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2463120" y="12019457"/>
+            <a:ext cx="91800" cy="53280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="247" name="Рукописный ввод 246">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F52EF6F-3AA9-4A47-A21B-15568A8644B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2454120" y="12010817"/>
+              <a:ext cx="109440" cy="70920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>491656</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>162216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457076</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>34439</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="248" name="Рукописный ввод 247">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39130ACB-6DEF-463E-82D9-2335CA107200}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1712095" y="11877192"/>
+            <a:ext cx="575640" cy="256320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="248" name="Рукописный ввод 247">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39130ACB-6DEF-463E-82D9-2335CA107200}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1703450" y="11868552"/>
+              <a:ext cx="593291" cy="273960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381882</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>94961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137782</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190128</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="254" name="Рукописный ввод 253">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7536E202-7627-44C3-97BF-FE4B54DD6EFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2822760" y="11809937"/>
+            <a:ext cx="366120" cy="287215"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="254" name="Рукописный ввод 253">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7536E202-7627-44C3-97BF-FE4B54DD6EFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2814120" y="11800939"/>
+              <a:ext cx="383760" cy="304851"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>329662</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>516862</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173993</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="255" name="Рукописный ввод 254">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3331752-31F9-4A73-BF11-E42E544EB0D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3380760" y="11854937"/>
+            <a:ext cx="187200" cy="226080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="255" name="Рукописный ввод 254">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3331752-31F9-4A73-BF11-E42E544EB0D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3371760" y="11845937"/>
+              <a:ext cx="204840" cy="243720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205378</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>75881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243583</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12839</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="262" name="Рукописный ввод 261">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D81C70-5F20-4D10-8CFA-BE1BD02C9BE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3866695" y="11790857"/>
+            <a:ext cx="648425" cy="321055"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="262" name="Рукописный ввод 261">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D81C70-5F20-4D10-8CFA-BE1BD02C9BE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3858059" y="11781859"/>
+              <a:ext cx="666057" cy="338691"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2055,7 +5853,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2880,7 +6678,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7809,7 +11607,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:29.757"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:04:24.284"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -7817,7 +11615,12 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">211 44 604 0 0,'-14'-4'1746'0'0,"-1"-10"-648"0"0,9 5 5535 0 0,32 8-5486 0 0,20-6-819 0 0,0 3 0 0 0,1 1-1 0 0,-1 2 1 0 0,64 7 0 0 0,-16 2-30 0 0,1-4 1 0 0,110-10 0 0 0,-106-5-409 0 0,-386 20-2489 0 0,1 0 2466 0 0,190-15 549 0 0,53-3 741 0 0,41 9-1035 0 0,-10-1 880 0 0,11 1-8 0 0,9 1-127 0 0,906 2 4481 0 0,-603 3-4590 0 0,8 1-229 0 0,2 1-256 0 0,154 13 551 0 0,-259-7-497 0 0,153 1-75 0 0,-265-9-207 0 0,111 4 466 0 0,-214-10-468 0 0,15 0 1794 0 0,-12 0-1840 0 0,1 0 2 0 0,-1 0 2 0 0,-3 0 138 0 0,-26 2 356 0 0,-15-10-446 0 0,0 1 0 0 0,0 1 0 0 0,-61 1 0 0 0,75 4-40 0 0,-233-14-6 0 0,-96-3-30 0 0,219 14-11 0 0,-451-6 105 0 0,-729 13 122 0 0,1212-4-117 0 0,-151 4 234 0 0,34 18-69 0 0,182-14-104 0 0,38-7 218 0 0,40-12 481 0 0,-25 10-833 0 0,0 0-1 0 0,23 0 1 0 0,-36 2 71 0 0,-5 19-10512 0 0,28-50-8133 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1031 1668 428 0 0,'-1'1'253'0'0,"0"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1-2 592 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-3-7 0 0 0,2 3-1618 0 0,-46-95 3547 0 0,10 16 368 0 0,30 67-2010 0 0,1 0-1 0 0,-9-35 0 0 0,9 21-820 0 0,2-2-1 0 0,-4-45 0 0 0,9 59-221 0 0,1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,6-23 1 0 0,-7 36-85 0 0,10-37 132 0 0,1 2 0 0 0,3 0 0 0 0,31-63 0 0 0,-39 93-114 0 0,87-147 306 0 0,-74 130-260 0 0,1 0 0 0 0,52-53 0 0 0,-40 54-76 0 0,0 1 1 0 0,2 2 0 0 0,1 2-1 0 0,57-31 1 0 0,169-66 79 0 0,-176 86-71 0 0,121-31-1 0 0,-147 51-57 0 0,0 4 0 0 0,126-9 0 0 0,-164 20 96 0 0,1 1 0 0 0,0 1 0 0 0,0 1-1 0 0,-1 1 1 0 0,0 2 0 0 0,1 0 0 0 0,-2 1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 2 0 0 0,0 0 0 0 0,21 14-1 0 0,-32-16 46 0 0,-1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,8 14 1 0 0,40 69 412 0 0,-48-74-291 0 0,0 0-1 0 0,-1 1 1 0 0,-1 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,4 37-1 0 0,-1 130 497 0 0,-7-188-692 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-1 0 0 0,29-8-14 0 0,-26 7 9 0 0,335-90 5 0 0,6 31 169 0 0,-197 49-185 0 0,212 12-1 0 0,148 47 295 0 0,-329-17 77 0 0,-3 8 0 0 0,332 118-1 0 0,-444-132-190 0 0,-1 4-1 0 0,-2 2 1 0 0,64 42-1 0 0,-81-42 52 0 0,-2 2 0 0 0,0 1 0 0 0,-3 3 0 0 0,57 61 1 0 0,-85-81-156 0 0,1 1 1 0 0,-2 0-1 0 0,-1 0 1 0 0,0 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,10 38 1 0 0,-13-32 18 0 0,0 0 0 0 0,-2 1-1 0 0,0 0 1 0 0,-2 0 0 0 0,-2 48 0 0 0,-1-60-88 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-20 17 0 0 0,-168 124 0 0 0,159-128 0 0 0,-1-2 0 0 0,-2-1 0 0 0,-63 23 0 0 0,-244 54 0 0 0,-3 0 0 0 0,319-84 0 0 0,30-13 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 3 0 0 0,3-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,13 35 0 0 0,-13-38 0 0 0,8 18 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,5 37 0 0 0,6 206 0 0 0,-16-225 0 0 0,-9 68 0 0 0,1-60 0 0 0,-2-1 0 0 0,-1-1 0 0 0,-3 0 0 0 0,-2 0 0 0 0,-2-2 0 0 0,-26 51 0 0 0,12-46 0 0 0,-1-1 0 0 0,-3-2 0 0 0,-51 54 0 0 0,41-48 0 0 0,10-14 0 0 0,-1-2 0 0 0,-2-1 0 0 0,-1-2 0 0 0,-2-1 0 0 0,-1-3 0 0 0,-52 30 0 0 0,67-47 0 0 0,0-2 0 0 0,0 0 0 0 0,-2-2 0 0 0,-54 12 0 0 0,-122 9 0 0 0,127-21 0 0 0,-90 8 0 0 0,-1-7 0 0 0,-1-8 0 0 0,-252-28 0 0 0,385 21 0 0 0,0-2 0 0 0,0-1 0 0 0,0-2 0 0 0,1-2 0 0 0,1-1 0 0 0,0-2 0 0 0,1-1 0 0 0,-39-23 0 0 0,5-1 0 0 0,33 20 0 0 0,1-1 0 0 0,1-1 0 0 0,-36-31 0 0 0,52 32 0 0 0,16 18 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-4 1 0 0 0,-5 3 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,-12 8 0 0 0,-14 5 0 0 0,-81 29 0 0 0,-3-5 0 0 0,0-5 0 0 0,-187 30 0 0 0,-1-35-115 0 0,247-30 75 0 0,0-2 0 0 0,-122-18 0 0 0,139 8 27 0 0,1-1 0 0 0,0-2 0 0 0,1-2 0 0 0,1-2 0 0 0,0-1 0 0 0,2-3 0 0 0,0-1 0 0 0,2-2 0 0 0,-62-51 0 0 0,81 59 19 0 0,1-2 1 0 0,0 0-1 0 0,2-1 0 0 0,-22-34 0 0 0,-46-92 57 0 0,82 143-65 0 0,-8-15-4 0 0,1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,2 0 0 0 0,0 0 0 0 0,1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,2-1-1 0 0,0 0 1 0 0,2 0 0 0 0,8-29 0 0 0,-3 25-9 0 0,1 1 1 0 0,1 1 0 0 0,24-40 0 0 0,53-62 128 0 0,-63 91-73 0 0,7-9-58 0 0,1 2 0 0 0,2 1 0 0 0,2 2 0 0 0,2 1 0 0 0,1 2 0 0 0,78-52 0 0 0,138-53-22 0 0,-78 66 21 0 0,-161 68 10 0 0,-5 2 14 0 0,-1 0 0 0 0,20-11 0 0 0,-31 15 0 0 0,0 0-1 0 0,2 0 0 0 0,-2 0 41 0 0,0-1-45 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,-31-10-62 0 0,-129-19-115 0 0,83 18 217 0 0,-77-25 0 0 0,95 17 37 0 0,0-3 1 0 0,-92-49-1 0 0,142 65-70 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-19-19 0 0 0,26 22-7 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-2-10 1 0 0,3 8-4 0 0,1 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-4 12-2 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,10-3 0 0 0,29-8-43 0 0,1 3 0 0 0,0 2 0 0 0,1 2 0 0 0,90-2 1 0 0,-91 12 82 0 0,-1 2 0 0 0,1 1 0 0 0,-1 3 1 0 0,-1 2-1 0 0,64 24 0 0 0,-93-30-26 0 0,-1 2 0 0 0,26 14 0 0 0,-39-20-10 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,2 3 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2914.67">1704 1712 144 0 0,'4'0'5251'0'0,"14"0"-1219"0"0,-18 0-3955 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,-17-15 1356 0 0,13 14-1383 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-8 3-1 0 0,-7 3 212 0 0,1 0 1 0 0,-23 13-1 0 0,32-15-27 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-10 13 0 0 0,14-16-114 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 7 0 0 0,-2-8-35 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,6 2 0 0 0,-2-2-653 0 0,0 1-1 0 0,0-2 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,14 0-1 0 0,-19-2-296 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,2-3-1 0 0,5-4-1644 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3336.02">1697 1895 404 0 0,'11'-1'981'0'0,"-1"0"0"0"0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,15-6-1 0 0,49-23 19 0 0,-50 20-343 0 0,-15 7-497 0 0,-1 1-1 0 0,0-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,10-9 1 0 0,-17 14-120 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 10 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-4 0 29 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-8 1 0 0 0,4 1 68 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-12 7 0 0 0,19-9-98 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,2 4 1 0 0,-1-2-69 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,4 3 0 0 0,-4-4-407 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,3-2-1 0 0,19-8-4034 0 0,-13 4 2537 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3692.12">2126 1776 916 0 0,'1'-1'499'0'0,"0"0"1"0"0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,1-2 0 0 0,-2 3-197 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1-147 0 0,6 43 1399 0 0,7 36-1982 0 0,-13-81 284 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,-7-6-6103 0 0,7 4 5965 0 0,-4-3-1370 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4032.4">2035 1790 112 0 0,'-18'-10'3003'0'0,"11"6"147"0"0,21 2-432 0 0,58-3-1462 0 0,-7 1-1966 0 0,-1-5-4108 0 0,-36 0 1528 0 0,-19 7 2277 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4372">2340 1709 468 0 0,'1'0'128'0'0,"-1"0"0"0"0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 2 0 0 0,-4 21 3212 0 0,1-13-3015 0 0,3-7-218 0 0,-14 69 1697 0 0,13-64-1763 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 13 0 0 0,-4-16-36 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,6 3-1 0 0,-7-5 4 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-3-1 0 0,-2 1 167 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,4-6 1 0 0,-7 8-69 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-49 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-2 0 0 0 0,-4-1-407 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-8 3-1 0 0,-44 16-10173 0 0,44-14 7853 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7841,7 +11644,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:32.325"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:10:16.597"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -7849,1555 +11652,16 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">71 205 640 0 0,'-2'-5'450'0'0,"1"0"1"0"0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1-6 1 0 0,0 10-396 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 0 0 0 0,4 0 144 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,6 4-1 0 0,-9-5-112 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2 6 1 0 0,-2 8 278 0 0,-1 1-1 0 0,-1-2 1 0 0,-1 1 0 0 0,-17 32 0 0 0,-47 63 560 0 0,44-72-667 0 0,-26 50-1 0 0,48-80-233 0 0,-6 11 23 0 0,-10 30 0 0 0,18-45-41 0 0,1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,2 13-1 0 0,-2-18-3 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,4 0 0 0 0,2 1 4 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,14-3 1 0 0,-12 2-7 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-3-12 0 0 0,-1 4-13 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-2 0-1 0 0,-14-24 1 0 0,-60-74-65 0 0,39 57 62 0 0,29 41 9 0 0,10 12 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-2-1 0 0,0 1 1 0 0,0 0-1 0 0,-4-14 1 0 0,8 20 5 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-2 0 0 0,0 1-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,4-1 0 0 0,1 0-172 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,9 3 0 0 0,113 29-9261 0 0,-103-26 7373 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="514.63">825 76 892 0 0,'0'-1'175'0'0,"0"0"-1"0"0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-3-2 1 0 0,2 2-15 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-2 2 0 0 0,-3 2 326 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-7 6 0 0 0,-7 12 172 0 0,1 0 1 0 0,2 1 0 0 0,0 0 0 0 0,-22 50 0 0 0,33-62-549 0 0,1 0 1 0 0,0-1-1 0 0,-3 19 1 0 0,6-25-87 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,4 9 0 0 0,-3-12-21 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,5 2 1 0 0,-3-2-2 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,6 0 1 0 0,-1-2-2 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,16-13 0 0 0,-7 3-17 0 0,0-2 0 0 0,-2 0-1 0 0,18-21 1 0 0,-26 26 25 0 0,-1 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,8-24 0 0 0,-9 25 54 0 0,2-13 621 0 0,-7 25-674 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-14 8 545 0 0,8-3-335 0 0,0 0 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,-3 10 0 0 0,-24 61 536 0 0,29-69-707 0 0,-4 11-87 0 0,2-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-2 31-1 0 0,5-38-1382 0 0,1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,5 19-1 0 0,-6-32 1205 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,13-5-1708 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="843.63">1356 106 108 0 0,'1'-14'1935'0'0,"-1"-3"1876"0"0,-5 16-2483 0 0,-6 9-1070 0 0,9-6-221 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,6-1 0 0 0,-6 1-14 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3-3 0 0 0,2 2 6 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-3 0 1 0 0,2 1-112 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-7 7 0 0 0,8-8-248 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 3 0 0 0,4 3-1551 0 0,4-3 263 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1368.29">1690 31 516 0 0,'18'-17'2294'0'0,"-5"3"1291"0"0,-30 22-1047 0 0,3 3-2037 0 0,0 1 1 0 0,0 0 0 0 0,1 1-1 0 0,-19 25 1 0 0,31-37-484 0 0,-94 130 1353 0 0,59-79-1128 0 0,3 0 0 0 0,2 2-1 0 0,-29 72 1 0 0,50-102-251 0 0,2 0-1 0 0,1 0 0 0 0,-7 40 1 0 0,13-58-40 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,4 8 0 0 0,-6-10-4 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,5-3 0 0 0,2-1 56 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,14-15 97 0 0,-27 25 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-4 7 0 0 0,7-9-93 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,2-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,3 5-1 0 0,-1-5-5 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,5 0-1 0 0,1 0-2 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,13-8 0 0 0,-15 9 33 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-9 0 0 0,-1 8 94 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-5-10 1 0 0,7 15-119 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-2 1 1 0 0,-2 1-358 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-6 5 0 0 0,7-7-447 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 4 0 0 0,1 4-1546 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">205 96 288 0 0,'5'-4'8555'0'0,"-7"60"-5858"0"0,1 33-1434 0 0,2-29-855 0 0,-3 0 0 0 0,-10 64 0 0 0,11-113-402 0 0,-2 28-1327 0 0,3-66-8546 0 0,0 19 8086 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="508.16">13 42 52 0 0,'-12'-7'5691'0'0,"19"8"-4105"0"0,24 3-911 0 0,-1-1 0 0 0,0-1 0 0 0,1-2 1 0 0,35-4-1 0 0,-20 1-524 0 0,11 4-1192 0 0,-19 5-4859 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.26">32 586 364 0 0,'2'1'7077'0'0,"9"3"-5917"0"0,104-13 106 0 0,1 0-1498 0 0,-90 8-141 0 0,-14 1-1488 0 0,-1 0-4327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2003.69">518 67 584 0 0,'-2'13'4166'0'0,"3"20"-2428"0"0,8 99 1299 0 0,-6-62-2381 0 0,0-3-411 0 0,4 51-356 0 0,-6-101-661 0 0,-1-17 625 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-3-1-1277 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2669.45">474 67 112 0 0,'-1'-1'95'0'0,"1"1"1"0"0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0 19 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,2-1 0 0 0,2-1 198 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,11-3-1 0 0,-10 6-180 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,8 7-1 0 0,-9-7-71 0 0,1 1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 9-1 0 0,-2-11 6 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-8 8 0 0 0,6-7-15 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-12-1 1 0 0,11-1-236 0 0,-30 1 169 0 0,21 6-2346 0 0,3 5-3729 0 0,13-8 4637 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3531.54">558 509 320 0 0,'0'20'7252'0'0,"0"50"-5392"0"0,0-69-1770 0 0,-1-3 839 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink100.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:18.172"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 443 56 0 0,'-3'-14'2817'0'0,"3"13"-2610"0"0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-2 1089 0 0,2 0 885 0 0,-1 13-666 0 0,8 80 2547 0 0,-4-47-2996 0 0,2 1 0 0 0,17 56 1 0 0,1 3-160 0 0,0 9-347 0 0,18 93-212 0 0,-35-138-327 0 0,-2 0 0 0 0,-4 0 0 0 0,-2 0 0 0 0,-11 97 1 0 0,6-127-128 0 0,2-14-132 0 0,-6 28 0 0 0,6-43-434 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,-4 9 1 0 0,7-15 552 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-5-14-4228 0 0,2-23-788 0 0,4 13 2978 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.24">95 1102 640 0 0,'0'-6'892'0'0,"0"-1"1"0"0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,3-7 1 0 0,-4 11-755 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,3-1-1 0 0,19-4 482 0 0,0 1 0 0 0,0 1 0 0 0,1 2 0 0 0,0 0 0 0 0,0 2 0 0 0,46 4 0 0 0,146 35 847 0 0,-176-29-1297 0 0,1 2 1 0 0,-1 2-1 0 0,-1 1 1 0 0,-1 3-1 0 0,0 0 1 0 0,-1 3-1 0 0,-1 1 1 0 0,-1 2-1 0 0,50 43 1 0 0,-76-57-98 0 0,-1-1 1 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,0 0-1 0 0,8 18 1 0 0,-13-25-5 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-3 6-1 0 0,-2-1 96 0 0,-1 0-1 0 0,1-1 0 0 0,-2 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-14 5-1 0 0,-8 1 64 0 0,-1-1-1 0 0,-43 7 1 0 0,6-5-81 0 0,-107 3-1 0 0,133-14-464 0 0,0-3 0 0 0,1-1 0 0 0,-72-15 1 0 0,101 15-380 0 0,0-1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-25-15 0 0 0,34 17 147 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,2 0-1 0 0,-1 1 1 0 0,0-2-1 0 0,1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,-4-10-1 0 0,3 3-866 0 0,1 0 0 0 0,0-1 0 0 0,-2-18 0 0 0,5-9-919 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="710.87">95 500 756 0 0,'-1'-16'1309'0'0,"1"5"-230"0"0,0 1 0 0 0,1-1 0 0 0,3-20 0 0 0,-4 28-964 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,3-3-1 0 0,22-10 818 0 0,1 2 0 0 0,1 1 0 0 0,0 1 0 0 0,42-7 0 0 0,129-14 688 0 0,-161 27-1403 0 0,314-23 354 0 0,-260 27-1263 0 0,168 21-1 0 0,-194-9-1377 0 0,72 22 1 0 0,-76-14-1915 0 0,74 34 1 0 0,-88-30 2208 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1081.5">2754 437 1696 0 0,'-11'21'7397'0'0,"-27"79"-4418"0"0,17-25-976 0 0,-24 146-1 0 0,16 68-1528 0 0,-2 5-2565 0 0,29-272 1293 0 0,2-18 392 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,-2 3-1 0 0,4-6 331 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,-3-14-2441 0 0,-1-1 709 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1419.49">2693 302 924 0 0,'5'-14'1056'0'0,"-3"6"-39"0"0,1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,7-14 0 0 0,-10 20-949 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,5 5 275 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,4 11 1 0 0,25 56 1436 0 0,-28-60-1535 0 0,67 175 1722 0 0,-3-8-844 0 0,25 62-499 0 0,-47-117-582 0 0,-32-80-1178 0 0,21 92 1 0 0,-37-135 725 0 0,4 34-1548 0 0,-5-37 1796 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-16-4-2370 0 0,1-4 291 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1758.66">2444 1015 1136 0 0,'-69'-11'5858'0'0,"89"9"-1343"0"0,35-3-2443 0 0,312 4 230 0 0,-133 3-3575 0 0,-1-12-4931 0 0,-138-5 1136 0 0,-50 6 2878 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1759.66">4264 248 204 0 0,'2'-4'809'0'0,"13"-19"4244"0"0,-7 21-2749 0 0,-7 2-2248 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,27 189 5868 0 0,-14-76-4444 0 0,3 60-815 0 0,-7 217 1 0 0,-10-301-1055 0 0,1-41-1262 0 0,-3 1 1 0 0,-10 54 0 0 0,4-75-663 0 0,9-29 2077 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,-8-3-1974 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2099.69">4174 191 64 0 0,'1'-5'323'0'0,"0"1"0"0"0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,4-2 0 0 0,-3 3-253 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,7 0 0 0 0,17 0 197 0 0,1 2 0 0 0,-1 1 0 0 0,1 2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 3 0 0 0,-1 0 0 0 0,0 1 0 0 0,48 28 0 0 0,-60-29-81 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,6 25 0 0 0,-10-30-36 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,-16 13-1 0 0,-123 82-117 0 0,43-47-4228 0 0,104-56 4081 0 0,-3 1-553 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-6-1-1 0 0,3-3-1781 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2437.67">5753 80 452 0 0,'4'-1'359'0'0,"3"0"437"0"0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,12 1 0 0 0,-18-1-682 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 3 0 0 0,-2 14 666 0 0,0 1 0 0 0,-1-1 0 0 0,-9 31 0 0 0,-2 10 658 0 0,9-31-885 0 0,-31 146 1454 0 0,7-63-1364 0 0,-16 55-264 0 0,-19 51-575 0 0,26-86-2693 0 0,38-131 2971 0 0,-11 34-3411 0 0,7-26-779 0 0,6-25-798 0 0,2-1 2928 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2789.1">5963 20 20 0 0,'14'-6'1598'0'0,"-9"3"-1016"0"0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,5 0 0 0 0,-8 1-479 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 2 0 0 0,5 8 497 0 0,-1 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 16 0 0 0,0-3 67 0 0,30 120 1736 0 0,77 304 392 0 0,-97-389-3447 0 0,-4 0 0 0 0,5 63 0 0 0,-16-113 103 0 0,2 39-2093 0 0,-3-48 2092 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-4 5-1 0 0,-5-1-2074 0 0,-4-3 347 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3129.01">5713 778 1320 0 0,'-3'2'6101'0'0,"25"1"-3782"0"0,35 2-448 0 0,235 7 1424 0 0,-1-12-7319 0 0,-146-10-3454 0 0,-99 4 5210 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink101.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:26.357"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 165 504 0 0,'-15'0'12569'0'0,"32"-15"-8625"0"0,6-6-2719 0 0,12 1-449 0 0,1 2-1 0 0,1 1 0 0 0,0 2 0 0 0,1 1 1 0 0,43-9-1 0 0,-45 16-417 0 0,0 1 1 0 0,1 1-1 0 0,43 1 1 0 0,-76 4-293 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,6 3 0 0 0,-8-3-24 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 3 0 0 0,-1 5 46 0 0,0 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,-8 11 1 0 0,-59 67 248 0 0,36-45-193 0 0,-24 27 69 0 0,54-63-197 0 0,-2 5 49 0 0,8-11-64 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,56-8 12 0 0,75-1 1 0 0,-107 9 13 0 0,0 1 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,42 13 1 0 0,-59-14-3 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,6 11-1 0 0,-7-12 20 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-3 8 1 0 0,-2-1 78 0 0,-1 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,-22 8-1 0 0,-2-1-9 0 0,0-1-1 0 0,-1-3 0 0 0,-1-1 1 0 0,-51 7-1 0 0,67-13-175 0 0,-47 5 92 0 0,63-9-228 0 0,-1 1 0 0 0,1-2-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-8-3-1 0 0,15 4 92 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-2 0 0 0,0 0-108 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,1-1 0 0 0,2-4-914 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,8-7 0 0 0,65-49-8931 0 0,3 2 3971 0 0,-26 20 3490 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink102.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:30.095"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">75 0 588 0 0,'17'20'20467'0'0,"-13"-22"-17410"0"0,2 0-2963 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,8 0 1 0 0,5 0-27 0 0,-16 0-60 0 0,168-5 292 0 0,-146 5-138 0 0,0 2 0 0 0,-1 1 0 0 0,1 1 0 0 0,43 13 0 0 0,-65-16-124 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-1 4 62 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-1 1 0 0,-13 13-1 0 0,-51 43 490 0 0,-100 68 1 0 0,169-131-580 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-4 5 0 0 0,6-7-7 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 0 0 0,51 18 96 0 0,-23-9-37 0 0,0 2 1 0 0,-1 1-1 0 0,0 1 1 0 0,34 22-1 0 0,-62-35-60 0 0,13 9 130 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,21 24 0 0 0,-32-31-72 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,-2 5 1 0 0,-3 2-48 0 0,0 1-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-16 6 0 0 0,-10 2-1 0 0,-1-2 0 0 0,0-1 0 0 0,-57 7 0 0 0,69-13-970 0 0,1 1 0 0 0,0 1 1 0 0,-32 14-1 0 0,54-19-490 0 0,-25 8-8290 0 0,28-9 8875 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-2-2 0 0 0,-1-1-2110 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink103.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:27.081"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">34 459 460 0 0,'0'0'266'0'0,"-24"-1"5027"0"0,15-1-2328 0 0,9 1-2919 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,14-7 1483 0 0,0 0-1 0 0,1 0 1 0 0,28-8 0 0 0,-20 9-779 0 0,1 1 0 0 0,25-2-1 0 0,-15 4-243 0 0,-1 2 0 0 0,1 1 0 0 0,57 8 0 0 0,-78-6-275 0 0,-1 0-1 0 0,1 1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 2-1 0 0,-1-1 1 0 0,17 11-1 0 0,-25-14-146 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 4-1 0 0,-6 13 135 0 0,0-2 1 0 0,-1 1-1 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 1 0 0,-18 20-1 0 0,-91 96 483 0 0,81-95-451 0 0,14-13-81 0 0,15-18-96 0 0,1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-7 16 0 0 0,14-26-61 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,8 2 54 0 0,0 0 0 0 0,-1 0 0 0 0,14-1 0 0 0,-12 0-26 0 0,46 2-72 0 0,-1-3 0 0 0,98-13 0 0 0,-97 8-434 0 0,77-10-2624 0 0,-59 4-4404 0 0,-1-3 1 0 0,83-27-1 0 0,-97 20 4456 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="658.7">3104 102 780 0 0,'-20'-5'11467'0'0,"27"-5"-8992"0"0,-1 5-1964 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,15-1 1 0 0,6-1 324 0 0,48 1 1 0 0,93 8 469 0 0,-138-2-936 0 0,0 1-1 0 0,-1 2 0 0 0,41 12 1 0 0,-66-16-281 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,5 7 1 0 0,-7-7-38 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-2 4-1 0 0,-7 10 71 0 0,0-1 1 0 0,0-1 0 0 0,-2 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-2-1 1 0 0,-16 14 0 0 0,-16 13 151 0 0,-9 7 219 0 0,-63 70 0 0 0,102-99-388 0 0,1-1 12 0 0,0 0 0 0 0,-16 26 1 0 0,28-39-72 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1 10 0 0 0,0-13-18 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,3 0 0 0 0,10 4 63 0 0,0-1-1 0 0,27 3 1 0 0,-37-6-80 0 0,65 5 51 0 0,105-3 1 0 0,15 0-1279 0 0,-155 0 357 0 0,58 5-4993 0 0,-34 2-3744 0 0,-15-4 728 0 0,-24-3 5379 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4357.69">1964 66 700 0 0,'2'-3'726'0'0,"0"1"-1"0"0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-7 1 0 0,1 3 453 0 0,-19 22 3550 0 0,11-2-4228 0 0,1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-3 23 0 0 0,2 1 24 0 0,2 0-1 0 0,2 0 1 0 0,4 44 0 0 0,-2-71-476 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,2-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,8 10-1 0 0,-11-17-18 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,8-4 1 0 0,8-3 60 0 0,0-1 1 0 0,-1-2-1 0 0,-1 0 0 0 0,1-1 1 0 0,-2-1-1 0 0,20-17 0 0 0,-13 8 236 0 0,-2-1-1 0 0,0-1 1 0 0,29-42 0 0 0,-18 29 606 0 0,-9 10 315 0 0,-28 36-771 0 0,0 0 0 0 0,0 1 0 0 0,-2 15 0 0 0,0-2-99 0 0,-9 72 168 0 0,8-49-415 0 0,-4 66-129 0 0,5 138 0 0 0,5-185 0 0 0,1-42-1755 0 0,6 31 1 0 0,-4-33-990 0 0,1 32 1 0 0,-4-50 1536 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,3 2-1 0 0,-4-1-2239 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink104.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:34.283"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">55 57 372 0 0,'-2'-2'490'0'0,"0"0"0"0"0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5-2 0 0 0,-13-5 4725 0 0,22 7-4815 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,3 0 0 0 0,36-7 778 0 0,32-1-32 0 0,1 2 0 0 0,91 6 0 0 0,-137 0-691 0 0,0 2 0 0 0,-1 1 0 0 0,38 9 0 0 0,-62-11-412 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 2 1 0 0,-2 6 74 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-13 12 0 0 0,-154 114 727 0 0,143-111-729 0 0,19-14-69 0 0,1-1 1 0 0,1 2-1 0 0,-14 13 1 0 0,21-19-30 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 6-1 0 0,1-8-10 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,3 3 0 0 0,44 20 38 0 0,-41-20-36 0 0,178 66 83 0 0,-96-38-53 0 0,-78-27-35 0 0,19 6 142 0 0,50 26 0 0 0,-74-33-23 0 0,1 0 0 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,6 10-1 0 0,-8-14-96 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-2 5 0 0 0,1-4 54 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-7 6 1 0 0,-6 2 161 0 0,-1 0 0 0 0,0-1 0 0 0,-38 18 0 0 0,14-12-241 0 0,-1-2 0 0 0,0-2 0 0 0,-79 15 0 0 0,23-6 0 0 0,72-15-7767 0 0,40-12-2350 0 0,25-11 3414 0 0,17-14 1182 0 0,-15 5 2958 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink105.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:34.776"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">156 9 20 0 0,'-8'0'1836'0'0,"0"1"1"0"0,0-1-1 0 0,0 2 0 0 0,1-1 1 0 0,-1 1-1 0 0,-9 5 5319 0 0,33-5-5265 0 0,4 1-1138 0 0,34-2 1035 0 0,79-8 0 0 0,-27 1-1188 0 0,89-1-431 0 0,-65 0-3474 0 0,-106 8 1362 0 0,-4 0-4131 0 0,-44-1-6936 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.91">36 402 1308 0 0,'-20'8'4471'0'0,"19"-7"-3902"0"0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,2-1-285 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-1 1 0 0,0 1 258 0 0,335-6 4265 0 0,-85 1-5148 0 0,-1 7-4696 0 0,-114-1-9882 0 0,-121 1 11676 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink106.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:49:05.295"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">25 142 1084 0 0,'0'-1'467'0'0,"0"0"1"0"0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,-2-2-1 0 0,2 2-158 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-2 492 0 0,11-12 2573 0 0,-5 10-3121 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 1 0 0,1-1-1 0 0,0 1 1 0 0,9-4 0 0 0,12-2 242 0 0,29-7 0 0 0,-43 13-220 0 0,27-5 132 0 0,1 2-1 0 0,0 2 1 0 0,0 2 0 0 0,50 4 0 0 0,-67-2-183 0 0,-1 2 0 0 0,0 0 1 0 0,0 2-1 0 0,0 0 0 0 0,-1 2 0 0 0,33 12 0 0 0,-54-17-196 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 3-1 0 0,-2-1 10 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-2 4 0 0 0,-3 7 51 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,-16 22-1 0 0,-101 114 499 0 0,20-28-84 0 0,-65 76 456 0 0,111-130-530 0 0,52-58-379 0 0,5-7-38 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 4 0 0 0,1-6-8 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,24 2 90 0 0,428-12 768 0 0,3-1-650 0 0,-428 11-1329 0 0,29-5 0 0 0,-78 6-10944 0 0,-14-1 4388 0 0,-20 2 909 0 0,19 0 3783 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink107.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:49:06.725"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">55 922 52 0 0,'0'0'184'0'0,"0"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-21-3 3433 0 0,1 0 2525 0 0,26-5-2588 0 0,16-10-2720 0 0,-18 16-587 0 0,33-30 867 0 0,50-58 1 0 0,-59 60-748 0 0,-6 5 84 0 0,32-52 0 0 0,-31 44-241 0 0,13-24 459 0 0,-3-1 0 0 0,-3-2-1 0 0,44-124 1 0 0,-48 100 1247 0 0,-57 216 357 0 0,29-117-2089 0 0,-11 72 599 0 0,-3 156 0 0 0,15-178-544 0 0,2 23-160 0 0,4 0 1 0 0,27 147-1 0 0,-15-149-79 0 0,-6-43 0 0 0,-3 0 0 0 0,4 69 0 0 0,-1-30-1497 0 0,-10-82 1326 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,28-17-7811 0 0,-17 7 5630 0 0,0 0 0 0 0,0-1-1 0 0,12-16 1 0 0,-7 9 583 0 0,17-22-703 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="944.38">2061 151 328 0 0,'1'-1'524'0'0,"0"-1"0"0"0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1-3 0 0 0,1-34 2157 0 0,-2 29-1606 0 0,0 8-897 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-3-3 0 0 0,1 1 78 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-8-4 0 0 0,-3 1 436 0 0,0 1-1 0 0,-1 0 0 0 0,-18-2 1 0 0,1 2-4 0 0,1 1 0 0 0,-1 2 1 0 0,1 1-1 0 0,-1 2 0 0 0,1 1 0 0 0,0 2 0 0 0,0 1 1 0 0,0 1-1 0 0,0 2 0 0 0,2 1 0 0 0,-1 1 0 0 0,-34 18 1 0 0,48-19-455 0 0,1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,1 2-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 1 1 0 0,-1 0-1 0 0,-18 33 0 0 0,18-25-60 0 0,1 1 0 0 0,1 1 0 0 0,2 0 0 0 0,0 0 0 0 0,2 0 1 0 0,0 1-1 0 0,-3 36 0 0 0,6-34-92 0 0,2 1 1 0 0,1-1-1 0 0,1 1 1 0 0,1-1 0 0 0,2 1-1 0 0,11 47 1 0 0,-11-64-75 0 0,0 1 1 0 0,2-1-1 0 0,-1 0 0 0 0,2-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,1-2 0 0 0,-1 1 1 0 0,1-1-1 0 0,1-1 1 0 0,13 8-1 0 0,-15-11-85 0 0,0 1-1 0 0,0-1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 0 0 0,17-1 1 0 0,-13-1-215 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,18-9 0 0 0,-4-2-597 0 0,0-1-1 0 0,-1-2 1 0 0,-1 0 0 0 0,-2-2-1 0 0,0 0 1 0 0,32-40 0 0 0,-16 12-798 0 0,-3-2 0 0 0,55-104 0 0 0,-65 102 1620 0 0,-2-1 1 0 0,-3-1-1 0 0,16-66 1 0 0,-35 117 297 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2-7 0 0 0,3 13-154 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2 0 1 0 0,-2 2 223 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-5 7 1 0 0,0 2 104 0 0,2-1-1 0 0,0 1 1 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-4 18 0 0 0,-10 80 924 0 0,11-43-748 0 0,3-1 0 0 0,10 131 0 0 0,4 12 287 0 0,-6-102-425 0 0,1 162 365 0 0,-4-225-748 0 0,-1 0 0 0 0,-2 0 0 0 0,-2 0 0 0 0,-13 54-1 0 0,11-73-32 0 0,-1-1 0 0 0,-1 0 0 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,-2 0 0 0 0,0 0-1 0 0,-28 35 1 0 0,25-41-28 0 0,0-1 0 0 0,-1 0 0 0 0,0-2 0 0 0,-2 0 0 0 0,1-1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-2-2 0 0 0,-30 12 0 0 0,8-7 0 0 0,-1-2 0 0 0,0-1 0 0 0,-80 9 0 0 0,46-15-1058 0 0,-81-4-1 0 0,87-3 15 0 0,69 1 37 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-4 1 0 0 0,6-1 528 0 0,-7 11-10076 0 0,7-11 10075 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,0 7-2952 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:34.256"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 401 148 0 0,'-34'-2'4917'0'0,"28"-1"-2037"0"0,23 0-2193 0 0,51 0-1264 0 0,0 3 1 0 0,83 11-1 0 0,-144-10 321 0 0,82 10-4858 0 0,-74-8 3874 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="336.19">260 539 344 0 0,'-25'7'2785'0'0,"-39"17"0"0"0,44-16-1654 0 0,19-8-1096 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,21 10 1113 0 0,-22-10-1146 0 0,21 6-2 0 0,0-1-1 0 0,1-1 0 0 0,22 2 0 0 0,-3-1-1204 0 0,-20-3-284 0 0,0-2 1 0 0,0 0-1 0 0,0-1 0 0 0,26-5 1 0 0,-45 6 1383 0 0,30-4-1561 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="675.12">1215 224 1020 0 0,'-4'0'371'0'0,"1"0"-1"0"0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-3 4 1 0 0,-4 5 157 0 0,0 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,2 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-5 20 0 0 0,3-4-201 0 0,1 1 1 0 0,2 0-1 0 0,-1 61 1 0 0,5-84-312 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,11 4 0 0 0,-9-3-11 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-2-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,19-9 0 0 0,-14 3-6 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0-1 0 0 0,-2 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-2-1-1 0 0,14-24 0 0 0,-18 27-2 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-6-20 0 0 0,2 19 109 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-2 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0 1 1 0 0,-1 0 0 0 0,-20-9-1 0 0,20 11 47 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-20 1 0 0 0,27 1-132 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-9 15 1 0 0,5-6-100 0 0,2 0 0 0 0,0 0-1 0 0,1 1 1 0 0,1 0 0 0 0,0 1-1 0 0,2 0 1 0 0,0 0 0 0 0,-6 36 0 0 0,8-27-1321 0 0,2-1 1 0 0,0 0 0 0 0,1 1-1 0 0,2-1 1 0 0,9 46 0 0 0,-6-50-725 0 0,2-2 1 0 0,8 21-1 0 0,-14-39 1988 0 0,14 34-2637 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1013.65">1926 701 1460 0 0,'7'-4'1101'0'0,"-3"1"-276"0"0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,6-1-1 0 0,-11 3-790 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 12 927 0 0,-10 11 459 0 0,11-21-1169 0 0,-22 41 1538 0 0,-34 90 1 0 0,49-113-2114 0 0,-17 61-318 0 0,23-71-1341 0 0,0 1 1 0 0,0-1-1 0 0,1 13 0 0 0,16-22-5835 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1349.36">2105 581 972 0 0,'0'-4'795'0'0,"0"0"0"0"0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-6-1 0 0,-1 6-614 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,4-4 0 0 0,24-27 710 0 0,-2-2-1 0 0,29-46 0 0 0,-47 66-796 0 0,6-12 260 0 0,-1 0-1 0 0,-2-1 1 0 0,-1 0-1 0 0,-1-1 1 0 0,-1-1-1 0 0,12-60 1 0 0,-23 88-297 0 0,3-9 544 0 0,0 0-1 0 0,-1-1 1 0 0,0-17 0 0 0,-2 30-587 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-9 6 356 0 0,-8 12 153 0 0,5 2-88 0 0,0 1 1 0 0,2 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-7 29-1 0 0,-18 117 1553 0 0,30-147-1786 0 0,-5 38 4 0 0,2 0 0 0 0,3 0 0 0 0,6 96 0 0 0,-2-148-301 0 0,1 7-578 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,6 14 0 0 0,-9-28 469 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,6-3-1148 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,6-7-1 0 0,-10 10 1068 0 0,22-21-2063 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1769.16">2855 110 740 0 0,'22'-35'2344'0'0,"-17"28"-1657"0"0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,5-13 0 0 0,-9 19-591 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0-10 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-2 1 1 0 0,-24 12 1494 0 0,-4 9-756 0 0,1 2 1 0 0,1 1-1 0 0,1 1 1 0 0,1 1-1 0 0,2 1 1 0 0,-37 56-1 0 0,38-47-480 0 0,3 0 0 0 0,0 2 0 0 0,3 0 0 0 0,1 1 0 0 0,-17 67 0 0 0,27-80-289 0 0,1 0-1 0 0,-3 53 1 0 0,8-64-49 0 0,0-1 1 0 0,1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,8 22 1 0 0,-9-31-7 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,8 2 0 0 0,-6-2 5 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,15-8-1 0 0,-10 3 20 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-2-1 0 0,-1 1 1 0 0,-1-1-1 0 0,13-29 1 0 0,-18 37 116 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-2-8-1 0 0,2 11-85 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-3 0 0 0 0,-8 0-237 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,2 1 0 0 0,-14 7 1 0 0,-5 4-3245 0 0,0 1 1 0 0,-38 29-1 0 0,4 7-4340 0 0,34-26 4749 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3403.27">640 413 700 0 0,'0'0'248'0'0,"0"-1"1"0"0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1-163 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,15 50 1956 0 0,35 80-1975 0 0,-44-118-494 0 0,-5-8-88 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,6 7 1 0 0,-8-11 325 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-2-1 0 0,1-7-1022 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3745.2">781 521 240 0 0,'-6'-19'1332'0'0,"5"14"-910"0"0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,-4-7-1 0 0,6 12-363 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-15 29 1223 0 0,0 22-714 0 0,-4 9-579 0 0,14-49-649 0 0,1-1 0 0 0,-2 1 1 0 0,0-1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-10 12 1 0 0,2-8-1210 0 0,0 0 72 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3746.2">501 650 848 0 0,'10'-9'1264'0'0,"5"0"44"0"0,0 3-552 0 0,10-3-376 0 0,5 3-136 0 0,0 0-52 0 0,10-3-28 0 0,0 3-36 0 0,0 3-116 0 0,10-3-296 0 0,0 3-660 0 0,0-3-288 0 0,5 3-120 0 0,-5 3 24 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:40.162"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">197 810 1360 0 0,'11'-155'6259'0'0,"-8"125"-3052"0"0,9-39-1 0 0,-11 67-2936 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,1-1-1 0 0,-3 2-209 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,2 10 240 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-3 13 0 0 0,-21 66 158 0 0,15-56-326 0 0,-109 304 4 0 0,119-337-137 0 0,-33 88-23 0 0,-34 153 1 0 0,67-241 24 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1 2 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,34-34 63 0 0,-7 1-828 0 0,-1-2 0 0 0,-2-1 1 0 0,22-43-1 0 0,-34 52-2489 0 0,-2 0-1 0 0,18-58 1 0 0,-6-12-3760 0 0,-14 48 4095 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.03">343 51 4 0 0,'0'-2'455'0'0,"0"-1"0"0"0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-4 0 0 0,2 4 164 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0-4 0 0 0,10 19 287 0 0,33 132-3864 0 0,-18-37-2480 0 0,-14-71 3913 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="680.83">692 780 1380 0 0,'-2'0'10467'0'0,"47"1"-10344"0"0,1 1 1 0 0,0 2-1 0 0,68 16 0 0 0,-49-4-5024 0 0,86 10 0 0 0,-106-23 2919 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1081.83">1662 465 672 0 0,'-8'-21'2187'0'0,"-16"-33"0"0"0,17 39-1213 0 0,-1-1 1 0 0,2 0-1 0 0,0 0 0 0 0,-4-19 1 0 0,10 33-916 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 0 0 0 0,3-3 98 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,15-1-1 0 0,0 2-73 0 0,1 1-1 0 0,-1 2 0 0 0,0 0 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 2 0 0 0,38 12 0 0 0,-49-14-46 0 0,0 1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-2 2 1 0 0,18 15 0 0 0,-24-20 62 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-4 6-1 0 0,-7 13 573 0 0,-2-2 0 0 0,0 0 0 0 0,-2 0-1 0 0,-34 36 1 0 0,16-20-89 0 0,-14 15-63 0 0,20-23-366 0 0,-29 41 0 0 0,-17 43-2203 0 0,-18 68-12431 0 0,72-134 11357 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.83">1742 1824 80 0 0,'10'3'3180'0'0,"-5"-6"577"0"0,5-3 211 0 0,-5 3-56 0 0,0 0-2267 0 0,-5 6-1862 0 0,0 3-1695 0 0,5 3-1224 0 0,-5 0-396 0 0,0 9 107 0 0,0 0 537 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:47.337"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">117 210 84 0 0,'-4'-25'1512'0'0,"0"1"0"0"0,-1 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,-2 1 0 0 0,-14-30-1 0 0,22 53-1438 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0-15 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,-10 44 1522 0 0,10-39-1262 0 0,-9 60 738 0 0,4 1 0 0 0,2 0 1 0 0,6 86-1 0 0,38 389 1252 0 0,3 99-923 0 0,58 1474-615 0 0,-83-1837-761 0 0,23 302-54 0 0,-31-458 12 0 0,71 1127-125 0 0,-81-1240 158 0 0,5 587 14 0 0,-18 196 76 0 0,36-4-149 0 0,87 140-1257 0 0,-100-876 93 0 0,2-1 1 0 0,2-1 0 0 0,25 63 0 0 0,-34-105 463 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,11 10 0 0 0,-15-16 427 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-2 0 0 0,24-14-2496 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:08.534"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">495 141 100 0 0,'0'-4'586'0'0,"10"-19"11672"0"0,-16 81-7994 0 0,2-29-3243 0 0,-13 79 1368 0 0,-6 72 729 0 0,8-74-2134 0 0,1 3-402 0 0,9-51-339 0 0,-1 23 72 0 0,5-17-84 0 0,2 54 195 0 0,2-57-201 0 0,-1-4 201 0 0,18 104 1 0 0,-5-85-64 0 0,20 79 479 0 0,-19-101-460 0 0,-11-45-319 0 0,-5-8-52 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 2-1 0 0,0-9-1388 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-4-8-1 0 0,-9-28-6574 0 0,5-38 318 0 0,1 30 5053 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="737.56">145 201 320 0 0,'-24'-21'4658'0'0,"18"15"-2868"0"0,5 5-1660 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-2 0 1 0 0,-27-17 6178 0 0,5-2-1912 0 0,21 17-3623 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-4-5 0 0 0,0 2-114 0 0,7 6-604 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-2-1 0 0,1 2 143 0 0,16 0 17 0 0,34-2-118 0 0,57-11 1 0 0,-9 1-14 0 0,98-6 31 0 0,247-16-61 0 0,-389 32-293 0 0,1 3 0 0 0,85 10 0 0 0,-138-10 55 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3 3 1 0 0,-4-3-64 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,-6 9-1634 0 0,0-2 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-22 14 0 0 0,3-2-549 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.63">139 1803 432 0 0,'0'0'995'0'0,"10"-12"4317"0"0,-9 11-5011 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,-2-4 3647 0 0,4 4-3830 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-12-3 3079 0 0,12 2-3111 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-2-1 0 0 0,-20 4 283 0 0,20-4-221 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 2 1 0 0,10-2 127 0 0,0 0 467 0 0,7 1 17 0 0,38 4-315 0 0,1-2-1 0 0,-1-2 1 0 0,84-7-1 0 0,-58 1-272 0 0,177-9 22 0 0,405-1-899 0 0,-615 15-92 0 0,100 8-1898 0 0,-70 3-4144 0 0,-3 8-7856 0 0,-49-14 11037 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3073.59">2610 597 504 0 0,'-20'7'9720'0'0,"20"-7"-9641"0"0,10 5 920 0 0,-4-3-749 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,9-2-1 0 0,3 0 61 0 0,56-2 87 0 0,12-1-1266 0 0,172 11-1 0 0,-104 10-9912 0 0,-139-13 8903 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3802.37">2620 1062 72 0 0,'0'0'170'0'0,"-1"0"1"0"0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,13-1 4625 0 0,11 0-3287 0 0,201-11 1393 0 0,36 1-4400 0 0,37 16-9514 0 0,-233-6 8798 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:15.017"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">394 470 308 0 0,'-4'-6'8017'0'0,"4"6"-7871"0"0,-10 8 783 0 0,4-2-320 0 0,3-2-336 0 0,-1-1 2 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-5 1-1 0 0,-12 5 1302 0 0,-1-7 1344 0 0,22-2-2856 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-5-7 943 0 0,4 7-902 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0-2 0 0 0,1 2-51 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,1-1 0 0 0,3-1 59 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,7-2-1 0 0,6-4 93 0 0,-5 3-86 0 0,1 0-1 0 0,0 2 0 0 0,1-1 1 0 0,-1 2-1 0 0,1 0 0 0 0,27-3 1 0 0,-33 6-94 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,17 6 1 0 0,-20-6 3 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,5 13 1 0 0,-3-5 47 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,-1 0 1 0 0,4 25-1 0 0,-6-24-10 0 0,-2 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,-2 0 0 0 0,0 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,-2 0 0 0 0,-8 15 0 0 0,-12 15 156 0 0,-2 0 1 0 0,-46 54 0 0 0,22-32-30 0 0,29-38-86 0 0,-43 41 0 0 0,-11 11 35 0 0,-46 45 75 0 0,109-112-193 0 0,-29 32 63 0 0,27-32-44 0 0,-19 23 0 0 0,-3 2 64 0 0,0-6 36 0 0,39-33-137 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,8-2 155 0 0,265-10 329 0 0,-2 1-361 0 0,-160 10-99 0 0,-108 0-165 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,2 3 0 0 0,12 12-7012 0 0,-15-16 6496 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,2-1 1 0 0,11-2-2339 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.22">1579 689 724 0 0,'-8'-1'3170'0'0,"11"1"-828"0"0,16 4-570 0 0,-7 4-930 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,17 19-1 0 0,31 45 726 0 0,-57-70-1509 0 0,130 171 1784 0 0,-121-161-1794 0 0,25 35 2 0 0,80 82 0 0 0,-98-113-464 0 0,-13-12-175 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,9 6 1 0 0,-14-9 357 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,20-19-3726 0 0,-11 6 2096 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="880.06">2185 641 1500 0 0,'0'-1'155'0'0,"-1"0"0"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-5 5 225 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-7 13 0 0 0,6-11 306 0 0,-13 25 251 0 0,-20 41-1 0 0,11-16-315 0 0,-104 224 1221 0 0,116-245-1845 0 0,7-16-60 0 0,3-5-334 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,-19 25-1 0 0,27-40 3 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-3 0 0 0 0,-13-2-1760 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.02">1409 1217 1040 0 0,'2'0'794'0'0,"1"-1"0"0"0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,2 0 1 0 0,0-1-166 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6-1 0 0 0,503-94 5893 0 0,-201 59-7063 0 0,-103 20-1113 0 0,-173 16 223 0 0,30-3-3630 0 0,-57 4 3548 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,8-4-1 0 0,-6 1-589 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3680.04">4024 215 272 0 0,'6'-15'1062'0'0,"0"0"0"0"0,3-20 0 0 0,4-8 340 0 0,-11 36-1014 0 0,0-1 0 0 0,-1 1-1 0 0,1-14 1 0 0,1-5 956 0 0,-2 25-1167 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-3-2 0 0 0,3 2-109 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-26 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2 1 0 0 0,-33 43 1780 0 0,-52 87 0 0 0,-16 61-241 0 0,42-78-839 0 0,-245 375 1076 0 0,204-336-1383 0 0,-3-1 347 0 0,95-139-661 0 0,8-12-70 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 3 0 0 0,2-5 187 0 0,16-7-3 0 0,158-47-1677 0 0,-50 19-5070 0 0,-106 27 5324 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,19-22 0 0 0,-12 8-172 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4015.25">3815 935 1108 0 0,'4'-8'836'0'0,"0"0"-1"0"0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0-11 484 0 0,-12 36 681 0 0,4-1-1306 0 0,-23 51 1465 0 0,4 2 0 0 0,-24 97 0 0 0,-6 87-2341 0 0,52-231-2721 0 0,7-34-4421 0 0,-2 7 6584 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,4-4 0 0 0,0-1-42 0 0,12-20-905 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4963.51">4489 272 692 0 0,'2'-5'668'0'0,"-1"0"0"0"0,2 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,6-7 0 0 0,-6 9-576 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,6 0 1 0 0,-2 0 79 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,9 4 1 0 0,-14-5-105 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 4 1 0 0,0 4 148 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-7 10 0 0 0,-11 16 785 0 0,-53 65 0 0 0,75-102-993 0 0,-137 164 1524 0 0,-45 56-364 0 0,137-160-834 0 0,-65 117 1 0 0,95-149-309 0 0,2 0 1 0 0,1 1 0 0 0,2 1-1 0 0,1 0 1 0 0,-10 46 0 0 0,18-68-22 0 0,2 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,5 13-1 0 0,-5-18 1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,5 0-1 0 0,3 0 6 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0-2 0 0 0,13-4 0 0 0,-8 0 3 0 0,-1 1 0 0 0,0-2 1 0 0,-1 0-1 0 0,0-1 0 0 0,25-22 1 0 0,-21 14-5 0 0,-1 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,-2 0-1 0 0,0-2 0 0 0,-2 0 1 0 0,0 0-1 0 0,18-47 0 0 0,-27 57-10 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-2-15 0 0 0,-1 10-9 0 0,-1 1 1 0 0,0-1-1 0 0,-2 1 0 0 0,0 0 1 0 0,-15-28-1 0 0,-7-3-24 0 0,-2 2-1 0 0,-2 1 1 0 0,-47-50-1 0 0,44 54 19 0 0,15 18-6 0 0,1-1 0 0 0,0 0-1 0 0,2-2 1 0 0,2 0 0 0 0,-15-31 0 0 0,29 56 8 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,2 0-1 0 0,8-4-117 0 0,1 2 0 0 0,-1-1 0 0 0,1 2 0 0 0,22-3 0 0 0,-23 4 9 0 0,50-5-1098 0 0,90 3 0 0 0,64 15-1198 0 0,-127-6 1624 0 0,398 48-1365 0 0,-451-44 2189 0 0,-36-9-23 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 8 102 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,-15 11 0 0 0,-11 11 132 0 0,14-10-210 0 0,-25 25 233 0 0,-61 74-1 0 0,94-103-227 0 0,0 1 0 0 0,1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,2 0 1 0 0,-1 1-1 0 0,2 1 1 0 0,1-1-1 0 0,-7 33 1 0 0,11-42-36 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,13 1-1 0 0,-5-1 2 0 0,1-1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1-2-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-2-1 0 0,26-8 1 0 0,-20 3 8 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 1 0 0,1-1-1 0 0,31-26 0 0 0,-28 18-16 0 0,-1-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1-2-1 0 0,-1 0 1 0 0,19-46 0 0 0,-25 46 43 0 0,0-1 0 0 0,-2 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,-2 1 0 0 0,-1-1 0 0 0,0-48 0 0 0,-4 62 75 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-9-17 0 0 0,8 21 15 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-13-8 0 0 0,14 11-100 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-14 4-1 0 0,8 1-17 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 2-1 0 0,-22 17 1 0 0,10-5-5 0 0,1 1-1 0 0,1 0 1 0 0,1 2 0 0 0,1 1 0 0 0,2 1 0 0 0,-30 50-1 0 0,37-52-306 0 0,0-1 0 0 0,2 2 0 0 0,1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,2 0 0 0 0,0 0 0 0 0,-2 45 0 0 0,7-61-70 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,7 16 0 0 0,-5-16-102 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,18 3 1 0 0,17 3-852 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5808.07">5959 854 252 0 0,'18'-23'815'0'0,"2"-2"1021"0"0,26-42 1 0 0,-42 59-1291 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,2-19 1 0 0,-3 28-502 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 0 0 0 0,0 1 13 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-3 1-1 0 0,-3 0 93 0 0,0 1 1 0 0,0 0 0 0 0,1 1-1 0 0,-9 3 1 0 0,0 1-46 0 0,1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-9 19 0 0 0,11-16-76 0 0,0 0 1 0 0,2 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-2 25-1 0 0,6-32-28 0 0,2 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,7 17 0 0 0,-6-18-27 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1 0 0 0,14 6-1 0 0,-9-5-9 0 0,0-1 0 0 0,-1-1 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,28-5-1 0 0,-14-1 26 0 0,0-2 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1-2-1 0 0,0 0 1 0 0,-2-2 0 0 0,0 0 0 0 0,0-2 0 0 0,-2 0 0 0 0,0-2 0 0 0,18-24 0 0 0,-24 26 12 0 0,-1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-2 0-1 0 0,7-24 0 0 0,-11 28 26 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-6-30 0 0 0,4 34 86 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-2 1-1 0 0,1 1 1 0 0,-2-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-23-19 1 0 0,24 23-68 0 0,-1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-18 3 0 0 0,11 2-23 0 0,1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0 0 0 0 0,1 2-1 0 0,0 0 1 0 0,0 2-1 0 0,1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-17 20-1 0 0,14-12-22 0 0,0 0 0 0 0,2 1-1 0 0,1 1 1 0 0,0 1 0 0 0,2 0-1 0 0,1 1 1 0 0,1 0 0 0 0,1 1-1 0 0,-8 33 1 0 0,14-42-123 0 0,2 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,2-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,10 33 0 0 0,-9-39-52 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1-1 0 0 0,0 1 0 0 0,15 7 0 0 0,-9-6-63 0 0,1-2-1 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,31 3 0 0 0,-22-6 62 0 0,-1 0 0 0 0,0-2 0 0 0,-1-1 0 0 0,1-1 0 0 0,43-12 1 0 0,-24 1 117 0 0,-1-2 1 0 0,-1-2-1 0 0,0-2 1 0 0,-2-2 0 0 0,0-2-1 0 0,62-49 1 0 0,-63 40 462 0 0,-1-1 0 0 0,-2-2 0 0 0,-2-2 0 0 0,38-52 0 0 0,-68 83-93 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,5-14 0 0 0,-9 22-297 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-2-1 0 0 0,1 0 6 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-2 1 0 0 0,-34 10 231 0 0,25-4-199 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-12 14 0 0 0,10-11-14 0 0,-1 1-8 0 0,1 1 1 0 0,1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,1 1 1 0 0,1 0 0 0 0,1 0 0 0 0,-2 24-1 0 0,4-27-33 0 0,1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,2-1 0 0 0,0 0 1 0 0,0 0-1 0 0,2 0 1 0 0,-1 0-1 0 0,10 14 0 0 0,-9-17-9 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,2-1-1 0 0,-1 1 1 0 0,1-2-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,14 5-1 0 0,-8-5 10 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0-2 1 0 0,0 0 0 0 0,18-9 0 0 0,-5 0 15 0 0,0-2 0 0 0,-2 0 0 0 0,0-2 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1-2 0 0 0,31-37 0 0 0,-37 37-32 0 0,-1 0-1 0 0,-1-2 0 0 0,24-46 0 0 0,-28 44 139 0 0,-1 0 0 0 0,-1-1 0 0 0,-2-1 0 0 0,0 0 1 0 0,-2 0-1 0 0,4-45 0 0 0,-8 49 213 0 0,-2 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-2 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 1 0 0 0,-2 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,-1 1 1 0 0,0 1 0 0 0,-1 0-1 0 0,-2 0 1 0 0,-15-20 0 0 0,16 25-87 0 0,-1 1 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,0 2 1 0 0,-22-15 0 0 0,28 22-235 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1 1 1 0 0,-18 1-1 0 0,9 3-363 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1 2 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-18 21 0 0 0,3 0-2411 0 0,2 1 0 0 0,1 1 0 0 0,2 1 1 0 0,-28 54-1 0 0,19-28-463 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6690.15">8470 533 1116 0 0,'3'-1'4308'0'0,"-4"1"-4245"0"0,8 6 1206 0 0,3 10-872 0 0,46 105 2890 0 0,68 91-2541 0 0,-110-188-1071 0 0,-3-3-654 0 0,19 23 1 0 0,-24-35-67 0 0,1-1 1 0 0,0-1 0 0 0,10 8-1 0 0,-4-6-779 0 0,-2-5 154 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7025.9">9014 545 876 0 0,'-4'-53'3593'0'0,"3"49"-3237"0"0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-3-6-1 0 0,4 8-244 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-3 2 1 0 0,-4 1 257 0 0,0 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-7 8 1 0 0,3 0 9 0 0,0-1 0 0 0,1 2 0 0 0,1-1 1 0 0,1 2-1 0 0,-16 25 0 0 0,-33 83 409 0 0,48-98-676 0 0,-54 136 103 0 0,43-105-397 0 0,12-29-532 0 0,-14 28-1 0 0,14-34-201 0 0,-14 26-2816 0 0,22-45 3232 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-3 0 0 0 0,-9-1-1509 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7362.01">8205 992 1560 0 0,'0'-1'380'0'0,"0"-1"0"0"0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1-1 0 0 0,15-12 1876 0 0,29-6-1682 0 0,-31 15 354 0 0,36-14 277 0 0,1 3 0 0 0,57-11 0 0 0,109-7-790 0 0,-85 21-1392 0 0,69 4-5557 0 0,-78 4 1324 0 0,-63 2 3127 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:24.850"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">406 211 832 0 0,'-5'-14'2182'0'0,"5"14"-2090"0"0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-7 2 310 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,-10 8 0 0 0,-43 46 1069 0 0,36-35-1028 0 0,6-5-221 0 0,1 0 0 0 0,1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,2 1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,9 43 0 0 0,-3-29-180 0 0,2-1 0 0 0,1 0 0 0 0,2-1 0 0 0,18 40 0 0 0,-22-62-29 0 0,0 1 0 0 0,0-1 1 0 0,2 0-1 0 0,0 0 0 0 0,0-1 0 0 0,2-1 0 0 0,-1 0 1 0 0,2 0-1 0 0,0-1 0 0 0,0-1 0 0 0,23 15 1 0 0,-20-17 0 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-2 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-2 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-2 1 0 0,25-8-1 0 0,-15 2-1 0 0,0-1 0 0 0,-1-1-1 0 0,-1-2 1 0 0,0 0 0 0 0,0-2 0 0 0,-2-1-1 0 0,0-1 1 0 0,-1-1 0 0 0,-1 0 0 0 0,31-40 0 0 0,-27 26-22 0 0,-1-1 1 0 0,-2-1-1 0 0,-1-1 1 0 0,-3-1 0 0 0,0-1-1 0 0,19-62 1 0 0,-28 70 42 0 0,-2-1 0 0 0,-2 0 1 0 0,0 0-1 0 0,-2-1 0 0 0,-2 1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,-2 1-1 0 0,-6-37 0 0 0,5 53 66 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-23-18 0 0 0,19 19-29 0 0,-1 0 0 0 0,-1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 1-1 0 0,-21 0 1 0 0,11 2-63 0 0,1 2-1 0 0,0 1 0 0 0,0 1 0 0 0,0 1 1 0 0,0 2-1 0 0,1 0 0 0 0,0 2 1 0 0,0 1-1 0 0,1 1 0 0 0,0 2 0 0 0,0 0 1 0 0,1 2-1 0 0,-31 23 0 0 0,29-17-169 0 0,1 1 0 0 0,0 2 0 0 0,2 1 0 0 0,1 0 0 0 0,1 2 1 0 0,2 1-1 0 0,0 0 0 0 0,1 1 0 0 0,2 2 0 0 0,-25 58 0 0 0,-34 123-5518 0 0,65-171 3083 0 0,2 0-1 0 0,1 1 0 0 0,-2 58 1 0 0,9-47 365 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1027.58">1370 1057 388 0 0,'3'-3'23388'0'0,"7"5"-23054"0"0,-8-2 98 0 0,3 2-378 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 7 0 0 0,-1 0-143 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-10 10 0 0 0,-7 4-1888 0 0,-2-1 0 0 0,0-1 0 0 0,-44 25-1 0 0,-93 42-9994 0 0,160-87 11811 0 0,-42 21-2867 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1867.53">2070 676 84 0 0,'-9'4'1235'0'0,"8"-3"-948"0"0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 2 1 0 0,2-5 258 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-1 0 0 0,29-28-128 0 0,1 0 16 0 0,23-32 220 0 0,65-90-1 0 0,-96 115-357 0 0,-3-2 0 0 0,0-1-1 0 0,-3-1 1 0 0,17-45 0 0 0,-28 59 386 0 0,10-43 1 0 0,-16 56-368 0 0,2-18 558 0 0,-6 33-823 0 0,-2 9-44 0 0,-5 5 52 0 0,1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,2 0 0 0 0,-4 22-1 0 0,-3 14 412 0 0,-3 8 733 0 0,-9 94-1 0 0,9 62 803 0 0,11-183-1846 0 0,0 343 771 0 0,4-196-3113 0 0,-1-190-7500 0 0,3-2 4498 0 0,16-30-367 0 0,-5 15 3178 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2702.76">3481 148 812 0 0,'12'-4'7719'0'0,"2"-1"-4956"0"0,2-1-1777 0 0,-14 6-855 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-2-1 0 0,4-9 640 0 0,-7 11-624 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-4 0 0 0,0 5-44 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-3-2 0 0 0,2 1-18 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-5 0 1 0 0,-9 1 74 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,0 1-1 0 0,1 0 1 0 0,-15 11-1 0 0,0 2 127 0 0,1 1-1 0 0,1 1 1 0 0,1 2-1 0 0,-30 35 0 0 0,35-34-151 0 0,2 1 1 0 0,1 1-1 0 0,2 1 0 0 0,-23 48 1 0 0,22-36 34 0 0,-16 55 1 0 0,27-67-111 0 0,1 0 0 0 0,1 1-1 0 0,1 0 1 0 0,1 34 0 0 0,13 119 70 0 0,-6-150-114 0 0,2-1 0 0 0,1 0 0 0 0,22 59 0 0 0,-20-69 4 0 0,0-1 0 0 0,2 0 0 0 0,19 27-1 0 0,-21-35 0 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,1 1-1 0 0,0-2 1 0 0,28 15 0 0 0,-24-15-11 0 0,2-1 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,28 1 0 0 0,-20-4 13 0 0,0-2-1 0 0,0 0 0 0 0,0-1 1 0 0,-1-2-1 0 0,1-1 0 0 0,34-12 1 0 0,-35 8 45 0 0,-1-1 1 0 0,-1 0-1 0 0,33-22 0 0 0,-42 23 52 0 0,-1 0-1 0 0,-1-2 1 0 0,25-25-1 0 0,-26 24-2 0 0,-1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-2-1 0 0 0,8-21 1 0 0,-11 27-67 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-8-8 0 0 0,5 8-55 0 0,0 1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-23-7 0 0 0,13 6-115 0 0,0 0 1 0 0,0 2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-36 1 0 0 0,11 5-1084 0 0,0 2 0 0 0,0 2-1 0 0,1 2 1 0 0,-87 30-1 0 0,-165 86-11070 0 0,206-80 8234 0 0,6 0 568 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:29.634"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">352 725 1432 0 0,'-8'-10'1642'0'0,"-1"-1"0"0"0,1 0 0 0 0,-11-20 0 0 0,13 22 774 0 0,7 16 48 0 0,9 12-1463 0 0,4 12 415 0 0,25 87 1507 0 0,-22-70-2392 0 0,15 36-134 0 0,55 105 0 0 0,12-16-4705 0 0,-91-158 3115 0 0,-7-13 779 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 1 1 0 0,1-3-2084 0 0,3-6 336 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.11">697 761 520 0 0,'-6'-21'3813'0'0,"-14"-32"-1"0"0,16 43-2868 0 0,3 9-811 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 24 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-2 1 1 0 0,-5 5 433 0 0,2 1 1 0 0,-1-1-1 0 0,-8 14 1 0 0,14-21-572 0 0,-35 53 2267 0 0,-52 100 1 0 0,23 0-1726 0 0,45-103-966 0 0,2 0 0 0 0,-15 68-1 0 0,23-81-704 0 0,4-19-986 0 0,-3 29 1 0 0,4-31 538 0 0,1-4-1216 0 0,3-3-2824 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="668.62">18 1172 1024 0 0,'-4'-18'3420'0'0,"4"16"-3190"0"0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-3-3 1 0 0,2 0 410 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,2-9 1 0 0,-2-3 4796 0 0,2 14-5256 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,2-1 0 0 0,398-68 2620 0 0,4 33-4840 0 0,-345 30-1150 0 0,-37 3-1126 0 0,-1-1-1 0 0,-1-2 0 0 0,44-14 1 0 0,-46 11 1911 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1498.4">1938 548 256 0 0,'-6'-12'3570'0'0,"5"10"-2616"0"0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-14-14 12339 0 0,16 25-11512 0 0,-2 4-1292 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-7 20 1 0 0,-2 5 117 0 0,-18 74 666 0 0,-30 132 61 0 0,30-121-707 0 0,20-80-385 0 0,-10 61 292 0 0,8-47-361 0 0,8-43-132 0 0,1-1 0 0 0,1 1 0 0 0,-2 21 0 0 0,4-20 3 0 0,-2 0 0 0 0,-3 17 1 0 0,2-17 59 0 0,1 0 0 0 0,-1 19 0 0 0,3-34-94 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 3 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,282-66-14 0 0,-258 62-54 0 0,106-24-1473 0 0,-108 22 1006 0 0,0-1-1 0 0,0-1 1 0 0,31-17-1 0 0,-43 19-849 0 0,-1 0-1 0 0,0-1 1 0 0,13-12 0 0 0,-16 13-180 0 0,0-1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,3-19 1 0 0,3-7-1275 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2779.7">1853 71 1332 0 0,'-4'-7'1538'0'0,"3"5"-985"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-2-3 0 0 0,0-3 2035 0 0,1 9-2304 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,5-13 11044 0 0,-8 15-10038 0 0,2-1-1885 0 0,-5 26 1245 0 0,5-26-569 0 0,-4 14 163 0 0,4-15-192 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,8-16 1793 0 0,-7 13-1616 0 0,5-11 138 0 0,4-16 264 0 0,-11 29-619 0 0,-3 6-24 0 0,-7 16-32 0 0,3-5 42 0 0,3-4 374 0 0,5-8-119 0 0,3-7-138 0 0,-2 1-116 0 0,-1 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-2 11 0 0 0,-3 9 0 0 0,5-20 0 0 0,2-4 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 0 0 0,1 2 0 0 0,1 8 0 0 0,-3-4 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-14 37 0 0 0,13-9 0 0 0,1-28 0 0 0,0-4 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,3-4 0 0 0,3-6 0 0 0,0 1 0 0 0,15-18 0 0 0,-12 16 0 0 0,-2 1 0 0 0,-21 44 0 0 0,5-10 0 0 0,6-19 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 5 0 0 0,0-6 0 0 0,4-4 0 0 0,8 2-2466 0 0,3 7-7189 0 0,-1 10-4761 0 0,-10-8 10214 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:36.361"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 96 1756 0 0,'-1'-1'364'0'0,"-1"1"0"0"0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1-2 0 0 0,2 4-260 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,9-2 236 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,10-1-1 0 0,-9 1 358 0 0,177-25 2564 0 0,98 9-2752 0 0,-96 22-1999 0 0,-151-1-1593 0 0,45 11 0 0 0,-82-14 2750 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 2 0 0 0,-2 6-2100 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:36.713"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 176 0 0,'0'1'249'0'0,"0"1"0"0"0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,3 0 0 0 0,4 0 346 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,14-2 0 0 0,-1 0-248 0 0,256-12 3972 0 0,5 0-2810 0 0,-153 17-3042 0 0,0 6-3463 0 0,-30-2-1331 0 0,-57-7 3577 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:44.891"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">80 22 36 0 0,'0'0'141'0'0,"-1"-1"0"0"0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-2 1572 0 0,-7 11 670 0 0,-2 82 1103 0 0,-1 1-1529 0 0,1 72 324 0 0,-1-2-1109 0 0,-4 92-487 0 0,-1-4-576 0 0,3-76-933 0 0,5-148-2149 0 0,0-37-4518 0 0,5-26 2190 0 0,0 9 3232 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="505.08">420 127 1276 0 0,'2'-2'447'0'0,"-1"-1"0"0"0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,5-3-1 0 0,-3 6 1225 0 0,-14 10-626 0 0,5-4-673 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5 14 0 0 0,-2 3 66 0 0,-61 85 859 0 0,7-11-537 0 0,34-44-517 0 0,-55 97 59 0 0,73-124-270 0 0,2 1 0 0 0,1 1 0 0 0,-13 49 1 0 0,23-72-28 0 0,-1 2 4 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 10 0 0 0,1-17-6 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,3 3 1 0 0,55 29 167 0 0,28 18 265 0 0,-77-42-383 0 0,1-1 0 0 0,-2 2 0 0 0,1-1 0 0 0,-1 2 0 0 0,12 14 1 0 0,-13-11-94 0 0,0 1 0 0 0,9 21 0 0 0,-16-33-17 0 0,-2 0-91 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 4-1 0 0,0 4-7693 0 0,6-14 3744 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1216.07">880 760 216 0 0,'1'0'135'0'0,"0"-1"0"0"0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,12-23 633 0 0,-7 12 61 0 0,-6 12-720 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-3 1 0 0,1 3-67 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-13 4 31 0 0,0 1-1 0 0,1 0 0 0 0,-1 2 0 0 0,1-1 0 0 0,1 2 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-4 18 1 0 0,8-24-74 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0-1 1 0 0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,8 10 0 0 0,-11-16-3 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,3-1 0 0 0,-1 0-3 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,5-5 1 0 0,3-4 3 0 0,0 0 1 0 0,-2 0-1 0 0,1-2 0 0 0,-1 1 1 0 0,-1-1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 0 0 0 0,0-1 1 0 0,6-22-1 0 0,7-45 162 0 0,-11 40 412 0 0,-8 43-544 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 19 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 1-1 0 0,-2 2 129 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-4 4 1 0 0,-2 8 29 0 0,0 1-1 0 0,1 0 1 0 0,-10 31 0 0 0,15-37-242 0 0,0 0 1 0 0,1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,1 12-1 0 0,0-13-830 0 0,1 0-1 0 0,0 0 0 0 0,7 21 1 0 0,-8-30 621 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,2-1 0 0 0,10-1-1444 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1741.1">1196 745 1560 0 0,'2'-5'949'0'0,"0"-1"-1"0"0,0 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-9 1 0 0,-16 67 5094 0 0,10-19-5487 0 0,2-1 0 0 0,1 1-1 0 0,6 53 1 0 0,-1-44-500 0 0,2 22-25 0 0,-4-42-166 0 0,-3-19-378 0 0,1-16-325 0 0,1 8 694 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,3-5-1 0 0,28-35-351 0 0,-30 41 489 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,5 0-1 0 0,-4 0 4 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,8-6-1 0 0,-10 6 2 0 0,19-16 165 0 0,-1-1-1 0 0,-1-1 0 0 0,0 0 1 0 0,15-24-1 0 0,-22 26 646 0 0,-1-1 1 0 0,10-25-1 0 0,-18 32 611 0 0,-11 17-446 0 0,-12 17-66 0 0,7 3-464 0 0,-14 33 0 0 0,23-47-451 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 13-1 0 0,2-20-262 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,8 7 0 0 0,-7-8-223 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,7-2-1 0 0,12-4-1376 0 0,1-1 282 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2158.97">1805 865 936 0 0,'46'-43'2856'0'0,"-28"27"-1436"0"0,23-26 1 0 0,-15 15 2494 0 0,-82 92-2410 0 0,22-21-1258 0 0,23-31-221 0 0,0 0-1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0 1 0 0 0,1-1 1 0 0,-6 21-1 0 0,10-23-31 0 0,1-6-30 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 10 0 0 0,-2-16 19 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1-1 0 0,1 0-20 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-3 0 0 0,6-6 25 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2-1 0 0 0,1 1 1 0 0,-2-2-1 0 0,12-23 0 0 0,0-12 302 0 0,19-66-1 0 0,-38 111-250 0 0,2-2 307 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-11-1 0 0,-2 19-263 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1-50 0 0,-5 7 199 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 10 0 0 0,1 1-167 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,3 26 0 0 0,2-12-1519 0 0,10 39-1 0 0,-14-68 1073 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3-11 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-1 0 0 0,14-4-1373 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2633.41">2330 676 1024 0 0,'18'-47'6273'0'0,"-13"37"-2616"0"0,-11 31-1820 0 0,-66 246 2071 0 0,68-250-3813 0 0,-26 143-427 0 0,30-142-733 0 0,3-16-35 0 0,3-11 474 0 0,25-58-169 0 0,-4-3-1 0 0,36-137 0 0 0,-33 96 2753 0 0,-23 95-813 0 0,-7 16-1097 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 5 284 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,-1 7 0 0 0,-2 20 395 0 0,2 0 0 0 0,0 0 0 0 0,8 61 0 0 0,-2-64-860 0 0,0 0 0 0 0,2-1 0 0 0,1 1-1 0 0,17 38 1 0 0,-5-21-4344 0 0,-20-44 4362 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,24-27-5373 0 0,-19 22 4158 0 0,9-11-557 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3145.18">2720 718 556 0 0,'12'-24'1991'0'0,"-8"18"-1249"0"0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-11 0 0 0,-3 13 1515 0 0,-6 27 809 0 0,-9 8-2174 0 0,1 1 0 0 0,1 0 0 0 0,2 1 0 0 0,-11 48 0 0 0,17-57-840 0 0,1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,1 0 0 0 0,6 30 0 0 0,-6-47-153 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,7 5-1 0 0,-9-7-68 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-2-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,3-2 0 0 0,3-3-125 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,5-18-1 0 0,-2 3 416 0 0,-1-1-1 0 0,-2 0 1 0 0,7-53 0 0 0,-11 46 473 0 0,-2 25-321 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3-11 0 0 0,-3 16-252 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,3-2 0 0 0,6-2 12 0 0,-1 1-1 0 0,2 0 1 0 0,-1 0-1 0 0,0 2 0 0 0,1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 1-1 0 0,23-1 0 0 0,-32 2 71 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,3 5 0 0 0,1 1 99 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,6 20 0 0 0,-6-11-82 0 0,0 1 1 0 0,-2-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,-2 20 0 0 0,-16 92-1324 0 0,9-91-440 0 0,5-28 54 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,2 17 0 0 0,3-13-513 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3560.64">3971 745 1480 0 0,'-2'-3'1157'0'0,"1"0"0"0"0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-4 817 0 0,-1 23-2814 0 0,-13 42-9654 0 0,9-39 7560 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3897.27">3996 1138 1296 0 0,'5'9'2564'0'0,"-5"0"221"0"0,0-3 91 0 0,0 0-1056 0 0,5-3-948 0 0,0 0-484 0 0,-5 0-116 0 0,0 0-364 0 0,5 0-444 0 0,0-9-3024 0 0,0 0 932 0 0,10 3-53 0 0,-5-3 337 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:37.179"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1164 1 184 0 0,'-15'0'-136'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.51">740 58 484 0 0,'-20'4'2'0'0,"-111"21"2002"0"0,-67 3 5254 0 0,184-27-6543 0 0,7-1-27 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-12 4-1 0 0,45-1 1753 0 0,11-4-1327 0 0,58-6 0 0 0,-39 1-797 0 0,141-13-56 0 0,30 0-598 0 0,-114 16-2751 0 0,0 9-3446 0 0,-109-8 5836 0 0,18 3-1996 0 0,-22-3 2503 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 2 1 0 0,-5 7-1790 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="686.16">20 682 1520 0 0,'-1'0'332'0'0,"-1"1"-1"0"0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 2-1 0 0,1-3-146 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,175-9 5678 0 0,1-10-4814 0 0,101-7-2894 0 0,-129 21-2427 0 0,74 4-7895 0 0,-173 1 9369 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:57.588"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 697 1204 0 0,'3'-14'2607'0'0,"-3"12"-2213"0"0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-358 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,6 16 645 0 0,-6-14-422 0 0,16 40 1435 0 0,2 1 0 0 0,1-2 0 0 0,33 51 0 0 0,-21-46-1591 0 0,2-1 0 0 0,2-2 0 0 0,1-1-1 0 0,66 58 1 0 0,-79-80-321 0 0,7 7-664 0 0,46 31 1 0 0,-67-52 299 0 0,2 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,16 2 0 0 0,-24-5 251 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,3-5-1 0 0,2-18-1358 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.17">621 826 68 0 0,'-19'-16'831'0'0,"4"1"939"0"0,-32-20 1 0 0,41 32-1429 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-15-1 0 0 0,12 2-47 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-12 13 1 0 0,9-7 87 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-7 29 0 0 0,-22 206-101 0 0,22-131-3141 0 0,-7-1-3914 0 0,9-82 2124 0 0,5-26 2688 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="707.5">7 1345 524 0 0,'-2'-11'829'0'0,"0"1"1"0"0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,2-15 0 0 0,-2 21-519 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,4-4 0 0 0,17-8 1051 0 0,0 2-1 0 0,1 0 1 0 0,48-13 0 0 0,88-14 603 0 0,-100 26-1616 0 0,30-7-262 0 0,151-38-4894 0 0,-200 43 713 0 0,0-1 0 0 0,61-32-1 0 0,-64 29 1746 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1061.99">1517 508 1396 0 0,'17'-17'11349'0'0,"-18"25"-11070"0"0,-19 62 3390 0 0,12-45-2709 0 0,1 0 1 0 0,1 1 0 0 0,-3 35-1 0 0,5-15-89 0 0,3 0 0 0 0,9 84 0 0 0,-5-111-714 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,0 0 1 0 0,1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 0 0 0,14 21 1 0 0,-18-30-96 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,15 9-1 0 0,-19-13-46 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,8-1-1 0 0,-3-1-25 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,11-15 1 0 0,-13 15-315 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,3-13 1 0 0,-3 5-1135 0 0,0-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 1 0 0 0,-10-26 0 0 0,1 13-767 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1062.99">1452 157 216 0 0,'-25'-27'1964'0'0,"0"-3"324"0"0,0 3 269 0 0,10 6-389 0 0,0 0-796 0 0,5 6-428 0 0,5 6-292 0 0,0 3-64 0 0,10 12-500 0 0,0 9-252 0 0,5 9-632 0 0,-5 12-1040 0 0,10 9-612 0 0,-5 6-273 0 0,10 9 77 0 0,-5 3 552 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:54.213"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31 830 928 0 0,'-2'0'455'0'0,"0"0"0"0"0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-4-1-1 0 0,5 1-338 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 0-1 0 0,6-10 433 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,16-12-1 0 0,10-11 188 0 0,-16 13-439 0 0,80-92 642 0 0,-81 88-853 0 0,-1 1 1 0 0,-1-2 0 0 0,14-29-1 0 0,-16 27-34 0 0,-2 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-2-1 0 0 0,7-51 0 0 0,-9 49 162 0 0,-3 26-100 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-3-11 0 0 0,3 16-99 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-17 24 589 0 0,14-20-422 0 0,-6 12 53 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,2 0 0 0 0,0 0 0 0 0,-5 28 0 0 0,-10 118 456 0 0,18-135-563 0 0,-3 67 164 0 0,4-1 0 0 0,5 1 0 0 0,15 106 0 0 0,0-80 106 0 0,-4-29-106 0 0,3 14-112 0 0,-3-37-203 0 0,-14-70-38 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,9-22-4068 0 0,4-30-2454 0 0,3-12 732 0 0,-5 28 3511 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="649.04">930 194 164 0 0,'0'-45'6221'0'0,"-10"60"-3854"0"0,-95 227 4698 0 0,99-227-6609 0 0,1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-2 27-1 0 0,6-40-379 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,3 0 1 0 0,6 2 64 0 0,1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,18 1 1 0 0,-6 0-5 0 0,-15-2-111 0 0,68 9 241 0 0,-1 3 1 0 0,131 40 0 0 0,-182-43-143 0 0,0 0-1 0 0,-1 2 1 0 0,0 0-1 0 0,39 29 1 0 0,-48-30-12 0 0,-2 1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,10 19 1 0 0,-15-24-46 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 15 0 0 0,-1-17-2 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1-1 0 0,-7 12 1 0 0,4-10 5 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 0 0 0 0,1-2 1 0 0,-1 1-1 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0-1 0 0 0,-16 3 0 0 0,-14 1 25 0 0,-1-2 0 0 0,-79 0 0 0 0,92-6-79 0 0,0-1 0 0 0,0-1 0 0 0,-55-13 0 0 0,68 12-470 0 0,0-2 1 0 0,1 0-1 0 0,-18-10 1 0 0,24 11-628 0 0,0-1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-13-14 0 0 0,20 19 668 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-5 0 0 0,2-4-1759 0 0,-1 1 0 0 0,8-19 0 0 0,-8 25 1733 0 0,11-23-1971 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1039.7">905 176 540 0 0,'-3'-6'465'0'0,"0"1"1"0"0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-7-4 1 0 0,-17-18 3236 0 0,20 21-640 0 0,21 13-1043 0 0,16 1-838 0 0,1-1 1 0 0,0-1-1 0 0,1-1 0 0 0,32 1 1 0 0,-21-2-558 0 0,263 26 807 0 0,-103-23-2204 0 0,-168-8 7 0 0,15 0-4745 0 0,1-7-6034 0 0,-31 2 9142 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1726.71">2481 98 776 0 0,'-3'-13'2699'0'0,"3"13"-2616"0"0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,16-3 417 0 0,1 1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 2 0 0 0,-1 0 0 0 0,26 5 0 0 0,-16-1-236 0 0,-1 2-1 0 0,1 1 1 0 0,37 17 0 0 0,-59-23-172 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,6 9 0 0 0,-9-11-31 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 4 0 0 0,-3 2 109 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-10 6 1 0 0,-54 36 631 0 0,25-19-245 0 0,31-21-347 0 0,5-3-90 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 1 0 0,-16 18-1 0 0,25-24-114 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,3 1-1 0 0,6 6-2 0 0,2 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0-1 1 0 0,20 7-1 0 0,3 2 0 0 0,20 10 0 0 0,-8-4 31 0 0,0 1 1 0 0,-2 2-1 0 0,76 55 0 0 0,-116-75 117 0 0,0 1-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,4 8 0 0 0,-7-12-16 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-4 4-1 0 0,0-1-10 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-10 4 1 0 0,-10 2 11 0 0,-42 12 1 0 0,38-13-48 0 0,-6 2-225 0 0,0-1 1 0 0,0-1-1 0 0,-1-2 1 0 0,-53 3 0 0 0,63-15-2471 0 0,27 5 2453 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,2 0 1 0 0,5-8-1773 0 0,2 0-1 0 0,-1 0 1 0 0,10-7-1 0 0,5-4-484 0 0,10-9-198 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2713.27">4155 113 1068 0 0,'48'-25'3239'0'0,"-36"21"-2554"0"0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,12-9 0 0 0,-18 12-301 0 0,-1 2-13 0 0,-2 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-3 0 0 0,-3 5-307 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-16-5 926 0 0,5 4-611 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-15 8 0 0 0,-6 5 605 0 0,0 1 0 0 0,-45 32 1 0 0,28-11-353 0 0,2 2 1 0 0,-54 59-1 0 0,93-90-602 0 0,-44 44 140 0 0,-81 111 0 0 0,113-135-177 0 0,1 2 1 0 0,1 0 0 0 0,2 1-1 0 0,1 1 1 0 0,-20 66 0 0 0,31-86 6 0 0,2 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 1-1 0 0,-1-1 1 0 0,2 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,14 18 1 0 0,-9-14 1 0 0,1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0-1 0 0 0,1 0 0 0 0,24 5 0 0 0,-19-7 3 0 0,1-1-1 0 0,-1-1 1 0 0,1-1-1 0 0,0-1 1 0 0,0-1-1 0 0,0-1 1 0 0,-1-2-1 0 0,1 0 1 0 0,-1-1 0 0 0,28-9-1 0 0,-40 10-7 0 0,1-1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-14 1 0 0,-5 16 3 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-6-11 0 0 0,5 11-3 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-12-7-1 0 0,2 3-6 0 0,-1 1-1 0 0,-1 1 1 0 0,0 1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 1 0 0 0,0 1 0 0 0,-31-1-1 0 0,34 4 9 0 0,0 0-1 0 0,0 1 0 0 0,0 1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 2-1 0 0,0 0 0 0 0,0 1 0 0 0,-25 15 1 0 0,39-21-13 0 0,-1 0-1 0 0,1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,1-3-49 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,3 2 1 0 0,10 5-704 0 0,0-1 0 0 0,1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,0 0 0 0 0,1-2 0 0 0,24 3 0 0 0,122 2-3824 0 0,-105-9 3993 0 0,1-2 0 0 0,-1-3 0 0 0,0-2 0 0 0,0-3 0 0 0,99-32-1 0 0,-88 17 866 0 0,128-67-1 0 0,-156 69 809 0 0,0-2-1 0 0,37-33 0 0 0,-74 56-804 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,4-6 0 0 0,-6 10-216 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0-11 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-8-1 161 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-15 12 1 0 0,12-7-73 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,1-1 1 0 0,-15 24 0 0 0,21-29-126 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,6 9 0 0 0,-3-6-6 0 0,1 1 0 0 0,0-2 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,20 8 0 0 0,-12-7-6 0 0,1-1 1 0 0,0-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 0 0 0 0,22-2 0 0 0,-27 0-2 0 0,1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,21-13 0 0 0,-15 6 11 0 0,0 0 0 0 0,-1-1-1 0 0,-1-2 1 0 0,0 0 0 0 0,-1 0-1 0 0,-1-2 1 0 0,0 0 0 0 0,-2-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,12-33 0 0 0,-13 26 187 0 0,-1-1 1 0 0,-1 0 0 0 0,-2 0-1 0 0,-1-1 1 0 0,2-56-1 0 0,-6 76-35 0 0,-2-1 0 0 0,1 1 1 0 0,-2 0-1 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-12-10 0 0 0,4 7-45 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,0 1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2 2 0 0 0,-28-5 0 0 0,8 4-16 0 0,0 3 0 0 0,0 1 0 0 0,-69 7 0 0 0,70-1-112 0 0,0 1 0 0 0,1 2 0 0 0,0 2 0 0 0,1 2 1 0 0,0 1-1 0 0,-58 30 0 0 0,68-28-632 0 0,0 2 0 0 0,0 0 0 0 0,-31 29 0 0 0,39-28-833 0 0,0 0 0 0 0,2 1 0 0 0,0 1 0 0 0,-21 33 0 0 0,29-39 170 0 0,1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,1 1 0 0 0,1-1 1 0 0,-3 29-1 0 0,9 13-1464 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:44:17.859"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">159 507 540 0 0,'-5'0'7084'0'0,"3"4"-6866"0"0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-5 3 0 0 0,-7 11 466 0 0,6-3-346 0 0,0 1-1 0 0,-7 23 1 0 0,6-15-80 0 0,0 1 105 0 0,-7 33-1 0 0,-4 15 47 0 0,12-32-181 0 0,8-33-173 0 0,-1 0-1 0 0,0 0 1 0 0,-4 13 0 0 0,-10 46 161 0 0,14-27-80 0 0,2-25-83 0 0,-2-9-50 0 0,-1 8 251 0 0,2-12-101 0 0,3-7-38 0 0,31-57 14 0 0,-23 45-142 0 0,14-34 0 0 0,-11 16-1 0 0,-2 0 0 0 0,12-56 1 0 0,-4 9-9 0 0,-11 49 51 0 0,6-35-1 0 0,-5 31 49 0 0,-8 32 122 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-8 0 0 0,-8 31 448 0 0,2-2-421 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 19-1 0 0,-8 121 240 0 0,10 58-372 0 0,-5-367-424 0 0,-25-169 0 0 0,24 276 325 0 0,2-56 0 0 0,5 76 68 0 0,2-1 1 0 0,7-33-1 0 0,-9 48-17 0 0,1-8 40 0 0,1 20-7 0 0,1 13 40 0 0,-3-6-76 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 7 1 0 0,-1 14 95 0 0,8 50 722 0 0,-9 147 0 0 0,-3-75-405 0 0,4-108-397 0 0,-3 25 9 0 0,-5 16-17 0 0,-7 38-26 0 0,1-44-9 0 0,10-32-83 0 0,5-43 59 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3-13-221 0 0,-1 6 137 0 0,4-13-149 0 0,0 0 1 0 0,4-37 0 0 0,2-11-146 0 0,-8 46 163 0 0,2-40 0 0 0,-1 3-52 0 0,16-178-315 0 0,-18 192 562 0 0,3-171 54 0 0,-1 23 761 0 0,-5 149-117 0 0,-2 41-478 0 0,-1 9-55 0 0,-3 9 29 0 0,-9 74 926 0 0,-4 128-1 0 0,13-49-274 0 0,-3 38-32 0 0,-6-32-487 0 0,13-152-286 0 0,2-10-10 0 0,-2 1 0 0 0,-4 16-1 0 0,5-13-166 0 0,2-26-582 0 0,-2-19-144 0 0,2 0-1 0 0,8-48 1 0 0,-8 60 736 0 0,-1 16 144 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 0 0 0,6-14-94 0 0,-7 16 98 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,2-1-1 0 0,3-2 7 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,8-7 0 0 0,-5 5-5 0 0,164-142-123 0 0,-70 58 151 0 0,-3 12 62 0 0,-77 59-36 0 0,-11 10 3 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,15-24-1 0 0,-14 21 59 0 0,-11 13-78 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,-1 3 111 0 0,-2 1-132 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-2 3 1 0 0,-7 5-8 0 0,-70 48 18 0 0,34-22 17 0 0,-67 65 0 0 0,87-76-19 0 0,13-11-6 0 0,-1-1-3 0 0,0 1 0 0 0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-10 18 0 0 0,6-11-9 0 0,14-20 0 0 0,10-15 2 0 0,55-61-73 0 0,-16 18 29 0 0,148-214 70 0 0,-154 210 7 0 0,-7 15 18 0 0,-19 26 290 0 0,-17 24-321 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-4 2 1 0 0,-9 13 88 0 0,-81 117 168 0 0,55-81-260 0 0,-42 45 25 0 0,-2 3-14 0 0,10-10-107 0 0,49-62 19 0 0,18-22-13 0 0,0 1 0 0 0,1 0 0 0 0,-9 13 1 0 0,14-17-261 0 0,8-17 219 0 0,13-17 65 0 0,-11 21 38 0 0,6-4 12 0 0,-11 11 23 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,4 2 0 0 0,10 5 274 0 0,33 19 0 0 0,-24-12-146 0 0,38 24 249 0 0,-2 2-1 0 0,80 69 0 0 0,-106-81-297 0 0,-15-8 132 0 0,-17-19-93 0 0,-8-4 13 0 0,-11-4-81 0 0,-68-56-140 0 0,-107-57 0 0 0,178 111 67 0 0,-113-79-6 0 0,95 63-10 0 0,38 36 11 0 0,156 154 913 0 0,-162-164-902 0 0,194 178 938 0 0,-187-171-878 0 0,-6-5-35 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,6 2 0 0 0,-37-41 142 0 0,-79-66-241 0 0,34 34 39 0 0,-2-4 33 0 0,-5-15 65 0 0,80 84 9 0 0,6 5-44 0 0,8 9 44 0 0,21 27 304 0 0,53 43 0 0 0,-36-33-144 0 0,141 129 316 0 0,-156-145-233 0 0,-53-56-304 0 0,-41-29-101 0 0,-95-115 0 0 0,127 136 66 0 0,0-1 0 0 0,-20-38 0 0 0,41 59 2 0 0,13 19 35 0 0,16 24 54 0 0,65 88 182 0 0,-64-81-201 0 0,17 25-1278 0 0,-46-63 581 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-3-3-1 0 0,-1 1 222 0 0,-18-6-3117 0 0,-36-19 0 0 0,52 23 2516 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-8 0 0 0,0-1-723 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1252.07">95 222 104 0 0,'-1'-5'424'0'0,"1"1"0"0"0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-1-3 0 0 0,-4-17 1300 0 0,0 1-653 0 0,5 20-767 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-10 0 0 0,1 12-18 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-3-3 0 0 0,-6 29 2203 0 0,8-9-1858 0 0,1 0 1 0 0,0-1-1 0 0,3 28 1 0 0,0-2 179 0 0,33 374 2377 0 0,-20-47-2157 0 0,-15-320-1005 0 0,-3-23-1 0 0,1-20-29 0 0,2-18-55 0 0,7-116-1022 0 0,1 0 17 0 0,-3-201-325 0 0,5 16 1204 0 0,-9 282 228 0 0,0 21 66 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-5-15 1 0 0,7 26-86 0 0,-4-5 227 0 0,-2 14-138 0 0,-3 12 36 0 0,2 0 0 0 0,0 0 1 0 0,2 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 41 0 0 0,11 129 839 0 0,-2-137-810 0 0,6 43 132 0 0,2 46 52 0 0,-6 126-128 0 0,-6-257-306 0 0,-1-18-98 0 0,0-21-163 0 0,-13-371-2483 0 0,4 230 2591 0 0,7 93 218 0 0,-1-83 90 0 0,0 32 1472 0 0,2 237-203 0 0,1-30-430 0 0,8 83 0 0 0,7-16-36 0 0,8 66-253 0 0,-18-149-580 0 0,-3-48-69 0 0,0 0 0 0 0,7 34 0 0 0,1-5-610 0 0,-6-16-3313 0 0,-4-25 1972 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:45:44.152"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">498 148 764 0 0,'3'-17'1848'0'0,"-1"1"1833"0"0,-21 38-1607 0 0,-172 325-275 0 0,96-128-1686 0 0,92-211-106 0 0,2-5 11 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 5-1 0 0,30-66 302 0 0,9-43-242 0 0,-25 63-70 0 0,6-17 14 0 0,13-67-1 0 0,4-30-11 0 0,-13 63 0 0 0,1 20 173 0 0,-21 57 85 0 0,-8 19 78 0 0,-8 20 76 0 0,-131 322 809 0 0,129-314-1213 0 0,-120 299 178 0 0,113-284-160 0 0,16-38-17 0 0,0 1 1 0 0,1 0-1 0 0,-5 16 0 0 0,1-8 59 0 0,7-19 13 0 0,7-12-41 0 0,52-115-110 0 0,-44 93 54 0 0,93-267 4 0 0,-61 172 13 0 0,-11 32 5 0 0,-17 41-19 0 0,-10 27 24 0 0,2 1 1 0 0,22-50 0 0 0,-49 139 299 0 0,-107 336 100 0 0,97-280-297 0 0,6-25 0 0 0,-2-2-54 0 0,13-40-34 0 0,11-45 12 0 0,5-15-5 0 0,60-197-124 0 0,0-3 1 0 0,-23 81 61 0 0,-20 62 19 0 0,-8 24-9 0 0,3 0 0 0 0,22-42 0 0 0,-33 71 8 0 0,0 0 18 0 0,-7 22 27 0 0,-47 139 106 0 0,30-98-136 0 0,-147 479 179 0 0,121-374-149 0 0,42-147-21 0 0,7-15-27 0 0,5-15-13 0 0,70-183-297 0 0,33-107-63 0 0,-86 227 370 0 0,14-42 46 0 0,-28 80-28 0 0,-12 37-9 0 0,2-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,6-13 1 0 0,-9 22-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 12 35 0 0,-5 13 24 0 0,-50 168 105 0 0,-44 116 31 0 0,67-204-91 0 0,14-47-48 0 0,-13 61 0 0 0,32-114-54 0 0,-3 12 8 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-10 20 0 0 0,13-26 23 0 0,1-7-6 0 0,0-4 34 0 0,1-10-69 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,7-21-1 0 0,3-10-35 0 0,67-251-543 0 0,-46 165 461 0 0,77-194-1 0 0,-57 193 124 0 0,-51 122 10 0 0,-2 5 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 63 372 0 0,-1 21-224 0 0,4 0 0 0 0,16 99 0 0 0,-8-117-136 0 0,32 141 211 0 0,-30-150-132 0 0,7 24 47 0 0,33 71 449 0 0,-52-135-363 0 0,-2-10-207 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,0-25 908 0 0,-4-30-882 0 0,-3 0 0 0 0,-3 1 0 0 0,-24-89 0 0 0,8 40-14 0 0,-10-29-8 0 0,-9-48 4 0 0,20 84-41 0 0,18 57 18 0 0,12 51-32 0 0,33 162 64 0 0,-6-6 136 0 0,-1-10 44 0 0,-1-8 99 0 0,-18-97-226 0 0,-7-34 86 0 0,-7-28 459 0 0,-17-127-467 0 0,1 11-149 0 0,0 31 3 0 0,-46-222 31 0 0,56 278-62 0 0,4 20 4 0 0,-1 1 1 0 0,-6-18-1 0 0,3-1-17 0 0,6 29-8 0 0,5 23 13 0 0,6 34-4 0 0,-2-11 8 0 0,4 43 1 0 0,-9-54 0 0 0,12 44 1 0 0,-3-16 10 0 0,26 101 47 0 0,-11-56 0 0 0,-14-50 62 0 0,27 72 0 0 0,-36-113-95 0 0,-2-6 566 0 0,-2-16-197 0 0,-1-12-321 0 0,-2-1 1 0 0,-7-30 0 0 0,1 3-35 0 0,0-3-13 0 0,-2 1 0 0 0,-20-58-1 0 0,-5-26-1 0 0,25 104-8 0 0,-9-49-1 0 0,11 34-14 0 0,6 40-10 0 0,7 34 2 0 0,20 116 103 0 0,26 117 128 0 0,-9-108 81 0 0,3 27 162 0 0,-23-94-223 0 0,-17-69-194 0 0,1 12 668 0 0,-6-53-302 0 0,0 26-411 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-3-1 0 0,-1-2-7 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5-10 0 0 0,-4-10-10 0 0,7 7 6 0 0,-5-10-8 0 0,-3-12-10 0 0,11 39 26 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0-3 0 0 0,0 2 0 0 0,-1 3 5 0 0,-2-1-4 0 0,2 2 8 0 0,-19-6 1316 0 0,-5 6-1282 0 0,6-1-28 0 0,0 1 0 0 0,0 1 0 0 0,-20 4 1 0 0,-190 35 116 0 0,149-23-117 0 0,192-25-90 0 0,131-37 13 0 0,-222 40 74 0 0,-12 2-1 0 0,1 1 1 0 0,0 0-1 0 0,16-1 1 0 0,-25 3 162 0 0,-28 3-105 0 0,8 1-52 0 0,-38 5 0 0 0,4-2 16 0 0,-18 4 16 0 0,46-9-17 0 0,-50 13 1 0 0,65-11-23 0 0,2-1-7 0 0,6-4-34 0 0,5-1 30 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 0-1 0 0,4-1-4 0 0,99-18-55 0 0,-67 14 59 0 0,55-16-1 0 0,-92 20 9 0 0,-3 0-2 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 1 0 0,-9 0 93 0 0,-35 5 93 0 0,-217 16-43 0 0,149-17-130 0 0,100-4-17 0 0,146-12-130 0 0,-105 9 119 0 0,-1-1 0 0 0,59-14-1 0 0,-67 12 41 0 0,-23 4 32 0 0,-17 2-22 0 0,-19 2-18 0 0,28-2-21 0 0,-290 36 157 0 0,263-31-148 0 0,-28 3 6 0 0,55-8-17 0 0,26-3-152 0 0,57-1 82 0 0,134-23-1 0 0,-149 16 100 0 0,-33 8-9 0 0,-33 3 27 0 0,-37 3-16 0 0,-172 30-116 0 0,173-27-928 0 0,-62 20 1 0 0,83-22 329 0 0,-13 3-1743 0 0,10-5-2080 0 0,16-2 3906 0 0,2-13-880 0 0,-1 12 1500 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6-5 364 0 0,-12-7 116 0 0,13 11 3501 0 0,3 26-1931 0 0,3-18-1889 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 5 1 0 0,-1 18 270 0 0,-9 17-5 0 0,-1 0 0 0 0,-24 59 0 0 0,21-62-310 0 0,10-28-76 0 0,4-15-50 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,11-23 178 0 0,-8 17-186 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-8 0 0 0,8-25-25 0 0,7-23-20 0 0,-2 5 11 0 0,-9 35 22 0 0,-5 16 10 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,6-9 0 0 0,-19 40 206 0 0,-14 34 32 0 0,16-35-156 0 0,-2-1 1 0 0,-15 27-1 0 0,-12 29 42 0 0,23-52-100 0 0,12-25-20 0 0,0 1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 4 0 0 0,-2-1 13 0 0,4-6-14 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,2 0 31 0 0,15-22 51 0 0,2-1-97 0 0,-2 0 0 0 0,23-41 0 0 0,-22 31-4 0 0,23-48-10 0 0,-35 74 28 0 0,-1-4 18 0 0,-4 11 65 0 0,-10 18 19 0 0,2-1-61 0 0,0 0 1 0 0,-7 28-1 0 0,-4 8 8 0 0,16-46-33 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 11 0 0 0,13-40 87 0 0,-7 11-107 0 0,0 0 1 0 0,1 0-1 0 0,1 0 0 0 0,9-14 0 0 0,-11 19 3 0 0,-3 3 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-5 0 0 0,0 7 64 0 0,-15 27 178 0 0,-26 54-10 0 0,35-70-235 0 0,3-5 61 0 0,7-6 222 0 0,-2-1-270 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1-2 1 0 0,0 2-3 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-3 0 0 0,-2 3-5 0 0,-1-1 1 0 0,-19 25 279 0 0,16-21-262 0 0,5-1 3 0 0,4-3 0 0 0,9-10 184 0 0,-9 2-1748 0 0,-7 2-4406 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2127.86">379 169 264 0 0,'0'0'81'0'0,"-1"-1"0"0"0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,2-3 2362 0 0,13-2 459 0 0,8-24-920 0 0,-17 22-1679 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-16 0 0 0,-5 11 172 0 0,-8 13-352 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,-20 36 246 0 0,2-1-155 0 0,14-27-148 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 7 1 0 0,2-9-9 0 0,-2 4 620 0 0,3-9-669 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,8-18 834 0 0,45-71-576 0 0,-46 73-171 0 0,-6 13-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2-3 0 0 0,-3 6 49 0 0,-11 6 383 0 0,-95 132 396 0 0,96-125-789 0 0,8-13-125 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 245 0 0,1-4-176 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,5-4 0 0 0,1-5-37 0 0,1-4 6 0 0,13-32-1 0 0,-18 37-18 0 0,-2 8 0 0 0,-2 2-18 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 36 0 0,1 1-38 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,-10 13 41 0 0,11-12-41 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-4 2-1 0 0,5-4 21 0 0,26-31 961 0 0,-1-18-862 0 0,-21 41 82 0 0,-8 10-57 0 0,-7 9-62 0 0,-61 87 9 0 0,60-77-21 0 0,12-19 110 0 0,8-13-41 0 0,32-43-116 0 0,-30 36-35 0 0,-8 15 6 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0-1 0 0 0,-1 3 3 0 0,-1-1 0 0 0,0-1 0 0 0,-5 29 0 0 0,7-10 18 0 0,-2-17-19 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,16-19 139 0 0,-15 16-162 0 0,9-13 28 0 0,-7 11-7 0 0,-1 0-1 0 0,2 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,7-6-1 0 0,-6 2-6 0 0,-4 8 6 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1-3 0 0,-3 1 3 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 7-3 0 0,7 4 3 0 0,-7-11 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 3-61 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,3 9-1 0 0,-2-9-521 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 7 1 0 0,-3 10-4881 0 0,-1 1 0 0 0,-16 41 1 0 0,7-39 2632 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3313.11">750 835 696 0 0,'-4'5'11638'0'0,"3"8"-7691"0"0,1 18-4764 0 0,0-23 2422 0 0,0 27 2028 0 0,0-34-3624 0 0,-5 9-2442 0 0,-25 18-11538 0 0,20-21 11144 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:45:54.999"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">521 214 1724 0 0,'-23'-51'20062'0'0,"23"52"-19905"0"0,17 6 2160 0 0,14 13-1309 0 0,116 116 850 0 0,-29-24-1483 0 0,205 151-791 0 0,-203-178-2768 0 0,-65-47-2667 0 0,-54-37 5408 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.36">1316 103 740 0 0,'-4'-10'1459'0'0,"1"1"0"0"0,-1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-14-14 0 0 0,18 20-1248 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-2 4-1 0 0,-59 50 2929 0 0,-71 81 1 0 0,-43 72-2275 0 0,-40 43-2058 0 0,29-59-2831 0 0,-7-7-5080 0 0,54-48 1042 0 0,76-75 4836 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:05.940"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">275 8 332 0 0,'-15'-7'16497'0'0,"5"12"-15566"0"0,-44 35 7451 0 0,53-39-8315 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,1 2 76 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,7 8 0 0 0,29 27 1025 0 0,75 57 1 0 0,31 18-462 0 0,-60-54-404 0 0,-35-22-196 0 0,-25-18-21 0 0,30 18 0 0 0,-35-24-86 0 0,22 18 0 0 0,-29-21 0 0 0,7 7 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,15 22 0 0 0,-25-30 0 0 0,5 7 0 0 0,-4-11 0 0 0,0 1 0 0 0,14 20 0 0 0,10 10 0 0 0,5 7 0 0 0,-16-18 0 0 0,33 46 0 0 0,0-12 0 0 0,70 57 0 0 0,-114-109 0 0 0,83 77 0 0 0,-23-25 0 0 0,-51-44 0 0 0,2-2 0 0 0,27 18 0 0 0,-28-22 0 0 0,-7-6 0 0 0,-1 1 0 0 0,23 18 0 0 0,19 7 0 0 0,-48-27 0 0 0,1 0 0 0 0,0-1 0 0 0,11 6 0 0 0,19 13 0 0 0,-26-11 0 0 0,11 7 0 0 0,-10-6 0 0 0,3 8 0 0 0,-14-20 0 0 0,-38-21 0 0 0,-1 2 0 0 0,-47-16 0 0 0,4 1 0 0 0,-23-9 0 0 0,45 19 0 0 0,-105-56 0 0 0,140 65 0 0 0,-29-10 0 0 0,28 13 0 0 0,-27-16 0 0 0,19 7 0 0 0,-48-31 0 0 0,70 42 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-10-15 0 0 0,-37-43 0 0 0,42 50 0 0 0,0 0 0 0 0,-1 1 0 0 0,-17-14 0 0 0,0 1 0 0 0,-51-48 0 0 0,45 39 0 0 0,-44-49 0 0 0,17 18 0 0 0,38 39 0 0 0,21 23 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-14-9 0 0 0,2 3 0 0 0,-26-23 0 0 0,7 5 0 0 0,10 8 0 0 0,1-2 0 0 0,-24-28 0 0 0,-22-21 0 0 0,56 59 0 0 0,-1 0 0 0 0,-31-19 0 0 0,15 4 0 0 0,31 23 0 0 0,-3 2 0 0 0,5 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-1 0 0 0,14 7 0 0 0,0 0 0 0 0,28 18 0 0 0,78 60 0 0 0,-35-23 0 0 0,14 9 0 0 0,56 35 0 0 0,-139-95 0 0 0,11 8 0 0 0,1-2 0 0 0,53 22 0 0 0,-47-24 0 0 0,-37-15 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 8 0 0 0,-8-10 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-20-12 0 0 0,24 17 0 0 0,-61-44 0 0 0,-274-185 0 0 0,268 186 0 0 0,2-3 0 0 0,-85-79 0 0 0,101 67 0 0 0,66 65 0 0 0,8 6 0 0 0,85 74 0 0 0,144 147 0 0 0,-27-21 0 0 0,-200-191 0 0 0,-7-7 0 0 0,-1 1 0 0 0,15 16 0 0 0,-22-22 0 0 0,-12-15 0 0 0,-16-19 0 0 0,3 11 0 0 0,-145-124 0 0 0,131 117 0 0 0,0 1 0 0 0,-1 1 0 0 0,-51-23 0 0 0,43 27 0 0 0,-46-14 0 0 0,87 32 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,4 12 0 0 0,20 20 0 0 0,-20-30 0 0 0,23 28 0 0 0,1-2 0 0 0,37 31 0 0 0,-10-11 0 0 0,269 225 0 0 0,22-27 0 0 0,-135-103 0 0 0,96 65 0 0 0,-284-193 0 0 0,-10-7 0 0 0,0-1 0 0 0,26 13 0 0 0,-38-21 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3-9 0 0 0,-8-10 0 0 0,-9-4 0 0 0,-1 2 0 0 0,0 0 0 0 0,-33-24 0 0 0,-153-127 0 0 0,-185-139 0 0 0,376 300 0 0 0,-30-22 0 0 0,-76-40 0 0 0,41 25 0 0 0,172 124 0 0 0,-61-50 0 0 0,483 384 0 0 0,-404-327 0 0 0,103 69 0 0 0,-212-152 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-10 0 0 0,-11-14 0 0 0,-237-212 0 0 0,204 193 0 0 0,-92-72 0 0 0,-283-174 0 0 0,397 270 0 0 0,21 14 0 0 0,0 0 0 0 0,0 0 0 0 0,-15-6 0 0 0,46 42 0 0 0,20 24 0 0 0,38 42 0 0 0,5-7 0 0 0,180 143 0 0 0,-221-197 0 0 0,331 276 0 0 0,-364-300-49 0 0,5 4-693 0 0,-1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,20 31 1 0 0,-35-48 233 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-2 2-1 0 0,-1 1-1248 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-8 6-1 0 0,3-2 777 0 0,-16 14-2471 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2159.13">1571 1646 532 0 0,'-6'-1'519'0'0,"1"0"-1"0"0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-8 3-1 0 0,6-1-196 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-7 9 1 0 0,1 0-11 0 0,1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,2 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-3 21-1 0 0,7-27-262 0 0,1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,2 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,15 4 1 0 0,-11-5-31 0 0,0-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-2 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 0 0 0 0,26-13-1 0 0,-31 13 105 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,3-20 0 0 0,-4 14 13 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-2 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-15-21 0 0 0,18 31-61 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,-6-1-1 0 0,3 1-22 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-11 8 0 0 0,-10 9-282 0 0,2 0 0 0 0,0 2 1 0 0,2 1-1 0 0,0 2 0 0 0,2 0 0 0 0,-36 50 1 0 0,30-31-2300 0 0,1 2 0 0 0,2 1 0 0 0,-34 86 0 0 0,13 8-3683 0 0,45-131 5820 0 0,-22 70-2251 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:22.492"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1745 354 104 0 0,'-9'-1'2128'0'0,"-1"-2"-1"0"0,1 1 1 0 0,0-1-1 0 0,-17-9 1 0 0,25 12-2045 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,13-5 1900 0 0,21 3-61 0 0,-33 2-1758 0 0,166-8 6014 0 0,81-22-4190 0 0,-84 9-1235 0 0,-25 7-124 0 0,0 6-1 0 0,0 7 1 0 0,216 24 0 0 0,184 19 36 0 0,1-29-236 0 0,-469-12-375 0 0,1719-8 1031 0 0,-1520 3-1033 0 0,776-3 150 0 0,574-31-106 0 0,-701 13 0 0 0,-43-16 47 0 0,-718 32-109 0 0,2011-77 165 0 0,-1453 64-264 0 0,261 3 115 0 0,-358 10-73 0 0,638-6 44 0 0,-626 10-17 0 0,993 11-4 0 0,-1358 5 0 0 0,-252-12-231 0 0,-24-3-302 0 0,-25-3-480 0 0,-326-12-1476 0 0,189 14 1737 0 0,-136-3-3436 0 0,-1 10-3718 0 0,-71 5-2905 0 0,232-5 7767 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1041.43">2949 903 784 0 0,'-130'25'1982'0'0,"49"-11"-155"0"0,-141 43-1 0 0,215-55-1698 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,-12 8 1 0 0,18-11-94 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 9 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,2 1-1 0 0,9 6 247 0 0,1-1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,31 4 0 0 0,-16-2 91 0 0,101 14 249 0 0,1-5 1 0 0,214-7 0 0 0,268-48 483 0 0,-523 33-865 0 0,756-67 89 0 0,1000-83 3443 0 0,145 49-922 0 0,-1701 103-2838 0 0,-277 8-46 0 0,-24 1-2 0 0,-25 2-5 0 0,-500 46 94 0 0,301-31-155 0 0,-1633 125-740 0 0,1409-113 888 0 0,-702 56 289 0 0,-1306 85 426 0 0,1461-122-654 0 0,466-24-143 0 0,-46-12 392 0 0,572-14-347 0 0,8-1-10 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-4-1 1 0 0,9 2-8 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,13-7-6 0 0,21-4 46 0 0,2 1 0 0 0,70-10 0 0 0,-62 13 42 0 0,1018-130 3066 0 0,-805 109-2842 0 0,3697-325 585 0 0,-1975 253-612 0 0,2 89-4056 0 0,-1561 24-1996 0 0,-4 10-4638 0 0,-297-12 7126 0 0,-15 1 500 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:24.548"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">124 636 1224 0 0,'112'-45'6075'0'0,"2"8"-4221"0"0,120-25-1395 0 0,-212 57-147 0 0,717-133 1915 0 0,12 57-307 0 0,601-14-1065 0 0,-1226 88-790 0 0,953-40 1179 0 0,-619 30-921 0 0,-35 2-224 0 0,-406 13-19 0 0,-34 1 77 0 0,-41 2 36 0 0,-610 3 629 0 0,-12 1-761 0 0,-241 27 253 0 0,-524 14 936 0 0,597-22-657 0 0,4 23 797 0 0,819-46-1336 0 0,16-2-33 0 0,1 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-11 4-1 0 0,17-5-18 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,113 8 207 0 0,175-11 0 0 0,-160-2 25 0 0,908-48 635 0 0,2-36-7108 0 0,-242-3-7062 0 0,-793 92 13234 0 0,196-27-2626 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:25.271"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 1072 1984 0 0,'-1'2'622'0'0,"1"0"0"0"0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-2 3-1 0 0,-5 5 2044 0 0,29-35 4309 0 0,60-69-4358 0 0,-21 26-2426 0 0,-2-3 1 0 0,-4-2-1 0 0,-2-2 1 0 0,63-132-1 0 0,-6 1 796 0 0,-82 151 176 0 0,-25 54-949 0 0,-5 18 400 0 0,-8 47 212 0 0,-3 76-1 0 0,-18 363 935 0 0,18-289-1755 0 0,11-134-12 0 0,8 93 1 0 0,-4-161-137 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,5 16 0 0 0,-7-26 40 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,5-4-1428 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,6-8 1 0 0,42-56-10271 0 0,-54 69 11428 0 0,17-24-2601 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="852.79">1705 148 228 0 0,'1'-4'585'0'0,"0"0"0"0"0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-6 0 0 0,2 8-322 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-5 0 0 0 0,-7 0 484 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 2 0 0 0,1 0 1 0 0,-24 6-1 0 0,11 0 520 0 0,0 1 1 0 0,-39 20-1 0 0,44-18-943 0 0,1 2 0 0 0,0 0 1 0 0,1 2-1 0 0,1 0 0 0 0,0 1 0 0 0,1 1 1 0 0,1 0-1 0 0,0 2 0 0 0,1 0 1 0 0,-13 23-1 0 0,8-9-76 0 0,2 1 1 0 0,1 1-1 0 0,2 0 1 0 0,1 2-1 0 0,-16 62 0 0 0,26-77-219 0 0,1 1 0 0 0,0-1 0 0 0,2 1-1 0 0,1 0 1 0 0,0-1 0 0 0,2 1 0 0 0,0 0-1 0 0,2-1 1 0 0,0 1 0 0 0,2-1 0 0 0,0 0-1 0 0,13 32 1 0 0,-15-46-34 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-2 1 0 0,12 12-1 0 0,-15-15-50 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,6-1 0 0 0,8-4-738 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,17-27 1 0 0,2-14-2055 0 0,-3-1 0 0 0,-2-1-1 0 0,26-89 1 0 0,-41 115 2029 0 0,38-116-936 0 0,-4-1 4644 0 0,-40 129-1200 0 0,0 0 0 0 0,-1 0 0 0 0,2-40 0 0 0,-6 60-1632 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-15 13 2658 0 0,9 0-1716 0 0,0 1 0 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 20 0 0 0,3-33-933 0 0,-5 70 997 0 0,4-1 1 0 0,6 85-1 0 0,-2-123-850 0 0,16 137 547 0 0,-10-109-570 0 0,33 136 221 0 0,-7-46-128 0 0,-21-78-118 0 0,1-4 136 0 0,-4 0 0 0 0,3 89 1 0 0,-13-135-197 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-11 39 1 0 0,10-52-72 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-12 8 0 0 0,0-3 4 0 0,0-1 1 0 0,-1 0-1 0 0,0-2 0 0 0,0 0 0 0 0,-40 9 1 0 0,-111 10-88 0 0,116-19-63 0 0,-103 6-1376 0 0,28-2-3298 0 0,4 10-8304 0 0,115-20 10996 0 0,0 2-1 0 0,0-1 1 0 0,-12 7 0 0 0,-2 4-1071 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:49.428"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">142 121 920 0 0,'-46'4'4580'0'0,"37"-2"-3646"0"0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-14-2 0 0 0,21 2-706 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3-3-1 0 0,4 3-167 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,2-1 1 0 0,3-5-38 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,10-2 0 0 0,15-4 193 0 0,51-6 0 0 0,-63 12-18 0 0,1 1 1 0 0,-1 1-1 0 0,0 1 1 0 0,43 5-1 0 0,-56-4-65 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,9 11 0 0 0,-13-13-36 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 8 0 0 0,-1-3 43 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,-4 13 1 0 0,-2 1 101 0 0,-2 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,-15 19 1 0 0,-36 50 258 0 0,-126 141 0 0 0,135-175-465 0 0,-33 37 4 0 0,45-54-39 0 0,30-29-1 0 0,11-10 2 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 8 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,2-1-1 0 0,2 1 29 0 0,184-10 523 0 0,48 0 5 0 0,247 0-2191 0 0,-426 15-2598 0 0,-25 1-3794 0 0,-42 1 440 0 0,-5-1 4667 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:52.279"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 17 572 0 0,'-5'-6'14863'0'0,"9"5"-11864"0"0,13-1-1533 0 0,-7 2-934 0 0,39-1 1408 0 0,71 10 0 0 0,-57-5-946 0 0,-46-4-810 0 0,0 1 0 0 0,20 3 0 0 0,-20 0 52 0 0,-1-2 0 0 0,24 2 0 0 0,333-1 560 0 0,-285-2-766 0 0,119-5 125 0 0,-115-2-79 0 0,-40 1-55 0 0,84 3 1 0 0,-80 3 10 0 0,493 5 150 0 0,-340-9-169 0 0,-50-3-29 0 0,-76 2-2 0 0,90 7 1 0 0,-134-1 3 0 0,40-4 1 0 0,-11 0-15 0 0,311-10-12 0 0,-77 7 139 0 0,-178 7-64 0 0,257 1-17 0 0,-136 7-78 0 0,-155-5 32 0 0,863 26 82 0 0,-332-14-86 0 0,-51-7-37 0 0,-225-6 147 0 0,668 3-153 0 0,-402-19 123 0 0,-327 4 18 0 0,-2 1-44 0 0,-197 1-14 0 0,-20-3 0 0 0,-29-3 8 0 0,-14 6-24 0 0,-19 5 7 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,4 1-1 0 0,250-5-74 0 0,152 3-12 0 0,120 17 245 0 0,133-8-193 0 0,-479-7-10 0 0,137-12-70 0 0,245 9 278 0 0,-441 4-143 0 0,177-5-39 0 0,-100 0-8 0 0,23-1-46 0 0,-43 5 5 0 0,-78 3 53 0 0,270 13 155 0 0,-176-5-117 0 0,504 21-95 0 0,-444-25-33 0 0,166 7 142 0 0,-29-12 51 0 0,-204-3-84 0 0,-154 1 4 0 0,169-6-40 0 0,65 1-9 0 0,-160 7-6 0 0,-42 0 26 0 0,-38 0 11 0 0,51-3 1 0 0,-22-4-10 0 0,97-14 65 0 0,-125 14-21 0 0,38-1 1 0 0,11-1-12 0 0,-57 5-14 0 0,-1 1 0 0 0,29 2 0 0 0,-7 1 12 0 0,29 1 387 0 0,-25 0-4567 0 0,-62 1-6595 0 0,2 0 7078 0 0,-9-3-296 0 0,-8-1 520 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:58.833"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">209 157 60 0 0,'-2'-2'130'0'0,"1"1"0"0"0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0-3 0 0 0,-11-25 1209 0 0,10 28-1231 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-3 1 0 0,-1 3 4 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,-27-22 4768 0 0,28 24-4747 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-9 19 1570 0 0,0 31-932 0 0,8-43-149 0 0,-6 64 1093 0 0,4 96 0 0 0,4-109-1389 0 0,9 82 384 0 0,-5-94-53 0 0,-5-46-646 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-66 198 0 0,6-156-194 0 0,-4 171-26 0 0,-1 33 4 0 0,1 0 0 0 0,3-20 0 0 0,0 11 20 0 0,2-54-1 0 0,4 30 466 0 0,-20 95 112 0 0,5 52 107 0 0,-5 109 156 0 0,10 195-182 0 0,-1-416-648 0 0,-6-31 1 0 0,4 32-26 0 0,-1-33 1 0 0,-6-363-80 0 0,5 381 47 0 0,-4 53 14 0 0,3 25 72 0 0,3 0 0 0 0,2 0 0 0 0,9 87 0 0 0,-6-120-37 0 0,8 85 62 0 0,4 63 84 0 0,-14-161-138 0 0,0-23 56 0 0,-10-127-79 0 0,10 103-4 0 0,1 11 3 0 0,-6-64 0 0 0,4 51-42 0 0,-14 81-34 0 0,10-13 65 0 0,1 1 1 0 0,-2 34-1 0 0,-1 2 15 0 0,-17 139 18 0 0,19-153-17 0 0,1-18-4 0 0,-1 14 7 0 0,0-7 60 0 0,5-31-41 0 0,5-17 32 0 0,-4 0-62 0 0,1 0-1 0 0,1 0 0 0 0,9-30 1 0 0,1-4-51 0 0,-10 32 30 0 0,37-221-246 0 0,-34 155 170 0 0,-31 145 32 0 0,-19 81-218 0 0,42-135 557 0 0,-3 7-3083 0 0,4-14 2669 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-2-5-637 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-8 0 0 0,6-52-3852 0 0,-6 62 4311 0 0,2-16-1105 0 0,14-80-4326 0 0,-7 56 3859 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:47:06.152"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">221 43 336 0 0,'7'-16'4710'0'0,"-7"16"-4586"0"0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0 372 0 0,-1 1-372 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 24 3119 0 0,0-22-2977 0 0,0-1-219 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,8 6 849 0 0,4 2 292 0 0,-6-5-698 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,7 7 0 0 0,-12-11-484 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 2 1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-4 2 0 0 0,-98 47 54 0 0,87-46 427 0 0,15-4-164 0 0,9-1-137 0 0,-6 0-183 0 0,40-16 907 0 0,335-14 477 0 0,497 19-691 0 0,-818 11-688 0 0,305 8 18 0 0,349 1 8 0 0,-432-11 112 0 0,593 5-80 0 0,-65 0 28 0 0,-430-6 17 0 0,-42-6-70 0 0,-141 0-2 0 0,-145 7-65 0 0,64-12 0 0 0,5 0-14 0 0,499-1 161 0 0,-252-2-33 0 0,-195 6-48 0 0,37-5 13 0 0,124-3-116 0 0,-4 22 165 0 0,75-9 317 0 0,-374 9-387 0 0,-24-3-32 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 2 1 0 0,5 5 13 0 0,1-1 3 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 0 1 0 0,7 15-1 0 0,-2-2 76 0 0,-2 1 0 0 0,6 25 1 0 0,-11-39-70 0 0,2 6 59 0 0,-1 0 0 0 0,-1 1 0 0 0,1 21-1 0 0,-2-25-18 0 0,0 0-1 0 0,5 19 0 0 0,-4-19 19 0 0,0 1 0 0 0,1 21 0 0 0,7 48 270 0 0,0-6-22 0 0,-10-57-262 0 0,0-7-6 0 0,0 1 0 0 0,0-1 0 0 0,5 20 0 0 0,-4-18-7 0 0,1 0 0 0 0,-2 0 0 0 0,1 0-1 0 0,-3 17 1 0 0,0 5 86 0 0,7 185 644 0 0,-10-194-591 0 0,5-25-61 0 0,-25-1 323 0 0,12 3-433 0 0,-1 0 0 0 0,1-2 1 0 0,-26 1-1 0 0,-2 0-4 0 0,-115 7-17 0 0,-38 4-68 0 0,34 1 20 0 0,31-4 85 0 0,-32 2 41 0 0,-113 18-34 0 0,199-22-27 0 0,-371 46-64 0 0,-213 1-103 0 0,548-50 207 0 0,-223 14 56 0 0,264-14-103 0 0,-251 28-7 0 0,171-23-4 0 0,35-4-19 0 0,-285 1-85 0 0,246-8 38 0 0,-181-5 204 0 0,120-9-78 0 0,28 0-29 0 0,44 6-24 0 0,-143-9-32 0 0,157 12 8 0 0,-405-21-49 0 0,-83 18 228 0 0,587 9-158 0 0,-214 9-20 0 0,4 3-11 0 0,-44 2-88 0 0,268-13 106 0 0,-179 7-64 0 0,107-5 128 0 0,-90-10 0 0 0,154 5-45 0 0,4 1-3 0 0,-39-2 25 0 0,-67-13-1 0 0,87 10-21 0 0,30 5-6 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-10-7 0 0 0,-18-11-4 0 0,31 20 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-9-7 0 0 0,1-7 0 0 0,1-13 0 0 0,-6-25 0 0 0,17 54 0 0 0,-2-14 0 0 0,0 1 0 0 0,1-1 0 0 0,0-16 0 0 0,-8-67 0 0 0,10-75 0 0 0,5 90 0 0 0,0 12 0 0 0,0 12 0 0 0,5-30 0 0 0,0-1 0 0 0,-5 41 0 0 0,-4 41 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,4-10 0 0 0,-1 4 0 0 0,15-27 0 0 0,-19 40 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,5-2 0 0 0,31-10 0 0 0,22 0 0 0 0,0 4 0 0 0,86-3 0 0 0,125 11 0 0 0,-128 3 0 0 0,314-8 0 0 0,-34-3 0 0 0,-97 6 0 0 0,60-9 0 0 0,227 9 0 0 0,-38-12 0 0 0,-21 9 0 0 0,-432 6 0 0 0,392 9 0 0 0,92-9 0 0 0,-211-6 0 0 0,524 0 0 0 0,-717 6 0 0 0,100 0 0 0 0,-176 0 0 0 0,42 11 0 0 0,-86-4 0 0 0,72 9 0 0 0,-53-2 0 0 0,-71-10 0 0 0,0 1 0 0 0,-1 2 0 0 0,0 1 0 0 0,0 2 0 0 0,-1 0 0 0 0,37 20 0 0 0,-55-22 0 0 0,1-1 0 0 0,14 16 0 0 0,-6-7 0 0 0,-6-4 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,10 23 0 0 0,0 11 0 0 0,20 77 0 0 0,-19-42 0 0 0,10 93 0 0 0,-27-135 0 0 0,-1 51 0 0 0,-2-73 0 0 0,-10 52 0 0 0,10-68 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-4 2 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-13 2 0 0 0,-96 13 0 0 0,-59-2 0 0 0,-1 0 0 0 0,-17-1 0 0 0,-11 1 0 0 0,-31 4 0 0 0,-24-2 0 0 0,131-11 0 0 0,7-1 0 0 0,-180 18 0 0 0,1 11 0 0 0,191-23 0 0 0,-209 11 0 0 0,107-16 0 0 0,88-4 0 0 0,-278 1 0 0 0,299-4 0 0 0,-230-9 0 0 0,133 2 0 0 0,67 5 0 0 0,-147 2 0 0 0,-59-6 0 0 0,113-1 0 0 0,-49-11 0 0 0,2 0 0 0 0,-339-24 0 0 0,469 31 0 0 0,-33 0 0 0 0,-54-5 0 0 0,-496-4 0 0 0,512 22 0 0 0,-6 7 0 0 0,110-6 0 0 0,105-3 0 0 0,0 2 0 0 0,1-1-9 0 0,64 1-28811 0 0,-31-7 25530 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:48:26.117"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3613 50 176 0 0,'10'-9'27159'0'0,"-2"15"-24605"0"0,-16-9-1775 0 0,-5-1-516 0 0,9 2-127 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-7 0-1 0 0,8-1 84 0 0,-3-3 291 0 0,14 6-225 0 0,35 10-286 0 0,3 2 0 0 0,-28-8 0 0 0,-16-4 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,2 1 0 0 0,11 7 0 0 0,-14-10 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,27 21 0 0 0,-14-12 0 0 0,19 8 0 0 0,-31-19 0 0 0,-3-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-25 0 0 0,-1 19 0 0 0,1 3-2 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-7-4 0 0 0,7 4 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-4 5-1 0 0,3-2-3 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 7 0 0 0,1-8 3 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,3 3-1 0 0,-2-3 3 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,9 1 0 0 0,-13-1 2 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,2-3 0 0 0,-3 2 1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-2-2 0 0 0,2 2-3 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-4-2 0 0 0,3 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-6 1 1 0 0,-2 1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-17 11 1 0 0,21-12-2 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 11 0 0 0,6-14 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,15-5 0 0 0,-13 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,11-12 0 0 0,-14 15 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-9 0 0 0,-3 13 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3-5 0 0 0,3 7 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-31 8 0 0 0,17-3 0 0 0,1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-18 15 0 0 0,23-15 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-5 12 0 0 0,10-19 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 1 0 0 0,-3-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-5 0 0 0,-3 3 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-9 0 0 0,3 7 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-8-6 0 0 0,9 9 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5 1 0 0 0,4 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-6 10 0 0 0,8-8 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 7 0 0 0,0-4 0 0 0,0 0 0 0 0,-1 0 0 0 0,-3 11 0 0 0,-11 23 0 0 0,-2-1 0 0 0,-47 79 0 0 0,-264 349 0 0 0,277-401 0 0 0,33-45 0 0 0,-656 834 0 0 0,102-220 0 0 0,413-472 0 0 0,149-158-20 0 0,11-15-71 0 0,15-18-483 0 0,105-135-5953 0 0,-38 54 2056 0 0,236-308-11653 0 0,-229 300 12916 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.03">3768 248 1080 0 0,'-24'-17'5412'0'0,"22"16"-4865"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-8-10 9118 0 0,12 15-8339 0 0,1 6-483 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,3 18-1 0 0,4 16-126 0 0,50 178 1519 0 0,79 194-1600 0 0,25-9-262 0 0,-151-379-373 0 0,270 563 0 0 0,2 62 0 0 0,-271-602 0 0 0,-14-51-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-12-2164 0 0,-2-19-2829 0 0,-5-55-10442 0 0,2 28 8716 0 0,2 23 4256 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1877.57">107 3164 848 0 0,'63'-91'2508'0'0,"83"-158"1"0"0,-100 164 619 0 0,-43 81-2672 0 0,-1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-5-1 0 0,-2 9-366 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 144 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-11 7 629 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-16 22 1 0 0,5 0-41 0 0,-35 72-1 0 0,48-87-731 0 0,1 1 1 0 0,1 0-1 0 0,-7 32 0 0 0,12-43-70 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,5 17 0 0 0,-5-26-14 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,3 1-1 0 0,-2-1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,3-3-1 0 0,4-4 4 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,14-17 1 0 0,-8 4 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,11-33 1 0 0,-6 1 70 0 0,12-76 0 0 0,-21 97 16 0 0,-3 21 53 0 0,-1 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,-1-28 0 0 0,1 41-129 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-2 0-1 0 0,1 0 13 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-6 5 112 0 0,1-1-1 0 0,-13 15 0 0 0,18-19-87 0 0,-13 16 135 0 0,0 1 1 0 0,1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-13 28 1 0 0,-43 115 420 0 0,63-149-570 0 0,-10 29-12 0 0,2 1 0 0 0,-10 54 0 0 0,21-60-27 0 0,3-36 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1 3 0 0 0,-1-5 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,30-26 0 0 0,-2-6 0 0 0,-2-1 0 0 0,-1-1 0 0 0,-2-2 0 0 0,30-61 0 0 0,62-174 0 0 0,-79 179 0 0 0,-16 34 0 0 0,-12 33 0 0 0,1-1 0 0 0,27-48 0 0 0,-37 76 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2 0 0 0,2 4 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 11 0 0 0,7 28 0 0 0,11 92 0 0 0,-16-85 0 0 0,30 476 0 0 0,-30-313 0 0 0,7-45 0 0 0,-15-169 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-3-5 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,5-12 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-27 0 0 0,-2-3 0 0 0,-2 1 0 0 0,-9-45 0 0 0,9 73 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-11-20 0 0 0,12 28 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-6-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,-18 3 0 0 0,-15 3 0 0 0,-50 13 0 0 0,46-8 0 0 0,-99 25 0 0 0,76-16 0 0 0,48-11 0 0 0,47-11-389 0 0,1 0 0 0 0,0 2-1 0 0,43 2 1 0 0,-17 0-8833 0 0,-47-1 8471 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1-1 1 0 0,2-3-1750 0 0,-4 0 480 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2233.35">288 3062 1300 0 0,'3'-7'1574'0'0,"0"1"-1"0"0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-11 0 0 0,-2 18-1472 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-16 15 3424 0 0,-5 17-684 0 0,-36 59 482 0 0,18-16-2273 0 0,5 3 0 0 0,-30 96 0 0 0,17-8-212 0 0,44-138-701 0 0,4-29-136 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,10-13-141 0 0,1-10-672 0 0,11-31-1 0 0,-6 13-725 0 0,-2 6-284 0 0,-9 20 345 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,15-16 0 0 0,72-68-10293 0 0,-70 71 9267 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3537.6">1417 2933 844 0 0,'1'-2'253'0'0,"-1"1"0"0"0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,26-15 533 0 0,-8 3 34 0 0,23-21 7834 0 0,-38 29-9064 0 0,2-1 416 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,5-8 0 0 0,-8 10 19 0 0,-2 3 2 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 2 29 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,0 0 74 0 0,0-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,-2 0 1 0 0,-3 2 86 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-8 9 1 0 0,11-12-192 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 6 0 0 0,-1-7-12 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,6 0 0 0 0,-5 0 54 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-7 0 0 0,-3 3 212 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-12 0 0 0,-3 15-192 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-4 0 0 0,-1 1-12 0 0,1 1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-10-6 0 0 0,13 8-69 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 2 0 0 0,1 1-57 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,2 5 1 0 0,-1-4-271 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,8 6-1 0 0,-2-4-812 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,17 3-1 0 0,3-1-2922 0 0,57 1 1 0 0,-28-5 1130 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4910.34">4643 2786 1500 0 0,'-10'0'1777'0'0,"-3"-1"-83"0"0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-15 4-1 0 0,28-5-1682 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,11 2 323 0 0,14-1-50 0 0,49-6 58 0 0,-1-4-1 0 0,0-3 1 0 0,81-24 0 0 0,-150 32 1023 0 0,-11 1-647 0 0,-15 1-6 0 0,10 3-418 0 0,-80 12 1791 0 0,80-11-1931 0 0,1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,0 1 1 0 0,-18 9 0 0 0,28-14-154 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,2-1 0 0 0,1 1-3 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,4 0 1 0 0,-4-1-3 0 0,8-2-20 0 0,0 0 0 0 0,20-9 0 0 0,-29 11 26 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-3-1 0 0,-3 5 4 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,-26-2 26 0 0,-31 9 93 0 0,-7 9 222 0 0,60-11-301 0 0,11 0 7 0 0,13-1 1 0 0,13-7-26 0 0,0-1 0 0 0,49-15 0 0 0,-81 20-23 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-9-2 5 0 0,-14 0-3 0 0,-27 4 115 0 0,-54 10 1 0 0,26-2 297 0 0,7 2 342 0 0,62-8-582 0 0,19-1-100 0 0,18-1-35 0 0,386-26-18 0 0,-373 15 110 0 0,-41 9-129 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-9-2 135 0 0,-13 0 45 0 0,-382 16 3520 0 0,336-11-3501 0 0,56-3-158 0 0,8 0-30 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-3 2-1 0 0,8-2-9 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,3 0 1 0 0,516 1-164 0 0,-467-1 175 0 0,-372 21 483 0 0,317-21-502 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-2-17 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,24 5-1882 0 0,-10-3-400 0 0,-1 2 0 0 0,16 5 0 0 0,-27-8 1389 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,2 3 1 0 0,-2 3-1651 0 0,-2 3 545 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5242.75">4412 3536 1736 0 0,'-7'-8'15325'0'0,"6"8"-14686"0"0,0 0-243 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 396 0 0,1 0-396 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-430 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0-260 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 1 0 0 0,0-2-172 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 1-1393 0 0,-1-2 1393 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 1 0 0,3 3-2078 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5585.48">4798 3461 2128 0 0,'-28'-18'16299'0'0,"15"9"-5088"0"0,15 9-11317 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 2 0 0 0,5 10-5398 0 0,-5-4 202 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5926.87">5012 3488 1676 0 0,'5'-1'995'0'0,"6"-1"3863"0"0,0-1 0 0 0,18-6 1 0 0,4 0 4459 0 0,-34 25-12631 0 0,-2-9 1417 0 0,0 2-1449 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-9 13 0 0 0,-1-4-297 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:05.091"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">25 1 88 0 0,'-1'-1'481'0'0,"0"1"0"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-8 6 7970 0 0,10 21-2018 0 0,5 12-2947 0 0,-5-16-2141 0 0,-1-14-1117 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,3 13 0 0 0,-2-18-186 0 0,-1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 9 1 0 0,1 20 111 0 0,5 12 66 0 0,-6-36-158 0 0,0-6-22 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 6 0 0 0,0-6-25 0 0,-2 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 6-1 0 0,1 21 35 0 0,4 14-5 0 0,-3-35-3 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-2-1-1 0 0,0 12 1 0 0,-1 10 101 0 0,2 154 258 0 0,-5-150-338 0 0,5 122 355 0 0,0-157-381 0 0,1-7-956 0 0,-2 6 1248 0 0,3 0-309 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,4 1 1 0 0,-1 0 1 0 0,194-8 31 0 0,-163 6-52 0 0,50-4 7 0 0,62-2-14 0 0,-124 5 15 0 0,-23 3-4 0 0,6-1-3207 0 0,-30 2-17393 0 0,4 2 17292 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:14.172"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 3 540 0 0,'2'-2'4658'0'0,"-2"2"-4572"0"0,3 7 2375 0 0,-3-6-2051 0 0,-5 14 4892 0 0,5-15-5022 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,2 2 0 0 0,20 10 3768 0 0,-16-9-3893 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,11 1-1 0 0,-3 0 2 0 0,79 13 502 0 0,84 11-35 0 0,-118-21-452 0 0,46 6 127 0 0,21-1 65 0 0,-57-6-150 0 0,227 15 294 0 0,-111-7-430 0 0,110 20-104 0 0,-146-17 50 0 0,87 6 133 0 0,-18-14-50 0 0,-176-7-92 0 0,73-9 22 0 0,-16-3-4 0 0,-92 11-30 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,9-2 0 0 0,18-5 19 0 0,-23 7-15 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,13-7-1 0 0,-2-4-17 0 0,-22 14 15 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-80-6-42 0 0,-137 9-1 0 0,122 0 16 0 0,-826-12 71 0 0,584-8-40 0 0,-189-2-442 0 0,528 18 422 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 2-1 0 0,0-2 3 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,2 1 0 0 0,87 9-75 0 0,1-3 1 0 0,103-6-1 0 0,-104-1 30 0 0,839-36-367 0 0,-410-12 494 0 0,-439 39 114 0 0,-116 3 31 0 0,-1107 57-258 0 0,1028-41 39 0 0,-564 62-125 0 0,606-64 109 0 0,-49 9-155 0 0,191-21-71 0 0,-16 3 248 0 0,487-31 34 0 0,285-14-104 0 0,-753 42 99 0 0,181-4 180 0 0,-251 8-137 0 0,-11 0 68 0 0,-968 24-9 0 0,488-6-208 0 0,318-12 25 0 0,-142 3-48 0 0,274-6-18 0 0,184 6 140 0 0,890-5-65 0 0,-579-5-3343 0 0,-411 1 2212 0 0,64-1-3935 0 0,-81 0 512 0 0,48-10 1 0 0,-49 3 465 0 0,-10-1 616 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:22.446"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 408 0 0,'0'12'19401'0'0,"30"0"-15704"0"0,-13-9-3184 0 0,0 0 0 0 0,1-1 0 0 0,-1-1-1 0 0,1 0 1 0 0,30-4 0 0 0,-23 1-330 0 0,40 3 1 0 0,99 5 296 0 0,-6-4-179 0 0,-16-1-57 0 0,70 1-65 0 0,16 2-46 0 0,-129-2-77 0 0,-7-1-20 0 0,41 2-33 0 0,8 1-2 0 0,147-2-72 0 0,-9-1 7 0 0,104 8 230 0 0,-312-10-155 0 0,143-5 39 0 0,146-14-50 0 0,-294 21-4 0 0,-50 0-2 0 0,-1 0 0 0 0,1-1 0 0 0,26-4 0 0 0,-2 1 30 0 0,-33 3-711 0 0,-24 0-7373 0 0,2 2 3869 0 0,1-1 0 0 0,-20 0-1 0 0,15-2 2058 0 0,-29 1-1694 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:45.858"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 611 1044 0 0,'-13'9'9664'0'0,"17"-18"-8923"0"0,40-64 2150 0 0,27-52-1415 0 0,-43 69-1230 0 0,-12 24-28 0 0,19-51 1 0 0,-35 82-214 0 0,44-114 1233 0 0,-29 72 142 0 0,-12 37-870 0 0,-3 6-469 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,3 18 368 0 0,9 89 1931 0 0,-5-32-1127 0 0,41 243 200 0 0,-42-270-1343 0 0,15 79 47 0 0,-18-104-124 0 0,-3-19-86 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,4 4 0 0 0,7-25-6010 0 0,61-100-6652 0 0,-41 59 8676 0 0,-13 30 2476 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="499.32">693 368 1512 0 0,'6'-16'2540'0'0,"-5"12"-1823"0"0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,4-6 1 0 0,-9 16 285 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-2 9-1 0 0,-1 2-398 0 0,1 1-1 0 0,1 0 1 0 0,-1 27-1 0 0,3-8 74 0 0,1 28 267 0 0,1-51-833 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1-1 0 0 0,1 1 1 0 0,11 15-1 0 0,-15-24-74 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,11-3-1 0 0,-4 0-20 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,14-14 0 0 0,-12 8 20 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,-1 1 0 0 0,-1-1 0 0 0,12-25 0 0 0,-16 28 46 0 0,-1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-2 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-2-1 1 0 0,-8-16-1 0 0,7 19 132 0 0,0 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-13-10-1 0 0,16 15-121 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 2-1 0 0,1-1 0 0 0,-2 0 1 0 0,-10-1-1 0 0,10 3-70 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-11 6 0 0 0,-2 3-14 0 0,1 1 0 0 0,0 0 0 0 0,-17 17 0 0 0,23-19 7 0 0,1 1-105 0 0,1-1 0 0 0,0 2 0 0 0,1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-6 29 0 0 0,10-31-994 0 0,-1 0 1 0 0,2 22-1 0 0,0-22-1095 0 0,2 0-1 0 0,3 19 1 0 0,-4-28 1505 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,3 3 1 0 0,8 4-2093 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2440.96">1354 167 316 0 0,'-20'3'25425'0'0,"21"-12"-24602"0"0,-1 9-818 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3-1 1 0 0,1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 1 0 0,9 0-1 0 0,9-1 13 0 0,-1 1-8 0 0,1 1 0 0 0,-1 1 0 0 0,0 1 1 0 0,29 8-1 0 0,-49-11 8 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,3 6 0 0 0,-2-4 15 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-2 11-1 0 0,-2 4 41 0 0,-1 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,-1 0 0 0 0,-12 23 1 0 0,-5 4 5 0 0,-2-2 1 0 0,-41 55-1 0 0,50-80-25 0 0,-1 0 0 0 0,-24 21 1 0 0,36-36-41 0 0,-15 12 40 0 0,21-18-30 0 0,17 6-12 0 0,65 7 214 0 0,1-2 0 0 0,119-2 0 0 0,-190-8-1715 0 0,-22-4-6840 0 0,3 1 5308 0 0,7 2 2732 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3-11-2150 0 0,-2 0 519 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3852.19">2179 35 1052 0 0,'29'-32'5331'0'0,"-22"29"-489"0"0,-9 9-1071 0 0,-2 9-1923 0 0,3-10-1401 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-4 10 0 0 0,-2 10 574 0 0,-2 6 95 0 0,-2 1-1 0 0,-27 50 1 0 0,14-30-323 0 0,-38 71 111 0 0,28-51-568 0 0,5-3 27 0 0,24-59-315 0 0,6-10-45 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,35 2 214 0 0,16 0-44 0 0,109-20-545 0 0,-143 14 471 0 0,-1-4-6931 0 0,-15 6 5827 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2 0 0 0,0 3 918 0 0,-1 0-126 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,2-1 0 0 0,8-21 3312 0 0,-5 15-1584 0 0,8-21 19402 0 0,-15 31-20828 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 30 155 0 0,1-22-20 0 0,-12 191 920 0 0,5-160-1038 0 0,2-15-31 0 0,0 36 0 0 0,-1 5-10 0 0,0-9 66 0 0,5-57-13 0 0,10-11-2035 0 0,-10 11 1629 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-4-3-3767 0 0,-9-4-7854 0 0,5 5 9433 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:55.086"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 221 432 0 0,'11'15'5852'0'0,"14"13"-1586"0"0,2-3-3421 0 0,-1 1 1 0 0,-2 2 0 0 0,0 0-1 0 0,-2 2 1 0 0,34 60-1 0 0,-51-78-1300 0 0,-4-10 65 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,2 2 0 0 0,-3-4 180 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,2-4-1322 0 0,6-2-444 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.15">380 230 808 0 0,'-3'-1'897'0'0,"-1"0"0"0"0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-6 1 0 0 0,8-1-644 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 3 0 0 0,-41 63 5452 0 0,34-49-4766 0 0,-15 37 1 0 0,-31 85-2960 0 0,56-139 1665 0 0,-2 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-3 2-1 0 0,2-1-684 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-6-1 1 0 0,-1 0-1415 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.59">1 467 168 0 0,'7'-6'8568'0'0,"9"3"-6069"0"0,16 0-795 0 0,102-3 5446 0 0,24 0-5910 0 0,-128 2-4318 0 0,43-10 0 0 0,-63 11 1136 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,9-6 0 0 0,1-1-1098 0 0,1-1 780 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1095.3">980 77 436 0 0,'-2'-11'3140'0'0,"1"10"-2937"0"0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,17-11 516 0 0,-13 9-494 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,6-1 1 0 0,-5 1-46 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,8 4 0 0 0,-11-6-71 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 3 1 0 0,-9 21 785 0 0,-2 0 0 0 0,0-1 1 0 0,-30 43-1 0 0,-48 73 592 0 0,77-117-1363 0 0,2 1 1 0 0,1 0-1 0 0,-16 52 0 0 0,25-68-108 0 0,0-6-10 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 6 1 0 0,2-3 1 0 0,-3-4 2 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,4 4-1 0 0,-5-6-4 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,1 1-1 0 0,6-2 9 0 0,1-1 0 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0-1-1 0 0,8-6 1 0 0,-12 8 16 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-2-1 0 0 0,7-10 0 0 0,-8 11-12 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-3-6-1 0 0,-3-6-9 0 0,0 1-1 0 0,-16-24 1 0 0,6 12-1 0 0,-22-36-16 0 0,27 45 2 0 0,0 0 0 0 0,2-1 0 0 0,0 0-1 0 0,-13-34 1 0 0,21 44 74 0 0,-1 0 0 0 0,1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-11 0 0 0,0 18-256 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3-4-1 0 0,-3 5-389 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-1 0 0 0,-1 1-732 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,3-4 1 0 0,4-3-1613 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:51.733"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">100 211 924 0 0,'-9'1'8978'0'0,"25"28"-6028"0"0,43 82 1026 0 0,-24-45-3736 0 0,4 6-769 0 0,-20-39-3722 0 0,-13-51-7769 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.01">306 271 1132 0 0,'-6'-8'8016'0'0,"3"11"-7576"0"0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 9-1 0 0,-9 18 196 0 0,-28 70 355 0 0,-2-11-1300 0 0,40-85-182 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-5 6 0 0 0,7-9 142 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-2 1 1 0 0,3-1 123 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-4-3-1459 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="681.13">10 469 1084 0 0,'-9'-3'6376'0'0,"32"-5"-2154"0"0,20 4-2983 0 0,-10 1-608 0 0,150-14 894 0 0,-97 11-1197 0 0,-11-1-2414 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1298.83">766 556 956 0 0,'-1'0'259'0'0,"0"0"-1"0"0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,8-15 972 0 0,-4 11-914 0 0,9-12 1202 0 0,25-32 0 0 0,-23 34-1261 0 0,-1-1 0 0 0,15-29 0 0 0,-6 6-29 0 0,-8 16 4 0 0,15-35 0 0 0,11-39 254 0 0,9-34 1822 0 0,-48 118-979 0 0,-1 12-205 0 0,0 9-782 0 0,-1 3-43 0 0,0 0-1 0 0,-1-1 0 0 0,-3 12 1 0 0,-2 19 720 0 0,0 37 535 0 0,3 1 0 0 0,10 111 1 0 0,-1-72-1379 0 0,0-60-632 0 0,-4-33-4518 0 0,11-24-3352 0 0,0-7 6549 0 0,28-30-4560 0 0,-35 32 5694 0 0,11-15-1244 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1783.87">1415 268 952 0 0,'1'-2'694'0'0,"1"-1"0"0"0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,6-2 0 0 0,-9 5-468 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 13 1118 0 0,-3-2-877 0 0,2 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1 19 1 0 0,3 5 230 0 0,5 42 1 0 0,-3-67-651 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,9 13 0 0 0,-13-18-36 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,-5-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,8-3-1 0 0,-2-1 4 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,17-21-1 0 0,-15 14 117 0 0,-1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,0 0 0 0 0,14-39-1 0 0,-21 48-10 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-2 0 0 0 0,1 0 0 0 0,-7-15 0 0 0,4 14 91 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 2 1 0 0,-1-1-1 0 0,0 1 0 0 0,-15-14 1 0 0,17 18-145 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-10 0-1 0 0,-3 3-33 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1 1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,1 1 0 0 0,-1 1 1 0 0,2 1-1 0 0,-19 12 0 0 0,22-12-171 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-20 24 1 0 0,21-20-1884 0 0,-19 30 0 0 0,28-40 1186 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 6 0 0 0,0-9 363 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,2 3 1 0 0,7 2-1748 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2518.96">2011 187 1040 0 0,'-4'-2'641'0'0,"1"0"1"0"0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-5 0 0 0,0 0 96 0 0,4 4 235 0 0,1 3-909 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 322 0 0,20 0 1187 0 0,-5 2-1240 0 0,0-1 0 0 0,-1-1 0 0 0,18-1 1 0 0,27 2 242 0 0,-40 0-296 0 0,-8-1-55 0 0,-1 1-1 0 0,0 0 1 0 0,1 1-1 0 0,13 3 1 0 0,-23-4-153 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 3-1 0 0,-2 5 244 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-11 14-1 0 0,-33 40 898 0 0,-82 115 213 0 0,128-171-1383 0 0,-1-1 25 0 0,1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3 11 0 0 0,5-15-48 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,35 1 255 0 0,-31-1-237 0 0,134-7-164 0 0,-120 4-1399 0 0,-1-1 1 0 0,31-9-1 0 0,-44 12 254 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,6-7 1 0 0,0-2-1444 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3015.85">2621 139 208 0 0,'0'-36'9956'0'0,"-15"52"-5788"0"0,8-3-3526 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-4 18 0 0 0,6-27-602 0 0,1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,4 9-1 0 0,-4-10-35 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,6 0 0 0 0,3 0-5 0 0,1 0 1 0 0,-1-1-1 0 0,24-5 1 0 0,-23 2 13 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-2-1 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,18-17 0 0 0,14-14 3175 0 0,-48 47 246 0 0,-3 14-2334 0 0,-1 3-782 0 0,1 0 11 0 0,0 1 0 0 0,1 0 0 0 0,-3 43 0 0 0,3-15-96 0 0,2-23-205 0 0,1 1 0 0 0,2-1 0 0 0,4 52 0 0 0,8-29-1241 0 0,-2-18-4823 0 0,-9-36 5901 0 0,0 1-158 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0-329 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,2-2 0 0 0,12-7-2711 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:50.283"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1110 6 1248 0 0,'8'-5'5696'0'0,"-6"13"-2241"0"0,-6 20-929 0 0,3-25-2496 0 0,-59 290 6174 0 0,12-18-2874 0 0,30-166-3018 0 0,-25 160 82 0 0,37-239-336 0 0,21-47-42 0 0,-9 12-51 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,4-8-1 0 0,-7 14 34 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 0 0 0 0,2-1-4 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,5 0-1 0 0,14 4 20 0 0,0-2-1 0 0,0 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,0-2 0 0 0,0-1 0 0 0,1-1 0 0 0,-1-1 0 0 0,31-10 0 0 0,-44 10-2 0 0,0 0 0 0 0,-1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,0 0 0 0 0,18-17-1 0 0,-21 17-4 0 0,0-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-15 0 0 0,-2 13 20 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-20-8-1 0 0,-2 3 29 0 0,1 2-1 0 0,-1 1 1 0 0,0 1 0 0 0,-1 1-1 0 0,-47-1 1 0 0,3 5-11 0 0,-88 9 0 0 0,-141 34 70 0 0,242-27-637 0 0,0 2 0 0 0,-104 43 0 0 0,142-48-556 0 0,1 1-1 0 0,0 2 1 0 0,1 0-1 0 0,0 1 1 0 0,-39 36-1 0 0,51-40 16 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,2 1 1 0 0,-1 0-1 0 0,2 0 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,-9 30-1 0 0,7 7-1457 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:59.014"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 54 600 0 0,'0'8'1492'0'0,"-1"-6"-1311"0"0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,1 2 0 0 0,8 17 3498 0 0,-4-12 6 0 0,-5-8-3362 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,3 2 1 0 0,5 2 943 0 0,-6-3-1043 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,4-1 1 0 0,189-5 3082 0 0,163-17-1015 0 0,-83 11-1946 0 0,-118 8-103 0 0,155 1 212 0 0,-18 1-160 0 0,218-11-102 0 0,-47-3-90 0 0,35 13 219 0 0,-258 3-163 0 0,114 10 31 0 0,0-1 8 0 0,248-10 25 0 0,-299-7-113 0 0,-1-1-11 0 0,294-4 39 0 0,-478 6-107 0 0,133-3 309 0 0,138 3-37 0 0,-248 6-262 0 0,-5-3-34 0 0,-37 0-21 0 0,427-3-92 0 0,961 3 200 0 0,-1256 12-172 0 0,-12-2 26 0 0,-173-4 72 0 0,99 5 44 0 0,167 4 24 0 0,127-18-50 0 0,52 3-148 0 0,-183 9 63 0 0,-48-6 150 0 0,-122-6-324 0 0,-154 0-2220 0 0,-108-10-9373 0 0,7 1 4318 0 0,20-2 3756 0 0,-14-1 881 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:09:01.698"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 249 36 0 0,'-14'-9'20494'0'0,"37"-8"-18671"0"0,-16 11-1806 0 0,1 0 0 0 0,0 1 0 0 0,11-6 0 0 0,11-1 82 0 0,1 2 1 0 0,0 1 0 0 0,0 1 0 0 0,56-6-1 0 0,-18 8 305 0 0,-61 5-295 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,11 5-1 0 0,-16-6-45 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 3 1 0 0,-1-2-7 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-3 4 1 0 0,-1 4 44 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-9 12 0 0 0,-3 3 74 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-2-1 0 0,-32 26 1 0 0,15-21 153 0 0,68-37-10 0 0,-3 6-304 0 0,-1 1 0 0 0,1 1 0 0 0,1 2 0 0 0,-1 0 0 0 0,49 9 0 0 0,-41-3-4 0 0,-1 2 1 0 0,35 13 0 0 0,-54-16 9 0 0,0 1-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 1-1 0 0,14 12 1 0 0,-23-18 10 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-8 4 0 0 0,-13 6 55 0 0,-1-1 0 0 0,1-2 0 0 0,-2 0 0 0 0,1-2 0 0 0,-2-1 0 0 0,1 0 0 0 0,0-2 0 0 0,-37 2 0 0 0,7-4-4 0 0,0-3 0 0 0,-110-13 0 0 0,135 8-67 0 0,-28-2-277 0 0,58 7 10 0 0,31 6-7596 0 0,-22-4 5641 0 0,0-1 1 0 0,0-1 0 0 0,14 1-1 0 0,-4-3-1790 0 0,30-6 0 0 0,-24 3 1693 0 0,20-2-475 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2011.57">1255 42 272 0 0,'-1'0'178'0'0,"1"1"0"0"0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 8 6899 0 0,-25-7-4023 0 0,19 0-2520 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-9 0-1 0 0,12 0-267 0 0,-13-3 3648 0 0,39-15-1811 0 0,-22 16-2019 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,4-1 0 0 0,44-9 283 0 0,-11 5-2 0 0,52-1 1 0 0,-87 8-316 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,12 7 0 0 0,4 8 128 0 0,-18-17-149 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 3-1 0 0,0 1 62 0 0,-3-6-69 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 4 1 0 0,9 39 378 0 0,-10-31-267 0 0,1-10-94 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-2 6-1 0 0,-14 25 305 0 0,14-29-296 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-6 10 0 0 0,-22 21 162 0 0,21-22-114 0 0,-2 0 0 0 0,-17 16-1 0 0,-46 43 254 0 0,-3 3-139 0 0,62-60-173 0 0,1 1 0 0 0,1 1 0 0 0,-19 28 0 0 0,31-41-30 0 0,-26 31 23 0 0,18-23-8 0 0,9-11-15 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 4 1 0 0,1-4 48 0 0,3-3 239 0 0,8 0-194 0 0,523 3 183 0 0,-243-3-46 0 0,-289 0-240 0 0,-3 9-4862 0 0,-3-6 2469 0 0,2-1 59 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-4 1 0 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:09:04.616"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">24 0 616 0 0,'-24'9'20021'0'0,"69"-7"-15320"0"0,22 4-2996 0 0,27 2-1427 0 0,269-5 461 0 0,-228-4-628 0 0,-70 4-623 0 0,-96 0-5858 0 0,-54 10-1 0 0,6 1-704 0 0,34-7 3622 0 0,0 1 559 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="756.62">164 318 204 0 0,'-1'2'426'0'0,"1"-1"-1"0"0,-1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,-32 11 5198 0 0,27-10-3684 0 0,-8 3 1288 0 0,5-4 4820 0 0,17-3-7775 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,11 0 1 0 0,-13 1-189 0 0,263-10 1252 0 0,-58 5-602 0 0,109 1 121 0 0,-193 5-857 0 0,-122-1-52 0 0,7 0-893 0 0,0 0 0 0 0,0 1 1 0 0,11 2-1 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:09:11.888"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 78 676 0 0,'-16'-19'3369'0'0,"14"17"-3144"0"0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-4 1 0 0,-4-18 13799 0 0,6 26-13723 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,3 0 0 0 0,26 9 403 0 0,113 27 466 0 0,169 19-1 0 0,-131-26-745 0 0,500 118 96 0 0,-9 30-448 0 0,-561-147-1 0 0,370 89-956 0 0,-474-119 501 0 0,37 8-923 0 0,-17-7-4103 0 0,-36-14-5349 0 0,5 10 9804 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-7-2-1 0 0,3 1-95 0 0,-26-7-2240 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2658.62">3686 126 928 0 0,'-3'-1'611'0'0,"1"0"-1"0"0,0-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-5-1 0 0 0,5 3-8 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-3 4 0 0 0,-24 21 3265 0 0,10-14 1557 0 0,41-32-1944 0 0,-4 9-3362 0 0,-1 1-1 0 0,2 0 0 0 0,-1 1 0 0 0,26-6 0 0 0,-19 8-71 0 0,1 0-1 0 0,-1 1 0 0 0,1 1 0 0 0,0 2 1 0 0,33 2-1 0 0,-51-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,11 7-1 0 0,-15-8-18 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 3 0 0 0,-5 12 72 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-18 22 0 0 0,-76 80 206 0 0,94-109-274 0 0,-72 78 190 0 0,36-33-56 0 0,45-54-165 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,11 4 82 0 0,11-1 88 0 0,279-13 756 0 0,3-1-1938 0 0,-296 11 3213 0 0,4 0-4278 0 0,4 0-6924 0 0,-42 9-9597 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:40.220"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">151 1478 392 0 0,'-15'9'13321'0'0,"18"-21"-10068"0"0,15-24-2203 0 0,60-114-409 0 0,-68 129-561 0 0,14-39 0 0 0,4-9 248 0 0,-20 49 608 0 0,-2-1-1 0 0,9-40 0 0 0,-5 170 482 0 0,0 71 150 0 0,-5 23-761 0 0,-10 91 848 0 0,15-293-830 0 0,-10 5-797 0 0,0-5-23 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1 2 1 0 0,1-2-3 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 3 0 0 0,-1 0 9 0 0,-5 50 82 0 0,5-54-77 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,1-4 160 0 0,2-2-331 0 0,-1 2 83 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-13-27-14407 0 0,6-3 5965 0 0,6 15 5937 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1422.34">1180 1037 752 0 0,'5'0'2147'0'0,"-4"0"-2063"0"0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 556 0 0,-4 9 2403 0 0,3-9-2847 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,1 9 1021 0 0,-2-10-1154 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 101 0 0,-1-2 288 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1-3-1 0 0,0 1-341 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-8-3-1 0 0,6 3-25 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-9 7 0 0 0,-6 5 25 0 0,14-11-66 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-5 7 0 0 0,-13 20 231 0 0,2 0 1 0 0,-23 45-1 0 0,33-51-81 0 0,2 1-1 0 0,1 0 1 0 0,1 1 0 0 0,-6 36 0 0 0,1 31 134 0 0,12-78-286 0 0,0 17 98 0 0,1 0 0 0 0,2 0 0 0 0,9 64 0 0 0,-7-77-79 0 0,-2-13-34 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,6 11 0 0 0,20 34 202 0 0,-27-51-206 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6 3 0 0 0,-1 0 34 0 0,1-1 0 0 0,1 0 1 0 0,17 4-1 0 0,-11-5-24 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,31-4 0 0 0,-38 3-21 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,10-9-1 0 0,18-17 41 0 0,-6-12-19 0 0,-10 14-17 0 0,-15 20-6 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-2-1-1 0 0,3-10 1 0 0,-5 18-8 0 0,2-8 23 0 0,0 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-2-16 0 0 0,2 21-15 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-4-2 0 0 0,-3-1-135 0 0,-1 2 1 0 0,0-1-1 0 0,0 2 1 0 0,0-1-1 0 0,-24 2 1 0 0,-59 9-2897 0 0,81-7 2219 0 0,-51 11-4937 0 0,44-7 394 0 0,0 1-1 0 0,-30 15 0 0 0,39-16 2067 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2315.56">2040 1289 16 0 0,'-2'-4'7616'0'0,"2"4"-7489"0"0,0 0 42 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,102 108 6151 0 0,-34-33-5250 0 0,8 2-1746 0 0,-71-70 196 0 0,17 16-3273 0 0,-22-23 3458 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,4-7-2024 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2653.52">2295 1298 144 0 0,'0'0'308'0'0,"0"-1"1"0"0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1-191 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-16 36 3884 0 0,11-29-3532 0 0,1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-4 17-1 0 0,-17 86 709 0 0,8-42-1247 0 0,14-61-60 0 0,2-6-40 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 3-1 0 0,-4 4-1371 0 0,6-8 1270 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-4-1-1834 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3025.36">1989 1568 68 0 0,'-8'-9'12141'0'0,"8"8"-11708"0"0,11-6 4277 0 0,32 0-5075 0 0,-28 5 1704 0 0,274-52 1709 0 0,-263 48-2875 0 0,126-30 667 0 0,-165 37-6808 0 0,-17 6 478 0 0,-11 3-3235 0 0,27-5 6673 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32640.06">45 1055 64 0 0,'-4'-2'1054'0'0,"1"-1"-1"0"0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,-11-8 5491 0 0,16 9-6339 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,2 0 1225 0 0,-2 1-1226 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,2 1 297 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,6 4-1 0 0,31 23 288 0 0,-18-12-286 0 0,30 17-142 0 0,1-3 0 0 0,2-1-1 0 0,1-3 1 0 0,65 21 0 0 0,240 59 166 0 0,-299-90-416 0 0,144 37-42 0 0,205 58 359 0 0,-302-76-1333 0 0,179 85 1 0 0,-266-110-409 0 0,-1 2 0 0 0,31 21 0 0 0,-13 3-3708 0 0,-32-28 2905 0 0,1 0 0 0 0,-2 0 0 0 0,8 13 0 0 0,-4-6-796 0 0,4 11-2233 0 0,-11-6 2235 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35483.57">336 395 1056 0 0,'4'21'16316'0'0,"1"-31"-14292"0"0,9-18-769 0 0,33-49 1 0 0,-36 60-1033 0 0,69-135 1153 0 0,-52 94-464 0 0,-3-5 615 0 0,-19 52-1106 0 0,-2 11 5 0 0,-1 20 151 0 0,-1-6-569 0 0,12 108 694 0 0,4 77 48 0 0,-4-33-339 0 0,-3-47-211 0 0,12 74 90 0 0,-17-148-1705 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9430,7 +11694,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink101.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9463,7 +11727,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink102.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9496,7 +11760,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink103.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9533,7 +11797,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink104.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9565,40 +11829,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:51.052"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 65 316 0 0,'3'-14'6958'0'0,"-1"-3"-2858"0"0,8-16 4020 0 0,-8 32-7553 0 0,-3 9-550 0 0,-3 9-1477 0 0,0-1 1 0 0,-1 20-1 0 0,3-19-460 0 0,2-12 792 0 0,-1 0 0 0 0,1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,4 8 1 0 0,0-3-960 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.86">46 353 972 0 0,'-2'15'3250'0'0,"1"-14"-3084"0"0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 2-1 0 0,1 17 5452 0 0,-3-12-2695 0 0,1-15-151 0 0,4 5-2491 0 0,-3 0-1105 0 0,-5 3-110 0 0,-12 8-12105 0 0,6-6 10288 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink105.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9638,7 +11869,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink106.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9677,7 +11908,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink107.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9710,7 +11941,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink108.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9758,7 +11989,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink109.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9798,7 +12029,45 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:10:23.704"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 75 220 0 0,'2'-38'1737'0'0,"1"2"1538"0"0,-1 109 2404 0 0,5 42-3084 0 0,1 19-1945 0 0,-2-49-526 0 0,0 34-462 0 0,-5-106-120 0 0,0-10 169 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 2 0 0 0,1-5 122 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-5-13-2004 0 0,4 3 1041 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.69">1 391 584 0 0,'-1'-1'208'0'0,"1"0"1"0"0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-2 1 0 0,0 2 210 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,4 0 1 0 0,1-1-98 0 0,14-1 818 0 0,-1-1 0 0 0,34-10 0 0 0,-31 6-1897 0 0,0-1 0 0 0,22-11 1 0 0,-38 15-9 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,5-10 0 0 0,-5 2-451 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.65">339 50 704 0 0,'-4'-13'949'0'0,"-1"-5"1420"0"0,1 18-1128 0 0,0 11-211 0 0,-16 72 2188 0 0,14-44-2398 0 0,-3 49 1 0 0,7-44-693 0 0,0 146-744 0 0,8-156-1336 0 0,-6-33 1756 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,3-1-1246 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.85">427 390 228 0 0,'0'0'78'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,-6 19 436 0 0,6-19-474 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 0 0 0 0,-4 1-18 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-2 0 0 0,0 3 109 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,1 2-11 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5 3 0 0 0,3-1-145 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-8 7 0 0 0,11-10-119 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 4 0 0 0,1-7-168 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,7 2-1228 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1410.04">807 343 48 0 0,'0'0'36'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-11 2 655 0 0,-14 9-24 0 0,24-11-632 0 0,-37 23 1322 0 0,35-21-1299 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 5 1 0 0,3-7-57 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,2 1-1 0 0,23 8-62 0 0,-26-9 60 0 0,45 10-339 0 0,-35-9 336 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,13 10-1 0 0,-21-14 82 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0 68 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 2 0 0 0,-7 4 387 0 0,1 0 0 0 0,-1-1 0 0 0,-16 8 0 0 0,18-10-595 0 0,0 1-39 0 0,-20 9 17 0 0,12-11-2734 0 0,16-4 2669 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-14 0 0,3-5-1581 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1749.01">1024 284 936 0 0,'3'59'9381'0'0,"3"7"-5605"0"0,1 13-4568 0 0,-3-3-3594 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2091.32">924 453 124 0 0,'0'0'184'0'0,"-1"0"0"0"0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,11-9 3472 0 0,34-8-1145 0 0,-33 14-2211 0 0,-1-1-220 0 0,0 2 1 0 0,1-1-1 0 0,0 1 0 0 0,18-2 0 0 0,-24 5-567 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,9 2 0 0 0,-11-1-359 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,4 2 0 0 0,3 5-1369 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink110.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9830,7 +12099,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink111.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9868,7 +12137,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink112.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9909,7 +12178,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink113.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9941,7 +12210,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink114.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9984,45 +12253,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:53.658"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">530 221 868 0 0,'0'-39'6643'0'0,"-12"48"-4876"0"0,-20 31-497 0 0,0 1 0 0 0,3 1-1 0 0,-38 74 1 0 0,-10 14-451 0 0,-162 205-264 0 0,224-314-518 0 0,5-4 6 0 0,10-15-28 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-3 2-1 0 0,3-2 47 0 0,26-16 65 0 0,55-25 15 0 0,-14 14 41 0 0,67-22-746 0 0,-63 29-5419 0 0,-39-1-1684 0 0,-21 14 5726 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.69">455 719 1716 0 0,'-7'-13'6809'0'0,"7"13"-6722"0"0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-11 17 3057 0 0,8-15-2852 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-3 7 0 0 0,-4 17 82 0 0,2 1-1 0 0,1 1 1 0 0,1-1 0 0 0,1 1 0 0 0,1 0-1 0 0,2-1 1 0 0,1 1 0 0 0,6 36 0 0 0,12 25-2553 0 0,-18-78 888 0 0,-1-11 1109 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,11-23-6644 0 0,8-20 2132 0 0,-6 14 2874 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1243.53">806 353 144 0 0,'7'-8'909'0'0,"1"0"0"0"0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,9-6-1 0 0,-8 7-553 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,11 2 0 0 0,-20-2-270 0 0,0 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 3-1 0 0,-2-1 23 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 5 1 0 0,-2 9 261 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-10 26 0 0 0,-8 13 265 0 0,-3 0 1 0 0,-49 79-1 0 0,35-68-431 0 0,-5 8-60 0 0,21-40-68 0 0,-34 77 0 0 0,43-79-56 0 0,6-17-10 0 0,2 0 0 0 0,0 0 0 0 0,-5 20 1 0 0,10-32-8 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 5 1 0 0,-3-7-2 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5-2-1 0 0,4-1 6 0 0,0-1 0 0 0,1-1 0 0 0,-2 0 0 0 0,20-12 0 0 0,-19 9-1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,10-15 0 0 0,-12 16 3 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-22 0 0 0,-3 25-4 0 0,-1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-2 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-13-14-1 0 0,-7-5 4 0 0,-1 1-1 0 0,-38-31 1 0 0,29 28-15 0 0,24 19 4 0 0,-14-11-5 0 0,-30-34 0 0 0,49 48 6 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,-3-18 0 0 0,6 24 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,3-4 0 0 0,-1 2-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,5-3 0 0 0,6 0-316 0 0,0 0-1 0 0,1 1 0 0 0,0 1 1 0 0,16-1-1 0 0,105 3-6559 0 0,21-2 968 0 0,127-13 7559 0 0,-280 15-1484 0 0,31 2 982 0 0,-35-2-1049 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 3 153 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,-1 4 0 0 0,-26 52 1160 0 0,8-18-620 0 0,-5 18 29 0 0,9-25-570 0 0,2 0-1 0 0,1 2 1 0 0,2-1 0 0 0,-9 51 0 0 0,19-72-231 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,4 22 1 0 0,-3-32-20 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,8 6-1 0 0,-7-7 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,9 0 0 0 0,-6-1 2 0 0,0 0 1 0 0,0-1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,17-7-1 0 0,-5 0 8 0 0,-2-1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-1-2-1 0 0,-1 0 1 0 0,0-1 0 0 0,20-22 0 0 0,-21 18-1 0 0,-1 0 0 0 0,0-2 1 0 0,-2 0-1 0 0,0 0 0 0 0,-2-1 1 0 0,16-39-1 0 0,-20 41 14 0 0,-1 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 1 0 0,-1 1-1 0 0,-1-26 0 0 0,0 39 63 0 0,-1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-11-10 1 0 0,11 12-24 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-14 1 0 0 0,1 2-22 0 0,0 1 0 0 0,1 1-1 0 0,0 1 1 0 0,-1 0 0 0 0,2 2 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,0 1-1 0 0,1 1 1 0 0,1 0 0 0 0,0 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 2-1 0 0,0 0 1 0 0,-16 22 0 0 0,21-24-130 0 0,0 1 1 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-5 27-1 0 0,9-29-261 0 0,-1 0 0 0 0,2-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,11 22 0 0 0,-11-27-83 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,16-1 0 0 0,15-5-963 0 0,3-2 152 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2108.12">2145 773 820 0 0,'89'-102'3047'0'0,"-75"85"-2153"0"0,-2-2 1 0 0,0 1 0 0 0,19-41-1 0 0,-29 56-710 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-6 0 0 0,1 7-109 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-2-1 0 0 0,0 1 7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-3 0 1 0 0,-7 4 121 0 0,1 0 1 0 0,-1 1 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,0 1 1 0 0,-12 14 0 0 0,2-1-36 0 0,2 1 0 0 0,-27 41 0 0 0,32-44-149 0 0,2 1 1 0 0,0 1 0 0 0,2 0-1 0 0,0 1 1 0 0,1-1 0 0 0,2 2-1 0 0,-7 35 1 0 0,12-49-25 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,8 13-1 0 0,-7-15 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,11 2 0 0 0,-4-3-19 0 0,1 0 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,-1 0-1 0 0,24-13 1 0 0,-16 6 25 0 0,-1 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1-1 0 0 0,31-32 1 0 0,-33 28 2 0 0,-1-1 0 0 0,0 0 0 0 0,-2-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-2 0 0 0 0,0-1 1 0 0,7-26-1 0 0,-13 34 104 0 0,0-1 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-9-22 0 0 0,9 30-21 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-8-1 0 0 0,-1 1-8 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 2 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 2 1 0 0,-17 6-1 0 0,7 1-108 0 0,1 1 1 0 0,0 2-1 0 0,1 0 1 0 0,0 1-1 0 0,2 1 1 0 0,0 2-1 0 0,1 0 1 0 0,1 1-1 0 0,0 1 1 0 0,2 1-1 0 0,0 0 1 0 0,2 2-1 0 0,1 0 1 0 0,0 0-1 0 0,2 2 1 0 0,1 0 0 0 0,-14 43-1 0 0,22-55-255 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,3 20 0 0 0,-2-28 39 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,7 3 1 0 0,0-1-165 0 0,0-2 1 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,23-7 0 0 0,1-3 190 0 0,-1-1 1 0 0,0-2-1 0 0,42-24 0 0 0,-27 10 719 0 0,-2-2 0 0 0,-1-2-1 0 0,-1-3 1 0 0,69-70-1 0 0,-70 58 2284 0 0,72-99 0 0 0,-116 146-2707 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-32 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 1 105 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-5 2 0 0 0,-17 12 209 0 0,1 1-1 0 0,1 1 0 0 0,0 2 0 0 0,-25 25 1 0 0,37-32-297 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-10 31-1 0 0,15-38-51 0 0,0-1-9 0 0,1-1 1 0 0,-1 1 0 0 0,2 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,2 1 1 0 0,2 12-1 0 0,-1-11-27 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,2-1 0 0 0,6 9 0 0 0,-7-12-22 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,8 2 1 0 0,-3-1-34 0 0,-1-2 1 0 0,1 1-1 0 0,0-2 0 0 0,0 1 1 0 0,1-2-1 0 0,-1 1 0 0 0,0-2 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,12-5 1 0 0,4-2-6 0 0,-1-1 1 0 0,-1-2-1 0 0,49-28 0 0 0,-51 26 174 0 0,-2-2 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-1 0 0 0,0-2 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,22-43 0 0 0,-30 51 132 0 0,-2 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-12-24 0 0 0,14 34-100 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-8-4 0 0 0,5 3-36 0 0,-1 1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-15-1 0 0 0,4 2-47 0 0,0 2 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,0 1 0 0 0,0 1 1 0 0,-23 9-1 0 0,20-5-53 0 0,1 1 1 0 0,1 1-1 0 0,0 2 0 0 0,0 0 1 0 0,1 1-1 0 0,1 1 1 0 0,0 1-1 0 0,1 0 0 0 0,1 2 1 0 0,-17 20-1 0 0,18-16-621 0 0,0 1-1 0 0,1 0 0 0 0,2 2 1 0 0,0-1-1 0 0,-12 33 1 0 0,18-37-979 0 0,1 1 0 0 0,0 0-1 0 0,-4 25 1 0 0,10-36 619 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,5 15-1 0 0,7 12-1794 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2517.14">3690 104 1128 0 0,'0'0'170'0'0,"-1"0"0"0"0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 678 0 0,1 1-678 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1-107 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,-15 176 6453 0 0,1-34-4383 0 0,7 5-1459 0 0,17 208 1 0 0,-9-302-3139 0 0,-1-34-1040 0 0,2-26-857 0 0,1-6 2241 0 0,-7-24-2330 0 0,3 13 2639 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2855.77">3516 218 544 0 0,'-63'-103'7561'0'0,"62"102"-7485"0"0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,6-3 306 0 0,0 0 1 0 0,0 0 0 0 0,14-4 0 0 0,-18 7-317 0 0,49-13 839 0 0,1 3 0 0 0,100-9 0 0 0,-153 20-893 0 0,-1 0-11 0 0,46-5 364 0 0,0 1 0 0 0,1 2-1 0 0,-1 3 1 0 0,50 6-1 0 0,-94-7-370 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,3 3 0 0 0,-4-3-85 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-2 2 0 0 0,-84 180-12855 0 0,71-146 10975 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3331.68">4195 752 1400 0 0,'7'-5'1694'0'0,"0"1"0"0"0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,13-4 0 0 0,-21 7-1654 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-2-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-5 7 416 0 0,1 0-333 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 11-1 0 0,-1-19-121 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,2 0-1 0 0,0 0-7 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,6 1 1 0 0,4-3-82 0 0,-1 0 0 0 0,1 0 0 0 0,20-9 0 0 0,-21 6-1 0 0,-1 0-1 0 0,0 0 0 0 0,17-14 0 0 0,5-2 47 0 0,-37 25 43 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,2 11-1 0 0,4 7-8 0 0,2 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 0 1 0 0,2-1 0 0 0,18 28-1 0 0,95 106-19 0 0,-109-137 29 0 0,22 27 5 0 0,33 36 17 0 0,-58-65-3 0 0,-12-14-14 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3 1 0 0 0,-5-5-3 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,2 2-2 0 0,-8-8 42 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-1 1 0 0 0,-18-9 0 0 0,-4 2 233 0 0,-50-12 1 0 0,56 18 66 0 0,1-1 0 0 0,1-1 0 0 0,-36-17 0 0 0,55 23-240 0 0,-2-1 63 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,-6-5 1 0 0,11 9-142 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,2-1-1 0 0,5-4 41 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,11-3-1 0 0,60-19 98 0 0,-69 24-155 0 0,174-40-1537 0 0,4 15-4649 0 0,-33 5-946 0 0,-88 11 3962 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink115.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10054,7 +12285,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink116.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10086,7 +12317,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink117.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10118,7 +12349,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink118.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10158,7 +12389,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink119.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10190,7 +12421,46 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:10:54.723"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 127 120 0 0,'2'-9'1501'0'0,"-1"5"-887"0"0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,4-5 1 0 0,-6 8-460 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,4 17 1367 0 0,-2 27 95 0 0,-3 0 0 0 0,-8 68 0 0 0,3-50-1256 0 0,-14 111-41 0 0,13-128-4225 0 0,14-101-2235 0 0,-2-68 0 0 0,-5 88 4729 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.99">9 72 812 0 0,'-3'-14'1134'0'0,"2"10"-919"0"0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1-7-1 0 0,-1 11-140 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,15 17 1254 0 0,-9-6-683 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,4 14 0 0 0,14 70 893 0 0,-10-41-1188 0 0,-9-38-291 0 0,10 35 22 0 0,-13-49-82 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,5 3 0 0 0,-7-6-20 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0 0-57 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1-2 1 0 0,5-4-379 0 0,0-1 0 0 0,9-16 0 0 0,-13 20 297 0 0,15-26-745 0 0,27-62 0 0 0,-4 10 1854 0 0,-42 83-922 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 13 942 0 0,-3 19 142 0 0,-4 14 695 0 0,2 64 0 0 0,2-36-850 0 0,-1-25-908 0 0,3 0 0 0 0,7 58 0 0 0,-8-88-3137 0 0,7-35-9477 0 0,-3 7 10349 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1900.18">585 478 564 0 0,'2'0'230'0'0,"1"-1"-1"0"0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3-3 1 0 0,5-4 276 0 0,-5 3 278 0 0,-3 1 970 0 0,-7 5-1264 0 0,4-1-464 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 123 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-2 0 9 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-8 11 1 0 0,12-15-145 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 3 0 0 0,2-5-15 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0-119 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4-3 1 0 0,2 0-334 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,12-11 0 0 0,-12 9 733 0 0,-1 0-1 0 0,12-18 1 0 0,-18 27-193 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-31 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 12 694 0 0,0 0-1 0 0,-5 18 1 0 0,4-23-541 0 0,1 1 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 9 1 0 0,-2-15-178 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-102 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,7-5-1561 0 0,-1 0 1 0 0,0-1-1 0 0,9-11 0 0 0,-5 7-2627 0 0,-3 3 1923 0 0,-2 1 281 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2554.39">883 479 684 0 0,'14'0'2945'0'0,"-12"0"-2839"0"0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,2-2 0 0 0,-3 2-65 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-12 3 926 0 0,-14 7 80 0 0,25-9-1031 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2 2-9 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,3 4 0 0 0,4 7 154 0 0,13 14 730 0 0,-18-25-583 0 0,0 2 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,4 7-1 0 0,-8-12-241 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2 1 0 0 0,-31 9 257 0 0,28-9-508 0 0,-20 5 23 0 0,25-6-42 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0-373 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,3-2-1 0 0,2-3-930 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2927.53">1029 422 632 0 0,'1'13'8357'0'0,"2"5"-6836"0"0,-2 1-1 0 0,-1 25 1 0 0,-2-7-937 0 0,2-26-714 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-3 16 0 0 0,2-22-1743 0 0,2-18-7063 0 0,3 6 7280 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3301.16">1168 421 796 0 0,'1'-1'143'0'0,"-1"1"0"0"0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1 11 2842 0 0,-1-9-2644 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,-5 6-1 0 0,-29 16 741 0 0,-1 0-642 0 0,34-23-430 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-2 6 0 0 0,3-4 44 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 7 0 0 0,2 5 395 0 0,-3-7-246 0 0,16 51 1387 0 0,-15-21-3914 0 0,-12-54-8772 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3829.05">902 456 372 0 0,'5'-1'420'0'0,"3"-1"-80"0"0,-6 1-68 0 0,5-2-40 0 0,-2 3-32 0 0,0-2-44 0 0,0 1-52 0 0,2-1-44 0 0,-2 2-64 0 0,2-1-108 0 0,-4 1-208 0 0,2 0-276 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5161.09">1465 1053 228 0 0,'0'0'2626'0'0,"-37"-13"1855"0"0,34 11-4437 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-3-7-1 0 0,-1-5 28 0 0,-9-31 0 0 0,15 44-43 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,6 2 0 0 0,-8-3 3 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 1 1 0 0,-2 2 111 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-8 4-1 0 0,-23 13 329 0 0,19-13-351 0 0,1 1-1 0 0,-1 1 0 0 0,1 0 1 0 0,1 1-1 0 0,-19 19 0 0 0,30-27-99 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,0 4 0 0 0,0-8-20 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 0 0 0 0,41-1 38 0 0,-32 0-33 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-2 1 0 0,10-11-1 0 0,-8 8 59 0 0,-1 1 466 0 0,-27 18-4376 0 0,-7 6-4785 0 0,19-8 6823 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink120.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10222,7 +12492,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink121.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10255,7 +12525,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink122.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10288,7 +12558,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink123.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10321,7 +12591,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink124.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10353,47 +12623,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:12.236"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">168 157 512 0 0,'-17'31'1227'0'0,"0"2"-1"0"0,-14 41 1 0 0,11-15-909 0 0,-15 71 0 0 0,19-44-60 0 0,3 1-1 0 0,-3 147 0 0 0,15-217-349 0 0,1-13-54 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 9-1 0 0,-2-18-2969 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.45">127 136 712 0 0,'6'-23'1061'0'0,"-5"15"-829"0"0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,4-11 0 0 0,-5 16-214 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,5-3 0 0 0,9-3 65 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,33 1-1 0 0,-41 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,9 5 0 0 0,-12-6-6 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,4 10-1 0 0,3 9 55 0 0,-2 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-2 0-1 0 0,0 32 0 0 0,-20 184 554 0 0,2-133-522 0 0,-4 33-902 0 0,11-61-3747 0 0,9-68 3075 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.09">798 694 680 0 0,'-1'6'2870'0'0,"-4"1"-2592"0"0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 11 0 0 0,-5 42 431 0 0,3-38-359 0 0,-1 46-1 0 0,1 182-345 0 0,5-249-123 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-3 1-1 0 0,4-3 33 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-80 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-3-1 0 0,-1-12-976 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.62">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1418.21">1213 1084 612 0 0,'10'6'6161'0'0,"-5"-6"-5141"0"0,0 0-1012 0 0,0 0-528 0 0,-5-3-1353 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.04">1808 544 576 0 0,'4'4'3217'0'0,"12"12"-2153"0"0,15-10 527 0 0,-30-5-1547 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-29 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-23-3 328 0 0,12 5-300 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-14 19 0 0 0,18-22-10 0 0,0 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 14 0 0 0,7-17-31 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 9 0 0 0,-2-6-310 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,9-1 1 0 0,9 0-891 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2098.19">2168 712 656 0 0,'23'-18'1981'0'0,"45"-25"-1"0"0,-49 32-1201 0 0,-19 10-749 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 12 759 0 0,-7 23-343 0 0,5-24-230 0 0,-9 44 100 0 0,6-27-263 0 0,5-23-49 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-4 6 1 0 0,0-1 14 0 0,3-5 1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-6 5 1 0 0,9-9-19 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-4 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,1-3-5 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,3-8 0 0 0,0 0-10 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,13-12 0 0 0,-16 18 15 0 0,-1-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,10-4 0 0 0,-13 6 43 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 1 1 0 0,-8 0 9 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 5-1 0 0,1 3 117 0 0,0 1 0 0 0,-1-1 0 0 0,0 18 0 0 0,-2-6-97 0 0,-2-1 1 0 0,0 1-1 0 0,-7 24 0 0 0,-4 22-1089 0 0,14-64 834 0 0,-1 0-418 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 7 0 0 0,-1-4-1246 0 0,-1-4 155 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2432.56">2973 601 284 0 0,'7'-9'1594'0'0,"-1"0"0"0"0,-1 0 0 0 0,1-1 0 0 0,4-12 0 0 0,5-9 1007 0 0,-14 30-2541 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1-113 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 1-455 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 4 0 0 0,-4 9-1653 0 0,-3 0 280 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2775.86">2952 940 40 0 0,'0'8'1008'0'0,"0"-5"-326"0"0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 4 0 0 0,1 0 633 0 0,-3-7-1232 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,19 4-3126 0 0,4 1-4689 0 0,-14-2 5897 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink125.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10431,7 +12661,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink126.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10464,7 +12694,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink127.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10497,7 +12727,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink128.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10529,7 +12759,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink129.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10565,7 +12795,42 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:11:04.043"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">59 4 156 0 0,'5'1'5074'0'0,"20"23"-3675"0"0,-25-23-1374 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2 1 1 0 0,9-2 13 0 0,-11 2-37 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1773.17">16 17 152 0 0,'0'1'190'0'0,"0"-1"1"0"0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,1 0 0 0 0,-1 1-142 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 0-1 0 0,-1-1-21 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,-10-3-14 0 0,17 3 1174 0 0,-17-3-1311 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2313.4">130 55 200 0 0,'0'0'989'0'0,"-8"0"480"0"0,-11 0-567 0 0,11-3-617 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,-12-9-1 0 0,12 7-1132 0 0,0 1 1 0 0,0 1 0 0 0,-14-7-1 0 0,17 10-152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3201.02">87 73 180 0 0,'0'-3'464'0'0,"0"-2"-200"0"0,-3 1-164 0 0,1-2-176 0 0,2 0-272 0 0,-5 2-144 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink130.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10599,7 +12864,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink131.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10636,7 +12901,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink132.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10668,7 +12933,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink133.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10701,7 +12966,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink134.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10739,48 +13004,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:16.492"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">435 58 516 0 0,'10'-26'3336'0'0,"-9"22"-2838"0"0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,3-4-1 0 0,-19 31 3487 0 0,-4 26-2337 0 0,0-1-854 0 0,-116 198 1835 0 0,104-196-2419 0 0,-131 194 208 0 0,103-166-301 0 0,33-48-23 0 0,25-30-70 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,27-5 147 0 0,-8 3-45 0 0,84-16 172 0 0,26-2-3457 0 0,-124 20 2222 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,4-4 0 0 0,2-1-1262 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="341.36">515 502 392 0 0,'2'-3'541'0'0,"-1"0"1"0"0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-4-1 0 0,0-13 6218 0 0,-16 44-3860 0 0,-26 67 733 0 0,11-29-1884 0 0,-58 162 888 0 0,83-209-2609 0 0,1-5-58 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 19-1 0 0,4-20 178 0 0,-1-8-449 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 2-1 0 0,0-3 62 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,2-2 0 0 0,4-2-819 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-2 1-1 0 0,8-10 1 0 0,7-8-1277 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.07">771 448 84 0 0,'28'-36'7442'0'0,"-25"23"233"0"0,-4 23-7796 0 0,2-5 189 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,4 5 0 0 0,4 11 69 0 0,13 27 163 0 0,33 53 0 0 0,11 22 141 0 0,-50-94-211 0 0,-12-22-108 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 9 0 0 0,2 3 323 0 0,-6-16-319 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 5 0 0 0,1-6-11 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-4 0-1 0 0,-30 5 718 0 0,18-5-927 0 0,-116 5 1411 0 0,67-12-2603 0 0,51 4-470 0 0,1-2 0 0 0,-19-6 0 0 0,32 9 1209 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-4 0 0 0,0-9-1738 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1079.44">766 406 32 0 0,'-14'-78'6347'0'0,"13"72"-5945"0"0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,3-9 0 0 0,-2 10-84 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,4-1 0 0 0,5-3 280 0 0,0 1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 2 1 0 0,0-1-1 0 0,20-1 1 0 0,-4-1 331 0 0,24-6 61 0 0,1 3 0 0 0,0 1 1 0 0,1 3-1 0 0,63 3 0 0 0,-113 2-1020 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 4 0 0 0,-7-5-142 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 3 0 0 0,-23 67-15612 0 0,20-60 13087 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1724.48">1831 583 1072 0 0,'-7'-15'2703'0'0,"5"11"-2051"0"0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-4-1 0 0,1 8-609 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-6 16 1482 0 0,6-9-966 0 0,1 0 1 0 0,-2 1 0 0 0,-3 12 0 0 0,-1 10 634 0 0,6-28-1129 0 0,-26 302 4138 0 0,25-331-3931 0 0,0 13-278 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,5-27 0 0 0,0 12-38 0 0,-6 25 39 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 1 0 0,3-7-1 0 0,-2 7 3 0 0,1-2-2 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,13-7 0 0 0,16-7 9 0 0,68-26 0 0 0,-86 38-19 0 0,-15 6-98 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,3 1 0 0 0,-20 20-5230 0 0,5-12 3865 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-15 5 1 0 0,13-5 218 0 0,-13 6-717 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2277.92">1781 757 652 0 0,'-1'2'311'0'0,"-1"1"1"0"0,1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,2 5 0 0 0,3 3 758 0 0,0 0 0 0 0,0 0 0 0 0,14 16 0 0 0,-1-3 1097 0 0,-14-16-1624 0 0,1 0-1 0 0,1-1 1 0 0,12 11-1 0 0,13 13 32 0 0,-30-28-608 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 0 0 0,-2-1-153 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-2-1 0 0,-1 1 0 0 0,12-3 1 0 0,-2-1-192 0 0,1 0 1 0 0,-1-2 0 0 0,0 0-1 0 0,26-14 1 0 0,92-61-239 0 0,-54 31 606 0 0,-1 5 905 0 0,-90 52-447 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-17 17 1 0 0,22-20-423 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-4 17 0 0 0,6-23-20 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,3 1 0 0 0,-1 0 10 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,4 0 0 0 0,5 0 29 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,21-2 0 0 0,-23 0-43 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,10-7 1 0 0,-14 8-2 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-5-1 0 0,-1-1-25 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-8-9-1 0 0,-6-8-102 0 0,-29-33-1 0 0,36 46 108 0 0,-112-113 18 0 0,65 69 122 0 0,54 53-108 0 0,-9-12-21 0 0,12 14-24 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,106-6-9070 0 0,-76 3 6856 0 0,6 0 305 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2617.1">2881 376 804 0 0,'64'-25'3099'0'0,"-36"15"-1155"0"0,-1-1 0 0 0,33-18 1 0 0,-60 29-1885 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-7 13 1491 0 0,-15 17-602 0 0,22-30-876 0 0,-12 17 543 0 0,1 1-1 0 0,-9 20 0 0 0,4-8 35 0 0,-97 218 2644 0 0,60-121-2914 0 0,-43 88-198 0 0,56-122-2404 0 0,63-110-9678 0 0,15-17 6403 0 0,-23 17 3541 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3562.95">3106 877 276 0 0,'6'-3'474'0'0,"-1"2"1"0"0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,11 1-1 0 0,10-2 954 0 0,-7 0-346 0 0,-15 2-740 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,6-5-1 0 0,-10 6-312 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-26-6 292 0 0,18 5-213 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,-14 6 0 0 0,8-3 119 0 0,1 1-1 0 0,0 1 1 0 0,1 1 0 0 0,-24 18 0 0 0,35-25-213 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 4-1 0 0,2-5-4 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 3-1 0 0,0 0 2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,6 0-1 0 0,18 4-87 0 0,0-2-1 0 0,1 0 1 0 0,0-3 0 0 0,46-1-1 0 0,-34-5-423 0 0,0-1 0 0 0,64-19 0 0 0,-85 19 394 0 0,0-1-1 0 0,-1-2 0 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,29-21 1 0 0,-44 29 125 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,2-6 0 0 0,-4 9-8 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-27-2 169 0 0,17 2-154 0 0,-1 1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-15 9 0 0 0,20-9-18 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 9 0 0 0,5-13-31 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,3 3-1 0 0,-1-1-59 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,6 0 0 0 0,0-2-226 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,16-7 0 0 0,2-3-489 0 0,46-28-1 0 0,-62 32 804 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,16-23 0 0 0,-13 18 259 0 0,-6 5 456 0 0,-1 0 1 0 0,9-16-1 0 0,-12 19 35 0 0,-1 4-71 0 0,-2 0 531 0 0,-9 9-676 0 0,-11 16-31 0 0,8-7-322 0 0,5-7-61 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-4 12 0 0 0,-17 67 597 0 0,21-68-620 0 0,4-18-78 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 3-1 0 0,-3-5-6 0 0,2 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,44-33 175 0 0,10-17-193 0 0,-12 14-13 0 0,-8 9 1 0 0,48-39-38 0 0,-42 36 30 0 0,-27 20 14 0 0,29-15 0 0 0,-15 9-1414 0 0,-48 19-9164 0 0,6 0 8040 0 0,-1 3 364 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3902.11">3966 883 584 0 0,'-11'4'1245'0'0,"4"-2"-679"0"0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-7 6-1 0 0,12-11-462 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1 1-1 0 0,29 28 1604 0 0,-27-27-1455 0 0,126 93 3720 0 0,-56-42-2905 0 0,-39-30-856 0 0,1 1-1174 0 0,-18-3-4548 0 0,-17-19 3370 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5275.48">2641 547 628 0 0,'5'-8'754'0'0,"5"-2"317"0"0,3-1-198 0 0,-12 9-697 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,4-2 1 0 0,29-12 3412 0 0,-35 15-3533 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-21 0 687 0 0,-73 11-1515 0 0,-126 25-6993 0 0,150-23 5628 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink135.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10816,7 +13040,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink136.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10852,7 +13076,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink137.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10896,7 +13120,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink138.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10930,7 +13154,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink139.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10964,7 +13188,46 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:11:08.769"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 252 176 0 0,'21'-23'8615'0'0,"28"-45"-8640"0"0,-36 51 692 0 0,17-31-402 0 0,-28 43-175 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-8 0 0 0,-2 12-55 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-2 0 1 0 0,2 1-7 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,-18 33 777 0 0,8-1-626 0 0,2 1-1 0 0,1 1 1 0 0,2 0-1 0 0,1 0 1 0 0,2 0-1 0 0,1 43 1 0 0,0-71-2382 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="856.13">588 234 324 0 0,'0'0'158'0'0,"0"1"-1"0"0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,5-12 2232 0 0,25-24-1245 0 0,-14 17-567 0 0,0-1-361 0 0,-2-1 0 0 0,-1-1 0 0 0,12-28 1 0 0,-19 29 469 0 0,-9 22-336 0 0,-2 12-226 0 0,-7 20 79 0 0,3 1-1 0 0,1 1 1 0 0,1 0-1 0 0,-3 45 1 0 0,10-26-1581 0 0,1-29-4671 0 0,1-23 4225 0 0,1 0 140 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1614.88">1052 237 400 0 0,'-3'-3'4909'0'0,"9"-1"-4426"0"0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,6-7 1 0 0,3-5-16 0 0,5-6 223 0 0,-2 0 1 0 0,18-33 0 0 0,-37 67 571 0 0,-2 7-1029 0 0,-7 32 0 0 0,9-19-206 0 0,-3 30-251 0 0,6 11-2744 0 0,0 0-5312 0 0,0-63 7058 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2372.95">1596 311 368 0 0,'4'-9'3973'0'0,"15"-14"-2631"0"0,-13 17-391 0 0,12-16-21 0 0,-1 1 1 0 0,-1-2-1 0 0,-1 0 0 0 0,14-29 1 0 0,-28 49-803 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,0 6-123 0 0,-2 20 100 0 0,-1-5-322 0 0,-15 115 882 0 0,18-66-2563 0 0,8 2-4796 0 0,-7-54 4898 0 0,1 0 188 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3395.93">2097 264 128 0 0,'0'0'287'0'0,"0"-1"-1"0"0,-2 0 1148 0 0,2 1-1148 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,4-11 2546 0 0,14-14-2268 0 0,-13 21-53 0 0,49-61 168 0 0,-42 54-446 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,15-34-1 0 0,-23 45 258 0 0,-2 5-177 0 0,-4 13-50 0 0,-7 24-13 0 0,2 15-700 0 0,-3 67 0 0 0,10-61-3286 0 0,2 1-3790 0 0,1-47 5970 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4096.17">2641 198 464 0 0,'5'-8'8439'0'0,"12"-7"-6856"0"0,-9 8-1044 0 0,4-3-295 0 0,-1-1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0-1 0 0 0,8-15 0 0 0,-12 17 19 0 0,-3 9-102 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-7 267 0 0,-5 36-39 0 0,-5 38-337 0 0,-1 95 1 0 0,9-120-2446 0 0,1-20-1037 0 0,1 1-4185 0 0,0-19 6075 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4687.94">2992 227 968 0 0,'2'-4'722'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,4-4 0 0 0,2-2 345 0 0,5-6-320 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,14-29 1 0 0,-17 32 439 0 0,-8 25-398 0 0,-9 32 33 0 0,1-10-539 0 0,2 1 0 0 0,0 53 0 0 0,3-21-3251 0 0,2-35-297 0 0,4-7-5294 0 0,-3-20 6621 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5405.31">3503 237 724 0 0,'2'-3'799'0'0,"-1"0"0"0"0,1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,3-1 0 0 0,3-5 1033 0 0,8-9-454 0 0,44-51 1323 0 0,-27 18-1042 0 0,-30 44-1424 0 0,-2 4 85 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-4 0 0 0,-2 6-172 0 0,-12 44 604 0 0,3-1-621 0 0,3 0 0 0 0,-2 63-1 0 0,6-41-5030 0 0,2 0-6763 0 0,0-64 11631 0 0,0 9-1853 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink140.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -10996,7 +13259,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink141.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11030,7 +13293,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink142.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11063,7 +13326,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink143.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11100,7 +13363,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink144.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11135,41 +13398,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:30.270"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#008C3A"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">511 270 300 0 0,'0'3'989'0'0,"5"-15"-854"0"0,24-33 441 0 0,17-24 504 0 0,-45 68-1041 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-3-2 0 0 0,-3-5 189 0 0,0 0 0 0 0,-1 1 0 0 0,-13-10 0 0 0,20 17-220 0 0,-6-6 63 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-19-1 1 0 0,15 4 114 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,1 2-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-17 16 0 0 0,10-6-60 0 0,1 1 0 0 0,0 0 1 0 0,2 1-1 0 0,0 0 0 0 0,1 2 0 0 0,1-1 1 0 0,1 2-1 0 0,0 0 0 0 0,-7 24 0 0 0,6-9-41 0 0,1 1 1 0 0,2 1-1 0 0,1-1 0 0 0,-4 70 0 0 0,11-79-82 0 0,1 1 1 0 0,1-1-1 0 0,9 55 0 0 0,-8-75-84 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,13 9-1 0 0,-13-12-40 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,7 1 0 0 0,-4-1-93 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,13-6 1 0 0,5-4-434 0 0,-1-2 1 0 0,0-1-1 0 0,35-25 1 0 0,-61 39 622 0 0,103-76-1278 0 0,17-10 940 0 0,-93 68 477 0 0,-16 10 48 0 0,-1 1 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,1 0 1 0 0,15-3-1 0 0,-28 8-129 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,2 1 1 0 0,-2 0 34 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,-2 7 206 0 0,0 0 1 0 0,-7 22-1 0 0,7-29-158 0 0,-1 10 13 0 0,0-1 1 0 0,1 1 0 0 0,1 0-1 0 0,0 21 1 0 0,1-37-127 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,2 1 0 0 0,1-1 1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,6-5-1 0 0,18-15-22 0 0,-2-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,-2-1 1 0 0,21-30-1 0 0,34-52-35 0 0,-58 88 32 0 0,-20 20 22 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-8 15 74 0 0,4-7-35 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 17 0 0 0,1-4 18 0 0,0-18-46 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 5 0 0 0,0-4 5 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,4 3 1 0 0,-5-6-14 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,18-9 30 0 0,-18 8-33 0 0,10-5-3 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-2-1 0 0,15-14 1 0 0,44-55 3 0 0,-54 59 14 0 0,14-16 11 0 0,-42 57 339 0 0,2-5-42 0 0,-13 27 0 0 0,19-31-203 0 0,-2 2-26 0 0,1-1 1 0 0,1 1-1 0 0,0 1 0 0 0,-3 19 0 0 0,8-31-88 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,5 3-1 0 0,-3-3-32 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,9-1 1 0 0,3-2-252 0 0,0-1 1 0 0,24-9 0 0 0,-9-2 49 0 0,-1-1-1 0 0,-2-1 1 0 0,1-2 0 0 0,-2 0 0 0 0,32-32-1 0 0,-29 25 198 0 0,6-5 70 0 0,-23 20 107 0 0,-12 10 12 0 0,-6 5 77 0 0,-10 12-78 0 0,0 0 0 0 0,1 0 1 0 0,0 2-1 0 0,1-1 0 0 0,-19 35 1 0 0,25-38-84 0 0,1 0 1 0 0,-8 28 0 0 0,6-18-36 0 0,6-17-33 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3 9 0 0 0,-3-15-3 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,2 0 2 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,4-3-1 0 0,29-32-27 0 0,-16 12 2 0 0,-1-2 1 0 0,-2 1-1 0 0,-1-2 1 0 0,-1 0-1 0 0,-1-1 1 0 0,15-51-1 0 0,-27 80 21 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-11 9 10 0 0,-13 21 45 0 0,19-18-38 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-6 22-1 0 0,8-28-13 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,4 10 0 0 0,-3-11-55 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,7 0 1 0 0,0-1-96 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,11-8 0 0 0,2-3 52 0 0,-1-1 1 0 0,-1 0 0 0 0,31-32-1 0 0,50-65 223 0 0,-49 52 163 0 0,-13 15 305 0 0,-32 35-372 0 0,-2 4 479 0 0,-4 17-3 0 0,-2-3-514 0 0,-2 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-4 10 1 0 0,-6 20 343 0 0,5 0-59 0 0,1 1-1 0 0,-1 60 0 0 0,7-68-405 0 0,1 0-1 0 0,7 42 0 0 0,-2-40 7 0 0,-6-62-89 0 0,-2 0 0 0 0,-1 0 0 0 0,-8-30 0 0 0,-23-31-339 0 0,21 55 208 0 0,-24-46 1 0 0,22 50 136 0 0,15 30 9 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,2 1-3 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,4 0 0 0 0,5-1 12 0 0,3 0-1 0 0,47-5-17 0 0,89 4 0 0 0,-145 2 11 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,5 3-1 0 0,-8-4 10 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 4 1 0 0,-13 39 247 0 0,7-27-200 0 0,2 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-3 34 1 0 0,7-51-58 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-2-2-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,1-2 0 0 0,9-2-6 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,16-11 0 0 0,0-2-3 0 0,-2-1 0 0 0,0-2 0 0 0,-1 0-1 0 0,-1-2 1 0 0,-1 0 0 0 0,-2-2 0 0 0,0-1 0 0 0,34-56 0 0 0,-46 63 9 0 0,-10 20-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-5 5 26 0 0,0 0 0 0 0,0-1 0 0 0,0 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-4 6 0 0 0,2-3 35 0 0,1-1-26 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,1 0 1 0 0,0 9 0 0 0,0-14-29 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,5 0 0 0 0,-2-1 0 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,8-4 0 0 0,-2 1-2 0 0,-1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,9-11 1 0 0,0 0-6 0 0,-2-1 0 0 0,23-34 1 0 0,-33 44-3 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,3-21 1 0 0,-1 10-8 0 0,-1-5-30 0 0,-6 29 48 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-2 2 0 0 0,-1 2 17 0 0,-2 5 43 0 0,-1 0 0 0 0,-8 20 1 0 0,14-27-54 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,1 4 0 0 0,2 4 12 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,18 14-1 0 0,-21-19-22 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,9-4 0 0 0,-2 0-6 0 0,0-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-2 0 1 0 0,1 0-1 0 0,-2-1 1 0 0,8-22-1 0 0,-8 22-1 0 0,-2 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-29-1 0 0,-4 41 6 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-4 1 28 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-5 4 0 0 0,-2 3 131 0 0,0 0 1 0 0,1 0-1 0 0,0 2 0 0 0,1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,1-1 1 0 0,-11 25-1 0 0,16-32-80 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,8 6 0 0 0,3 2 12 0 0,1-2 1 0 0,1 0-1 0 0,0-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,2-2 0 0 0,0 0 1 0 0,22 5-1 0 0,11 1-546 0 0,104 12 0 0 0,64-10-3332 0 0,-159-16 1055 0 0,0-3 1 0 0,0-2-1 0 0,79-18 0 0 0,-69 5 432 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.6">4692 414 212 0 0,'0'1'174'0'0,"0"-1"0"0"0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,7-11 2009 0 0,20-7-1086 0 0,-26 18-1135 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 2 1 0 0,1 1-826 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 6 1 0 0,2 4-937 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="742.52">4902 774 496 0 0,'0'9'2120'0'0,"-5"0"244"0"0,0-3 101 0 0,0 0-689 0 0,5 0-872 0 0,0-3-476 0 0,0 0-156 0 0,0 0-236 0 0,0 3-472 0 0,5-6-552 0 0,0 3-844 0 0,0 0-393 0 0,-5 0-99 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink145.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11204,7 +13433,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink146.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11238,7 +13467,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink147.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11271,7 +13500,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink148.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11304,7 +13533,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink149.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11338,7 +13567,43 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:11:17.174"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 269 848 0 0,'6'-5'9429'0'0,"20"-17"-8100"0"0,-13 7-998 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,14-31 0 0 0,-16 29-237 0 0,-2 0 0 0 0,9-39-1 0 0,-14 51-18 0 0,1-4 127 0 0,-8 20-77 0 0,2 3 117 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 20-1 0 0,0-5 381 0 0,-1 7-145 0 0,-14 174-1337 0 0,17-187-681 0 0,0 10-2828 0 0,1-29 3625 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 4 0 0 0,1 1-1012 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="855.06">564 235 208 0 0,'-2'-4'6913'0'0,"2"4"-6796"0"0,8-11 2273 0 0,14-10-1872 0 0,-21 20-208 0 0,21-20 284 0 0,-1-2 1 0 0,-2 0-1 0 0,0-2 1 0 0,19-31 0 0 0,-29 38 519 0 0,-18 32-273 0 0,3 1-504 0 0,2-1 0 0 0,-1 1 0 0 0,2 0 1 0 0,0 1-1 0 0,-2 25 0 0 0,2-15-186 0 0,-6 108-199 0 0,8-46-5146 0 0,1-85 4449 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,2 3 1 0 0,2-1-1276 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1499.26">1074 339 360 0 0,'4'-3'5097'0'0,"10"-11"-2880"0"0,-5 6-613 0 0,39-37 1803 0 0,-29 25-2826 0 0,-1 0 0 0 0,0-1 0 0 0,22-38 0 0 0,-20 13 650 0 0,-14 29-195 0 0,-5 15-674 0 0,-4 9-203 0 0,-9 31-24 0 0,1 0 0 0 0,2 1-1 0 0,1 1 1 0 0,-3 49 0 0 0,7 19-4605 0 0,9-84-58 0 0,5-12-2767 0 0,-5-10 5537 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2097.71">1603 299 556 0 0,'2'-4'719'0'0,"0"0"-1"0"0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,5-4-1 0 0,2-2 724 0 0,4-6-601 0 0,-1 0 0 0 0,-1-1 1 0 0,20-34-1 0 0,-22 30-354 0 0,13-32 0 0 0,-20 35 439 0 0,-6 29-340 0 0,-5 50-345 0 0,-1 115-1 0 0,6-98-4279 0 0,1-59 421 0 0,-1-1-1 0 0,-5 19 1 0 0,5-26 1798 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4022.33">2222 400 540 0 0,'5'-5'10951'0'0,"16"-20"-9764"0"0,-5 7-785 0 0,-1-1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-2-1 1 0 0,11-27-1 0 0,-34 93 337 0 0,3-1 0 0 0,-6 63-1 0 0,11-78-874 0 0,-1 15-1438 0 0,-9 51-11903 0 0,11-78 11386 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink150.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11371,7 +13636,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink151.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11408,7 +13673,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink152.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11443,7 +13708,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink153.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11480,7 +13745,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink154.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -11511,6 +13776,3447 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">195 207 92 0 0,'0'-1'382'0'0,"0"0"1"0"0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-4 1 2015 0 0,2 10-1128 0 0,-7 151 5347 0 0,0 5-4463 0 0,-15 216-1515 0 0,22-355-1144 0 0,-1-1 0 0 0,-1 0-1 0 0,-2 0 1 0 0,-12 31 0 0 0,13-41-1143 0 0,-2 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-13 18 0 0 0,21-31 1188 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-5 2 0 0 0,-8 0-1995 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.45">75 629 932 0 0,'5'-6'601'0'0,"0"-1"0"0"0,1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,13-4 1 0 0,-8 4-287 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 2 0 0 0,0 0 1 0 0,15 0-1 0 0,7 2 157 0 0,0 2 0 0 0,0 1-1 0 0,0 2 1 0 0,35 9 0 0 0,-41-7-336 0 0,-1 1 1 0 0,1 2-1 0 0,-2 0 0 0 0,0 2 1 0 0,0 1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,0 2-1 0 0,-1 0 0 0 0,-1 2 1 0 0,-1 0-1 0 0,26 30 1 0 0,-37-36 30 0 0,0 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,5 19-1 0 0,-10-28 7 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,-10 9 0 0 0,1-3 32 0 0,-1 0-1 0 0,0-2 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 1 0 0,-22 6-1 0 0,-23 1-66 0 0,-83 8 1 0 0,120-18-127 0 0,-107 8-1064 0 0,118-11 47 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,0-1 0 0 0,-24-9 0 0 0,35 11 526 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1-5 0 0 0,-7-20-2187 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="682.61">65 141 648 0 0,'0'-7'911'0'0,"0"-1"0"0"0,1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,4-12 0 0 0,-4 16-652 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,2-2 1 0 0,7-2 551 0 0,0 0 0 0 0,1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,22-2 0 0 0,81-4 1728 0 0,134 8-1469 0 0,-86 17-4129 0 0,-62-9-3408 0 0,-33-3 1004 0 0,-29 0 2696 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink155.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:18.172"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 443 56 0 0,'-3'-14'2817'0'0,"3"13"-2610"0"0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-2 1089 0 0,2 0 885 0 0,-1 13-666 0 0,8 80 2547 0 0,-4-47-2996 0 0,2 1 0 0 0,17 56 1 0 0,1 3-160 0 0,0 9-347 0 0,18 93-212 0 0,-35-138-327 0 0,-2 0 0 0 0,-4 0 0 0 0,-2 0 0 0 0,-11 97 1 0 0,6-127-128 0 0,2-14-132 0 0,-6 28 0 0 0,6-43-434 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,-4 9 1 0 0,7-15 552 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-5-14-4228 0 0,2-23-788 0 0,4 13 2978 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.24">95 1102 640 0 0,'0'-6'892'0'0,"0"-1"1"0"0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,3-7 1 0 0,-4 11-755 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,3-1-1 0 0,19-4 482 0 0,0 1 0 0 0,0 1 0 0 0,1 2 0 0 0,0 0 0 0 0,0 2 0 0 0,46 4 0 0 0,146 35 847 0 0,-176-29-1297 0 0,1 2 1 0 0,-1 2-1 0 0,-1 1 1 0 0,-1 3-1 0 0,0 0 1 0 0,-1 3-1 0 0,-1 1 1 0 0,-1 2-1 0 0,50 43 1 0 0,-76-57-98 0 0,-1-1 1 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,0 0-1 0 0,8 18 1 0 0,-13-25-5 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-3 6-1 0 0,-2-1 96 0 0,-1 0-1 0 0,1-1 0 0 0,-2 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-14 5-1 0 0,-8 1 64 0 0,-1-1-1 0 0,-43 7 1 0 0,6-5-81 0 0,-107 3-1 0 0,133-14-464 0 0,0-3 0 0 0,1-1 0 0 0,-72-15 1 0 0,101 15-380 0 0,0-1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-25-15 0 0 0,34 17 147 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,2 0-1 0 0,-1 1 1 0 0,0-2-1 0 0,1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,-4-10-1 0 0,3 3-866 0 0,1 0 0 0 0,0-1 0 0 0,-2-18 0 0 0,5-9-919 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="710.87">95 500 756 0 0,'-1'-16'1309'0'0,"1"5"-230"0"0,0 1 0 0 0,1-1 0 0 0,3-20 0 0 0,-4 28-964 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,3-3-1 0 0,22-10 818 0 0,1 2 0 0 0,1 1 0 0 0,0 1 0 0 0,42-7 0 0 0,129-14 688 0 0,-161 27-1403 0 0,314-23 354 0 0,-260 27-1263 0 0,168 21-1 0 0,-194-9-1377 0 0,72 22 1 0 0,-76-14-1915 0 0,74 34 1 0 0,-88-30 2208 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1081.5">2754 437 1696 0 0,'-11'21'7397'0'0,"-27"79"-4418"0"0,17-25-976 0 0,-24 146-1 0 0,16 68-1528 0 0,-2 5-2565 0 0,29-272 1293 0 0,2-18 392 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,-2 3-1 0 0,4-6 331 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,-3-14-2441 0 0,-1-1 709 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1419.49">2693 302 924 0 0,'5'-14'1056'0'0,"-3"6"-39"0"0,1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,7-14 0 0 0,-10 20-949 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,5 5 275 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,4 11 1 0 0,25 56 1436 0 0,-28-60-1535 0 0,67 175 1722 0 0,-3-8-844 0 0,25 62-499 0 0,-47-117-582 0 0,-32-80-1178 0 0,21 92 1 0 0,-37-135 725 0 0,4 34-1548 0 0,-5-37 1796 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-16-4-2370 0 0,1-4 291 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1758.66">2444 1015 1136 0 0,'-69'-11'5858'0'0,"89"9"-1343"0"0,35-3-2443 0 0,312 4 230 0 0,-133 3-3575 0 0,-1-12-4931 0 0,-138-5 1136 0 0,-50 6 2878 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1759.66">4264 248 204 0 0,'2'-4'809'0'0,"13"-19"4244"0"0,-7 21-2749 0 0,-7 2-2248 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,27 189 5868 0 0,-14-76-4444 0 0,3 60-815 0 0,-7 217 1 0 0,-10-301-1055 0 0,1-41-1262 0 0,-3 1 1 0 0,-10 54 0 0 0,4-75-663 0 0,9-29 2077 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,-8-3-1974 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2099.69">4174 191 64 0 0,'1'-5'323'0'0,"0"1"0"0"0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,4-2 0 0 0,-3 3-253 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,7 0 0 0 0,17 0 197 0 0,1 2 0 0 0,-1 1 0 0 0,1 2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 3 0 0 0,-1 0 0 0 0,0 1 0 0 0,48 28 0 0 0,-60-29-81 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,6 25 0 0 0,-10-30-36 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,-16 13-1 0 0,-123 82-117 0 0,43-47-4228 0 0,104-56 4081 0 0,-3 1-553 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-6-1-1 0 0,3-3-1781 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2437.67">5753 80 452 0 0,'4'-1'359'0'0,"3"0"437"0"0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,12 1 0 0 0,-18-1-682 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 3 0 0 0,-2 14 666 0 0,0 1 0 0 0,-1-1 0 0 0,-9 31 0 0 0,-2 10 658 0 0,9-31-885 0 0,-31 146 1454 0 0,7-63-1364 0 0,-16 55-264 0 0,-19 51-575 0 0,26-86-2693 0 0,38-131 2971 0 0,-11 34-3411 0 0,7-26-779 0 0,6-25-798 0 0,2-1 2928 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2789.1">5963 20 20 0 0,'14'-6'1598'0'0,"-9"3"-1016"0"0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,5 0 0 0 0,-8 1-479 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 2 0 0 0,5 8 497 0 0,-1 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 16 0 0 0,0-3 67 0 0,30 120 1736 0 0,77 304 392 0 0,-97-389-3447 0 0,-4 0 0 0 0,5 63 0 0 0,-16-113 103 0 0,2 39-2093 0 0,-3-48 2092 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-4 5-1 0 0,-5-1-2074 0 0,-4-3 347 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3129.01">5713 778 1320 0 0,'-3'2'6101'0'0,"25"1"-3782"0"0,35 2-448 0 0,235 7 1424 0 0,-1-12-7319 0 0,-146-10-3454 0 0,-99 4 5210 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink156.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:26.357"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 165 504 0 0,'-15'0'12569'0'0,"32"-15"-8625"0"0,6-6-2719 0 0,12 1-449 0 0,1 2-1 0 0,1 1 0 0 0,0 2 0 0 0,1 1 1 0 0,43-9-1 0 0,-45 16-417 0 0,0 1 1 0 0,1 1-1 0 0,43 1 1 0 0,-76 4-293 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,6 3 0 0 0,-8-3-24 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 3 0 0 0,-1 5 46 0 0,0 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,-8 11 1 0 0,-59 67 248 0 0,36-45-193 0 0,-24 27 69 0 0,54-63-197 0 0,-2 5 49 0 0,8-11-64 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,56-8 12 0 0,75-1 1 0 0,-107 9 13 0 0,0 1 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,42 13 1 0 0,-59-14-3 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,6 11-1 0 0,-7-12 20 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-3 8 1 0 0,-2-1 78 0 0,-1 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,-22 8-1 0 0,-2-1-9 0 0,0-1-1 0 0,-1-3 0 0 0,-1-1 1 0 0,-51 7-1 0 0,67-13-175 0 0,-47 5 92 0 0,63-9-228 0 0,-1 1 0 0 0,1-2-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-8-3-1 0 0,15 4 92 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-2 0 0 0,0 0-108 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,1-1 0 0 0,2-4-914 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,8-7 0 0 0,65-49-8931 0 0,3 2 3971 0 0,-26 20 3490 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink157.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:30.095"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">75 0 588 0 0,'17'20'20467'0'0,"-13"-22"-17410"0"0,2 0-2963 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,8 0 1 0 0,5 0-27 0 0,-16 0-60 0 0,168-5 292 0 0,-146 5-138 0 0,0 2 0 0 0,-1 1 0 0 0,1 1 0 0 0,43 13 0 0 0,-65-16-124 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-1 4 62 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-1 1 0 0,-13 13-1 0 0,-51 43 490 0 0,-100 68 1 0 0,169-131-580 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-4 5 0 0 0,6-7-7 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 0 0 0,51 18 96 0 0,-23-9-37 0 0,0 2 1 0 0,-1 1-1 0 0,0 1 1 0 0,34 22-1 0 0,-62-35-60 0 0,13 9 130 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,21 24 0 0 0,-32-31-72 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,-2 5 1 0 0,-3 2-48 0 0,0 1-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-16 6 0 0 0,-10 2-1 0 0,-1-2 0 0 0,0-1 0 0 0,-57 7 0 0 0,69-13-970 0 0,1 1 0 0 0,0 1 1 0 0,-32 14-1 0 0,54-19-490 0 0,-25 8-8290 0 0,28-9 8875 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-2-2 0 0 0,-1-1-2110 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink158.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:27.081"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">34 459 460 0 0,'0'0'266'0'0,"-24"-1"5027"0"0,15-1-2328 0 0,9 1-2919 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,14-7 1483 0 0,0 0-1 0 0,1 0 1 0 0,28-8 0 0 0,-20 9-779 0 0,1 1 0 0 0,25-2-1 0 0,-15 4-243 0 0,-1 2 0 0 0,1 1 0 0 0,57 8 0 0 0,-78-6-275 0 0,-1 0-1 0 0,1 1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 2-1 0 0,-1-1 1 0 0,17 11-1 0 0,-25-14-146 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 4-1 0 0,-6 13 135 0 0,0-2 1 0 0,-1 1-1 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 1 0 0,-18 20-1 0 0,-91 96 483 0 0,81-95-451 0 0,14-13-81 0 0,15-18-96 0 0,1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-7 16 0 0 0,14-26-61 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,8 2 54 0 0,0 0 0 0 0,-1 0 0 0 0,14-1 0 0 0,-12 0-26 0 0,46 2-72 0 0,-1-3 0 0 0,98-13 0 0 0,-97 8-434 0 0,77-10-2624 0 0,-59 4-4404 0 0,-1-3 1 0 0,83-27-1 0 0,-97 20 4456 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="658.7">3104 102 780 0 0,'-20'-5'11467'0'0,"27"-5"-8992"0"0,-1 5-1964 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,15-1 1 0 0,6-1 324 0 0,48 1 1 0 0,93 8 469 0 0,-138-2-936 0 0,0 1-1 0 0,-1 2 0 0 0,41 12 1 0 0,-66-16-281 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,5 7 1 0 0,-7-7-38 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-2 4-1 0 0,-7 10 71 0 0,0-1 1 0 0,0-1 0 0 0,-2 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-2-1 1 0 0,-16 14 0 0 0,-16 13 151 0 0,-9 7 219 0 0,-63 70 0 0 0,102-99-388 0 0,1-1 12 0 0,0 0 0 0 0,-16 26 1 0 0,28-39-72 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1 10 0 0 0,0-13-18 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,3 0 0 0 0,10 4 63 0 0,0-1-1 0 0,27 3 1 0 0,-37-6-80 0 0,65 5 51 0 0,105-3 1 0 0,15 0-1279 0 0,-155 0 357 0 0,58 5-4993 0 0,-34 2-3744 0 0,-15-4 728 0 0,-24-3 5379 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4357.69">1964 66 700 0 0,'2'-3'726'0'0,"0"1"-1"0"0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-7 1 0 0,1 3 453 0 0,-19 22 3550 0 0,11-2-4228 0 0,1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-3 23 0 0 0,2 1 24 0 0,2 0-1 0 0,2 0 1 0 0,4 44 0 0 0,-2-71-476 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,2-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,8 10-1 0 0,-11-17-18 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,8-4 1 0 0,8-3 60 0 0,0-1 1 0 0,-1-2-1 0 0,-1 0 0 0 0,1-1 1 0 0,-2-1-1 0 0,20-17 0 0 0,-13 8 236 0 0,-2-1-1 0 0,0-1 1 0 0,29-42 0 0 0,-18 29 606 0 0,-9 10 315 0 0,-28 36-771 0 0,0 0 0 0 0,0 1 0 0 0,-2 15 0 0 0,0-2-99 0 0,-9 72 168 0 0,8-49-415 0 0,-4 66-129 0 0,5 138 0 0 0,5-185 0 0 0,1-42-1755 0 0,6 31 1 0 0,-4-33-990 0 0,1 32 1 0 0,-4-50 1536 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,3 2-1 0 0,-4-1-2239 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink159.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:34.283"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">55 57 372 0 0,'-2'-2'490'0'0,"0"0"0"0"0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5-2 0 0 0,-13-5 4725 0 0,22 7-4815 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,3 0 0 0 0,36-7 778 0 0,32-1-32 0 0,1 2 0 0 0,91 6 0 0 0,-137 0-691 0 0,0 2 0 0 0,-1 1 0 0 0,38 9 0 0 0,-62-11-412 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 2 1 0 0,-2 6 74 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-13 12 0 0 0,-154 114 727 0 0,143-111-729 0 0,19-14-69 0 0,1-1 1 0 0,1 2-1 0 0,-14 13 1 0 0,21-19-30 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 6-1 0 0,1-8-10 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,3 3 0 0 0,44 20 38 0 0,-41-20-36 0 0,178 66 83 0 0,-96-38-53 0 0,-78-27-35 0 0,19 6 142 0 0,50 26 0 0 0,-74-33-23 0 0,1 0 0 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,6 10-1 0 0,-8-14-96 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-2 5 0 0 0,1-4 54 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-7 6 1 0 0,-6 2 161 0 0,-1 0 0 0 0,0-1 0 0 0,-38 18 0 0 0,14-12-241 0 0,-1-2 0 0 0,0-2 0 0 0,-79 15 0 0 0,23-6 0 0 0,72-15-7767 0 0,40-12-2350 0 0,25-11 3414 0 0,17-14 1182 0 0,-15 5 2958 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:11:28.506"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 201 764 0 0,'-15'-2'4495'0'0,"22"-5"895"0"0,8-8-5095 0 0,-5 4-114 0 0,-1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,8-21 1 0 0,-14 32-154 0 0,3-6 181 0 0,-2-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-9 1 0 0,-2 17-84 0 0,-7 28 441 0 0,-29 230 657 0 0,32-229-4757 0 0,0 46 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="807.55">390 261 900 0 0,'0'0'1580'0'0,"17"-15"3838"0"0,-4 5-4718 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,19-24 0 0 0,-15 17-165 0 0,0-3-104 0 0,0 0 0 0 0,-1 0 0 0 0,12-24 0 0 0,-20 31 191 0 0,-11 21 28 0 0,-10 23-275 0 0,8-10-324 0 0,2-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 39 0 0 0,3-13-506 0 0,0 11-2720 0 0,5 0-5865 0 0,-4-48 7332 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1581.81">943 242 136 0 0,'-2'-4'2465'0'0,"2"4"-2379"0"0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,55-76 5750 0 0,-29 42-4938 0 0,29-50 1 0 0,-48 73-439 0 0,-6 16-194 0 0,-8 23-56 0 0,4-15-140 0 0,-4 29-14 0 0,2 0 1 0 0,1 45-1 0 0,0 19-4634 0 0,-3-44-4369 0 0,4-50 7490 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink160.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:48:34.776"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">156 9 20 0 0,'-8'0'1836'0'0,"0"1"1"0"0,0-1-1 0 0,0 2 0 0 0,1-1 1 0 0,-1 1-1 0 0,-9 5 5319 0 0,33-5-5265 0 0,4 1-1138 0 0,34-2 1035 0 0,79-8 0 0 0,-27 1-1188 0 0,89-1-431 0 0,-65 0-3474 0 0,-106 8 1362 0 0,-4 0-4131 0 0,-44-1-6936 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.91">36 402 1308 0 0,'-20'8'4471'0'0,"19"-7"-3902"0"0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,2-1-285 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-1 1 0 0,0 1 258 0 0,335-6 4265 0 0,-85 1-5148 0 0,-1 7-4696 0 0,-114-1-9882 0 0,-121 1 11676 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink161.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:49:05.295"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">25 142 1084 0 0,'0'-1'467'0'0,"0"0"1"0"0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,-2-2-1 0 0,2 2-158 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-2 492 0 0,11-12 2573 0 0,-5 10-3121 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 1 0 0,1-1-1 0 0,0 1 1 0 0,9-4 0 0 0,12-2 242 0 0,29-7 0 0 0,-43 13-220 0 0,27-5 132 0 0,1 2-1 0 0,0 2 1 0 0,0 2 0 0 0,50 4 0 0 0,-67-2-183 0 0,-1 2 0 0 0,0 0 1 0 0,0 2-1 0 0,0 0 0 0 0,-1 2 0 0 0,33 12 0 0 0,-54-17-196 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 3-1 0 0,-2-1 10 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-2 4 0 0 0,-3 7 51 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,-16 22-1 0 0,-101 114 499 0 0,20-28-84 0 0,-65 76 456 0 0,111-130-530 0 0,52-58-379 0 0,5-7-38 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 4 0 0 0,1-6-8 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,24 2 90 0 0,428-12 768 0 0,3-1-650 0 0,-428 11-1329 0 0,29-5 0 0 0,-78 6-10944 0 0,-14-1 4388 0 0,-20 2 909 0 0,19 0 3783 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink162.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:49:06.725"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">55 922 52 0 0,'0'0'184'0'0,"0"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-21-3 3433 0 0,1 0 2525 0 0,26-5-2588 0 0,16-10-2720 0 0,-18 16-587 0 0,33-30 867 0 0,50-58 1 0 0,-59 60-748 0 0,-6 5 84 0 0,32-52 0 0 0,-31 44-241 0 0,13-24 459 0 0,-3-1 0 0 0,-3-2-1 0 0,44-124 1 0 0,-48 100 1247 0 0,-57 216 357 0 0,29-117-2089 0 0,-11 72 599 0 0,-3 156 0 0 0,15-178-544 0 0,2 23-160 0 0,4 0 1 0 0,27 147-1 0 0,-15-149-79 0 0,-6-43 0 0 0,-3 0 0 0 0,4 69 0 0 0,-1-30-1497 0 0,-10-82 1326 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,28-17-7811 0 0,-17 7 5630 0 0,0 0 0 0 0,0-1-1 0 0,12-16 1 0 0,-7 9 583 0 0,17-22-703 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="944.38">2061 151 328 0 0,'1'-1'524'0'0,"0"-1"0"0"0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1-3 0 0 0,1-34 2157 0 0,-2 29-1606 0 0,0 8-897 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-3-3 0 0 0,1 1 78 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-8-4 0 0 0,-3 1 436 0 0,0 1-1 0 0,-1 0 0 0 0,-18-2 1 0 0,1 2-4 0 0,1 1 0 0 0,-1 2 1 0 0,1 1-1 0 0,-1 2 0 0 0,1 1 0 0 0,0 2 0 0 0,0 1 1 0 0,0 1-1 0 0,0 2 0 0 0,2 1 0 0 0,-1 1 0 0 0,-34 18 1 0 0,48-19-455 0 0,1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,1 2-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 1 1 0 0,-1 0-1 0 0,-18 33 0 0 0,18-25-60 0 0,1 1 0 0 0,1 1 0 0 0,2 0 0 0 0,0 0 0 0 0,2 0 1 0 0,0 1-1 0 0,-3 36 0 0 0,6-34-92 0 0,2 1 1 0 0,1-1-1 0 0,1 1 1 0 0,1-1 0 0 0,2 1-1 0 0,11 47 1 0 0,-11-64-75 0 0,0 1 1 0 0,2-1-1 0 0,-1 0 0 0 0,2-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,1-2 0 0 0,-1 1 1 0 0,1-1-1 0 0,1-1 1 0 0,13 8-1 0 0,-15-11-85 0 0,0 1-1 0 0,0-1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 0 0 0,17-1 1 0 0,-13-1-215 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,18-9 0 0 0,-4-2-597 0 0,0-1-1 0 0,-1-2 1 0 0,-1 0 0 0 0,-2-2-1 0 0,0 0 1 0 0,32-40 0 0 0,-16 12-798 0 0,-3-2 0 0 0,55-104 0 0 0,-65 102 1620 0 0,-2-1 1 0 0,-3-1-1 0 0,16-66 1 0 0,-35 117 297 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2-7 0 0 0,3 13-154 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2 0 1 0 0,-2 2 223 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-5 7 1 0 0,0 2 104 0 0,2-1-1 0 0,0 1 1 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-4 18 0 0 0,-10 80 924 0 0,11-43-748 0 0,3-1 0 0 0,10 131 0 0 0,4 12 287 0 0,-6-102-425 0 0,1 162 365 0 0,-4-225-748 0 0,-1 0 0 0 0,-2 0 0 0 0,-2 0 0 0 0,-13 54-1 0 0,11-73-32 0 0,-1-1 0 0 0,-1 0 0 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,-2 0 0 0 0,0 0-1 0 0,-28 35 1 0 0,25-41-28 0 0,0-1 0 0 0,-1 0 0 0 0,0-2 0 0 0,-2 0 0 0 0,1-1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-2-2 0 0 0,-30 12 0 0 0,8-7 0 0 0,-1-2 0 0 0,0-1 0 0 0,-80 9 0 0 0,46-15-1058 0 0,-81-4-1 0 0,87-3 15 0 0,69 1 37 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-4 1 0 0 0,6-1 528 0 0,-7 11-10076 0 0,7-11 10075 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,0 7-2952 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:11:31.396"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 204 240 0 0,'-3'-7'8560'0'0,"13"1"-7484"0"0,-5 2-778 0 0,16-12 552 0 0,0-1 0 0 0,20-21 0 0 0,-35 32-777 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-9 0 0 0,0 4 164 0 0,-2 5 282 0 0,-8 17-275 0 0,1 2-190 0 0,0 1 1 0 0,1 0-1 0 0,1 0 0 0 0,-4 23 0 0 0,0-2 3 0 0,-22 128-250 0 0,21-93-3395 0 0,7-63 2410 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,1 6-1 0 0,0-5-408 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1177.8">545 220 808 0 0,'-1'0'100'0'0,"1"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 43 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,32-29 1442 0 0,-29 28-1399 0 0,7-8 267 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,14-25 1 0 0,-21 34-372 0 0,0 0 64 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-8 0 0 0,-2 13-133 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-6 10 193 0 0,-4 15-118 0 0,2 29-13 0 0,0 3-505 0 0,-1 68-1 0 0,12-66-3340 0 0,2-19-2123 0 0,-3-32 4561 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:11:55.300"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">76 43 72 0 0,'0'-1'86'0'0,"0"0"1"0"0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0-9 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,-6-10 2527 0 0,3 10-777 0 0,5 6-933 0 0,0-2-763 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-3 3 0 0 0,-2 19 436 0 0,0 51 383 0 0,5-70-887 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,2 6 0 0 0,13 42 335 0 0,-16-50-356 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 6-1 0 0,0-5 13 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,2 5 0 0 0,-1 25 268 0 0,-1-24-241 0 0,0 1 7 0 0,0 0-1 0 0,-1-1 1 0 0,-3 18-1 0 0,0-1 0 0 0,0-1 0 0 0,2 1 0 0 0,2 30 0 0 0,0-48-80 0 0,1 16-7 0 0,-1-17 1 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,-2 14 1 0 0,1-9-6 0 0,0 0-1 0 0,1 0 1 0 0,1 23-1 0 0,0-23 18 0 0,0 1 0 0 0,-5 28 0 0 0,1-12 50 0 0,0-1 0 0 0,2 48 1 0 0,-8 9 20 0 0,9-39-69 0 0,0-27-3 0 0,0 0 0 0 0,2 1 0 0 0,3 24 0 0 0,1-13-8 0 0,-2 1 1 0 0,-1 37-1 0 0,-11 47 4 0 0,7-78 19 0 0,1 2 38 0 0,-4 143 759 0 0,7-161-628 0 0,0 1 0 0 0,10 38 0 0 0,-10-55-109 0 0,22 99 431 0 0,-16-72-307 0 0,-3-16-113 0 0,-1-1 1 0 0,-1 1 0 0 0,1 26 0 0 0,4 62 1391 0 0,-20 83-453 0 0,8-150-856 0 0,1-6 189 0 0,-9 40-1 0 0,-1 14 175 0 0,-13 103-203 0 0,20-136-316 0 0,-6 93 15 0 0,9-93 74 0 0,4 73 0 0 0,1-39-28 0 0,3 62 20 0 0,-5 75-145 0 0,5-125-19 0 0,-15 88 453 0 0,7-160-289 0 0,0 0 0 0 0,2 1-1 0 0,5 49 1 0 0,8 72-98 0 0,-11-137-16 0 0,-1 0 0 0 0,-3 26-1 0 0,1 6-14 0 0,-8 166 12 0 0,7-96-297 0 0,4-116-42 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:12:01.099"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 226 292 0 0,'1'6'5414'0'0,"3"-11"-3207"0"0,0 0-2709 0 0,95-122 2040 0 0,-90 114-1372 0 0,-6 9-115 0 0,1-1 17 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,2-7 1 0 0,-1 8 370 0 0,-5 9-65 0 0,-9 30 1256 0 0,8-25-1417 0 0,0 1-1 0 0,1-1 1 0 0,-3 16 0 0 0,-1 7 123 0 0,-1 1 143 0 0,-5 44 1 0 0,2-8 269 0 0,0 10 1050 0 0,8-57-3755 0 0,2-17-1036 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:04:32.935"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 266 284 0 0,'2'2'2366'0'0,"4"2"-1473"0"0,31-6-605 0 0,57-10 1 0 0,-12 0-178 0 0,288-29 303 0 0,71-6-601 0 0,1161-59 282 0 0,-1548 103-94 0 0,1448-45-15 0 0,-806 70 208 0 0,-654-18-80 0 0,76 4 1451 0 0,-112-8-1179 0 0,-9 0-1225 0 0,-10 0-2744 0 0,6 0 2114 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:12:09.754"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">64 16 116 0 0,'0'0'665'0'0,"-18"23"2694"0"0,18-20-3113 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-11 21 433 0 0,11-13-476 0 0,2-9-128 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,2 6-1 0 0,3 11 104 0 0,-3-11-104 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,8 13-1 0 0,-11-22-24 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,2-1-4 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,11-10-1 0 0,-13 11 23 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,2-8-1 0 0,-1-1 242 0 0,0-1-1 0 0,4-27 0 0 0,-8 36-218 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-6-6 1 0 0,6 6-36 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-7 3 0 0 0,1 1-644 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-11 12-1 0 0,13-12-721 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-7 14 0 0 0,6-6-409 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1244.59">510 98 612 0 0,'0'-1'123'0'0,"-1"1"0"0"0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1-10 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 3-1 0 0,-4 16 398 0 0,1 0 0 0 0,-1 28-1 0 0,5-39-503 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,6 11 1 0 0,-6-15-7 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,5 4 1 0 0,-7-6 0 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,4-3 0 0 0,0-1 63 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-7-15 1 0 0,7 18 66 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,-6-3 0 0 0,9 7-92 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-3 2 1 0 0,-4 3-84 0 0,1 1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,2 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-10 21 1 0 0,11-21-912 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 16 0 0 0,3 3-2686 0 0,3-15 2075 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1988.09">974 109 424 0 0,'-3'0'129'0'0,"1"1"1"0"0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 3-1 0 0,-1 2-87 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,4 7 0 0 0,-4-11-39 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,4 2 0 0 0,-4-4 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,7-3 0 0 0,-2 0 103 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-2-1 0 0,-1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,7-9 1 0 0,-11 13-24 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3-2 0 0 0,-1-2 125 0 0,-1 0 1 0 0,0 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-14-3 1 0 0,20 6-194 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-4 3 0 0 0,-25 32-2057 0 0,30-34 1351 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 4-1 0 0,0 2-1082 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3070.81">1485 75 276 0 0,'-3'-1'209'0'0,"0"1"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 5 0 0 0,0-1 98 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-7 16 1 0 0,11-21-296 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,5 4 1 0 0,-1-2-8 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,9-2 0 0 0,-5 0 12 0 0,0 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,17-18-1 0 0,-24 22 70 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-8-2-1 0 0,2 1-6 0 0,0 1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-17 4 1 0 0,22-3-207 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-4 6-1 0 0,7-9-149 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,3 2 1 0 0,7 6-1327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3629.13">1966 86 880 0 0,'0'0'84'0'0,"0"-1"-1"0"0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-12 7 1578 0 0,-9 15-811 0 0,18-16-781 0 0,1-1-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 11 0 0 0,0-13-63 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,7 1-1 0 0,-5-2-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,7-6 0 0 0,-8 5 106 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-14 0 0 0,-2 19 24 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-3-3 0 0 0,2 3-50 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-5 0 1 0 0,-2 1-520 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-10 6 0 0 0,11-4-1919 0 0,-1 0 0 0 0,-14 13 0 0 0,12-9 408 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:12:14.406"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">167 58 532 0 0,'-6'2'249'0'0,"0"0"0"0"0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-6 6 0 0 0,4-2-13 0 0,-1-1 0 0 0,1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,-7 11 1 0 0,12-17-186 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,4 3 0 0 0,-2-2-6 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5-3-1 0 0,-1 1 44 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,8-15 1 0 0,-10 18-36 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-5-4 0 0 0,3 4-22 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-9 2 1 0 0,6-1-47 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-8 12 0 0 0,10-13-248 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-2 9 1 0 0,4-10-185 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,4 5 0 0 0,1 3-986 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="558.64">517 113 60 0 0,'0'0'61'0'0,"0"-1"-1"0"0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-11 5 769 0 0,-7 12-190 0 0,15-13-587 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,5 0 0 0 0,-3-1-50 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,6-6 0 0 0,-8 7 95 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,-5-10-1 0 0,5 12-22 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-6 2 0 0 0,0 1-94 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-10 11 0 0 0,10-9-543 0 0,1 0-1 0 0,0 0 1 0 0,-8 16-1 0 0,12-21 32 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2 5 0 0 0,0 2-1083 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.63">1024 141 60 0 0,'0'-1'91'0'0,"0"1"-1"0"0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-11 6 1040 0 0,-6 14 5 0 0,15-15-1098 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 5 0 0 0,-1-6-15 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,6 1 1 0 0,0-1 31 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,18-10 0 0 0,-22 11-22 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1-8 0 0 0,0 9 85 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-6-3 0 0 0,5 3-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-12 2-1 0 0,9 0-169 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-10 9 0 0 0,12-11-610 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 10 0 0 0,4-3-1250 0 0,3 0 148 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1796.13">1626 113 308 0 0,'-2'-1'188'0'0,"1"1"0"0"0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,-2 1 66 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5 10 0 0 0,6-9-174 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,2 7-1 0 0,-2-10-62 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,4 1-1 0 0,-2-1-6 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,7-9 0 0 0,-8 8 108 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-9 0 0 0,3 11 59 0 0,0-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-8-6-1 0 0,10 7-151 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-3 1-1 0 0,-1 1-131 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 1 1 0 0,-5 6-1 0 0,6-8-402 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 10 0 0 0,3-10-226 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 7-1 0 0,3 3-803 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2385.13">2184 79 956 0 0,'-3'-14'2132'0'0,"3"13"-1930"0"0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 1-99 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 2 0 0 0,-2 1 9 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 7 1 0 0,1-4-85 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0-1 1 0 0,4 9-1 0 0,-5-13-23 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-2 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,3-2 1 0 0,1 0 12 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,4-7 1 0 0,-5 6 42 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-5-10-1 0 0,5 15-43 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-3-1 0 0 0,1 0 8 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-6 3 0 0 0,-3 2-334 0 0,0 0-1 0 0,1 1 1 0 0,1 1-1 0 0,-21 16 0 0 0,26-20-536 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-4 11-1 0 0,5-4-829 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3092.71">2657 36 672 0 0,'-4'1'257'0'0,"-1"-1"0"0"0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-5 5 0 0 0,6-5-137 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,3 7-1 0 0,-1-4-98 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,10-1-1 0 0,-11 1 57 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,6-5 1 0 0,-7 5 80 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-9-1 0 0,-1 9-42 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5-3-1 0 0,4 3-96 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-7 4 0 0 0,8-3-209 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-5 8 1 0 0,6-7-625 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 11 0 0 0,2 0-1484 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3792.62">3272 36 112 0 0,'-1'0'167'0'0,"0"-1"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-2 1 0 0 0,-4 1 381 0 0,0 1-1 0 0,0 0 1 0 0,-10 9 0 0 0,12-9-419 0 0,0 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 8 0 0 0,2-11-111 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-2 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,7 2 1 0 0,-3-1-6 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,9-7 0 0 0,-11 9 36 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-3-3-1 0 0,2 2 64 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-9-2 1 0 0,8 3-95 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-9 4 0 0 0,13-5-141 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 6-1 0 0,1-3-666 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,2 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1-1 0 0,6 11 0 0 0,2-1-790 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4335.86">3662 39 76 0 0,'-3'0'400'0'0,"0"1"1"0"0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,-4 4-1 0 0,3-2-131 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-3 8 1 0 0,2-3-189 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 15-1 0 0,1-18 11 0 0,0 1-1 0 0,1 0 1 0 0,2 12-1 0 0,-1-15-87 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,6 1 0 0 0,26-3 42 0 0,-28 0-2 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,10-5 0 0 0,-9 3-8 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0-1 0 0 0,8-9 0 0 0,-11 11 103 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-2-11 0 0 0,1 15-31 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 1 0 0 0,0-1-1 0 0,-6-2 1 0 0,3 2-171 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-7 2 1 0 0,-9 5-2258 0 0,0 2 1 0 0,1 1 0 0 0,1 1 0 0 0,-36 28 0 0 0,27-19 186 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:12:42.861"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 0 672 0 0,'0'0'2579'0'0,"4"16"1560"0"0,-7-1-3451 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2 1 0 0 0,1 28 0 0 0,0-37-585 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7 11-1 0 0,37 38 166 0 0,-44-50-286 0 0,2 0 22 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,10 2 0 0 0,11 1-13 0 0,44 0-1 0 0,-47-3 16 0 0,68 2-42 0 0,179 10 75 0 0,593 12-48 0 0,-810-25 9 0 0,37-1-17 0 0,109 14 0 0 0,-193-12 12 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,4 10 1 0 0,1-2 44 0 0,0-1 1 0 0,18 22-1 0 0,-26-35-34 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,12-20 184 0 0,-12 19-181 0 0,3-5-10 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,9-1-1 0 0,363-10 65 0 0,-181 10-93 0 0,340-3 85 0 0,-457 5-63 0 0,-65 0 10 0 0,0 0 1 0 0,0-1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-2 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 0 0 0 0,24-16-1 0 0,-22 9 226 0 0,0 1-1 0 0,-1-2 1 0 0,-1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,16-30 1 0 0,-26 45-171 0 0,11-25-1026 0 0,-13 26 804 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 1 0 0 0,-5 0-2102 0 0,0 2 276 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="924.8">1128 926 316 0 0,'0'0'109'0'0,"0"0"0"0"0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,15-6 2178 0 0,19 3-29 0 0,-6 4-1304 0 0,37 3-1 0 0,-58-3-789 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,10 7 0 0 0,-17-9-105 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0 0 30 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 2-1 0 0,-6 4 146 0 0,1-1 1 0 0,-1 0-1 0 0,-8 6 1 0 0,12-10-156 0 0,-17 11 272 0 0,-26 12 0 0 0,31-18-267 0 0,0 1-1 0 0,0 1 1 0 0,1 0-1 0 0,-17 15 1 0 0,31-24-70 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 40 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 1 0 0 0,41 5 869 0 0,-41-6-942 0 0,156 5 242 0 0,-91-10-4415 0 0,-66 5 3530 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-2 0 0 0,-3 1-1452 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1620.19">1713 912 48 0 0,'-3'-4'1357'0'0,"-1"1"0"0"0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-7-5 796 0 0,22 8-429 0 0,9 3-1231 0 0,0-2-73 0 0,0 2 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,-1 1 0 0 0,21 9-1 0 0,-36-13-309 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,4 6-1 0 0,-6-7-50 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,-14 13 283 0 0,-1 0-1 0 0,-32 20 1 0 0,31-23-300 0 0,-1 2-1 0 0,-26 25 1 0 0,41-34 14 0 0,-15 15-24 0 0,20-19-18 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,37 5 696 0 0,0-2 1 0 0,54-1-1 0 0,20-7-4348 0 0,-106 4 2696 0 0,-2 1-317 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,3 0-1 0 0,-2-2-1275 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2221.83">2309 827 92 0 0,'6'-28'6324'0'0,"-6"27"-6231"0"0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-15 8 1990 0 0,10-3-1665 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-5 11-1 0 0,4-9-216 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 11 1 0 0,2-19-182 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,3 2 0 0 0,-1-2-8 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,2 0 0 0 0,8 0 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 0-1 0 0,26-7 1 0 0,-24 4 25 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,18-14 0 0 0,-23 14 1080 0 0,-1 1 1 0 0,15-16 0 0 0,-30 31-54 0 0,-8 9-220 0 0,1 1 1 0 0,-21 34-1 0 0,20-18-886 0 0,2 1-1 0 0,1 0 1 0 0,2 0 0 0 0,-8 46-1 0 0,-1 4-6198 0 0,-7-1-7972 0 0,15-57 11201 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:13:25.750"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 34 384 0 0,'7'2'6944'0'0,"18"7"-6231"0"0,-11-7-630 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,0 0 0 0 0,16-3 0 0 0,21 0 135 0 0,148-6-153 0 0,1 1 32 0 0,266 0-79 0 0,-110 8 137 0 0,-119 0 151 0 0,97 2-321 0 0,-109-10 16 0 0,1 1 121 0 0,287 14-232 0 0,59-4 234 0 0,-257 5-208 0 0,76-8 199 0 0,-69-13 358 0 0,-315 13-907 0 0,14-2 1301 0 0,-18 0-3027 0 0,-11-3-4113 0 0,-1 2 4511 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:10.101"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 1 332 0 0,'-4'14'689'0'0,"0"0"1"0"0,1 1-1 0 0,-1 19 0 0 0,3 88 189 0 0,2-64-570 0 0,-9 132-514 0 0,2-134-2917 0 0,5-51 2253 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:10.614"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">37 0 212 0 0,'0'51'1727'0'0,"-7"187"261"0"0,-20-49-4494 0 0,24-172 1561 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:11.027"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 1 20 0 0,'-13'86'1380'0'0,"1"47"-340"0"0,8 1-1254 0 0,4-47-703 0 0,0-66 244 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:11.487"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 0 368 0 0,'5'49'2321'0'0,"-3"-36"-1962"0"0,-1 0-1 0 0,0 24 1 0 0,-14 98 320 0 0,-3 69-3834 0 0,16-188 2138 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:11.910"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">89 1 360 0 0,'-3'43'1296'0'0,"-1"0"0"0"0,-18 70 0 0 0,13-70-1044 0 0,-37 167-2779 0 0,42-191 1498 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:12.393"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 1 200 0 0,'1'1'152'0'0,"0"1"-1"0"0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 2 1 0 0,0 8 358 0 0,2 48 991 0 0,-11 116 0 0 0,-2-6-3001 0 0,11-118-1617 0 0,0-38 1956 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:04:36.822"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">127 66 300 0 0,'5'-14'1075'0'0,"-4"12"-857"0"0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-3 0 0 0,-5-1 721 0 0,-10 1 286 0 0,-16 5 142 0 0,24 0-1154 0 0,1 0-83 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,-5 2-1 0 0,7-3-29 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 5 1 0 0,0-3 16 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 2 0 0 0,1-1-93 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,13-1 0 0 0,-20 2-17 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-7 0 0 0,-3 7 16 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-4-2 1 0 0,2 2 25 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-9 0 0 0 0,5 2-10 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-12 10 0 0 0,18-13-23 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 2 0 0 0,-1-2 20 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 3 0 0 0,-1-1 15 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4-2-1 0 0,-7 3-15 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1-3 1 0 0,1 4-5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 3 0 0 0,2-4-27 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 2 0 0 0,0-1 19 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,2 0 0 0 0,5 1 58 0 0,1-1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,15-5 1 0 0,-23 5-47 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1-3 1 0 0,-2 4-5 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 0-1 0 0,-3-2 3 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-10 0 0 0 0,14 0-31 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,1-2 2 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 3-1 0 0,-1-2 6 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2 1-1 0 0,-2-1 6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,4-4 0 0 0,-5 4-3 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-2-1 0 0,0 1 6 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-3-1 0 0 0,2 1-8 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-6 3-1 0 0,7-2-7 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3 8 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2 0 0 0 0,0 0 7 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,2-4-1 0 0,-4 5-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1-4 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 1 0 0 0,2 0-10 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2 3 0 0 0,3-5 10 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,-1 1 6 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,2-4 0 0 0,-3 6-6 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,-27 2-641 0 0,0 7-4568 0 0,19-5 65 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:18.171"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">76 46 124 0 0,'-1'1'398'0'0,"0"1"0"0"0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3-1 0 0,-9 38 701 0 0,8-35-506 0 0,-30 173 108 0 0,16-76-6323 0 0,11-84 4033 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="492.97">537 14 268 0 0,'0'0'109'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 22 599 0 0,-2-22-352 0 0,6 192 2910 0 0,2-65-9370 0 0,-6-112 4474 0 0,-1-2 154 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1064.54">1008 1 944 0 0,'-3'22'6315'0'0,"-10"17"-3243"0"0,-5 16-2003 0 0,16-32-1169 0 0,0 0 0 0 0,1 1-1 0 0,4 33 1 0 0,-1-35-1981 0 0,-2 1 0 0 0,0 0 0 0 0,-5 38 1 0 0,0-42 456 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:15.947"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">25 45 352 0 0,'0'-1'118'0'0,"0"1"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,4 17 1730 0 0,-3 19-97 0 0,-5 23-366 0 0,-8 91-46 0 0,-8-1-4194 0 0,20-150 2820 0 0,-1 3-358 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 4 0 0 0,1-3-1004 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="403.6">549 1 916 0 0,'0'0'1090'0'0,"0"18"1610"0"0,-9 122 2006 0 0,-1 2-3936 0 0,6-55-2758 0 0,-2-30-3734 0 0,6-46 4206 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="804.47">901 40 416 0 0,'0'0'138'0'0,"1"0"0"0"0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 22 1341 0 0,-6 25-804 0 0,5-45-316 0 0,-12 172 2367 0 0,12-57-5786 0 0,0-53-2230 0 0,0-48 3603 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1565.05">1389 107 312 0 0,'0'1'131'0'0,"1"-1"0"0"0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,-1 22-101 0 0,2-19 291 0 0,-5 48 261 0 0,-5 90 36 0 0,12-47-4765 0 0,-2-81 3014 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:15.045"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 41 172 0 0,'1'0'166'0'0,"0"1"1"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 3 0 0 0,-4 41 1209 0 0,1-32-511 0 0,-13 200 640 0 0,21-72-9858 0 0,-3-129 6981 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="420.81">546 0 28 0 0,'-3'43'8248'0'0,"-6"97"-6703"0"0,3-18-2403 0 0,-1-41-4679 0 0,6-71 4329 0 0,0 2-234 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:14.174"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47 1 76 0 0,'-1'0'174'0'0,"0"1"0"0"0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-10 32 1211 0 0,8-26-903 0 0,-4 20 40 0 0,1-1 0 0 0,1 0 0 0 0,-1 46-1 0 0,11 82-2868 0 0,-2-92-856 0 0,-3-41 1813 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="439.9">447 38 756 0 0,'0'16'3434'0'0,"-7"120"1349"0"0,0 1-3940 0 0,2-82-1721 0 0,3-41-819 0 0,1 0 0 0 0,0 1 1 0 0,3 21-1 0 0,0-28 258 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:12.839"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 18 28 0 0,'11'59'3774'0'0,"-9"-29"-2559"0"0,-3 1 0 0 0,-4 32 0 0 0,0 25-367 0 0,4-57-1211 0 0,-10 60 0 0 0,-5-11-4799 0 0,15-73 4296 0 0,-2 5-375 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.79">447 1 36 0 0,'1'0'115'0'0,"-1"0"-1"0"0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 32 1497 0 0,-1-31-1351 0 0,-6 157 3937 0 0,-5-55-3795 0 0,-5-22-1761 0 0,-3-1-4175 0 0,15-69 4180 0 0,-1 7-160 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:52.338"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 18 116 0 0,'-10'3'7835'0'0,"24"-2"-4402"0"0,9 1-1355 0 0,-9-1-2024 0 0,1 0 0 0 0,19-1-1 0 0,127-15 655 0 0,80 5-538 0 0,-92 17-126 0 0,-70-2-78 0 0,26 1-5 0 0,100 4 52 0 0,209 6 80 0 0,-204-3-92 0 0,-164-10-1 0 0,320 13 614 0 0,-59-10 651 0 0,-249-6-1192 0 0,-24 3 564 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:53.930"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 48 480 0 0,'-23'2'6693'0'0,"12"-1"-3176"0"0,2-1-3097 0 0,35-8 1943 0 0,76-2-2233 0 0,74-6 710 0 0,196 8 769 0 0,-76 2-713 0 0,152 14-218 0 0,-391-6-630 0 0,252 4 254 0 0,14 0 456 0 0,-133-4 618 0 0,-122-3-143 0 0,-24 0 22 0 0,-44 1-1214 0 0,4-1 403 0 0,-8-2-2766 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-5-1-1 0 0,3 1 248 0 0,-9-3-1177 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:14:58.162"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 492 0 0,'34'13'13906'0'0,"-30"-12"-13647"0"0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,6-1 1 0 0,2 1 106 0 0,38 0 547 0 0,298 6 2697 0 0,-7 4-1997 0 0,123 20-905 0 0,-98-6-442 0 0,-98-18 34 0 0,-222-6-255 0 0,230 0 482 0 0,-225 1-356 0 0,-51-1-130 0 0,-21 3-5895 0 0,-62 3-7448 0 0,41-7 9379 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:03.349"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 10 300 0 0,'1'0'3280'0'0,"2"2"-2084"0"0,-3 10-680 0 0,-2 0 1 0 0,0 0-1 0 0,-4 15 0 0 0,-3 26-391 0 0,-16 135-95 0 0,14-109 42 0 0,10-31 303 0 0,1-47-240 0 0,-5-21 426 0 0,3 14-4071 0 0,0 1 692 0 0,2 2 1503 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.24">593 55 236 0 0,'-2'41'6819'0'0,"0"-12"-6135"0"0,1 1 0 0 0,4 30 0 0 0,5-5-486 0 0,-2-20-337 0 0,2 58 0 0 0,-14-48-1897 0 0,-3-16-2673 0 0,7-24 3259 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.47">1010 25 64 0 0,'0'66'4907'0'0,"0"41"-1732"0"0,8 52-4043 0 0,-3-130-4244 0 0,-3-26 3666 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1578.49">1745 0 564 0 0,'-7'20'1706'0'0,"0"0"0"0"0,-6 33-1 0 0,-3 93 597 0 0,15-127-2525 0 0,0-1 0 0 0,6 36 0 0 0,-4-44-971 0 0,1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,4 9 0 0 0,-2-12-110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1951.55">2144 49 840 0 0,'-4'23'3815'0'0,"1"-4"-3518"0"0,-4 44 1330 0 0,-5 92 312 0 0,11-124-2102 0 0,1 19-1946 0 0,3-18-2666 0 0,-3-25 3388 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2325.23">2557 34 904 0 0,'12'59'4124'0'0,"-11"-15"-3314"0"0,-1 1 0 0 0,-12 73 0 0 0,4-42-1447 0 0,3-40-4173 0 0,5-31 3403 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2680.25">3127 71 856 0 0,'2'3'413'0'0,"0"0"0"0"0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 5-1 0 0,1 42-122 0 0,-2-44 210 0 0,-5 81 1429 0 0,0 2-2350 0 0,10-29-5466 0 0,-5-54 4374 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3049.31">3678 66 1308 0 0,'-2'3'452'0'0,"0"1"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 8 0 0 0,0 47-783 0 0,1-41 926 0 0,8 93-1454 0 0,-3-67-2870 0 0,-3-31 2366 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:10.584"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">34 1 572 0 0,'2'3'3809'0'0,"1"16"-2202"0"0,-4 14 89 0 0,-3 0 0 0 0,-10 48 1 0 0,7-48-2491 0 0,2 0 1 0 0,-3 49 0 0 0,13-43-4617 0 0,-5-28 3571 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:04:39.030"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">23 16 696 0 0,'0'19'1230'0'0,"1"0"0"0"0,5 26 0 0 0,9 8-488 0 0,-13-49-806 0 0,11 34 341 0 0,-13-35-437 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2-4-1701 0 0,1-3 848 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.6">1 14 396 0 0,'0'-1'68'0'0,"0"0"1"0"0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,3 0-1 0 0,26 0 20 0 0,-24 0 47 0 0,20 0-43 0 0,0-1-86 0 0,0 1 0 0 0,-1 1 0 0 0,1 2 1 0 0,42 9-1 0 0,-66-12 27 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 3 1 0 0,0 3 116 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 7 0 0 0,1 17-9 0 0,1 6-66 0 0,2 5-535 0 0,-2-30-1966 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="891.46">352 176 572 0 0,'0'4'51'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,3 0 0 0 0,-4 0-42 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-5 0 0 0,-4 5 16 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-2-2-1 0 0,-2 0 38 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-7 1 0 0 0,9-1-176 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 4 1 0 0,1-1-870 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1249.24">689 160 300 0 0,'0'0'67'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,-6 15 269 0 0,-20 46 357 0 0,16-34-669 0 0,8-25-405 0 0,2-10-381 0 0,2-9-712 0 0,1 9 816 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1606.14">686 135 372 0 0,'1'-1'187'0'0,"0"0"1"0"0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,3-1 0 0 0,-3 2-148 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,13 55 714 0 0,-10-41-698 0 0,4 22 64 0 0,2-19-763 0 0,-4-18-1573 0 0,-2-2 1181 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2352.07">586 310 480 0 0,'73'0'2474'0'0,"98"-10"-2418"0"0,-171 10-37 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 30 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2-1 0 0,-1-1-226 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-3 1-1 0 0,-2-2-824 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2691.32">547 329 428 0 0,'5'6'3635'0'0,"15"18"-2916"0"0,-19-23-890 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,2 0 0 0 0,2-2-873 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3714.36">1051 166 644 0 0,'2'-1'1556'0'0,"4"0"-568"0"0,10-2-750 0 0,-16 3-232 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-15-3 77 0 0,-14 4 35 0 0,1 7 121 0 0,24-6-115 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-4 4-1 0 0,7-5-39 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 4-1 0 0,0-4-3 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,4 5 0 0 0,-2-4-33 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,7-1-1 0 0,9 0-87 0 0,0-2 0 0 0,0-1-1 0 0,30-9 1 0 0,-44 11 61 0 0,1 0-27 0 0,45-15-111 0 0,-51 16 111 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,1-2 1 0 0,-3 3 2 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-2-2 1 0 0,2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-2 1 0 0 0,1 0 32 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 6-1 0 0,3-7-6 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,2 2-1 0 0,0-3-132 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-1 0 0 0,0 1-649 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,11-4 0 0 0,-5 0-442 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4112.51">1439 142 100 0 0,'4'-5'1430'0'0,"2"-1"977"0"0,-7 16-815 0 0,-1-1-1400 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,3 11-1 0 0,-10-24-3498 0 0,-9-13 1155 0 0,12 13 1428 0 0,-4-3-221 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4498.23">1324 133 112 0 0,'-13'-10'2343'0'0,"13"9"-2321"0"0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,36 0-15 0 0,-19 1 25 0 0,28-3-773 0 0,75-11 1 0 0,-11-7 2300 0 0,-107 23-265 0 0,-6 6-414 0 0,-11 19 58 0 0,4-7-428 0 0,9-16-435 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 7 1 0 0,1-6-67 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 8 1 0 0,-3-10 37 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-2 0 0 0,7 0 0 0 0,-9 1 67 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-2 1 0 0,0 2-84 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-34 0-5214 0 0,-50 9 0 0 0,59-7 2964 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:08.071"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 88 556 0 0,'0'0'154'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 2-1 0 0,-1 31 1139 0 0,1-24-468 0 0,-2 28 628 0 0,-8 50 0 0 0,5-62-1588 0 0,2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 0-1 0 0,5 35 1 0 0,-5-57-411 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 4 0 0 0,-1-2-1537 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.65">454 50 692 0 0,'0'1'73'0'0,"0"-1"1"0"0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,9 12 787 0 0,-6-1-194 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-2 18-1 0 0,1 6-301 0 0,0 28-380 0 0,2 54 308 0 0,3-41-3758 0 0,2-54-2600 0 0,-4-18 4325 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.26">878 55 152 0 0,'3'0'440'0'0,"-1"0"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-2-2-174 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 7-1 0 0,1 4-161 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 15 0 0 0,-1-14 525 0 0,0 43-596 0 0,1 30-663 0 0,4-31-5295 0 0,-2-49 3913 0 0,1-1 183 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1048.6">1456 24 844 0 0,'1'-1'279'0'0,"0"0"-1"0"0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 0 1 0 0,-2 0-114 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 2-1 0 0,1 5 303 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 10 1 0 0,-20 208-1010 0 0,17-160-7993 0 0,5-52 6222 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1635.41">1978 1 444 0 0,'-1'8'5980'0'0,"0"11"-3537"0"0,-3 41-1011 0 0,3-14-1382 0 0,7 56 0 0 0,-1 8-8001 0 0,-5-91 6219 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:07.001"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 37 1068 0 0,'1'0'143'0'0,"0"0"1"0"0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 2 0 0 0,3 32 491 0 0,-3-30-274 0 0,0 55 803 0 0,-8 73 1 0 0,5-92-1546 0 0,-2-9-632 0 0,1 17-4937 0 0,3-44 4784 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.55">628 8 264 0 0,'1'-1'226'0'0,"0"0"0"0"0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1 1 0 0 0,-2-1-78 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 9 381 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-2 13 1 0 0,1-2-340 0 0,-10 124 191 0 0,3-70-1521 0 0,7-72 575 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,1 5 1 0 0,1-3-1080 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.85">1157 53 504 0 0,'1'0'251'0'0,"0"0"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 2-1 0 0,0-1-40 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 3-1 0 0,-1 7 143 0 0,-1 0 0 0 0,0 0 0 0 0,-4 16 0 0 0,5-29-312 0 0,-9 49-362 0 0,-4 96 0 0 0,13-138-769 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,4 14 0 0 0,-2-11-661 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:11.138"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">35 100 896 0 0,'1'-2'4138'0'0,"1"6"-2656"0"0,0 9-285 0 0,-16 68 3186 0 0,-9 79-3167 0 0,22-144-1469 0 0,0 44-2669 0 0,1-55 1992 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4 7 0 0 0,0-2-1150 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.88">602 53 812 0 0,'-1'52'7965'0'0,"-2"8"-5126"0"0,-1 83-2287 0 0,9-63-2594 0 0,3-28-6190 0 0,-6-45 6658 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1013.88">1028 5 488 0 0,'1'-4'3002'0'0,"1"8"-988"0"0,0 11-45 0 0,-11 125 2101 0 0,2-69-5561 0 0,4 0-3989 0 0,3-52 3542 0 0,0-2 180 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2316.79">1475 62 872 0 0,'-1'-6'4115'0'0,"1"15"-1315"0"0,-4 14-299 0 0,-6 14-1648 0 0,2 1 0 0 0,-3 41 0 0 0,6-24-3081 0 0,7 1-4673 0 0,-2-40 4715 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2829.21">2033 21 264 0 0,'-1'0'251'0'0,"0"0"1"0"0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 2 0 0 0,-11 20 874 0 0,9-14-65 0 0,-4 5-548 0 0,1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,2 0 1 0 0,0 0 0 0 0,-2 24-1 0 0,4-13-1810 0 0,0 0 0 0 0,2-1 0 0 0,6 41 0 0 0,-3-27-4913 0 0,-2-28 4538 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3274.77">2404 39 32 0 0,'3'0'2136'0'0,"-3"0"-2011"0"0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 28 1518 0 0,-2-1 0 0 0,-8 36 0 0 0,-1 6-1540 0 0,9-52-743 0 0,-1 1 1 0 0,-13 33 0 0 0,-3 13-8950 0 0,18-54 7803 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3770.83">2936 50 904 0 0,'1'-8'2038'0'0,"2"8"259"0"0,-3 0-2101 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-13 107 3277 0 0,12-83-4231 0 0,1 0 0 0 0,4 33 1 0 0,-1 13-7041 0 0,-3-54 6078 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:16.519"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 9 752 0 0,'-8'-9'6871'0'0,"4"18"-3779"0"0,2-2-3269 0 0,-6 29 1053 0 0,0 0 0 0 0,-3 71 0 0 0,9-47-3887 0 0,1 1-4535 0 0,1-51 5773 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="582.25">552 30 660 0 0,'-3'36'7706'0'0,"-8"24"-4867"0"0,-2 13-2465 0 0,11-57-565 0 0,-6 82-204 0 0,11-32-7402 0 0,-3-56 5909 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.6">1049 67 848 0 0,'-2'13'10907'0'0,"4"45"-7276"0"0,0 0-2313 0 0,-1-6-1254 0 0,0-15-306 0 0,-4 44 1 0 0,-3-43-4086 0 0,-6 0-3944 0 0,9-28 5892 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2132.4">1545 77 832 0 0,'1'-5'9958'0'0,"0"5"-9687"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 3-1 0 0,0 7 817 0 0,1 1 0 0 0,-2-1 0 0 0,0 20 0 0 0,-13 64 654 0 0,8-62-1538 0 0,-4 33-120 0 0,-1 6-3004 0 0,0-24-7208 0 0,10-39 4985 0 0,0-5 3064 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:20.809"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 261 508 0 0,'-9'-8'7759'0'0,"15"-1"-4803"0"0,-3 5-3933 0 0,13-17 1037 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1-1 0 0,-2-1 1 0 0,-1 1 0 0 0,8-35 0 0 0,-11 40 522 0 0,-5 21-205 0 0,-1 11-176 0 0,2 99 488 0 0,-3 80-391 0 0,-1-175-453 0 0,-3 31 172 0 0,4-17-3253 0 0,0-30 3130 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-530 0 0,-1-1 530 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-531 0 0,0 1 531 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-3-1545 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="617.11">515 244 448 0 0,'-1'-2'3587'0'0,"0"-6"-2634"0"0,8-9-198 0 0,1-1 1 0 0,1 1 0 0 0,21-31-1 0 0,4-5 119 0 0,-27 41-388 0 0,-4 11-153 0 0,-6 19 113 0 0,0 0-90 0 0,-2 32 627 0 0,-24 140-304 0 0,25-174-1995 0 0,1 1 0 0 0,-2 27 0 0 0,5-43 1003 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 1 0 0,2 1-1383 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1171.99">949 323 32 0 0,'7'-1'3594'0'0,"18"-17"-1832"0"0,40-49 742 0 0,-27 16-887 0 0,-26 25 1032 0 0,-13 29-2613 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 5 0 0 0,-1 1 120 0 0,-2 103 929 0 0,0-56-2768 0 0,1 1-5837 0 0,2-51 5609 0 0,1 0 214 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:16:25.653"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 204 512 0 0,'10'-5'4539'0'0,"14"-9"-2669"0"0,-11 4-1097 0 0,0-1 0 0 0,-1 0 0 0 0,22-25 0 0 0,-28 29-624 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-17 0 0 0,2-6 461 0 0,-11 31-614 0 0,-9 23 8 0 0,3 20 91 0 0,1 0 1 0 0,2 0-1 0 0,4 44 1 0 0,-1-34-2642 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:17:26.722"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">88 141 40 0 0,'9'-9'15363'0'0,"-16"16"-12940"0"0,-3 16-246 0 0,7-18-1956 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,2 9 0 0 0,0-10-159 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,5 3-1 0 0,-1-2 146 0 0,-4-3-175 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,5 0 0 0 0,-2-1-6 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,5-8-1 0 0,3-3 97 0 0,-8 12-74 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,2-12 0 0 0,0-5 180 0 0,-3 18-185 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0-4 1 0 0,1 5-32 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 2 0 0 0,-23 11 256 0 0,3-2-3394 0 0,-40 23 1 0 0,25-3-4475 0 0,37-26 5413 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-5 9-1 0 0,2 1-210 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1548.38">747 53 120 0 0,'-1'0'268'0'0,"-1"-1"-1"0"0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 3 1 0 0,-1 0 197 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 6 1 0 0,1 2-28 0 0,0-1 1 0 0,1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,2 15 1 0 0,-1-22-346 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,6 7 1 0 0,-8-10-16 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,3-2 0 0 0,5-3 231 0 0,1-1 1 0 0,-1 0-1 0 0,17-15 1 0 0,-18 14 28 0 0,-3 3-164 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,4-11 0 0 0,-6 14-108 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,-2-6 0 0 0,1 2 48 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-11-12 0 0 0,13 17-102 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-6 1 0 0 0,0-1-139 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 1 0 0,-15 7-1 0 0,15-5-592 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-8 8 0 0 0,9-7-928 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-6 14 0 0 0,5-5-1228 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2307.12">1241 92 8 0 0,'0'0'196'0'0,"-1"-1"-1"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-2 1 1 0 0,-1 0 120 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-2 2 0 0 0,-4 6 615 0 0,0 0 0 0 0,-11 17 0 0 0,16-22-724 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 9 1 0 0,1-11-180 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,6 4 0 0 0,-4-4-4 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,9-5 1 0 0,-4 2 139 0 0,0-1 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 0 0 0 0,9-12 0 0 0,-12 16 77 0 0,-1-1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 1 0 0,1-13-1 0 0,-1 17-141 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-4 0 1 0 0,-5 0-149 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-17 9 0 0 0,17-8-726 0 0,2 0 0 0 0,-1 1 0 0 0,-9 8 0 0 0,12-9-585 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-7 10 0 0 0,10-13 618 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 7 1 0 0,2 5-1563 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2754.57">1787 79 316 0 0,'1'0'143'0'0,"-1"-1"0"0"0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-3 3 107 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 14 1 0 0,2-18-253 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,5 0 0 0 0,-3-1 26 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,9-11 0 0 0,-10 11 211 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-2-6-1 0 0,2 9-123 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,-2-1 0 0 0,0 1-245 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-7 1 0 0 0,0 0-1339 0 0,0 1 1 0 0,-20 4-1 0 0,-15 8-6240 0 0,26-4 4367 0 0,-3 4 468 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:17:39.725"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">150 135 1248 0 0,'-3'-12'1096'0'0,"0"0"-1"0"0,-1-1 1 0 0,-1 1 0 0 0,1 1 0 0 0,-10-16-1 0 0,-4-11 4478 0 0,18 37-5537 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,13-2 306 0 0,12 3-315 0 0,-22 0-23 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,5 4 0 0 0,-7-4 7 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 4-1 0 0,0 5 108 0 0,-1 1-1 0 0,-1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-10 20-1 0 0,-36 59 561 0 0,13-25-338 0 0,28-50-310 0 0,1 1 1 0 0,0 0 0 0 0,1 1 0 0 0,1-1-1 0 0,-3 20 1 0 0,8-33-27 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-5-7 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,2-2 1 0 0,-1 1-9 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1-5 1 0 0,-3-8-170 0 0,-1-1 0 0 0,-11-21 0 0 0,10 21 42 0 0,-35-64-158 0 0,27 54 212 0 0,1 0 1 0 0,-15-41-1 0 0,28 63-132 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,3-5 0 0 0,-2 4-459 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,9-4 0 0 0,10-2-1279 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:17:40.936"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 29 1008 0 0,'2'-2'407'0'0,"0"0"-1"0"0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,3 0 1 0 0,-1 0-235 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,10 1 0 0 0,-12-1-145 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 3 0 0 0,0 2 75 0 0,-2 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-4 10 0 0 0,-6 9 417 0 0,-16 26 1 0 0,16-31-62 0 0,-16 40 0 0 0,27-59-434 0 0,-3 8 47 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-2 16-1 0 0,4-25-66 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,4 0 0 0 0,-3 0-4 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,4-2-1 0 0,-5 1-1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-7 1 0 0,-3-5-19 0 0,-1 0 1 0 0,-1 0-1 0 0,-17-23 1 0 0,19 29-5 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-4-23-1 0 0,8 30-89 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,4-3 1 0 0,2 0-578 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,13-2 0 0 0,8-1-798 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:17:42.059"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 24 184 0 0,'11'-9'4241'0'0,"-11"8"-4053"0"0,1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,2 1 0 0 0,19-3-139 0 0,1 1 0 0 0,34 2 0 0 0,-50 0 4 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,7 5 0 0 0,-11-6 3 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-2 5 1 0 0,-3 5 203 0 0,-1-1 0 0 0,0 1-1 0 0,-15 18 1 0 0,15-20-74 0 0,-19 23 368 0 0,5-7-44 0 0,-24 41 1 0 0,40-59-459 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 2 1 0 0,1-1-1 0 0,-2 18 0 0 0,3-24-47 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,2 0 0 0 0,-2 0-4 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2-4 1 0 0,-2 1-11 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-4-6 0 0 0,-1 0-152 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-19-15 0 0 0,22 21-69 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,-5-15 1 0 0,9 19 6 0 0,-1 0 0 0 0,2-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,3-4 0 0 0,6-5-1020 0 0,0 0 24 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:04:45.561"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1621 1066 272 0 0,'20'-4'2134'0'0,"94"-3"-1973"0"0,38-4-39 0 0,287-49-62 0 0,-17 2 13 0 0,-135 24-130 0 0,615-57 163 0 0,-554 66-99 0 0,137-7 559 0 0,-440 29-577 0 0,19-1 1637 0 0,-66 1-1069 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1326.09">1565 1089 280 0 0,'28'9'2468'0'0,"-9"-2"-1852"0"0,3-1-123 0 0,34 14 0 0 0,60 35 246 0 0,-55-24-645 0 0,96 39 55 0 0,-63-29-131 0 0,92 54 0 0 0,-79-33-43 0 0,3-5 0 0 0,212 77 0 0 0,-180-82-71 0 0,203 104-1 0 0,-112-42 279 0 0,-16-9-98 0 0,100 53-280 0 0,-182-92 123 0 0,125 65-7 0 0,-133-49-95 0 0,-50-18-2991 0 0,-66-54 2118 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2561.59">1494 1104 784 0 0,'-4'2'4153'0'0,"11"11"-2928"0"0,3 28-239 0 0,20 48 0 0 0,-20-61-859 0 0,79 200 236 0 0,6-16-359 0 0,7 19 147 0 0,-37-73-33 0 0,-13-32-99 0 0,167 401 70 0 0,-187-434-79 0 0,-3 1 0 0 0,-5 2 0 0 0,21 173 0 0 0,-31-158 2 0 0,25 253-894 0 0,-39-360 291 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-2 9 1 0 0,-1-9-1015 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3845.9">1486 1158 488 0 0,'0'0'3118'0'0,"-1"2"-2310"0"0,-1 2-674 0 0,-1-1-43 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 7-1 0 0,-6 11 126 0 0,-42 103 591 0 0,-41 151 0 0 0,50-142-830 0 0,-110 322 361 0 0,86-276 226 0 0,0-1-128 0 0,-32 90-84 0 0,8-27-231 0 0,-59 246 99 0 0,145-479-218 0 0,-189 559-1290 0 0,178-528 1038 0 0,-46 121-734 0 0,12-58-3137 0 0,41-90 2813 0 0,2-4 89 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5829.87">5215 436 436 0 0,'-2'29'6879'0'0,"-3"7"-4507"0"0,-3 54-1714 0 0,16 77-391 0 0,-2-128-377 0 0,-3-25-2059 0 0,-5-26-4718 0 0,2 4 5513 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6170.02">5127 400 212 0 0,'-2'-3'476'0'0,"0"-1"-1"0"0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0-3-1 0 0,1 6-379 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,32 4 118 0 0,-25-3 47 0 0,20 2-250 0 0,-3 0-88 0 0,32 9-1 0 0,-48-10-885 0 0,0 0-1 0 0,0 1 0 0 0,15 8 0 0 0,-17-6-603 0 0,-1 1 71 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6560.05">5112 827 724 0 0,'0'0'1617'0'0,"21"9"808"0"0,3-4-2174 0 0,0-1-1 0 0,1-2 0 0 0,0 0 1 0 0,0-2-1 0 0,29-2 0 0 0,-32 1-607 0 0,53-8-3544 0 0,-58 6 2695 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7038.67">5628 373 228 0 0,'2'-4'2494'0'0,"1"8"-1301"0"0,3 11 531 0 0,1 49 1266 0 0,-8 36-752 0 0,1 0-1411 0 0,3 23-235 0 0,-3-70-3092 0 0,0-27-777 0 0,-5-38-1368 0 0,3 4 3309 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7501.07">5565 404 132 0 0,'-1'-3'150'0'0,"1"0"-1"0"0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,2-4-1 0 0,-1 5-67 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,6 2-1 0 0,2 1 94 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,12 7 0 0 0,-15-8-65 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4 8 1 0 0,-7-12-48 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 2 0 0 0,0 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,-5 4 1 0 0,-1-2 24 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-2-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-13 1 1 0 0,22-5-265 0 0,-18 2 218 0 0,9-3-1982 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8373.66">5928 736 276 0 0,'-2'2'4297'0'0,"6"-4"-1699"0"0,10-4-1354 0 0,1-6-1126 0 0,-1 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,20-24-1 0 0,-23 24 1221 0 0,-15 26-28 0 0,-9 21-795 0 0,8-2-272 0 0,1 1-1 0 0,2 0 1 0 0,2 49-1 0 0,3-67-1640 0 0,-2-14 1257 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9548.68">5239 2394 672 0 0,'-9'-14'4966'0'0,"8"26"-3239"0"0,1 90 852 0 0,3 165-1527 0 0,4-188-1470 0 0,-9-71-2336 0 0,-3-19-1502 0 0,1-1 3062 0 0,-2 0-160 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9889.98">5033 2326 264 0 0,'1'-1'169'0'0,"-1"-1"0"0"0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,2 0 1 0 0,9-3 564 0 0,0 1-1 0 0,23 0 0 0 0,-28 2-644 0 0,43-2 280 0 0,62 7 0 0 0,-87-2-670 0 0,-1 1 0 0 0,0 1 0 0 0,0 1 0 0 0,33 12 0 0 0,-54-17-106 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,3 4-1 0 0,-3-1-798 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10292.06">4993 3013 824 0 0,'27'-8'8493'0'0,"34"4"-7841"0"0,-22 2-233 0 0,63-5-418 0 0,-2 2-2319 0 0,-75 2 174 0 0,0-1-1 0 0,25-7 0 0 0,-33 5 832 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11083.82">5680 2340 632 0 0,'-1'0'68'0'0,"1"0"0"0"0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,2 18 543 0 0,0 0 1 0 0,9 35-1 0 0,-3-16-299 0 0,13 96 11 0 0,-17-94-233 0 0,-2 0 1 0 0,-1 0 0 0 0,-6 42 0 0 0,5-77-108 0 0,0-1-11 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-4 8 0 0 0,5-12-24 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,-6-12-1807 0 0,5 10 1404 0 0,-2-6-575 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11476.77">5595 2356 448 0 0,'0'-3'73'0'0,"1"0"0"0"0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,6-1 0 0 0,-3 0-43 0 0,0 0 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,9 3 1 0 0,-7-1 9 0 0,1 1 1 0 0,-2 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 0 1 0 0,1 0-1 0 0,8 12 0 0 0,-11-13 57 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 7 0 0 0,-3-10-36 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-6 2 1 0 0,-5 3 24 0 0,-1-1 0 0 0,0 0 0 0 0,-22 4 0 0 0,21-6-69 0 0,7-2-57 0 0,-1 1-1 0 0,1-1 0 0 0,-1 2 1 0 0,-12 5-1 0 0,21-9 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,9 14-2449 0 0,-5-9 1378 0 0,0-1 93 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12109.95">5836 2865 48 0 0,'-2'-2'1482'0'0,"6"-4"-934"0"0,5 0-393 0 0,-3 4-18 0 0,8 2 154 0 0,25 1 80 0 0,-37-1-295 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,4 2-1 0 0,-5-4-36 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-2 1 1 0 0,-13 11 366 0 0,14-11-396 0 0,-16 11 404 0 0,9-8-271 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-9 10 0 0 0,16-16-120 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,23 11 791 0 0,-21-10-728 0 0,10 3 6 0 0,0 0 0 0 0,0-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,22-1 0 0 0,11 1-359 0 0,-13 0-4425 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13101.91">2802 4081 160 0 0,'1'-6'3231'0'0,"3"13"-1236"0"0,1 15 138 0 0,-8 36-385 0 0,-3 0 1 0 0,-13 59-1 0 0,-4 43-1134 0 0,21-137-639 0 0,1-8-2543 0 0,1-32-1906 0 0,-3-30-448 0 0,3 27 3641 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13443.7">2653 4011 732 0 0,'-9'-10'1514'0'0,"5"5"2061"0"0,17 4-1206 0 0,80-2-19 0 0,-54 0-2452 0 0,1 3 0 0 0,0 1 0 0 0,57 8 0 0 0,-90-7-307 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,7 3-1 0 0,-12-5 201 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2-1 0 0,-3 8-995 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13880.88">2555 4672 116 0 0,'109'-4'8959'0'0,"54"-10"-9216"0"0,-86 7-1410 0 0,13-8-3617 0 0,-70 11 3965 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14359.06">3271 4050 176 0 0,'-4'-3'2707'0'0,"4"6"-1642"0"0,1 9-286 0 0,-4 26 316 0 0,1 0-1 0 0,2 0 0 0 0,5 40 1 0 0,0-12-676 0 0,2 126-45 0 0,-6-110-3556 0 0,-6-99-2201 0 0,2 7 4170 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14776.02">3287 4085 808 0 0,'2'-6'248'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,6-12 1 0 0,-6 12-80 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,8-4 0 0 0,-10 5-82 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,6 6 1 0 0,-3-2 22 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,3 14 0 0 0,-6-17 2 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,2-6-69 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-7 2 0 0 0,-9 3-103 0 0,-34 6 0 0 0,11-3-657 0 0,43-10 639 0 0,-20 7-1340 0 0,19-7 1212 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,2 0-924 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15845.99">3509 4542 172 0 0,'-4'2'1856'0'0,"5"-4"-773"0"0,12-2-558 0 0,-9 3-407 0 0,43-2 704 0 0,-43 2-713 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,7 3 0 0 0,-10-4-64 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-9 11 758 0 0,-24 11-296 0 0,19-14-358 0 0,-35 29-60 0 0,49-38-90 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,10 5 77 0 0,27 4 108 0 0,-15-3-119 0 0,-19-5-20 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 5 0 0 0,-6-6-32 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-2 1 1 0 0,-9 5 196 0 0,0-1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 1 0 0 0,0-2 0 0 0,-14 1 0 0 0,-20 3-23 0 0,36-3-243 0 0,17-2-1471 0 0,-2 0-951 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16681.2">165 4907 1220 0 0,'1'-1'110'0'0,"-1"1"0"0"0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 21 756 0 0,0-17-63 0 0,2 111 4082 0 0,-5 124-3742 0 0,3-238-1325 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,-3 5 1 0 0,4-7 73 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-10-13-3371 0 0,1-12 129 0 0,3 9 1928 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17008.89">9 4872 536 0 0,'-2'-4'300'0'0,"1"1"-1"0"0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-6-1 0 0,0 7-193 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,2-2 1 0 0,4 1 148 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,11 6 1 0 0,-5-2-825 0 0,-1 0 1 0 0,0 0-1 0 0,0 2 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,16 18 1 0 0,-23-24 112 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,2 5-1 0 0,0 6-897 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17350.6">16 5445 600 0 0,'0'0'120'0'0,"-1"0"1"0"0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,11 5 2079 0 0,20-4 470 0 0,-30-2-2258 0 0,47-2 490 0 0,48-9-1 0 0,-24 2-4895 0 0,-36 4-1054 0 0,-27 4 3494 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17690.87">436 5035 948 0 0,'0'-4'854'0'0,"0"0"1"0"0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-7 1 0 0,-6 44 2570 0 0,5 9-2509 0 0,1 1 0 0 0,3 0-1 0 0,7 73 1 0 0,0 12-902 0 0,-9-86-175 0 0,1-3-4414 0 0,-4-53-2842 0 0,5 6 5813 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18019.36">412 4918 800 0 0,'1'-9'437'0'0,"1"0"0"0"0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,2 0 0 0 0,0 0-1 0 0,0 1 1 0 0,9-15 0 0 0,-12 21-360 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 2 0 0 0,-2 1 60 0 0,1 0-1 0 0,-1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 0 1 0 0,4 10-1 0 0,1 5 75 0 0,-2 1-1 0 0,5 22 0 0 0,-8-33-144 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-4 10 0 0 0,4-13-33 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-6 4 0 0 0,-27 9-719 0 0,10-4-1535 0 0,2 2-4266 0 0,24-12 5101 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18534.79">707 5357 224 0 0,'0'-1'469'0'0,"1"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-1 0 0 0,1 5 2245 0 0,-3 10-309 0 0,-2-8-2218 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,4 9 1 0 0,-5-13-172 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3-1 1 0 0,4-2-8 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,8-6 0 0 0,-9 6 102 0 0,1-1 0 0 0,-1 1-1 0 0,17-6 1 0 0,-24 10-36 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3 15 1889 0 0,-4 18 416 0 0,1-31-2229 0 0,-2 27 147 0 0,2 0 1 0 0,0 0-1 0 0,7 42 0 0 0,-5-47-1756 0 0,1 8-4403 0 0,4-12-4084 0 0,-4-16 6931 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20403.62">1315 55 328 0 0,'-1'-2'374'0'0,"0"0"1"0"0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-4 0 0 0,0 4 41 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-2 0 0 0,2 25 3371 0 0,-1 8-2994 0 0,27 193 3848 0 0,-3-36-4031 0 0,-17-62-2010 0 0,-6-118 844 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-3 10 0 0 0,5-15 366 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-48 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2-2 0 0 0,-9-13-715 0 0,0 0 1 0 0,-18-37-1 0 0,25 44 1349 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-19 0 0 0,3 27-187 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5-1 0 0 0,7-2 881 0 0,0 1 1 0 0,0 0-1 0 0,21-1 1 0 0,-18 2-999 0 0,6 0 293 0 0,31-6-2940 0 0,-50 7 1827 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,4-4-1 0 0,0-4-1093 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20739.93">1556 101 352 0 0,'3'-32'5567'0'0,"-2"-37"0"0"0,2 109 243 0 0,-1 4-4508 0 0,-9 218 2739 0 0,2-131-4484 0 0,3 0-3723 0 0,2-126 3477 0 0,1 22-3947 0 0,-1-27 4357 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,2 0 0 0 0,5-2-1605 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21075.06">1647 587 1292 0 0,'0'-1'345'0'0,"4"-9"4289"0"0,-2 12-2894 0 0,-1-1-1683 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,2 0-1 0 0,1 1 31 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,7-3 0 0 0,-4 1 54 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,6-9 0 0 0,-10 12-62 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,-2-3 0 0 0,0 2-3 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-4 1-1 0 0,1 0-189 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-3 6 0 0 0,7-10-52 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 2 1 0 0,0-2-330 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,2 0 0 0 0,7-2-856 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21477.84">1868 505 364 0 0,'48'-21'2629'0'0,"-36"17"-1795"0"0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,17-14 0 0 0,-29 20-804 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-12-1 639 0 0,-14 2-198 0 0,22 1-417 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-3 4 0 0 0,6-6-48 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,3 5 0 0 0,3 4 180 0 0,2-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,17 14-1 0 0,-15-14 224 0 0,0 0-1 0 0,-1 1 1 0 0,13 18 0 0 0,-22-29-378 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-16 11 635 0 0,-25 1-151 0 0,39-13-526 0 0,-23 7 44 0 0,18-4-547 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-15 1 0 0 0,22-3 361 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,7-15-3933 0 0,-3 7 2378 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21829.81">2159 448 1380 0 0,'6'-8'2278'0'0,"10"-10"2092"0"0,-16 18-4268 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 37 3124 0 0,-6 122-155 0 0,3-126-3395 0 0,1-13-5644 0 0,-6-37-8836 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22169.18">2086 572 300 0 0,'-3'-1'400'0'0,"-14"-12"5656"0"0,20 9-2846 0 0,12 2-1505 0 0,80 0 1275 0 0,-18 2-4513 0 0,-55-1-2356 0 0,31-6 0 0 0,-35 3 1139 0 0,-3 0 432 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:17:43.026"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">60 134 1300 0 0,'30'-55'3608'0'0,"-23"40"-2881"0"0,0 0 1 0 0,1 1-1 0 0,16-20 0 0 0,-55 76 3490 0 0,-15 32-2966 0 0,27-44-774 0 0,13-21-415 0 0,1 1 1 0 0,-1 0 0 0 0,2 1-1 0 0,-1-1 1 0 0,2 1-1 0 0,-1 0 1 0 0,-1 12-1 0 0,4-20-70 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,3 1-1 0 0,2 0-61 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-2 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,8-4-1 0 0,5-5 298 0 0,0 0 0 0 0,0-1 1 0 0,-1-1-1 0 0,33-31 0 0 0,-66 58 417 0 0,-1 1-1 0 0,2 1 1 0 0,0 0-1 0 0,0 1 1 0 0,2 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-8 19 1 0 0,7-10-900 0 0,-11 42 0 0 0,4 29-3912 0 0,17-95 4062 0 0,-2 12-3761 0 0,0 1 1 0 0,-6 22-1 0 0,3-22 1452 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:19:33.374"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8 9 1260 0 0,'0'0'274'0'0,"1"-1"0"0"0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,31 1 371 0 0,-24-1 155 0 0,21 0-361 0 0,60 2-128 0 0,-77-1-2311 0 0,0 1 0 0 0,19 5 0 0 0,-25-3-1045 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 138 80 0 0,'-1'3'2692'0'0,"1"-3"-2608"0"0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,3 1 851 0 0,28 1 2995 0 0,22-5-2774 0 0,-31 2-1037 0 0,13-1-1118 0 0,0 2-4186 0 0,-20 0 880 0 0,-9 0 2585 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:19:30.930"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 40 192 0 0,'0'-4'801'0'0,"1"-4"701"0"0,0-19 19637 0 0,-13 133-19581 0 0,29 150 102 0 0,7-88-1285 0 0,-19-135-111 0 0,0 57-1 0 0,-5-89-262 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-14-1-606 0 0,-13-12-1752 0 0,26 11 1914 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-5 1 0 0,1-7-2108 0 0,1 0 1 0 0,9-25-1 0 0,-12 39 2519 0 0,17-66-6235 0 0,-12 51 5183 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.76">57 387 600 0 0,'-1'-11'277'0'0,"1"10"200"0"0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-3 0 0 0,0 4-240 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 1 0 0 0,20 0 1494 0 0,44-2 0 0 0,-40-2-3232 0 0,36-9-1 0 0,-58 11 716 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,6-7 0 0 0,-2 1-616 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="679.04">359 116 744 0 0,'0'-3'413'0'0,"0"0"-1"0"0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-3-5 1 0 0,3 8-276 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 51 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-2 5 371 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 7 0 0 0,1 13 889 0 0,5 35 1 0 0,0-6-709 0 0,4 25-825 0 0,0-3-3227 0 0,-4-34-1332 0 0,-5-42 4011 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,4 3 1 0 0,0-2-1250 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1076.99">462 488 648 0 0,'0'3'304'0'0,"0"0"0"0"0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-1 0-107 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,10 1 1 0 0,-5-1-59 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,14-6-1 0 0,-20 6-26 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-5 0 0 0,-1 6 18 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-4 0 1 0 0,-4-1 161 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-13 5 0 0 0,11-4-243 0 0,-1 2 1 0 0,1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-17 14 1 0 0,25-19-419 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-2 5-1 0 0,3-7 13 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 1 1 0 0,8 2-2207 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1417.73">921 423 60 0 0,'12'-6'1144'0'0,"-7"3"-656"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-5 1 0 0,-8 9-414 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-15 2 607 0 0,-1 2-200 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 2 0 0 0,0 0 0 0 0,1 0-1 0 0,-19 14 1 0 0,31-20-475 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,3 2 0 0 0,6 5-12 0 0,0-1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,16 5 0 0 0,21 7 35 0 0,-33-13 55 0 0,1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-2 0-1 0 0,1 1 1 0 0,19 16 0 0 0,-33-24-48 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 44 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-39 17 502 0 0,31-16-620 0 0,-49 14-407 0 0,20-12-2755 0 0,39-5 2956 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0-1 0 0 0,3-8-1514 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1758.14">1264 328 132 0 0,'5'-5'1558'0'0,"1"1"0"0"0,-1 0 1 0 0,12-7-1 0 0,-16 11-1401 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,1-1 0 0 0,-2 1-31 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-8 37 3230 0 0,-4 62 0 0 0,5-33-1924 0 0,2-7-904 0 0,2-5-1842 0 0,-3-19-4091 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2099.67">1110 540 1136 0 0,'0'0'176'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,12-2 3510 0 0,34 2-384 0 0,-32 1-2663 0 0,222-13-748 0 0,-157 8-3668 0 0,1 1-3491 0 0,-51 3 4959 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:19:34.345"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">275 176 556 0 0,'-1'-2'662'0'0,"-6"-16"1481"0"0,7 17-1981 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 4 270 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 4 1 0 0,-1-3-40 0 0,0 45 2709 0 0,2 0 0 0 0,10 78 0 0 0,1-3-2232 0 0,-10-101-854 0 0,-1-7-85 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5 24 0 0 0,5-40-10 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-9-11-3989 0 0,-5-17-1890 0 0,2-10 333 0 0,5 16 3412 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.71">26 72 236 0 0,'-12'-7'892'0'0,"-1"-1"5252"0"0,29 9-1474 0 0,21 5-3220 0 0,0-1 1 0 0,50-1 0 0 0,2 1-1062 0 0,-55-2-724 0 0,56 11 0 0 0,-78-10-638 0 0,0-1 0 0 0,22 12-1 0 0,-26-12-157 0 0,-1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,10 9 0 0 0,-14-12 724 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 2 1 0 0,3 11-1278 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="759.85">40 773 572 0 0,'12'4'7278'0'0,"18"4"-4016"0"0,16-2-946 0 0,55 0 0 0 0,45-7-1566 0 0,-42 0-3093 0 0,-93 1 556 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,12-4 0 0 0,-12 2-287 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.34">719 78 736 0 0,'-1'0'182'0'0,"0"0"0"0"0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 1 0 0 0,-7 22 1833 0 0,5 33 384 0 0,3-51-1825 0 0,6 140 3233 0 0,-2-78-3236 0 0,-5 88 0 0 0,-2-129-719 0 0,-6 77 323 0 0,0-35-3489 0 0,8-62 121 0 0,1-15-4290 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1523.12">679 83 876 0 0,'2'-4'174'0'0,"-1"-1"0"0"0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,1 0-1 0 0,5-2 1 0 0,-5 3 27 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,5 1 0 0 0,1 2 86 0 0,-1 0-1 0 0,-1 0 1 0 0,1 2 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,11 18 1 0 0,-13-19-88 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-2 11 1 0 0,2-16-128 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 0 1 0 0,-8 1-1 0 0,-6 2-47 0 0,-1-1 0 0 0,1 0 1 0 0,-33 1-1 0 0,18-3-362 0 0,-11 1-1746 0 0,15-2-8033 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:19:37.278"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">461 476 628 0 0,'0'1'194'0'0,"0"-1"-1"0"0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-13-4 2480 0 0,-2 0-2443 0 0,0 0 0 0 0,0-2 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,-16-11 0 0 0,-71-51 659 0 0,91 61-806 0 0,-4-3-2 0 0,1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-10-14 0 0 0,17 20-63 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 0 0 0,5-12 0 0 0,-2 10 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1 0 0 0,-1 1-1 0 0,14 5 1 0 0,-20-7-20 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-1 6 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 5 1 0 0,0 0 22 0 0,-1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-9 11 1 0 0,-7 4 244 0 0,-2-2 0 0 0,-1 0 1 0 0,0-1-1 0 0,-44 25 0 0 0,-32 28 748 0 0,86-62-891 0 0,2 0-1 0 0,0 1 0 0 0,0 1 1 0 0,1 0-1 0 0,-11 17 0 0 0,17-22-69 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-4 16-1 0 0,5-19-38 0 0,2-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,3 9-1 0 0,-2-10 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,5 2 0 0 0,-1-2 7 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,8-2-1 0 0,6-2-13 0 0,1-1 0 0 0,-1-1 0 0 0,35-16 0 0 0,-30 11-19 0 0,-1-2 1 0 0,0 0-1 0 0,-1-1 0 0 0,-1-1 1 0 0,-1-1-1 0 0,0-2 0 0 0,-1 0 1 0 0,0 0-1 0 0,17-23 0 0 0,15-19 559 0 0,-51 59-554 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-8 3-2788 0 0,-8 19-9750 0 0,13-16 10516 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:19:39.021"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">71 118 520 0 0,'-4'-25'4191'0'0,"4"25"-4148"0"0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-3 16 1692 0 0,-4 92 2425 0 0,5 54-2752 0 0,2-146-1291 0 0,-3 71 9 0 0,-16 98 1 0 0,18-180-374 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-5 7 1 0 0,3-12-2202 0 0,1-7 979 0 0,1-10-259 0 0,7-66-3430 0 0,-3 53 3946 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.99">52 79 288 0 0,'3'-22'1651'0'0,"3"-12"493"0"0,-6 33-2065 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-2 0 0 0,-3 2-26 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,9 20 1144 0 0,-7-14-760 0 0,9 24 785 0 0,-1 1 1 0 0,10 50-1 0 0,-11-37-496 0 0,-2-14-383 0 0,-1-3-228 0 0,1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,20 41 0 0 0,-28-68-115 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,3-1 0 0 0,-2 0-5 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,3-2 0 0 0,4-6-51 0 0,-1-1-1 0 0,1 0 1 0 0,-2 1 0 0 0,11-20 0 0 0,128-257-671 0 0,-145 286 736 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 14 459 0 0,-8 36 378 0 0,6-36-559 0 0,-22 251 4107 0 0,25-221-4612 0 0,7 61 0 0 0,-4-69-1563 0 0,-4-35 1708 0 0,5 29-5379 0 0,-5-29 4966 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,4 1-1376 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.69">950 499 864 0 0,'2'-2'269'0'0,"-1"0"0"0"0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-6 0 0 0,0 6-138 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-3 0 0 0 0,1 0 35 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 0 1 0 0,-1 2 93 0 0,1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-12 6 0 0 0,14-6-222 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 9-1 0 0,3-15-39 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 0-1 0 0,-1-1 2 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,3-2 0 0 0,5-5 9 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,12-24 0 0 0,-18 31 881 0 0,-8 15 398 0 0,-10 19 868 0 0,10-10-1450 0 0,0 0-1 0 0,1 0 0 0 0,-4 25 0 0 0,8-34-1099 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,1 0-1 0 0,4 17 0 0 0,-5-25 111 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,2 1-1 0 0,-1 0-282 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,3-1 1 0 0,7-4-1235 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.7">1274 478 896 0 0,'11'-7'1534'0'0,"-5"4"-868"0"0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,6-9 0 0 0,-12 13-612 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-12-2 725 0 0,-16 5-408 0 0,27-2-214 0 0,-12 1 51 0 0,1 2 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 1 1 0 0,0 1-1 0 0,0 0 1 0 0,-14 7-1 0 0,25-11-205 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 2-1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,4 3 1 0 0,5 6 8 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,19 12-1 0 0,-15-12 46 0 0,0 0 178 0 0,-1 1 0 0 0,14 12-1 0 0,-25-20-114 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 7 0 0 0,-3-8-10 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-2 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,-10 4 125 0 0,0 0-1 0 0,-26 4 1 0 0,23-5-253 0 0,6-1-516 0 0,-48 9-728 0 0,39-9-2467 0 0,2-2-3698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2031.91">1552 431 256 0 0,'-2'49'10355'0'0,"-13"88"-3622"0"0,-13 5-4726 0 0,22-118-2673 0 0,4-18 521 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2465.01">1740 473 280 0 0,'3'-2'391'0'0,"0"1"0"0"0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,6 1 0 0 0,-8 0-309 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-14 18 910 0 0,13-18-880 0 0,-9 10 95 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-24 13-1 0 0,22-14-167 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-13 13-1 0 0,24-21 37 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,2 4 1 0 0,4 7 546 0 0,0 0 0 0 0,1-1-1 0 0,16 22 1 0 0,-9-14-29 0 0,46 70 278 0 0,-60-86-2872 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:29.757"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">211 44 604 0 0,'-14'-4'1746'0'0,"-1"-10"-648"0"0,9 5 5535 0 0,32 8-5486 0 0,20-6-819 0 0,0 3 0 0 0,1 1-1 0 0,-1 2 1 0 0,64 7 0 0 0,-16 2-30 0 0,1-4 1 0 0,110-10 0 0 0,-106-5-409 0 0,-386 20-2489 0 0,1 0 2466 0 0,190-15 549 0 0,53-3 741 0 0,41 9-1035 0 0,-10-1 880 0 0,11 1-8 0 0,9 1-127 0 0,906 2 4481 0 0,-603 3-4590 0 0,8 1-229 0 0,2 1-256 0 0,154 13 551 0 0,-259-7-497 0 0,153 1-75 0 0,-265-9-207 0 0,111 4 466 0 0,-214-10-468 0 0,15 0 1794 0 0,-12 0-1840 0 0,1 0 2 0 0,-1 0 2 0 0,-3 0 138 0 0,-26 2 356 0 0,-15-10-446 0 0,0 1 0 0 0,0 1 0 0 0,-61 1 0 0 0,75 4-40 0 0,-233-14-6 0 0,-96-3-30 0 0,219 14-11 0 0,-451-6 105 0 0,-729 13 122 0 0,1212-4-117 0 0,-151 4 234 0 0,34 18-69 0 0,182-14-104 0 0,38-7 218 0 0,40-12 481 0 0,-25 10-833 0 0,0 0-1 0 0,23 0 1 0 0,-36 2 71 0 0,-5 19-10512 0 0,28-50-8133 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:44.891"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">80 22 36 0 0,'0'0'141'0'0,"-1"-1"0"0"0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-2 1572 0 0,-7 11 670 0 0,-2 82 1103 0 0,-1 1-1529 0 0,1 72 324 0 0,-1-2-1109 0 0,-4 92-487 0 0,-1-4-576 0 0,3-76-933 0 0,5-148-2149 0 0,0-37-4518 0 0,5-26 2190 0 0,0 9 3232 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="505.08">420 127 1276 0 0,'2'-2'447'0'0,"-1"-1"0"0"0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,5-3-1 0 0,-3 6 1225 0 0,-14 10-626 0 0,5-4-673 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5 14 0 0 0,-2 3 66 0 0,-61 85 859 0 0,7-11-537 0 0,34-44-517 0 0,-55 97 59 0 0,73-124-270 0 0,2 1 0 0 0,1 1 0 0 0,-13 49 1 0 0,23-72-28 0 0,-1 2 4 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 10 0 0 0,1-17-6 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,3 3 1 0 0,55 29 167 0 0,28 18 265 0 0,-77-42-383 0 0,1-1 0 0 0,-2 2 0 0 0,1-1 0 0 0,-1 2 0 0 0,12 14 1 0 0,-13-11-94 0 0,0 1 0 0 0,9 21 0 0 0,-16-33-17 0 0,-2 0-91 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 4-1 0 0,0 4-7693 0 0,6-14 3744 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1216.07">880 760 216 0 0,'1'0'135'0'0,"0"-1"0"0"0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,12-23 633 0 0,-7 12 61 0 0,-6 12-720 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-3 1 0 0,1 3-67 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-13 4 31 0 0,0 1-1 0 0,1 0 0 0 0,-1 2 0 0 0,1-1 0 0 0,1 2 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-4 18 1 0 0,8-24-74 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0-1 1 0 0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,8 10 0 0 0,-11-16-3 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,3-1 0 0 0,-1 0-3 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,5-5 1 0 0,3-4 3 0 0,0 0 1 0 0,-2 0-1 0 0,1-2 0 0 0,-1 1 1 0 0,-1-1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 0 0 0 0,0-1 1 0 0,6-22-1 0 0,7-45 162 0 0,-11 40 412 0 0,-8 43-544 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 19 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 1-1 0 0,-2 2 129 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-4 4 1 0 0,-2 8 29 0 0,0 1-1 0 0,1 0 1 0 0,-10 31 0 0 0,15-37-242 0 0,0 0 1 0 0,1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,1 12-1 0 0,0-13-830 0 0,1 0-1 0 0,0 0 0 0 0,7 21 1 0 0,-8-30 621 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,2-1 0 0 0,10-1-1444 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1741.1">1196 745 1560 0 0,'2'-5'949'0'0,"0"-1"-1"0"0,0 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-9 1 0 0,-16 67 5094 0 0,10-19-5487 0 0,2-1 0 0 0,1 1-1 0 0,6 53 1 0 0,-1-44-500 0 0,2 22-25 0 0,-4-42-166 0 0,-3-19-378 0 0,1-16-325 0 0,1 8 694 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,3-5-1 0 0,28-35-351 0 0,-30 41 489 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,5 0-1 0 0,-4 0 4 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,8-6-1 0 0,-10 6 2 0 0,19-16 165 0 0,-1-1-1 0 0,-1-1 0 0 0,0 0 1 0 0,15-24-1 0 0,-22 26 646 0 0,-1-1 1 0 0,10-25-1 0 0,-18 32 611 0 0,-11 17-446 0 0,-12 17-66 0 0,7 3-464 0 0,-14 33 0 0 0,23-47-451 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 13-1 0 0,2-20-262 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,8 7 0 0 0,-7-8-223 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,7-2-1 0 0,12-4-1376 0 0,1-1 282 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2158.97">1805 865 936 0 0,'46'-43'2856'0'0,"-28"27"-1436"0"0,23-26 1 0 0,-15 15 2494 0 0,-82 92-2410 0 0,22-21-1258 0 0,23-31-221 0 0,0 0-1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0 1 0 0 0,1-1 1 0 0,-6 21-1 0 0,10-23-31 0 0,1-6-30 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 10 0 0 0,-2-16 19 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1-1 0 0,1 0-20 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-3 0 0 0,6-6 25 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2-1 0 0 0,1 1 1 0 0,-2-2-1 0 0,12-23 0 0 0,0-12 302 0 0,19-66-1 0 0,-38 111-250 0 0,2-2 307 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-11-1 0 0,-2 19-263 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1-50 0 0,-5 7 199 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 10 0 0 0,1 1-167 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,3 26 0 0 0,2-12-1519 0 0,10 39-1 0 0,-14-68 1073 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3-11 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-1 0 0 0,14-4-1373 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2633.41">2330 676 1024 0 0,'18'-47'6273'0'0,"-13"37"-2616"0"0,-11 31-1820 0 0,-66 246 2071 0 0,68-250-3813 0 0,-26 143-427 0 0,30-142-733 0 0,3-16-35 0 0,3-11 474 0 0,25-58-169 0 0,-4-3-1 0 0,36-137 0 0 0,-33 96 2753 0 0,-23 95-813 0 0,-7 16-1097 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 5 284 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,-1 7 0 0 0,-2 20 395 0 0,2 0 0 0 0,0 0 0 0 0,8 61 0 0 0,-2-64-860 0 0,0 0 0 0 0,2-1 0 0 0,1 1-1 0 0,17 38 1 0 0,-5-21-4344 0 0,-20-44 4362 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,24-27-5373 0 0,-19 22 4158 0 0,9-11-557 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3145.18">2720 718 556 0 0,'12'-24'1991'0'0,"-8"18"-1249"0"0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-11 0 0 0,-3 13 1515 0 0,-6 27 809 0 0,-9 8-2174 0 0,1 1 0 0 0,1 0 0 0 0,2 1 0 0 0,-11 48 0 0 0,17-57-840 0 0,1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,1 0 0 0 0,6 30 0 0 0,-6-47-153 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,7 5-1 0 0,-9-7-68 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-2-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,3-2 0 0 0,3-3-125 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,5-18-1 0 0,-2 3 416 0 0,-1-1-1 0 0,-2 0 1 0 0,7-53 0 0 0,-11 46 473 0 0,-2 25-321 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3-11 0 0 0,-3 16-252 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,3-2 0 0 0,6-2 12 0 0,-1 1-1 0 0,2 0 1 0 0,-1 0-1 0 0,0 2 0 0 0,1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 1-1 0 0,23-1 0 0 0,-32 2 71 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,3 5 0 0 0,1 1 99 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,6 20 0 0 0,-6-11-82 0 0,0 1 1 0 0,-2-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,-2 20 0 0 0,-16 92-1324 0 0,9-91-440 0 0,5-28 54 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,2 17 0 0 0,3-13-513 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3560.64">3971 745 1480 0 0,'-2'-3'1157'0'0,"1"0"0"0"0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-4 817 0 0,-1 23-2814 0 0,-13 42-9654 0 0,9-39 7560 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3897.27">3996 1138 1296 0 0,'5'9'2564'0'0,"-5"0"221"0"0,0-3 91 0 0,0 0-1056 0 0,5-3-948 0 0,0 0-484 0 0,-5 0-116 0 0,0 0-364 0 0,5 0-444 0 0,0-9-3024 0 0,0 0 932 0 0,10 3-53 0 0,-5-3 337 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:49.428"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">142 121 920 0 0,'-46'4'4580'0'0,"37"-2"-3646"0"0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-14-2 0 0 0,21 2-706 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3-3-1 0 0,4 3-167 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,2-1 1 0 0,3-5-38 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,10-2 0 0 0,15-4 193 0 0,51-6 0 0 0,-63 12-18 0 0,1 1 1 0 0,-1 1-1 0 0,0 1 1 0 0,43 5-1 0 0,-56-4-65 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,9 11 0 0 0,-13-13-36 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 8 0 0 0,-1-3 43 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,-4 13 1 0 0,-2 1 101 0 0,-2 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,-15 19 1 0 0,-36 50 258 0 0,-126 141 0 0 0,135-175-465 0 0,-33 37 4 0 0,45-54-39 0 0,30-29-1 0 0,11-10 2 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 8 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,2-1-1 0 0,2 1 29 0 0,184-10 523 0 0,48 0 5 0 0,247 0-2191 0 0,-426 15-2598 0 0,-25 1-3794 0 0,-42 1 440 0 0,-5-1 4667 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:50.283"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1110 6 1248 0 0,'8'-5'5696'0'0,"-6"13"-2241"0"0,-6 20-929 0 0,3-25-2496 0 0,-59 290 6174 0 0,12-18-2874 0 0,30-166-3018 0 0,-25 160 82 0 0,37-239-336 0 0,21-47-42 0 0,-9 12-51 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,4-8-1 0 0,-7 14 34 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 0 0 0 0,2-1-4 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,5 0-1 0 0,14 4 20 0 0,0-2-1 0 0,0 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,0-2 0 0 0,0-1 0 0 0,1-1 0 0 0,-1-1 0 0 0,31-10 0 0 0,-44 10-2 0 0,0 0 0 0 0,-1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,0 0 0 0 0,18-17-1 0 0,-21 17-4 0 0,0-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-15 0 0 0,-2 13 20 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-20-8-1 0 0,-2 3 29 0 0,1 2-1 0 0,-1 1 1 0 0,0 1 0 0 0,-1 1-1 0 0,-47-1 1 0 0,3 5-11 0 0,-88 9 0 0 0,-141 34 70 0 0,242-27-637 0 0,0 2 0 0 0,-104 43 0 0 0,142-48-556 0 0,1 1-1 0 0,0 2 1 0 0,1 0-1 0 0,0 1 1 0 0,-39 36-1 0 0,51-40 16 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,2 1 1 0 0,-1 0-1 0 0,2 0 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,-9 30-1 0 0,7 7-1457 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:05:48.742"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 16 104 0 0,'-17'6'1983'0'0,"3"-2"-548"0"0,6 4 480 0 0,16-6-263 0 0,25-4 152 0 0,-30 2-1773 0 0,182-7 2393 0 0,-7 1-1714 0 0,-118 2-163 0 0,88 6 0 0 0,10 0 330 0 0,80 1-47 0 0,-76 1-290 0 0,85-11-182 0 0,-150 3-281 0 0,57 3 7 0 0,24 3-48 0 0,-91-4-29 0 0,83-5-61 0 0,0 0 76 0 0,-17 5-344 0 0,-166 15-10734 0 0,11-11 9657 0 0,-2 2-833 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:51.052"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 65 316 0 0,'3'-14'6958'0'0,"-1"-3"-2858"0"0,8-16 4020 0 0,-8 32-7553 0 0,-3 9-550 0 0,-3 9-1477 0 0,0-1 1 0 0,-1 20-1 0 0,3-19-460 0 0,2-12 792 0 0,-1 0 0 0 0,1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,4 8 1 0 0,0-3-960 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.86">46 353 972 0 0,'-2'15'3250'0'0,"1"-14"-3084"0"0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 2-1 0 0,1 17 5452 0 0,-3-12-2695 0 0,1-15-151 0 0,4 5-2491 0 0,-3 0-1105 0 0,-5 3-110 0 0,-12 8-12105 0 0,6-6 10288 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:39:53.658"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">530 221 868 0 0,'0'-39'6643'0'0,"-12"48"-4876"0"0,-20 31-497 0 0,0 1 0 0 0,3 1-1 0 0,-38 74 1 0 0,-10 14-451 0 0,-162 205-264 0 0,224-314-518 0 0,5-4 6 0 0,10-15-28 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-3 2-1 0 0,3-2 47 0 0,26-16 65 0 0,55-25 15 0 0,-14 14 41 0 0,67-22-746 0 0,-63 29-5419 0 0,-39-1-1684 0 0,-21 14 5726 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.69">455 719 1716 0 0,'-7'-13'6809'0'0,"7"13"-6722"0"0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-11 17 3057 0 0,8-15-2852 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-3 7 0 0 0,-4 17 82 0 0,2 1-1 0 0,1 1 1 0 0,1-1 0 0 0,1 1 0 0 0,1 0-1 0 0,2-1 1 0 0,1 1 0 0 0,6 36 0 0 0,12 25-2553 0 0,-18-78 888 0 0,-1-11 1109 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,11-23-6644 0 0,8-20 2132 0 0,-6 14 2874 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1243.53">806 353 144 0 0,'7'-8'909'0'0,"1"0"0"0"0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,9-6-1 0 0,-8 7-553 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,11 2 0 0 0,-20-2-270 0 0,0 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 3-1 0 0,-2-1 23 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 5 1 0 0,-2 9 261 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-10 26 0 0 0,-8 13 265 0 0,-3 0 1 0 0,-49 79-1 0 0,35-68-431 0 0,-5 8-60 0 0,21-40-68 0 0,-34 77 0 0 0,43-79-56 0 0,6-17-10 0 0,2 0 0 0 0,0 0 0 0 0,-5 20 1 0 0,10-32-8 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 5 1 0 0,-3-7-2 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5-2-1 0 0,4-1 6 0 0,0-1 0 0 0,1-1 0 0 0,-2 0 0 0 0,20-12 0 0 0,-19 9-1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,10-15 0 0 0,-12 16 3 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-22 0 0 0,-3 25-4 0 0,-1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-2 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-13-14-1 0 0,-7-5 4 0 0,-1 1-1 0 0,-38-31 1 0 0,29 28-15 0 0,24 19 4 0 0,-14-11-5 0 0,-30-34 0 0 0,49 48 6 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,-3-18 0 0 0,6 24 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,3-4 0 0 0,-1 2-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,5-3 0 0 0,6 0-316 0 0,0 0-1 0 0,1 1 0 0 0,0 1 1 0 0,16-1-1 0 0,105 3-6559 0 0,21-2 968 0 0,127-13 7559 0 0,-280 15-1484 0 0,31 2 982 0 0,-35-2-1049 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 3 153 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,-1 4 0 0 0,-26 52 1160 0 0,8-18-620 0 0,-5 18 29 0 0,9-25-570 0 0,2 0-1 0 0,1 2 1 0 0,2-1 0 0 0,-9 51 0 0 0,19-72-231 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,4 22 1 0 0,-3-32-20 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,8 6-1 0 0,-7-7 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,9 0 0 0 0,-6-1 2 0 0,0 0 1 0 0,0-1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,17-7-1 0 0,-5 0 8 0 0,-2-1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-1-2-1 0 0,-1 0 1 0 0,0-1 0 0 0,20-22 0 0 0,-21 18-1 0 0,-1 0 0 0 0,0-2 1 0 0,-2 0-1 0 0,0 0 0 0 0,-2-1 1 0 0,16-39-1 0 0,-20 41 14 0 0,-1 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 1 0 0,-1 1-1 0 0,-1-26 0 0 0,0 39 63 0 0,-1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-11-10 1 0 0,11 12-24 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-14 1 0 0 0,1 2-22 0 0,0 1 0 0 0,1 1-1 0 0,0 1 1 0 0,-1 0 0 0 0,2 2 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,0 1-1 0 0,1 1 1 0 0,1 0 0 0 0,0 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 2-1 0 0,0 0 1 0 0,-16 22 0 0 0,21-24-130 0 0,0 1 1 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-5 27-1 0 0,9-29-261 0 0,-1 0 0 0 0,2-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,11 22 0 0 0,-11-27-83 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,16-1 0 0 0,15-5-963 0 0,3-2 152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2108.12">2145 773 820 0 0,'89'-102'3047'0'0,"-75"85"-2153"0"0,-2-2 1 0 0,0 1 0 0 0,19-41-1 0 0,-29 56-710 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-6 0 0 0,1 7-109 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-2-1 0 0 0,0 1 7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-3 0 1 0 0,-7 4 121 0 0,1 0 1 0 0,-1 1 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,0 1 1 0 0,-12 14 0 0 0,2-1-36 0 0,2 1 0 0 0,-27 41 0 0 0,32-44-149 0 0,2 1 1 0 0,0 1 0 0 0,2 0-1 0 0,0 1 1 0 0,1-1 0 0 0,2 2-1 0 0,-7 35 1 0 0,12-49-25 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,8 13-1 0 0,-7-15 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,11 2 0 0 0,-4-3-19 0 0,1 0 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,-1 0-1 0 0,24-13 1 0 0,-16 6 25 0 0,-1 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1-1 0 0 0,31-32 1 0 0,-33 28 2 0 0,-1-1 0 0 0,0 0 0 0 0,-2-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-2 0 0 0 0,0-1 1 0 0,7-26-1 0 0,-13 34 104 0 0,0-1 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-9-22 0 0 0,9 30-21 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-8-1 0 0 0,-1 1-8 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 2 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 2 1 0 0,-17 6-1 0 0,7 1-108 0 0,1 1 1 0 0,0 2-1 0 0,1 0 1 0 0,0 1-1 0 0,2 1 1 0 0,0 2-1 0 0,1 0 1 0 0,1 1-1 0 0,0 1 1 0 0,2 1-1 0 0,0 0 1 0 0,2 2-1 0 0,1 0 1 0 0,0 0-1 0 0,2 2 1 0 0,1 0 0 0 0,-14 43-1 0 0,22-55-255 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,3 20 0 0 0,-2-28 39 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,7 3 1 0 0,0-1-165 0 0,0-2 1 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,23-7 0 0 0,1-3 190 0 0,-1-1 1 0 0,0-2-1 0 0,42-24 0 0 0,-27 10 719 0 0,-2-2 0 0 0,-1-2-1 0 0,-1-3 1 0 0,69-70-1 0 0,-70 58 2284 0 0,72-99 0 0 0,-116 146-2707 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-32 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 1 105 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-5 2 0 0 0,-17 12 209 0 0,1 1-1 0 0,1 1 0 0 0,0 2 0 0 0,-25 25 1 0 0,37-32-297 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-10 31-1 0 0,15-38-51 0 0,0-1-9 0 0,1-1 1 0 0,-1 1 0 0 0,2 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,2 1 1 0 0,2 12-1 0 0,-1-11-27 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,2-1 0 0 0,6 9 0 0 0,-7-12-22 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,8 2 1 0 0,-3-1-34 0 0,-1-2 1 0 0,1 1-1 0 0,0-2 0 0 0,0 1 1 0 0,1-2-1 0 0,-1 1 0 0 0,0-2 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,12-5 1 0 0,4-2-6 0 0,-1-1 1 0 0,-1-2-1 0 0,49-28 0 0 0,-51 26 174 0 0,-2-2 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-1 0 0 0,0-2 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,22-43 0 0 0,-30 51 132 0 0,-2 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-12-24 0 0 0,14 34-100 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-8-4 0 0 0,5 3-36 0 0,-1 1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-15-1 0 0 0,4 2-47 0 0,0 2 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,0 1 0 0 0,0 1 1 0 0,-23 9-1 0 0,20-5-53 0 0,1 1 1 0 0,1 1-1 0 0,0 2 0 0 0,0 0 1 0 0,1 1-1 0 0,1 1 1 0 0,0 1-1 0 0,1 0 0 0 0,1 2 1 0 0,-17 20-1 0 0,18-16-621 0 0,0 1-1 0 0,1 0 0 0 0,2 2 1 0 0,0-1-1 0 0,-12 33 1 0 0,18-37-979 0 0,1 1 0 0 0,0 0-1 0 0,-4 25 1 0 0,10-36 619 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,5 15-1 0 0,7 12-1794 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2517.14">3690 104 1128 0 0,'0'0'170'0'0,"-1"0"0"0"0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 678 0 0,1 1-678 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1-107 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,-15 176 6453 0 0,1-34-4383 0 0,7 5-1459 0 0,17 208 1 0 0,-9-302-3139 0 0,-1-34-1040 0 0,2-26-857 0 0,1-6 2241 0 0,-7-24-2330 0 0,3 13 2639 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2855.77">3516 218 544 0 0,'-63'-103'7561'0'0,"62"102"-7485"0"0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,6-3 306 0 0,0 0 1 0 0,0 0 0 0 0,14-4 0 0 0,-18 7-317 0 0,49-13 839 0 0,1 3 0 0 0,100-9 0 0 0,-153 20-893 0 0,-1 0-11 0 0,46-5 364 0 0,0 1 0 0 0,1 2-1 0 0,-1 3 1 0 0,50 6-1 0 0,-94-7-370 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,3 3 0 0 0,-4-3-85 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-2 2 0 0 0,-84 180-12855 0 0,71-146 10975 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3331.68">4195 752 1400 0 0,'7'-5'1694'0'0,"0"1"0"0"0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,13-4 0 0 0,-21 7-1654 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-2-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-5 7 416 0 0,1 0-333 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 11-1 0 0,-1-19-121 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,2 0-1 0 0,0 0-7 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,6 1 1 0 0,4-3-82 0 0,-1 0 0 0 0,1 0 0 0 0,20-9 0 0 0,-21 6-1 0 0,-1 0-1 0 0,0 0 0 0 0,17-14 0 0 0,5-2 47 0 0,-37 25 43 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,2 11-1 0 0,4 7-8 0 0,2 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 0 1 0 0,2-1 0 0 0,18 28-1 0 0,95 106-19 0 0,-109-137 29 0 0,22 27 5 0 0,33 36 17 0 0,-58-65-3 0 0,-12-14-14 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3 1 0 0 0,-5-5-3 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,2 2-2 0 0,-8-8 42 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-1 1 0 0 0,-18-9 0 0 0,-4 2 233 0 0,-50-12 1 0 0,56 18 66 0 0,1-1 0 0 0,1-1 0 0 0,-36-17 0 0 0,55 23-240 0 0,-2-1 63 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,-6-5 1 0 0,11 9-142 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,2-1-1 0 0,5-4 41 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,11-3-1 0 0,60-19 98 0 0,-69 24-155 0 0,174-40-1537 0 0,4 15-4649 0 0,-33 5-946 0 0,-88 11 3962 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:12.236"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">168 157 512 0 0,'-17'31'1227'0'0,"0"2"-1"0"0,-14 41 1 0 0,11-15-909 0 0,-15 71 0 0 0,19-44-60 0 0,3 1-1 0 0,-3 147 0 0 0,15-217-349 0 0,1-13-54 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 9-1 0 0,-2-18-2969 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.45">127 136 712 0 0,'6'-23'1061'0'0,"-5"15"-829"0"0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,4-11 0 0 0,-5 16-214 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,5-3 0 0 0,9-3 65 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,33 1-1 0 0,-41 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,9 5 0 0 0,-12-6-6 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,4 10-1 0 0,3 9 55 0 0,-2 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-2 0-1 0 0,0 32 0 0 0,-20 184 554 0 0,2-133-522 0 0,-4 33-902 0 0,11-61-3747 0 0,9-68 3075 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.09">798 694 680 0 0,'-1'6'2870'0'0,"-4"1"-2592"0"0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 11 0 0 0,-5 42 431 0 0,3-38-359 0 0,-1 46-1 0 0,1 182-345 0 0,5-249-123 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-3 1-1 0 0,4-3 33 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-80 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-3-1 0 0,-1-12-976 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.61">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1418.21">1213 1084 612 0 0,'10'6'6161'0'0,"-5"-6"-5141"0"0,0 0-1012 0 0,0 0-528 0 0,-5-3-1353 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.04">1808 544 576 0 0,'4'4'3217'0'0,"12"12"-2153"0"0,15-10 527 0 0,-30-5-1547 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-29 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-23-3 328 0 0,12 5-300 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-14 19 0 0 0,18-22-10 0 0,0 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 14 0 0 0,7-17-31 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 9 0 0 0,-2-6-310 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,9-1 1 0 0,9 0-891 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2098.19">2168 712 656 0 0,'23'-18'1981'0'0,"45"-25"-1"0"0,-49 32-1201 0 0,-19 10-749 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 12 759 0 0,-7 23-343 0 0,5-24-230 0 0,-9 44 100 0 0,6-27-263 0 0,5-23-49 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-4 6 1 0 0,0-1 14 0 0,3-5 1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-6 5 1 0 0,9-9-19 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-4 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,1-3-5 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,3-8 0 0 0,0 0-10 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,13-12 0 0 0,-16 18 15 0 0,-1-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,10-4 0 0 0,-13 6 43 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 1 1 0 0,-8 0 9 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 5-1 0 0,1 3 117 0 0,0 1 0 0 0,-1-1 0 0 0,0 18 0 0 0,-2-6-97 0 0,-2-1 1 0 0,0 1-1 0 0,-7 24 0 0 0,-4 22-1089 0 0,14-64 834 0 0,-1 0-418 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 7 0 0 0,-1-4-1246 0 0,-1-4 155 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2432.56">2973 601 284 0 0,'7'-9'1594'0'0,"-1"0"0"0"0,-1 0 0 0 0,1-1 0 0 0,4-12 0 0 0,5-9 1007 0 0,-14 30-2541 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1-113 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 1-455 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 4 0 0 0,-4 9-1653 0 0,-3 0 280 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2775.86">2952 940 40 0 0,'0'8'1008'0'0,"0"-5"-326"0"0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 4 0 0 0,1 0 633 0 0,-3-7-1232 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,19 4-3126 0 0,4 1-4689 0 0,-14-2 5897 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:16.492"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">435 58 516 0 0,'10'-26'3336'0'0,"-9"22"-2838"0"0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,3-4-1 0 0,-19 31 3487 0 0,-4 26-2337 0 0,0-1-854 0 0,-116 198 1835 0 0,104-196-2419 0 0,-131 194 208 0 0,103-166-301 0 0,33-48-23 0 0,25-30-70 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,27-5 147 0 0,-8 3-45 0 0,84-16 172 0 0,26-2-3457 0 0,-124 20 2222 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,4-4 0 0 0,2-1-1262 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="341.36">515 502 392 0 0,'2'-3'541'0'0,"-1"0"1"0"0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-4-1 0 0,0-13 6218 0 0,-16 44-3860 0 0,-26 67 733 0 0,11-29-1884 0 0,-58 162 888 0 0,83-209-2609 0 0,1-5-58 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 19-1 0 0,4-20 178 0 0,-1-8-449 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 2-1 0 0,0-3 62 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,2-2 0 0 0,4-2-819 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-2 1-1 0 0,8-10 1 0 0,7-8-1277 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.07">771 448 84 0 0,'28'-36'7442'0'0,"-25"23"233"0"0,-4 23-7796 0 0,2-5 189 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,4 5 0 0 0,4 11 69 0 0,13 27 163 0 0,33 53 0 0 0,11 22 141 0 0,-50-94-211 0 0,-12-22-108 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 9 0 0 0,2 3 323 0 0,-6-16-319 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 5 0 0 0,1-6-11 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-4 0-1 0 0,-30 5 718 0 0,18-5-927 0 0,-116 5 1411 0 0,67-12-2603 0 0,51 4-470 0 0,1-2 0 0 0,-19-6 0 0 0,32 9 1209 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-4 0 0 0,0-9-1738 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1079.44">766 406 32 0 0,'-14'-78'6347'0'0,"13"72"-5945"0"0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,3-9 0 0 0,-2 10-84 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,4-1 0 0 0,5-3 280 0 0,0 1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 2 1 0 0,0-1-1 0 0,20-1 1 0 0,-4-1 331 0 0,24-6 61 0 0,1 3 0 0 0,0 1 1 0 0,1 3-1 0 0,63 3 0 0 0,-113 2-1020 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 4 0 0 0,-7-5-142 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 3 0 0 0,-23 67-15612 0 0,20-60 13087 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1724.48">1831 583 1072 0 0,'-7'-15'2703'0'0,"5"11"-2051"0"0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-4-1 0 0,1 8-609 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-6 16 1482 0 0,6-9-966 0 0,1 0 1 0 0,-2 1 0 0 0,-3 12 0 0 0,-1 10 634 0 0,6-28-1129 0 0,-26 302 4138 0 0,25-331-3931 0 0,0 13-278 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,5-27 0 0 0,0 12-38 0 0,-6 25 39 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 1 0 0,3-7-1 0 0,-2 7 3 0 0,1-2-2 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,13-7 0 0 0,16-7 9 0 0,68-26 0 0 0,-86 38-19 0 0,-15 6-98 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,3 1 0 0 0,-20 20-5230 0 0,5-12 3865 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-15 5 1 0 0,13-5 218 0 0,-13 6-717 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2277.92">1781 757 652 0 0,'-1'2'311'0'0,"-1"1"1"0"0,1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,2 5 0 0 0,3 3 758 0 0,0 0 0 0 0,0 0 0 0 0,14 16 0 0 0,-1-3 1097 0 0,-14-16-1624 0 0,1 0-1 0 0,1-1 1 0 0,12 11-1 0 0,13 13 32 0 0,-30-28-608 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 0 0 0,-2-1-153 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-2-1 0 0,-1 1 0 0 0,12-3 1 0 0,-2-1-192 0 0,1 0 1 0 0,-1-2 0 0 0,0 0-1 0 0,26-14 1 0 0,92-61-239 0 0,-54 31 606 0 0,-1 5 905 0 0,-90 52-447 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-17 17 1 0 0,22-20-423 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-4 17 0 0 0,6-23-20 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,3 1 0 0 0,-1 0 10 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,4 0 0 0 0,5 0 29 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,21-2 0 0 0,-23 0-43 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,10-7 1 0 0,-14 8-2 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-5-1 0 0,-1-1-25 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-8-9-1 0 0,-6-8-102 0 0,-29-33-1 0 0,36 46 108 0 0,-112-113 18 0 0,65 69 122 0 0,54 53-108 0 0,-9-12-21 0 0,12 14-24 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,106-6-9070 0 0,-76 3 6856 0 0,6 0 305 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2617.1">2881 376 804 0 0,'64'-25'3099'0'0,"-36"15"-1155"0"0,-1-1 0 0 0,33-18 1 0 0,-60 29-1885 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-7 13 1491 0 0,-15 17-602 0 0,22-30-876 0 0,-12 17 543 0 0,1 1-1 0 0,-9 20 0 0 0,4-8 35 0 0,-97 218 2644 0 0,60-121-2914 0 0,-43 88-198 0 0,56-122-2404 0 0,63-110-9678 0 0,15-17 6403 0 0,-23 17 3541 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3562.95">3106 877 276 0 0,'6'-3'474'0'0,"-1"2"1"0"0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,11 1-1 0 0,10-2 954 0 0,-7 0-346 0 0,-15 2-740 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,6-5-1 0 0,-10 6-312 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-26-6 292 0 0,18 5-213 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,-14 6 0 0 0,8-3 119 0 0,1 1-1 0 0,0 1 1 0 0,1 1 0 0 0,-24 18 0 0 0,35-25-213 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 4-1 0 0,2-5-4 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 3-1 0 0,0 0 2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,6 0-1 0 0,18 4-87 0 0,0-2-1 0 0,1 0 1 0 0,0-3 0 0 0,46-1-1 0 0,-34-5-423 0 0,0-1 0 0 0,64-19 0 0 0,-85 19 394 0 0,0-1-1 0 0,-1-2 0 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,29-21 1 0 0,-44 29 125 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,2-6 0 0 0,-4 9-8 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-27-2 169 0 0,17 2-154 0 0,-1 1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-15 9 0 0 0,20-9-18 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 9 0 0 0,5-13-31 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,3 3-1 0 0,-1-1-59 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,6 0 0 0 0,0-2-226 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,16-7 0 0 0,2-3-489 0 0,46-28-1 0 0,-62 32 804 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,16-23 0 0 0,-13 18 259 0 0,-6 5 456 0 0,-1 0 1 0 0,9-16-1 0 0,-12 19 35 0 0,-1 4-71 0 0,-2 0 531 0 0,-9 9-676 0 0,-11 16-31 0 0,8-7-322 0 0,5-7-61 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-4 12 0 0 0,-17 67 597 0 0,21-68-620 0 0,4-18-78 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 3-1 0 0,-3-5-6 0 0,2 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,44-33 175 0 0,10-17-193 0 0,-12 14-13 0 0,-8 9 1 0 0,48-39-38 0 0,-42 36 30 0 0,-27 20 14 0 0,29-15 0 0 0,-15 9-1414 0 0,-48 19-9164 0 0,6 0 8040 0 0,-1 3 364 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3902.11">3966 883 584 0 0,'-11'4'1245'0'0,"4"-2"-679"0"0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-7 6-1 0 0,12-11-462 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1 1-1 0 0,29 28 1604 0 0,-27-27-1455 0 0,126 93 3720 0 0,-56-42-2905 0 0,-39-30-856 0 0,1 1-1174 0 0,-18-3-4548 0 0,-17-19 3370 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5275.48">2641 547 628 0 0,'5'-8'754'0'0,"5"-2"317"0"0,3-1-198 0 0,-12 9-697 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,4-2 1 0 0,29-12 3412 0 0,-35 15-3533 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-21 0 687 0 0,-73 11-1515 0 0,-126 25-6993 0 0,150-23 5628 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:30.270"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">511 270 300 0 0,'0'3'989'0'0,"5"-15"-854"0"0,24-33 441 0 0,17-24 504 0 0,-45 68-1041 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-3-2 0 0 0,-3-5 189 0 0,0 0 0 0 0,-1 1 0 0 0,-13-10 0 0 0,20 17-220 0 0,-6-6 63 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-19-1 1 0 0,15 4 114 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,1 2-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-17 16 0 0 0,10-6-60 0 0,1 1 0 0 0,0 0 1 0 0,2 1-1 0 0,0 0 0 0 0,1 2 0 0 0,1-1 1 0 0,1 2-1 0 0,0 0 0 0 0,-7 24 0 0 0,6-9-41 0 0,1 1 1 0 0,2 1-1 0 0,1-1 0 0 0,-4 70 0 0 0,11-79-82 0 0,1 1 1 0 0,1-1-1 0 0,9 55 0 0 0,-8-75-84 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,13 9-1 0 0,-13-12-40 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,7 1 0 0 0,-4-1-93 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,13-6 1 0 0,5-4-434 0 0,-1-2 1 0 0,0-1-1 0 0,35-25 1 0 0,-61 39 622 0 0,103-76-1278 0 0,17-10 940 0 0,-93 68 477 0 0,-16 10 48 0 0,-1 1 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,1 0 1 0 0,15-3-1 0 0,-28 8-129 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,2 1 1 0 0,-2 0 34 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,-2 7 206 0 0,0 0 1 0 0,-7 22-1 0 0,7-29-158 0 0,-1 10 13 0 0,0-1 1 0 0,1 1 0 0 0,1 0-1 0 0,0 21 1 0 0,1-37-127 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,2 1 0 0 0,1-1 1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,6-5-1 0 0,18-15-22 0 0,-2-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,-2-1 1 0 0,21-30-1 0 0,34-52-35 0 0,-58 88 32 0 0,-20 20 22 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-8 15 74 0 0,4-7-35 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 17 0 0 0,1-4 18 0 0,0-18-46 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 5 0 0 0,0-4 5 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,4 3 1 0 0,-5-6-14 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,18-9 30 0 0,-18 8-33 0 0,10-5-3 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-2-1 0 0,15-14 1 0 0,44-55 3 0 0,-54 59 14 0 0,14-16 11 0 0,-42 57 339 0 0,2-5-42 0 0,-13 27 0 0 0,19-31-203 0 0,-2 2-26 0 0,1-1 1 0 0,1 1-1 0 0,0 1 0 0 0,-3 19 0 0 0,8-31-88 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,5 3-1 0 0,-3-3-32 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,9-1 1 0 0,3-2-252 0 0,0-1 1 0 0,24-9 0 0 0,-9-2 49 0 0,-1-1-1 0 0,-2-1 1 0 0,1-2 0 0 0,-2 0 0 0 0,32-32-1 0 0,-29 25 198 0 0,6-5 70 0 0,-23 20 107 0 0,-12 10 12 0 0,-6 5 77 0 0,-10 12-78 0 0,0 0 0 0 0,1 0 1 0 0,0 2-1 0 0,1-1 0 0 0,-19 35 1 0 0,25-38-84 0 0,1 0 1 0 0,-8 28 0 0 0,6-18-36 0 0,6-17-33 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3 9 0 0 0,-3-15-3 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,2 0 2 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,4-3-1 0 0,29-32-27 0 0,-16 12 2 0 0,-1-2 1 0 0,-2 1-1 0 0,-1-2 1 0 0,-1 0-1 0 0,-1-1 1 0 0,15-51-1 0 0,-27 80 21 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-11 9 10 0 0,-13 21 45 0 0,19-18-38 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-6 22-1 0 0,8-28-13 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,4 10 0 0 0,-3-11-55 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,7 0 1 0 0,0-1-96 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,11-8 0 0 0,2-3 52 0 0,-1-1 1 0 0,-1 0 0 0 0,31-32-1 0 0,50-65 223 0 0,-49 52 163 0 0,-13 15 305 0 0,-32 35-372 0 0,-2 4 479 0 0,-4 17-3 0 0,-2-3-514 0 0,-2 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-4 10 1 0 0,-6 20 343 0 0,5 0-59 0 0,1 1-1 0 0,-1 60 0 0 0,7-68-405 0 0,1 0-1 0 0,7 42 0 0 0,-2-40 7 0 0,-6-62-89 0 0,-2 0 0 0 0,-1 0 0 0 0,-8-30 0 0 0,-23-31-339 0 0,21 55 208 0 0,-24-46 1 0 0,22 50 136 0 0,15 30 9 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,2 1-3 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,4 0 0 0 0,5-1 12 0 0,3 0-1 0 0,47-5-17 0 0,89 4 0 0 0,-145 2 11 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,5 3-1 0 0,-8-4 10 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 4 1 0 0,-13 39 247 0 0,7-27-200 0 0,2 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-3 34 1 0 0,7-51-58 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-2-2-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,1-2 0 0 0,9-2-6 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,16-11 0 0 0,0-2-3 0 0,-2-1 0 0 0,0-2 0 0 0,-1 0-1 0 0,-1-2 1 0 0,-1 0 0 0 0,-2-2 0 0 0,0-1 0 0 0,34-56 0 0 0,-46 63 9 0 0,-10 20-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-5 5 26 0 0,0 0 0 0 0,0-1 0 0 0,0 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-4 6 0 0 0,2-3 35 0 0,1-1-26 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,1 0 1 0 0,0 9 0 0 0,0-14-29 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,5 0 0 0 0,-2-1 0 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,8-4 0 0 0,-2 1-2 0 0,-1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,9-11 1 0 0,0 0-6 0 0,-2-1 0 0 0,23-34 1 0 0,-33 44-3 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,3-21 1 0 0,-1 10-8 0 0,-1-5-30 0 0,-6 29 48 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-2 2 0 0 0,-1 2 17 0 0,-2 5 43 0 0,-1 0 0 0 0,-8 20 1 0 0,14-27-54 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,1 4 0 0 0,2 4 12 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,18 14-1 0 0,-21-19-22 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,9-4 0 0 0,-2 0-6 0 0,0-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-2 0 1 0 0,1 0-1 0 0,-2-1 1 0 0,8-22-1 0 0,-8 22-1 0 0,-2 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-29-1 0 0,-4 41 6 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-4 1 28 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-5 4 0 0 0,-2 3 131 0 0,0 0 1 0 0,1 0-1 0 0,0 2 0 0 0,1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,1-1 1 0 0,-11 25-1 0 0,16-32-80 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,8 6 0 0 0,3 2 12 0 0,1-2 1 0 0,1 0-1 0 0,0-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,2-2 0 0 0,0 0 1 0 0,22 5-1 0 0,11 1-546 0 0,104 12 0 0 0,64-10-3332 0 0,-159-16 1055 0 0,0-3 1 0 0,0-2-1 0 0,79-18 0 0 0,-69 5 432 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.6">4692 414 212 0 0,'0'1'174'0'0,"0"-1"0"0"0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,7-11 2009 0 0,20-7-1086 0 0,-26 18-1135 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 2 1 0 0,1 1-826 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 6 1 0 0,2 4-937 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="742.52">4902 774 496 0 0,'0'9'2120'0'0,"-5"0"244"0"0,0-3 101 0 0,0 0-689 0 0,5 0-872 0 0,0-3-476 0 0,0 0-156 0 0,0 0-236 0 0,0 3-472 0 0,5-6-552 0 0,0 3-844 0 0,0 0-393 0 0,-5 0-99 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:32.325"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">71 205 640 0 0,'-2'-5'450'0'0,"1"0"1"0"0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1-6 1 0 0,0 10-396 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 0 0 0 0,4 0 144 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,6 4-1 0 0,-9-5-112 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2 6 1 0 0,-2 8 278 0 0,-1 1-1 0 0,-1-2 1 0 0,-1 1 0 0 0,-17 32 0 0 0,-47 63 560 0 0,44-72-667 0 0,-26 50-1 0 0,48-80-233 0 0,-6 11 23 0 0,-10 30 0 0 0,18-45-41 0 0,1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,2 13-1 0 0,-2-18-3 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,4 0 0 0 0,2 1 4 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,14-3 1 0 0,-12 2-7 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-3-12 0 0 0,-1 4-13 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-2 0-1 0 0,-14-24 1 0 0,-60-74-65 0 0,39 57 62 0 0,29 41 9 0 0,10 12 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-2-1 0 0,0 1 1 0 0,0 0-1 0 0,-4-14 1 0 0,8 20 5 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-2 0 0 0,0 1-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,4-1 0 0 0,1 0-172 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,9 3 0 0 0,113 29-9261 0 0,-103-26 7373 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="514.63">825 76 892 0 0,'0'-1'175'0'0,"0"0"-1"0"0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-3-2 1 0 0,2 2-15 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-2 2 0 0 0,-3 2 326 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-7 6 0 0 0,-7 12 172 0 0,1 0 1 0 0,2 1 0 0 0,0 0 0 0 0,-22 50 0 0 0,33-62-549 0 0,1 0 1 0 0,0-1-1 0 0,-3 19 1 0 0,6-25-87 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,4 9 0 0 0,-3-12-21 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,5 2 1 0 0,-3-2-2 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,6 0 1 0 0,-1-2-2 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,16-13 0 0 0,-7 3-17 0 0,0-2 0 0 0,-2 0-1 0 0,18-21 1 0 0,-26 26 25 0 0,-1 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,8-24 0 0 0,-9 25 54 0 0,2-13 621 0 0,-7 25-674 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-14 8 545 0 0,8-3-335 0 0,0 0 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,-3 10 0 0 0,-24 61 536 0 0,29-69-707 0 0,-4 11-87 0 0,2-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-2 31-1 0 0,5-38-1382 0 0,1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,5 19-1 0 0,-6-32 1205 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,13-5-1708 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="843.63">1356 106 108 0 0,'1'-14'1935'0'0,"-1"-3"1876"0"0,-5 16-2483 0 0,-6 9-1070 0 0,9-6-221 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,6-1 0 0 0,-6 1-14 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3-3 0 0 0,2 2 6 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-3 0 1 0 0,2 1-112 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-7 7 0 0 0,8-8-248 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 3 0 0 0,4 3-1551 0 0,4-3 263 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1368.29">1690 31 516 0 0,'18'-17'2294'0'0,"-5"3"1291"0"0,-30 22-1047 0 0,3 3-2037 0 0,0 1 1 0 0,0 0 0 0 0,1 1-1 0 0,-19 25 1 0 0,31-37-484 0 0,-94 130 1353 0 0,59-79-1128 0 0,3 0 0 0 0,2 2-1 0 0,-29 72 1 0 0,50-102-251 0 0,2 0-1 0 0,1 0 0 0 0,-7 40 1 0 0,13-58-40 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,4 8 0 0 0,-6-10-4 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,5-3 0 0 0,2-1 56 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,14-15 97 0 0,-27 25 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-4 7 0 0 0,7-9-93 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,2-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,3 5-1 0 0,-1-5-5 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,5 0-1 0 0,1 0-2 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,13-8 0 0 0,-15 9 33 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-9 0 0 0,-1 8 94 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-5-10 1 0 0,7 15-119 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-2 1 1 0 0,-2 1-358 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-6 5 0 0 0,7-7-447 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 4 0 0 0,1 4-1546 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:34.256"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 401 148 0 0,'-34'-2'4917'0'0,"28"-1"-2037"0"0,23 0-2193 0 0,51 0-1264 0 0,0 3 1 0 0,83 11-1 0 0,-144-10 321 0 0,82 10-4858 0 0,-74-8 3874 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="336.19">260 539 344 0 0,'-25'7'2785'0'0,"-39"17"0"0"0,44-16-1654 0 0,19-8-1096 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,21 10 1113 0 0,-22-10-1146 0 0,21 6-2 0 0,0-1-1 0 0,1-1 0 0 0,22 2 0 0 0,-3-1-1204 0 0,-20-3-284 0 0,0-2 1 0 0,0 0-1 0 0,0-1 0 0 0,26-5 1 0 0,-45 6 1383 0 0,30-4-1561 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="675.12">1215 224 1020 0 0,'-4'0'371'0'0,"1"0"-1"0"0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-3 4 1 0 0,-4 5 157 0 0,0 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,2 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-5 20 0 0 0,3-4-201 0 0,1 1 1 0 0,2 0-1 0 0,-1 61 1 0 0,5-84-312 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,11 4 0 0 0,-9-3-11 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-2-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,19-9 0 0 0,-14 3-6 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0-1 0 0 0,-2 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-2-1-1 0 0,14-24 0 0 0,-18 27-2 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-6-20 0 0 0,2 19 109 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-2 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0 1 1 0 0,-1 0 0 0 0,-20-9-1 0 0,20 11 47 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-20 1 0 0 0,27 1-132 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-9 15 1 0 0,5-6-100 0 0,2 0 0 0 0,0 0-1 0 0,1 1 1 0 0,1 0 0 0 0,0 1-1 0 0,2 0 1 0 0,0 0 0 0 0,-6 36 0 0 0,8-27-1321 0 0,2-1 1 0 0,0 0 0 0 0,1 1-1 0 0,2-1 1 0 0,9 46 0 0 0,-6-50-725 0 0,2-2 1 0 0,8 21-1 0 0,-14-39 1988 0 0,14 34-2637 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1013.65">1926 701 1460 0 0,'7'-4'1101'0'0,"-3"1"-276"0"0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,6-1-1 0 0,-11 3-790 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 12 927 0 0,-10 11 459 0 0,11-21-1169 0 0,-22 41 1538 0 0,-34 90 1 0 0,49-113-2114 0 0,-17 61-318 0 0,23-71-1341 0 0,0 1 1 0 0,0-1-1 0 0,1 13 0 0 0,16-22-5835 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1349.36">2105 581 972 0 0,'0'-4'795'0'0,"0"0"0"0"0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-6-1 0 0,-1 6-614 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,4-4 0 0 0,24-27 710 0 0,-2-2-1 0 0,29-46 0 0 0,-47 66-796 0 0,6-12 260 0 0,-1 0-1 0 0,-2-1 1 0 0,-1 0-1 0 0,-1-1 1 0 0,-1-1-1 0 0,12-60 1 0 0,-23 88-297 0 0,3-9 544 0 0,0 0-1 0 0,-1-1 1 0 0,0-17 0 0 0,-2 30-587 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-9 6 356 0 0,-8 12 153 0 0,5 2-88 0 0,0 1 1 0 0,2 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-7 29-1 0 0,-18 117 1553 0 0,30-147-1786 0 0,-5 38 4 0 0,2 0 0 0 0,3 0 0 0 0,6 96 0 0 0,-2-148-301 0 0,1 7-578 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,6 14 0 0 0,-9-28 469 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,6-3-1148 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,6-7-1 0 0,-10 10 1068 0 0,22-21-2063 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1769.16">2855 110 740 0 0,'22'-35'2344'0'0,"-17"28"-1657"0"0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,5-13 0 0 0,-9 19-591 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0-10 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-2 1 1 0 0,-24 12 1494 0 0,-4 9-756 0 0,1 2 1 0 0,1 1-1 0 0,1 1 1 0 0,1 1-1 0 0,2 1 1 0 0,-37 56-1 0 0,38-47-480 0 0,3 0 0 0 0,0 2 0 0 0,3 0 0 0 0,1 1 0 0 0,-17 67 0 0 0,27-80-289 0 0,1 0-1 0 0,-3 53 1 0 0,8-64-49 0 0,0-1 1 0 0,1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,8 22 1 0 0,-9-31-7 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,8 2 0 0 0,-6-2 5 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,15-8-1 0 0,-10 3 20 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-2-1 0 0,-1 1 1 0 0,-1-1-1 0 0,13-29 1 0 0,-18 37 116 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-2-8-1 0 0,2 11-85 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-3 0 0 0 0,-8 0-237 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,2 1 0 0 0,-14 7 1 0 0,-5 4-3245 0 0,0 1 1 0 0,-38 29-1 0 0,4 7-4340 0 0,34-26 4749 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3403.27">640 413 700 0 0,'0'0'248'0'0,"0"-1"1"0"0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1-163 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,15 50 1956 0 0,35 80-1975 0 0,-44-118-494 0 0,-5-8-88 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,6 7 1 0 0,-8-11 325 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-2-1 0 0,1-7-1022 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3745.2">781 521 240 0 0,'-6'-19'1332'0'0,"5"14"-910"0"0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,-4-7-1 0 0,6 12-363 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-15 29 1223 0 0,0 22-714 0 0,-4 9-579 0 0,14-49-649 0 0,1-1 0 0 0,-2 1 1 0 0,0-1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-10 12 1 0 0,2-8-1210 0 0,0 0 72 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3746.2">501 650 848 0 0,'10'-9'1264'0'0,"5"0"44"0"0,0 3-552 0 0,10-3-376 0 0,5 3-136 0 0,0 0-52 0 0,10-3-28 0 0,0 3-36 0 0,0 3-116 0 0,10-3-296 0 0,0 3-660 0 0,0-3-288 0 0,5 3-120 0 0,-5 3 24 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:40.162"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">197 810 1360 0 0,'11'-155'6259'0'0,"-8"125"-3052"0"0,9-39-1 0 0,-11 67-2936 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,1-1-1 0 0,-3 2-209 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,2 10 240 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-3 13 0 0 0,-21 66 158 0 0,15-56-326 0 0,-109 304 4 0 0,119-337-137 0 0,-33 88-23 0 0,-34 153 1 0 0,67-241 24 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1 2 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,34-34 63 0 0,-7 1-828 0 0,-1-2 0 0 0,-2-1 1 0 0,22-43-1 0 0,-34 52-2489 0 0,-2 0-1 0 0,18-58 1 0 0,-6-12-3760 0 0,-14 48 4095 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.03">343 51 4 0 0,'0'-2'455'0'0,"0"-1"0"0"0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-4 0 0 0,2 4 164 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0-4 0 0 0,10 19 287 0 0,33 132-3864 0 0,-18-37-2480 0 0,-14-71 3913 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="680.83">692 780 1380 0 0,'-2'0'10467'0'0,"47"1"-10344"0"0,1 1 1 0 0,0 2-1 0 0,68 16 0 0 0,-49-4-5024 0 0,86 10 0 0 0,-106-23 2919 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1081.83">1662 465 672 0 0,'-8'-21'2187'0'0,"-16"-33"0"0"0,17 39-1213 0 0,-1-1 1 0 0,2 0-1 0 0,0 0 0 0 0,-4-19 1 0 0,10 33-916 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 0 0 0 0,3-3 98 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,15-1-1 0 0,0 2-73 0 0,1 1-1 0 0,-1 2 0 0 0,0 0 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 2 0 0 0,38 12 0 0 0,-49-14-46 0 0,0 1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-2 2 1 0 0,18 15 0 0 0,-24-20 62 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-4 6-1 0 0,-7 13 573 0 0,-2-2 0 0 0,0 0 0 0 0,-2 0-1 0 0,-34 36 1 0 0,16-20-89 0 0,-14 15-63 0 0,20-23-366 0 0,-29 41 0 0 0,-17 43-2203 0 0,-18 68-12431 0 0,72-134 11357 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.83">1742 1824 80 0 0,'10'3'3180'0'0,"-5"-6"577"0"0,5-3 211 0 0,-5 3-56 0 0,0 0-2267 0 0,-5 6-1862 0 0,0 3-1695 0 0,5 3-1224 0 0,-5 0-396 0 0,0 9 107 0 0,0 0 537 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:40:47.337"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">117 210 84 0 0,'-4'-25'1512'0'0,"0"1"0"0"0,-1 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,-2 1 0 0 0,-14-30-1 0 0,22 53-1438 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0-15 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,-10 44 1522 0 0,10-39-1262 0 0,-9 60 738 0 0,4 1 0 0 0,2 0 1 0 0,6 86-1 0 0,38 389 1252 0 0,3 99-923 0 0,58 1474-615 0 0,-83-1837-761 0 0,23 302-54 0 0,-31-458 12 0 0,71 1127-125 0 0,-81-1240 158 0 0,5 587 14 0 0,-18 196 76 0 0,36-4-149 0 0,87 140-1257 0 0,-100-876 93 0 0,2-1 1 0 0,2-1 0 0 0,25 63 0 0 0,-34-105 463 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,11 10 0 0 0,-15-16 427 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-2 0 0 0,24-14-2496 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:08.534"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">495 141 100 0 0,'0'-4'586'0'0,"10"-19"11672"0"0,-16 81-7994 0 0,2-29-3243 0 0,-13 79 1368 0 0,-6 72 729 0 0,8-74-2134 0 0,1 3-402 0 0,9-51-339 0 0,-1 23 72 0 0,5-17-84 0 0,2 54 195 0 0,2-57-201 0 0,-1-4 201 0 0,18 104 1 0 0,-5-85-64 0 0,20 79 479 0 0,-19-101-460 0 0,-11-45-319 0 0,-5-8-52 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 2-1 0 0,0-9-1388 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-4-8-1 0 0,-9-28-6574 0 0,5-38 318 0 0,1 30 5053 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="737.56">145 201 320 0 0,'-24'-21'4658'0'0,"18"15"-2868"0"0,5 5-1660 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-2 0 1 0 0,-27-17 6178 0 0,5-2-1912 0 0,21 17-3623 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-4-5 0 0 0,0 2-114 0 0,7 6-604 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-2-1 0 0,1 2 143 0 0,16 0 17 0 0,34-2-118 0 0,57-11 1 0 0,-9 1-14 0 0,98-6 31 0 0,247-16-61 0 0,-389 32-293 0 0,1 3 0 0 0,85 10 0 0 0,-138-10 55 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3 3 1 0 0,-4-3-64 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,-6 9-1634 0 0,0-2 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-22 14 0 0 0,3-2-549 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.63">139 1803 432 0 0,'0'0'995'0'0,"10"-12"4317"0"0,-9 11-5011 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,-2-4 3647 0 0,4 4-3830 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-12-3 3079 0 0,12 2-3111 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-2-1 0 0 0,-20 4 283 0 0,20-4-221 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 2 1 0 0,10-2 127 0 0,0 0 467 0 0,7 1 17 0 0,38 4-315 0 0,1-2-1 0 0,-1-2 1 0 0,84-7-1 0 0,-58 1-272 0 0,177-9 22 0 0,405-1-899 0 0,-615 15-92 0 0,100 8-1898 0 0,-70 3-4144 0 0,-3 8-7856 0 0,-49-14 11037 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3073.59">2610 597 504 0 0,'-20'7'9720'0'0,"20"-7"-9641"0"0,10 5 920 0 0,-4-3-749 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,9-2-1 0 0,3 0 61 0 0,56-2 87 0 0,12-1-1266 0 0,172 11-1 0 0,-104 10-9912 0 0,-139-13 8903 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3802.37">2620 1062 72 0 0,'0'0'170'0'0,"-1"0"1"0"0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,13-1 4625 0 0,11 0-3287 0 0,201-11 1393 0 0,36 1-4400 0 0,37 16-9514 0 0,-233-6 8798 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:05:50.968"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 2 132 0 0,'-5'-1'8228'0'0,"32"8"-5658"0"0,158 0-725 0 0,36 1-1452 0 0,2 0-95 0 0,-91-7-265 0 0,170-3-91 0 0,-129-1 117 0 0,56-3-8 0 0,171-4-89 0 0,-45 7 142 0 0,-217 5 224 0 0,-161 7-4876 0 0,-29 4-1079 0 0,8-6 2957 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:15.017"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">394 470 308 0 0,'-4'-6'8017'0'0,"4"6"-7871"0"0,-10 8 783 0 0,4-2-320 0 0,3-2-336 0 0,-1-1 2 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-5 1-1 0 0,-12 5 1302 0 0,-1-7 1344 0 0,22-2-2856 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-5-7 943 0 0,4 7-902 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0-2 0 0 0,1 2-51 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,1-1 0 0 0,3-1 59 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,7-2-1 0 0,6-4 93 0 0,-5 3-86 0 0,1 0-1 0 0,0 2 0 0 0,1-1 1 0 0,-1 2-1 0 0,1 0 0 0 0,27-3 1 0 0,-33 6-94 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,17 6 1 0 0,-20-6 3 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,5 13 1 0 0,-3-5 47 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,-1 0 1 0 0,4 25-1 0 0,-6-24-10 0 0,-2 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,-2 0 0 0 0,0 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,-2 0 0 0 0,-8 15 0 0 0,-12 15 156 0 0,-2 0 1 0 0,-46 54 0 0 0,22-32-30 0 0,29-38-86 0 0,-43 41 0 0 0,-11 11 35 0 0,-46 45 75 0 0,109-112-193 0 0,-29 32 63 0 0,27-32-44 0 0,-19 23 0 0 0,-3 2 64 0 0,0-6 36 0 0,39-33-137 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,8-2 155 0 0,265-10 329 0 0,-2 1-361 0 0,-160 10-99 0 0,-108 0-165 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,2 3 0 0 0,12 12-7012 0 0,-15-16 6496 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,2-1 1 0 0,11-2-2339 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.22">1579 689 724 0 0,'-8'-1'3170'0'0,"11"1"-828"0"0,16 4-570 0 0,-7 4-930 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,17 19-1 0 0,31 45 726 0 0,-57-70-1509 0 0,130 171 1784 0 0,-121-161-1794 0 0,25 35 2 0 0,80 82 0 0 0,-98-113-464 0 0,-13-12-175 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,9 6 1 0 0,-14-9 357 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,20-19-3726 0 0,-11 6 2096 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="880.06">2185 641 1500 0 0,'0'-1'155'0'0,"-1"0"0"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-5 5 225 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-7 13 0 0 0,6-11 306 0 0,-13 25 251 0 0,-20 41-1 0 0,11-16-315 0 0,-104 224 1221 0 0,116-245-1845 0 0,7-16-60 0 0,3-5-334 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,-19 25-1 0 0,27-40 3 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-3 0 0 0 0,-13-2-1760 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.02">1409 1217 1040 0 0,'2'0'794'0'0,"1"-1"0"0"0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,2 0 1 0 0,0-1-166 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6-1 0 0 0,503-94 5893 0 0,-201 59-7063 0 0,-103 20-1113 0 0,-173 16 223 0 0,30-3-3630 0 0,-57 4 3548 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,8-4-1 0 0,-6 1-589 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3680.04">4024 215 272 0 0,'6'-15'1062'0'0,"0"0"0"0"0,3-20 0 0 0,4-8 340 0 0,-11 36-1014 0 0,0-1 0 0 0,-1 1-1 0 0,1-14 1 0 0,1-5 956 0 0,-2 25-1167 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-3-2 0 0 0,3 2-109 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-26 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2 1 0 0 0,-33 43 1780 0 0,-52 87 0 0 0,-16 61-241 0 0,42-78-839 0 0,-245 375 1076 0 0,204-336-1383 0 0,-3-1 347 0 0,95-139-661 0 0,8-12-70 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 3 0 0 0,2-5 187 0 0,16-7-3 0 0,158-47-1677 0 0,-50 19-5070 0 0,-106 27 5324 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,19-22 0 0 0,-12 8-172 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4015.25">3815 935 1108 0 0,'4'-8'836'0'0,"0"0"-1"0"0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0-11 484 0 0,-12 36 681 0 0,4-1-1306 0 0,-23 51 1465 0 0,4 2 0 0 0,-24 97 0 0 0,-6 87-2341 0 0,52-231-2721 0 0,7-34-4421 0 0,-2 7 6584 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,4-4 0 0 0,0-1-42 0 0,12-20-905 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4963.51">4489 272 692 0 0,'2'-5'668'0'0,"-1"0"0"0"0,2 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,6-7 0 0 0,-6 9-576 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,6 0 1 0 0,-2 0 79 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,9 4 1 0 0,-14-5-105 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 4 1 0 0,0 4 148 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-7 10 0 0 0,-11 16 785 0 0,-53 65 0 0 0,75-102-993 0 0,-137 164 1524 0 0,-45 56-364 0 0,137-160-834 0 0,-65 117 1 0 0,95-149-309 0 0,2 0 1 0 0,1 1 0 0 0,2 1-1 0 0,1 0 1 0 0,-10 46 0 0 0,18-68-22 0 0,2 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,5 13-1 0 0,-5-18 1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,5 0-1 0 0,3 0 6 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0-2 0 0 0,13-4 0 0 0,-8 0 3 0 0,-1 1 0 0 0,0-2 1 0 0,-1 0-1 0 0,0-1 0 0 0,25-22 1 0 0,-21 14-5 0 0,-1 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,-2 0-1 0 0,0-2 0 0 0,-2 0 1 0 0,0 0-1 0 0,18-47 0 0 0,-27 57-10 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-2-15 0 0 0,-1 10-9 0 0,-1 1 1 0 0,0-1-1 0 0,-2 1 0 0 0,0 0 1 0 0,-15-28-1 0 0,-7-3-24 0 0,-2 2-1 0 0,-2 1 1 0 0,-47-50-1 0 0,44 54 19 0 0,15 18-6 0 0,1-1 0 0 0,0 0-1 0 0,2-2 1 0 0,2 0 0 0 0,-15-31 0 0 0,29 56 8 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,2 0-1 0 0,8-4-117 0 0,1 2 0 0 0,-1-1 0 0 0,1 2 0 0 0,22-3 0 0 0,-23 4 9 0 0,50-5-1098 0 0,90 3 0 0 0,64 15-1198 0 0,-127-6 1624 0 0,398 48-1365 0 0,-451-44 2189 0 0,-36-9-23 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 8 102 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,-15 11 0 0 0,-11 11 132 0 0,14-10-210 0 0,-25 25 233 0 0,-61 74-1 0 0,94-103-227 0 0,0 1 0 0 0,1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,2 0 1 0 0,-1 1-1 0 0,2 1 1 0 0,1-1-1 0 0,-7 33 1 0 0,11-42-36 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,13 1-1 0 0,-5-1 2 0 0,1-1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1-2-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-2-1 0 0,26-8 1 0 0,-20 3 8 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 1 0 0,1-1-1 0 0,31-26 0 0 0,-28 18-16 0 0,-1-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1-2-1 0 0,-1 0 1 0 0,19-46 0 0 0,-25 46 43 0 0,0-1 0 0 0,-2 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,-2 1 0 0 0,-1-1 0 0 0,0-48 0 0 0,-4 62 75 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-9-17 0 0 0,8 21 15 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-13-8 0 0 0,14 11-100 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-14 4-1 0 0,8 1-17 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 2-1 0 0,-22 17 1 0 0,10-5-5 0 0,1 1-1 0 0,1 0 1 0 0,1 2 0 0 0,1 1 0 0 0,2 1 0 0 0,-30 50-1 0 0,37-52-306 0 0,0-1 0 0 0,2 2 0 0 0,1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,2 0 0 0 0,0 0 0 0 0,-2 45 0 0 0,7-61-70 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,7 16 0 0 0,-5-16-102 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,18 3 1 0 0,17 3-852 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5808.07">5959 854 252 0 0,'18'-23'815'0'0,"2"-2"1021"0"0,26-42 1 0 0,-42 59-1291 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,2-19 1 0 0,-3 28-502 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 0 0 0 0,0 1 13 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-3 1-1 0 0,-3 0 93 0 0,0 1 1 0 0,0 0 0 0 0,1 1-1 0 0,-9 3 1 0 0,0 1-46 0 0,1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-9 19 0 0 0,11-16-76 0 0,0 0 1 0 0,2 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-2 25-1 0 0,6-32-28 0 0,2 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,7 17 0 0 0,-6-18-27 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1 0 0 0,14 6-1 0 0,-9-5-9 0 0,0-1 0 0 0,-1-1 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,28-5-1 0 0,-14-1 26 0 0,0-2 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1-2-1 0 0,0 0 1 0 0,-2-2 0 0 0,0 0 0 0 0,0-2 0 0 0,-2 0 0 0 0,0-2 0 0 0,18-24 0 0 0,-24 26 12 0 0,-1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-2 0-1 0 0,7-24 0 0 0,-11 28 26 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-6-30 0 0 0,4 34 86 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-2 1-1 0 0,1 1 1 0 0,-2-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-23-19 1 0 0,24 23-68 0 0,-1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-18 3 0 0 0,11 2-23 0 0,1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0 0 0 0 0,1 2-1 0 0,0 0 1 0 0,0 2-1 0 0,1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-17 20-1 0 0,14-12-22 0 0,0 0 0 0 0,2 1-1 0 0,1 1 1 0 0,0 1 0 0 0,2 0-1 0 0,1 1 1 0 0,1 0 0 0 0,1 1-1 0 0,-8 33 1 0 0,14-42-123 0 0,2 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,2-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,10 33 0 0 0,-9-39-52 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1-1 0 0 0,0 1 0 0 0,15 7 0 0 0,-9-6-63 0 0,1-2-1 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,31 3 0 0 0,-22-6 62 0 0,-1 0 0 0 0,0-2 0 0 0,-1-1 0 0 0,1-1 0 0 0,43-12 1 0 0,-24 1 117 0 0,-1-2 1 0 0,-1-2-1 0 0,0-2 1 0 0,-2-2 0 0 0,0-2-1 0 0,62-49 1 0 0,-63 40 462 0 0,-1-1 0 0 0,-2-2 0 0 0,-2-2 0 0 0,38-52 0 0 0,-68 83-93 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,5-14 0 0 0,-9 22-297 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-2-1 0 0 0,1 0 6 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-2 1 0 0 0,-34 10 231 0 0,25-4-199 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-12 14 0 0 0,10-11-14 0 0,-1 1-8 0 0,1 1 1 0 0,1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,1 1 1 0 0,1 0 0 0 0,1 0 0 0 0,-2 24-1 0 0,4-27-33 0 0,1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,2-1 0 0 0,0 0 1 0 0,0 0-1 0 0,2 0 1 0 0,-1 0-1 0 0,10 14 0 0 0,-9-17-9 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,2-1-1 0 0,-1 1 1 0 0,1-2-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,14 5-1 0 0,-8-5 10 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0-2 1 0 0,0 0 0 0 0,18-9 0 0 0,-5 0 15 0 0,0-2 0 0 0,-2 0 0 0 0,0-2 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1-2 0 0 0,31-37 0 0 0,-37 37-32 0 0,-1 0-1 0 0,-1-2 0 0 0,24-46 0 0 0,-28 44 139 0 0,-1 0 0 0 0,-1-1 0 0 0,-2-1 0 0 0,0 0 1 0 0,-2 0-1 0 0,4-45 0 0 0,-8 49 213 0 0,-2 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-2 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 1 0 0 0,-2 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,-1 1 1 0 0,0 1 0 0 0,-1 0-1 0 0,-2 0 1 0 0,-15-20 0 0 0,16 25-87 0 0,-1 1 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,0 2 1 0 0,-22-15 0 0 0,28 22-235 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1 1 1 0 0,-18 1-1 0 0,9 3-363 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1 2 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-18 21 0 0 0,3 0-2411 0 0,2 1 0 0 0,1 1 0 0 0,2 1 1 0 0,-28 54-1 0 0,19-28-463 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6690.15">8470 533 1116 0 0,'3'-1'4308'0'0,"-4"1"-4245"0"0,8 6 1206 0 0,3 10-872 0 0,46 105 2890 0 0,68 91-2541 0 0,-110-188-1071 0 0,-3-3-654 0 0,19 23 1 0 0,-24-35-67 0 0,1-1 1 0 0,0-1 0 0 0,10 8-1 0 0,-4-6-779 0 0,-2-5 154 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7025.9">9014 545 876 0 0,'-4'-53'3593'0'0,"3"49"-3237"0"0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-3-6-1 0 0,4 8-244 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-3 2 1 0 0,-4 1 257 0 0,0 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-7 8 1 0 0,3 0 9 0 0,0-1 0 0 0,1 2 0 0 0,1-1 1 0 0,1 2-1 0 0,-16 25 0 0 0,-33 83 409 0 0,48-98-676 0 0,-54 136 103 0 0,43-105-397 0 0,12-29-532 0 0,-14 28-1 0 0,14-34-201 0 0,-14 26-2816 0 0,22-45 3232 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-3 0 0 0 0,-9-1-1509 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7362.01">8205 992 1560 0 0,'0'-1'380'0'0,"0"-1"0"0"0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1-1 0 0 0,15-12 1876 0 0,29-6-1682 0 0,-31 15 354 0 0,36-14 277 0 0,1 3 0 0 0,57-11 0 0 0,109-7-790 0 0,-85 21-1392 0 0,69 4-5557 0 0,-78 4 1324 0 0,-63 2 3127 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:24.850"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">406 211 832 0 0,'-5'-14'2182'0'0,"5"14"-2090"0"0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-7 2 310 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,-10 8 0 0 0,-43 46 1069 0 0,36-35-1028 0 0,6-5-221 0 0,1 0 0 0 0,1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,2 1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,9 43 0 0 0,-3-29-180 0 0,2-1 0 0 0,1 0 0 0 0,2-1 0 0 0,18 40 0 0 0,-22-62-29 0 0,0 1 0 0 0,0-1 1 0 0,2 0-1 0 0,0 0 0 0 0,0-1 0 0 0,2-1 0 0 0,-1 0 1 0 0,2 0-1 0 0,0-1 0 0 0,0-1 0 0 0,23 15 1 0 0,-20-17 0 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-2 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-2 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-2 1 0 0,25-8-1 0 0,-15 2-1 0 0,0-1 0 0 0,-1-1-1 0 0,-1-2 1 0 0,0 0 0 0 0,0-2 0 0 0,-2-1-1 0 0,0-1 1 0 0,-1-1 0 0 0,-1 0 0 0 0,31-40 0 0 0,-27 26-22 0 0,-1-1 1 0 0,-2-1-1 0 0,-1-1 1 0 0,-3-1 0 0 0,0-1-1 0 0,19-62 1 0 0,-28 70 42 0 0,-2-1 0 0 0,-2 0 1 0 0,0 0-1 0 0,-2-1 0 0 0,-2 1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,-2 1-1 0 0,-6-37 0 0 0,5 53 66 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-23-18 0 0 0,19 19-29 0 0,-1 0 0 0 0,-1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 1-1 0 0,-21 0 1 0 0,11 2-63 0 0,1 2-1 0 0,0 1 0 0 0,0 1 0 0 0,0 1 1 0 0,0 2-1 0 0,1 0 0 0 0,0 2 1 0 0,0 1-1 0 0,1 1 0 0 0,0 2 0 0 0,0 0 1 0 0,1 2-1 0 0,-31 23 0 0 0,29-17-169 0 0,1 1 0 0 0,0 2 0 0 0,2 1 0 0 0,1 0 0 0 0,1 2 1 0 0,2 1-1 0 0,0 0 0 0 0,1 1 0 0 0,2 2 0 0 0,-25 58 0 0 0,-34 123-5518 0 0,65-171 3083 0 0,2 0-1 0 0,1 1 0 0 0,-2 58 1 0 0,9-47 365 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1027.58">1370 1057 388 0 0,'3'-3'23388'0'0,"7"5"-23054"0"0,-8-2 98 0 0,3 2-378 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 7 0 0 0,-1 0-143 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-10 10 0 0 0,-7 4-1888 0 0,-2-1 0 0 0,0-1 0 0 0,-44 25-1 0 0,-93 42-9994 0 0,160-87 11811 0 0,-42 21-2867 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1867.53">2070 676 84 0 0,'-9'4'1235'0'0,"8"-3"-948"0"0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 2 1 0 0,2-5 258 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-1 0 0 0,29-28-128 0 0,1 0 16 0 0,23-32 220 0 0,65-90-1 0 0,-96 115-357 0 0,-3-2 0 0 0,0-1-1 0 0,-3-1 1 0 0,17-45 0 0 0,-28 59 386 0 0,10-43 1 0 0,-16 56-368 0 0,2-18 558 0 0,-6 33-823 0 0,-2 9-44 0 0,-5 5 52 0 0,1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,2 0 0 0 0,-4 22-1 0 0,-3 14 412 0 0,-3 8 733 0 0,-9 94-1 0 0,9 62 803 0 0,11-183-1846 0 0,0 343 771 0 0,4-196-3113 0 0,-1-190-7500 0 0,3-2 4498 0 0,16-30-367 0 0,-5 15 3178 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2702.76">3481 148 812 0 0,'12'-4'7719'0'0,"2"-1"-4956"0"0,2-1-1777 0 0,-14 6-855 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-2-1 0 0,4-9 640 0 0,-7 11-624 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-4 0 0 0,0 5-44 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-3-2 0 0 0,2 1-18 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-5 0 1 0 0,-9 1 74 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,0 1-1 0 0,1 0 1 0 0,-15 11-1 0 0,0 2 127 0 0,1 1-1 0 0,1 1 1 0 0,1 2-1 0 0,-30 35 0 0 0,35-34-151 0 0,2 1 1 0 0,1 1-1 0 0,2 1 0 0 0,-23 48 1 0 0,22-36 34 0 0,-16 55 1 0 0,27-67-111 0 0,1 0 0 0 0,1 1-1 0 0,1 0 1 0 0,1 34 0 0 0,13 119 70 0 0,-6-150-114 0 0,2-1 0 0 0,1 0 0 0 0,22 59 0 0 0,-20-69 4 0 0,0-1 0 0 0,2 0 0 0 0,19 27-1 0 0,-21-35 0 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,1 1-1 0 0,0-2 1 0 0,28 15 0 0 0,-24-15-11 0 0,2-1 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,28 1 0 0 0,-20-4 13 0 0,0-2-1 0 0,0 0 0 0 0,0-1 1 0 0,-1-2-1 0 0,1-1 0 0 0,34-12 1 0 0,-35 8 45 0 0,-1-1 1 0 0,-1 0-1 0 0,33-22 0 0 0,-42 23 52 0 0,-1 0-1 0 0,-1-2 1 0 0,25-25-1 0 0,-26 24-2 0 0,-1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-2-1 0 0 0,8-21 1 0 0,-11 27-67 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-8-8 0 0 0,5 8-55 0 0,0 1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-23-7 0 0 0,13 6-115 0 0,0 0 1 0 0,0 2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-36 1 0 0 0,11 5-1084 0 0,0 2 0 0 0,0 2-1 0 0,1 2 1 0 0,-87 30-1 0 0,-165 86-11070 0 0,206-80 8234 0 0,6 0 568 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:29.634"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">352 725 1432 0 0,'-8'-10'1642'0'0,"-1"-1"0"0"0,1 0 0 0 0,-11-20 0 0 0,13 22 774 0 0,7 16 48 0 0,9 12-1463 0 0,4 12 415 0 0,25 87 1507 0 0,-22-70-2392 0 0,15 36-134 0 0,55 105 0 0 0,12-16-4705 0 0,-91-158 3115 0 0,-7-13 779 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 1 1 0 0,1-3-2084 0 0,3-6 336 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.11">697 761 520 0 0,'-6'-21'3813'0'0,"-14"-32"-1"0"0,16 43-2868 0 0,3 9-811 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 24 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-2 1 1 0 0,-5 5 433 0 0,2 1 1 0 0,-1-1-1 0 0,-8 14 1 0 0,14-21-572 0 0,-35 53 2267 0 0,-52 100 1 0 0,23 0-1726 0 0,45-103-966 0 0,2 0 0 0 0,-15 68-1 0 0,23-81-704 0 0,4-19-986 0 0,-3 29 1 0 0,4-31 538 0 0,1-4-1216 0 0,3-3-2824 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="668.62">18 1172 1024 0 0,'-4'-18'3420'0'0,"4"16"-3190"0"0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-3-3 1 0 0,2 0 410 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,2-9 1 0 0,-2-3 4796 0 0,2 14-5256 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,2-1 0 0 0,398-68 2620 0 0,4 33-4840 0 0,-345 30-1150 0 0,-37 3-1126 0 0,-1-1-1 0 0,-1-2 0 0 0,44-14 1 0 0,-46 11 1911 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1498.4">1938 548 256 0 0,'-6'-12'3570'0'0,"5"10"-2616"0"0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-14-14 12339 0 0,16 25-11512 0 0,-2 4-1292 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-7 20 1 0 0,-2 5 117 0 0,-18 74 666 0 0,-30 132 61 0 0,30-121-707 0 0,20-80-385 0 0,-10 61 292 0 0,8-47-361 0 0,8-43-132 0 0,1-1 0 0 0,1 1 0 0 0,-2 21 0 0 0,4-20 3 0 0,-2 0 0 0 0,-3 17 1 0 0,2-17 59 0 0,1 0 0 0 0,-1 19 0 0 0,3-34-94 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 3 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,282-66-14 0 0,-258 62-54 0 0,106-24-1473 0 0,-108 22 1006 0 0,0-1-1 0 0,0-1 1 0 0,31-17-1 0 0,-43 19-849 0 0,-1 0-1 0 0,0-1 1 0 0,13-12 0 0 0,-16 13-180 0 0,0-1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,3-19 1 0 0,3-7-1275 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2779.7">1853 71 1332 0 0,'-4'-7'1538'0'0,"3"5"-985"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-2-3 0 0 0,0-3 2035 0 0,1 9-2304 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,5-13 11044 0 0,-8 15-10038 0 0,2-1-1885 0 0,-5 26 1245 0 0,5-26-569 0 0,-4 14 163 0 0,4-15-192 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,8-16 1793 0 0,-7 13-1616 0 0,5-11 138 0 0,4-16 264 0 0,-11 29-619 0 0,-3 6-24 0 0,-7 16-32 0 0,3-5 42 0 0,3-4 374 0 0,5-8-119 0 0,3-7-138 0 0,-2 1-116 0 0,-1 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-2 11 0 0 0,-3 9 0 0 0,5-20 0 0 0,2-4 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 0 0 0,1 2 0 0 0,1 8 0 0 0,-3-4 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-14 37 0 0 0,13-9 0 0 0,1-28 0 0 0,0-4 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,3-4 0 0 0,3-6 0 0 0,0 1 0 0 0,15-18 0 0 0,-12 16 0 0 0,-2 1 0 0 0,-21 44 0 0 0,5-10 0 0 0,6-19 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 5 0 0 0,0-6 0 0 0,4-4 0 0 0,8 2-2466 0 0,3 7-7189 0 0,-1 10-4761 0 0,-10-8 10214 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:36.361"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 96 1756 0 0,'-1'-1'364'0'0,"-1"1"0"0"0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1-2 0 0 0,2 4-260 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,9-2 236 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,10-1-1 0 0,-9 1 358 0 0,177-25 2564 0 0,98 9-2752 0 0,-96 22-1999 0 0,-151-1-1593 0 0,45 11 0 0 0,-82-14 2750 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 2 0 0 0,-2 6-2100 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:36.713"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 176 0 0,'0'1'249'0'0,"0"1"0"0"0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,3 0 0 0 0,4 0 346 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,14-2 0 0 0,-1 0-248 0 0,256-12 3972 0 0,5 0-2810 0 0,-153 17-3042 0 0,0 6-3463 0 0,-30-2-1331 0 0,-57-7 3577 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:37.179"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1164 1 184 0 0,'-15'0'-136'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.51">740 58 484 0 0,'-20'4'2'0'0,"-111"21"2002"0"0,-67 3 5254 0 0,184-27-6543 0 0,7-1-27 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-12 4-1 0 0,45-1 1753 0 0,11-4-1327 0 0,58-6 0 0 0,-39 1-797 0 0,141-13-56 0 0,30 0-598 0 0,-114 16-2751 0 0,0 9-3446 0 0,-109-8 5836 0 0,18 3-1996 0 0,-22-3 2503 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 2 1 0 0,-5 7-1790 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="686.16">20 682 1520 0 0,'-1'0'332'0'0,"-1"1"-1"0"0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 2-1 0 0,1-3-146 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,175-9 5678 0 0,1-10-4814 0 0,101-7-2894 0 0,-129 21-2427 0 0,74 4-7895 0 0,-173 1 9369 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:57.588"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 697 1204 0 0,'3'-14'2607'0'0,"-3"12"-2213"0"0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-358 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,6 16 645 0 0,-6-14-422 0 0,16 40 1435 0 0,2 1 0 0 0,1-2 0 0 0,33 51 0 0 0,-21-46-1591 0 0,2-1 0 0 0,2-2 0 0 0,1-1-1 0 0,66 58 1 0 0,-79-80-321 0 0,7 7-664 0 0,46 31 1 0 0,-67-52 299 0 0,2 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,16 2 0 0 0,-24-5 251 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,3-5-1 0 0,2-18-1358 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.17">621 826 68 0 0,'-19'-16'831'0'0,"4"1"939"0"0,-32-20 1 0 0,41 32-1429 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-15-1 0 0 0,12 2-47 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-12 13 1 0 0,9-7 87 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-7 29 0 0 0,-22 206-101 0 0,22-131-3141 0 0,-7-1-3914 0 0,9-82 2124 0 0,5-26 2688 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="707.5">7 1345 524 0 0,'-2'-11'829'0'0,"0"1"1"0"0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,2-15 0 0 0,-2 21-519 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,4-4 0 0 0,17-8 1051 0 0,0 2-1 0 0,1 0 1 0 0,48-13 0 0 0,88-14 603 0 0,-100 26-1616 0 0,30-7-262 0 0,151-38-4894 0 0,-200 43 713 0 0,0-1 0 0 0,61-32-1 0 0,-64 29 1746 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1061.99">1517 508 1396 0 0,'17'-17'11349'0'0,"-18"25"-11070"0"0,-19 62 3390 0 0,12-45-2709 0 0,1 0 1 0 0,1 1 0 0 0,-3 35-1 0 0,5-15-89 0 0,3 0 0 0 0,9 84 0 0 0,-5-111-714 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,0 0 1 0 0,1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 0 0 0,14 21 1 0 0,-18-30-96 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,15 9-1 0 0,-19-13-46 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,8-1-1 0 0,-3-1-25 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,11-15 1 0 0,-13 15-315 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,3-13 1 0 0,-3 5-1135 0 0,0-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 1 0 0 0,-10-26 0 0 0,1 13-767 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1062.99">1452 157 216 0 0,'-25'-27'1964'0'0,"0"-3"324"0"0,0 3 269 0 0,10 6-389 0 0,0 0-796 0 0,5 6-428 0 0,5 6-292 0 0,0 3-64 0 0,10 12-500 0 0,0 9-252 0 0,5 9-632 0 0,-5 12-1040 0 0,10 9-612 0 0,-5 6-273 0 0,10 9 77 0 0,-5 3 552 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-09T13:41:54.213"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31 830 928 0 0,'-2'0'455'0'0,"0"0"0"0"0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-4-1-1 0 0,5 1-338 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 0-1 0 0,6-10 433 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,16-12-1 0 0,10-11 188 0 0,-16 13-439 0 0,80-92 642 0 0,-81 88-853 0 0,-1 1 1 0 0,-1-2 0 0 0,14-29-1 0 0,-16 27-34 0 0,-2 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-2-1 0 0 0,7-51 0 0 0,-9 49 162 0 0,-3 26-100 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-3-11 0 0 0,3 16-99 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-17 24 589 0 0,14-20-422 0 0,-6 12 53 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,2 0 0 0 0,0 0 0 0 0,-5 28 0 0 0,-10 118 456 0 0,18-135-563 0 0,-3 67 164 0 0,4-1 0 0 0,5 1 0 0 0,15 106 0 0 0,0-80 106 0 0,-4-29-106 0 0,3 14-112 0 0,-3-37-203 0 0,-14-70-38 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,9-22-4068 0 0,4-30-2454 0 0,3-12 732 0 0,-5 28 3511 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="649.04">930 194 164 0 0,'0'-45'6221'0'0,"-10"60"-3854"0"0,-95 227 4698 0 0,99-227-6609 0 0,1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-2 27-1 0 0,6-40-379 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,3 0 1 0 0,6 2 64 0 0,1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,18 1 1 0 0,-6 0-5 0 0,-15-2-111 0 0,68 9 241 0 0,-1 3 1 0 0,131 40 0 0 0,-182-43-143 0 0,0 0-1 0 0,-1 2 1 0 0,0 0-1 0 0,39 29 1 0 0,-48-30-12 0 0,-2 1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,10 19 1 0 0,-15-24-46 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 15 0 0 0,-1-17-2 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1-1 0 0,-7 12 1 0 0,4-10 5 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 0 0 0 0,1-2 1 0 0,-1 1-1 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0-1 0 0 0,-16 3 0 0 0,-14 1 25 0 0,-1-2 0 0 0,-79 0 0 0 0,92-6-79 0 0,0-1 0 0 0,0-1 0 0 0,-55-13 0 0 0,68 12-470 0 0,0-2 1 0 0,1 0-1 0 0,-18-10 1 0 0,24 11-628 0 0,0-1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-13-14 0 0 0,20 19 668 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-5 0 0 0,2-4-1759 0 0,-1 1 0 0 0,8-19 0 0 0,-8 25 1733 0 0,11-23-1971 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1039.7">905 176 540 0 0,'-3'-6'465'0'0,"0"1"1"0"0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-7-4 1 0 0,-17-18 3236 0 0,20 21-640 0 0,21 13-1043 0 0,16 1-838 0 0,1-1 1 0 0,0-1-1 0 0,1-1 0 0 0,32 1 1 0 0,-21-2-558 0 0,263 26 807 0 0,-103-23-2204 0 0,-168-8 7 0 0,15 0-4745 0 0,1-7-6034 0 0,-31 2 9142 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1726.71">2481 98 776 0 0,'-3'-13'2699'0'0,"3"13"-2616"0"0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,16-3 417 0 0,1 1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 2 0 0 0,-1 0 0 0 0,26 5 0 0 0,-16-1-236 0 0,-1 2-1 0 0,1 1 1 0 0,37 17 0 0 0,-59-23-172 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,6 9 0 0 0,-9-11-31 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 4 0 0 0,-3 2 109 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-10 6 1 0 0,-54 36 631 0 0,25-19-245 0 0,31-21-347 0 0,5-3-90 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 1 0 0,-16 18-1 0 0,25-24-114 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,3 1-1 0 0,6 6-2 0 0,2 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0-1 1 0 0,20 7-1 0 0,3 2 0 0 0,20 10 0 0 0,-8-4 31 0 0,0 1 1 0 0,-2 2-1 0 0,76 55 0 0 0,-116-75 117 0 0,0 1-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,4 8 0 0 0,-7-12-16 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-4 4-1 0 0,0-1-10 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-10 4 1 0 0,-10 2 11 0 0,-42 12 1 0 0,38-13-48 0 0,-6 2-225 0 0,0-1 1 0 0,0-1-1 0 0,-1-2 1 0 0,-53 3 0 0 0,63-15-2471 0 0,27 5 2453 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,2 0 1 0 0,5-8-1773 0 0,2 0-1 0 0,-1 0 1 0 0,10-7-1 0 0,5-4-484 0 0,10-9-198 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2713.27">4155 113 1068 0 0,'48'-25'3239'0'0,"-36"21"-2554"0"0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,12-9 0 0 0,-18 12-301 0 0,-1 2-13 0 0,-2 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-3 0 0 0,-3 5-307 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-16-5 926 0 0,5 4-611 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-15 8 0 0 0,-6 5 605 0 0,0 1 0 0 0,-45 32 1 0 0,28-11-353 0 0,2 2 1 0 0,-54 59-1 0 0,93-90-602 0 0,-44 44 140 0 0,-81 111 0 0 0,113-135-177 0 0,1 2 1 0 0,1 0 0 0 0,2 1-1 0 0,1 1 1 0 0,-20 66 0 0 0,31-86 6 0 0,2 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 1-1 0 0,-1-1 1 0 0,2 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,14 18 1 0 0,-9-14 1 0 0,1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0-1 0 0 0,1 0 0 0 0,24 5 0 0 0,-19-7 3 0 0,1-1-1 0 0,-1-1 1 0 0,1-1-1 0 0,0-1 1 0 0,0-1-1 0 0,0-1 1 0 0,-1-2-1 0 0,1 0 1 0 0,-1-1 0 0 0,28-9-1 0 0,-40 10-7 0 0,1-1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-14 1 0 0,-5 16 3 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-6-11 0 0 0,5 11-3 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-12-7-1 0 0,2 3-6 0 0,-1 1-1 0 0,-1 1 1 0 0,0 1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 1 0 0 0,0 1 0 0 0,-31-1-1 0 0,34 4 9 0 0,0 0-1 0 0,0 1 0 0 0,0 1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 2-1 0 0,0 0 0 0 0,0 1 0 0 0,-25 15 1 0 0,39-21-13 0 0,-1 0-1 0 0,1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,1-3-49 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,3 2 1 0 0,10 5-704 0 0,0-1 0 0 0,1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,0 0 0 0 0,1-2 0 0 0,24 3 0 0 0,122 2-3824 0 0,-105-9 3993 0 0,1-2 0 0 0,-1-3 0 0 0,0-2 0 0 0,0-3 0 0 0,99-32-1 0 0,-88 17 866 0 0,128-67-1 0 0,-156 69 809 0 0,0-2-1 0 0,37-33 0 0 0,-74 56-804 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,4-6 0 0 0,-6 10-216 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0-11 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-8-1 161 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-15 12 1 0 0,12-7-73 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,1-1 1 0 0,-15 24 0 0 0,21-29-126 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,6 9 0 0 0,-3-6-6 0 0,1 1 0 0 0,0-2 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,20 8 0 0 0,-12-7-6 0 0,1-1 1 0 0,0-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 0 0 0 0,22-2 0 0 0,-27 0-2 0 0,1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,21-13 0 0 0,-15 6 11 0 0,0 0 0 0 0,-1-1-1 0 0,-1-2 1 0 0,0 0 0 0 0,-1 0-1 0 0,-1-2 1 0 0,0 0 0 0 0,-2-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,12-33 0 0 0,-13 26 187 0 0,-1-1 1 0 0,-1 0 0 0 0,-2 0-1 0 0,-1-1 1 0 0,2-56-1 0 0,-6 76-35 0 0,-2-1 0 0 0,1 1 1 0 0,-2 0-1 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-12-10 0 0 0,4 7-45 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,0 1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2 2 0 0 0,-28-5 0 0 0,8 4-16 0 0,0 3 0 0 0,0 1 0 0 0,-69 7 0 0 0,70-1-112 0 0,0 1 0 0 0,1 2 0 0 0,0 2 0 0 0,1 2 1 0 0,0 1-1 0 0,-58 30 0 0 0,68-28-632 0 0,0 2 0 0 0,0 0 0 0 0,-31 29 0 0 0,39-28-833 0 0,0 0 0 0 0,2 1 0 0 0,0 1 0 0 0,-21 33 0 0 0,29-39 170 0 0,1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,1 1 0 0 0,1-1 1 0 0,-3 29-1 0 0,9 13-1464 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:44:17.859"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">159 507 540 0 0,'-5'0'7084'0'0,"3"4"-6866"0"0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-5 3 0 0 0,-7 11 466 0 0,6-3-346 0 0,0 1-1 0 0,-7 23 1 0 0,6-15-80 0 0,0 1 105 0 0,-7 33-1 0 0,-4 15 47 0 0,12-32-181 0 0,8-33-173 0 0,-1 0-1 0 0,0 0 1 0 0,-4 13 0 0 0,-10 46 161 0 0,14-27-80 0 0,2-25-83 0 0,-2-9-50 0 0,-1 8 251 0 0,2-12-101 0 0,3-7-38 0 0,31-57 14 0 0,-23 45-142 0 0,14-34 0 0 0,-11 16-1 0 0,-2 0 0 0 0,12-56 1 0 0,-4 9-9 0 0,-11 49 51 0 0,6-35-1 0 0,-5 31 49 0 0,-8 32 122 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-8 0 0 0,-8 31 448 0 0,2-2-421 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 19-1 0 0,-8 121 240 0 0,10 58-372 0 0,-5-367-424 0 0,-25-169 0 0 0,24 276 325 0 0,2-56 0 0 0,5 76 68 0 0,2-1 1 0 0,7-33-1 0 0,-9 48-17 0 0,1-8 40 0 0,1 20-7 0 0,1 13 40 0 0,-3-6-76 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 7 1 0 0,-1 14 95 0 0,8 50 722 0 0,-9 147 0 0 0,-3-75-405 0 0,4-108-397 0 0,-3 25 9 0 0,-5 16-17 0 0,-7 38-26 0 0,1-44-9 0 0,10-32-83 0 0,5-43 59 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3-13-221 0 0,-1 6 137 0 0,4-13-149 0 0,0 0 1 0 0,4-37 0 0 0,2-11-146 0 0,-8 46 163 0 0,2-40 0 0 0,-1 3-52 0 0,16-178-315 0 0,-18 192 562 0 0,3-171 54 0 0,-1 23 761 0 0,-5 149-117 0 0,-2 41-478 0 0,-1 9-55 0 0,-3 9 29 0 0,-9 74 926 0 0,-4 128-1 0 0,13-49-274 0 0,-3 38-32 0 0,-6-32-487 0 0,13-152-286 0 0,2-10-10 0 0,-2 1 0 0 0,-4 16-1 0 0,5-13-166 0 0,2-26-582 0 0,-2-19-144 0 0,2 0-1 0 0,8-48 1 0 0,-8 60 736 0 0,-1 16 144 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 0 0 0,6-14-94 0 0,-7 16 98 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,2-1-1 0 0,3-2 7 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,8-7 0 0 0,-5 5-5 0 0,164-142-123 0 0,-70 58 151 0 0,-3 12 62 0 0,-77 59-36 0 0,-11 10 3 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,15-24-1 0 0,-14 21 59 0 0,-11 13-78 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,-1 3 111 0 0,-2 1-132 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-2 3 1 0 0,-7 5-8 0 0,-70 48 18 0 0,34-22 17 0 0,-67 65 0 0 0,87-76-19 0 0,13-11-6 0 0,-1-1-3 0 0,0 1 0 0 0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-10 18 0 0 0,6-11-9 0 0,14-20 0 0 0,10-15 2 0 0,55-61-73 0 0,-16 18 29 0 0,148-214 70 0 0,-154 210 7 0 0,-7 15 18 0 0,-19 26 290 0 0,-17 24-321 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-4 2 1 0 0,-9 13 88 0 0,-81 117 168 0 0,55-81-260 0 0,-42 45 25 0 0,-2 3-14 0 0,10-10-107 0 0,49-62 19 0 0,18-22-13 0 0,0 1 0 0 0,1 0 0 0 0,-9 13 1 0 0,14-17-261 0 0,8-17 219 0 0,13-17 65 0 0,-11 21 38 0 0,6-4 12 0 0,-11 11 23 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,4 2 0 0 0,10 5 274 0 0,33 19 0 0 0,-24-12-146 0 0,38 24 249 0 0,-2 2-1 0 0,80 69 0 0 0,-106-81-297 0 0,-15-8 132 0 0,-17-19-93 0 0,-8-4 13 0 0,-11-4-81 0 0,-68-56-140 0 0,-107-57 0 0 0,178 111 67 0 0,-113-79-6 0 0,95 63-10 0 0,38 36 11 0 0,156 154 913 0 0,-162-164-902 0 0,194 178 938 0 0,-187-171-878 0 0,-6-5-35 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,6 2 0 0 0,-37-41 142 0 0,-79-66-241 0 0,34 34 39 0 0,-2-4 33 0 0,-5-15 65 0 0,80 84 9 0 0,6 5-44 0 0,8 9 44 0 0,21 27 304 0 0,53 43 0 0 0,-36-33-144 0 0,141 129 316 0 0,-156-145-233 0 0,-53-56-304 0 0,-41-29-101 0 0,-95-115 0 0 0,127 136 66 0 0,0-1 0 0 0,-20-38 0 0 0,41 59 2 0 0,13 19 35 0 0,16 24 54 0 0,65 88 182 0 0,-64-81-201 0 0,17 25-1278 0 0,-46-63 581 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-3-3-1 0 0,-1 1 222 0 0,-18-6-3117 0 0,-36-19 0 0 0,52 23 2516 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-8 0 0 0,0-1-723 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1252.07">95 222 104 0 0,'-1'-5'424'0'0,"1"1"0"0"0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-1-3 0 0 0,-4-17 1300 0 0,0 1-653 0 0,5 20-767 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-10 0 0 0,1 12-18 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-3-3 0 0 0,-6 29 2203 0 0,8-9-1858 0 0,1 0 1 0 0,0-1-1 0 0,3 28 1 0 0,0-2 179 0 0,33 374 2377 0 0,-20-47-2157 0 0,-15-320-1005 0 0,-3-23-1 0 0,1-20-29 0 0,2-18-55 0 0,7-116-1022 0 0,1 0 17 0 0,-3-201-325 0 0,5 16 1204 0 0,-9 282 228 0 0,0 21 66 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-5-15 1 0 0,7 26-86 0 0,-4-5 227 0 0,-2 14-138 0 0,-3 12 36 0 0,2 0 0 0 0,0 0 1 0 0,2 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 41 0 0 0,11 129 839 0 0,-2-137-810 0 0,6 43 132 0 0,2 46 52 0 0,-6 126-128 0 0,-6-257-306 0 0,-1-18-98 0 0,0-21-163 0 0,-13-371-2483 0 0,4 230 2591 0 0,7 93 218 0 0,-1-83 90 0 0,0 32 1472 0 0,2 237-203 0 0,1-30-430 0 0,8 83 0 0 0,7-16-36 0 0,8 66-253 0 0,-18-149-580 0 0,-3-48-69 0 0,0 0 0 0 0,7 34 0 0 0,1-5-610 0 0,-6-16-3313 0 0,-4-25 1972 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:45:44.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">498 148 764 0 0,'3'-17'1848'0'0,"-1"1"1833"0"0,-21 38-1607 0 0,-172 325-275 0 0,96-128-1686 0 0,92-211-106 0 0,2-5 11 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 5-1 0 0,30-66 302 0 0,9-43-242 0 0,-25 63-70 0 0,6-17 14 0 0,13-67-1 0 0,4-30-11 0 0,-13 63 0 0 0,1 20 173 0 0,-21 57 85 0 0,-8 19 78 0 0,-8 20 76 0 0,-131 322 809 0 0,129-314-1213 0 0,-120 299 178 0 0,113-284-160 0 0,16-38-17 0 0,0 1 1 0 0,1 0-1 0 0,-5 16 0 0 0,1-8 59 0 0,7-19 13 0 0,7-12-41 0 0,52-115-110 0 0,-44 93 54 0 0,93-267 4 0 0,-61 172 13 0 0,-11 32 5 0 0,-17 41-19 0 0,-10 27 24 0 0,2 1 1 0 0,22-50 0 0 0,-49 139 299 0 0,-107 336 100 0 0,97-280-297 0 0,6-25 0 0 0,-2-2-54 0 0,13-40-34 0 0,11-45 12 0 0,5-15-5 0 0,60-197-124 0 0,0-3 1 0 0,-23 81 61 0 0,-20 62 19 0 0,-8 24-9 0 0,3 0 0 0 0,22-42 0 0 0,-33 71 8 0 0,0 0 18 0 0,-7 22 27 0 0,-47 139 106 0 0,30-98-136 0 0,-147 479 179 0 0,121-374-149 0 0,42-147-21 0 0,7-15-27 0 0,5-15-13 0 0,70-183-297 0 0,33-107-63 0 0,-86 227 370 0 0,14-42 46 0 0,-28 80-28 0 0,-12 37-9 0 0,2-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,6-13 1 0 0,-9 22-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 12 35 0 0,-5 13 24 0 0,-50 168 105 0 0,-44 116 31 0 0,67-204-91 0 0,14-47-48 0 0,-13 61 0 0 0,32-114-54 0 0,-3 12 8 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-10 20 0 0 0,13-26 23 0 0,1-7-6 0 0,0-4 34 0 0,1-10-69 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,7-21-1 0 0,3-10-35 0 0,67-251-543 0 0,-46 165 461 0 0,77-194-1 0 0,-57 193 124 0 0,-51 122 10 0 0,-2 5 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 63 372 0 0,-1 21-224 0 0,4 0 0 0 0,16 99 0 0 0,-8-117-136 0 0,32 141 211 0 0,-30-150-132 0 0,7 24 47 0 0,33 71 449 0 0,-52-135-363 0 0,-2-10-207 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,0-25 908 0 0,-4-30-882 0 0,-3 0 0 0 0,-3 1 0 0 0,-24-89 0 0 0,8 40-14 0 0,-10-29-8 0 0,-9-48 4 0 0,20 84-41 0 0,18 57 18 0 0,12 51-32 0 0,33 162 64 0 0,-6-6 136 0 0,-1-10 44 0 0,-1-8 99 0 0,-18-97-226 0 0,-7-34 86 0 0,-7-28 459 0 0,-17-127-467 0 0,1 11-149 0 0,0 31 3 0 0,-46-222 31 0 0,56 278-62 0 0,4 20 4 0 0,-1 1 1 0 0,-6-18-1 0 0,3-1-17 0 0,6 29-8 0 0,5 23 13 0 0,6 34-4 0 0,-2-11 8 0 0,4 43 1 0 0,-9-54 0 0 0,12 44 1 0 0,-3-16 10 0 0,26 101 47 0 0,-11-56 0 0 0,-14-50 62 0 0,27 72 0 0 0,-36-113-95 0 0,-2-6 566 0 0,-2-16-197 0 0,-1-12-321 0 0,-2-1 1 0 0,-7-30 0 0 0,1 3-35 0 0,0-3-13 0 0,-2 1 0 0 0,-20-58-1 0 0,-5-26-1 0 0,25 104-8 0 0,-9-49-1 0 0,11 34-14 0 0,6 40-10 0 0,7 34 2 0 0,20 116 103 0 0,26 117 128 0 0,-9-108 81 0 0,3 27 162 0 0,-23-94-223 0 0,-17-69-194 0 0,1 12 668 0 0,-6-53-302 0 0,0 26-411 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-3-1 0 0,-1-2-7 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5-10 0 0 0,-4-10-10 0 0,7 7 6 0 0,-5-10-8 0 0,-3-12-10 0 0,11 39 26 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0-3 0 0 0,0 2 0 0 0,-1 3 5 0 0,-2-1-4 0 0,2 2 8 0 0,-19-6 1316 0 0,-5 6-1282 0 0,6-1-28 0 0,0 1 0 0 0,0 1 0 0 0,-20 4 1 0 0,-190 35 116 0 0,149-23-117 0 0,192-25-90 0 0,131-37 13 0 0,-222 40 74 0 0,-12 2-1 0 0,1 1 1 0 0,0 0-1 0 0,16-1 1 0 0,-25 3 162 0 0,-28 3-105 0 0,8 1-52 0 0,-38 5 0 0 0,4-2 16 0 0,-18 4 16 0 0,46-9-17 0 0,-50 13 1 0 0,65-11-23 0 0,2-1-7 0 0,6-4-34 0 0,5-1 30 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 0-1 0 0,4-1-4 0 0,99-18-55 0 0,-67 14 59 0 0,55-16-1 0 0,-92 20 9 0 0,-3 0-2 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 1 0 0,-9 0 93 0 0,-35 5 93 0 0,-217 16-43 0 0,149-17-130 0 0,100-4-17 0 0,146-12-130 0 0,-105 9 119 0 0,-1-1 0 0 0,59-14-1 0 0,-67 12 41 0 0,-23 4 32 0 0,-17 2-22 0 0,-19 2-18 0 0,28-2-21 0 0,-290 36 157 0 0,263-31-148 0 0,-28 3 6 0 0,55-8-17 0 0,26-3-152 0 0,57-1 82 0 0,134-23-1 0 0,-149 16 100 0 0,-33 8-9 0 0,-33 3 27 0 0,-37 3-16 0 0,-172 30-116 0 0,173-27-928 0 0,-62 20 1 0 0,83-22 329 0 0,-13 3-1743 0 0,10-5-2080 0 0,16-2 3906 0 0,2-13-880 0 0,-1 12 1500 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6-5 364 0 0,-12-7 116 0 0,13 11 3501 0 0,3 26-1931 0 0,3-18-1889 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 5 1 0 0,-1 18 270 0 0,-9 17-5 0 0,-1 0 0 0 0,-24 59 0 0 0,21-62-310 0 0,10-28-76 0 0,4-15-50 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,11-23 178 0 0,-8 17-186 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-8 0 0 0,8-25-25 0 0,7-23-20 0 0,-2 5 11 0 0,-9 35 22 0 0,-5 16 10 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,6-9 0 0 0,-19 40 206 0 0,-14 34 32 0 0,16-35-156 0 0,-2-1 1 0 0,-15 27-1 0 0,-12 29 42 0 0,23-52-100 0 0,12-25-20 0 0,0 1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 4 0 0 0,-2-1 13 0 0,4-6-14 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,2 0 31 0 0,15-22 51 0 0,2-1-97 0 0,-2 0 0 0 0,23-41 0 0 0,-22 31-4 0 0,23-48-10 0 0,-35 74 28 0 0,-1-4 18 0 0,-4 11 65 0 0,-10 18 19 0 0,2-1-61 0 0,0 0 1 0 0,-7 28-1 0 0,-4 8 8 0 0,16-46-33 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 11 0 0 0,13-40 87 0 0,-7 11-107 0 0,0 0 1 0 0,1 0-1 0 0,1 0 0 0 0,9-14 0 0 0,-11 19 3 0 0,-3 3 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-5 0 0 0,0 7 64 0 0,-15 27 178 0 0,-26 54-10 0 0,35-70-235 0 0,3-5 61 0 0,7-6 222 0 0,-2-1-270 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1-2 1 0 0,0 2-3 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-3 0 0 0,-2 3-5 0 0,-1-1 1 0 0,-19 25 279 0 0,16-21-262 0 0,5-1 3 0 0,4-3 0 0 0,9-10 184 0 0,-9 2-1748 0 0,-7 2-4406 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2127.86">379 169 264 0 0,'0'0'81'0'0,"-1"-1"0"0"0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,2-3 2362 0 0,13-2 459 0 0,8-24-920 0 0,-17 22-1679 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-16 0 0 0,-5 11 172 0 0,-8 13-352 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,-20 36 246 0 0,2-1-155 0 0,14-27-148 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 7 1 0 0,2-9-9 0 0,-2 4 620 0 0,3-9-669 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,8-18 834 0 0,45-71-576 0 0,-46 73-171 0 0,-6 13-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2-3 0 0 0,-3 6 49 0 0,-11 6 383 0 0,-95 132 396 0 0,96-125-789 0 0,8-13-125 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 245 0 0,1-4-176 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,5-4 0 0 0,1-5-37 0 0,1-4 6 0 0,13-32-1 0 0,-18 37-18 0 0,-2 8 0 0 0,-2 2-18 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 36 0 0,1 1-38 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,-10 13 41 0 0,11-12-41 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-4 2-1 0 0,5-4 21 0 0,26-31 961 0 0,-1-18-862 0 0,-21 41 82 0 0,-8 10-57 0 0,-7 9-62 0 0,-61 87 9 0 0,60-77-21 0 0,12-19 110 0 0,8-13-41 0 0,32-43-116 0 0,-30 36-35 0 0,-8 15 6 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0-1 0 0 0,-1 3 3 0 0,-1-1 0 0 0,0-1 0 0 0,-5 29 0 0 0,7-10 18 0 0,-2-17-19 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,16-19 139 0 0,-15 16-162 0 0,9-13 28 0 0,-7 11-7 0 0,-1 0-1 0 0,2 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,7-6-1 0 0,-6 2-6 0 0,-4 8 6 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1-3 0 0,-3 1 3 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 7-3 0 0,7 4 3 0 0,-7-11 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 3-61 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,3 9-1 0 0,-2-9-521 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 7 1 0 0,-3 10-4881 0 0,-1 1 0 0 0,-16 41 1 0 0,7-39 2632 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3313.11">750 835 696 0 0,'-4'5'11638'0'0,"3"8"-7691"0"0,1 18-4764 0 0,0-23 2422 0 0,0 27 2028 0 0,0-34-3624 0 0,-5 9-2442 0 0,-25 18-11538 0 0,20-21 11144 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:06:03.888"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">161 1 216 0 0,'-28'7'2698'0'0,"7"5"2393"0"0,51-6-3380 0 0,-6-3-1059 0 0,0-1 1 0 0,38 0 0 0 0,13 0 38 0 0,303 20 765 0 0,-157-18-1071 0 0,-123-6-298 0 0,322 5-21 0 0,-164-13 147 0 0,270 10 209 0 0,-362 6-165 0 0,107 7 280 0 0,-176-10 290 0 0,-75-2-742 0 0,-35-1-5347 0 0,-24-1-3230 0 0,19-1 6266 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1885.22">149 31 376 0 0,'0'0'429'0'0,"-2"0"375"0"0,-9-1 677 0 0,7 0 866 0 0,8-1-2126 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,5 0 0 0 0,10-2 12 0 0,10-2 15 0 0,37-1 0 0 0,-98 7 565 0 0,-31 7 0 0 0,-14 1-350 0 0,-36-7 1623 0 0,206-18-1778 0 0,-29 7-248 0 0,78-4-19 0 0,-174 14 366 0 0,-59 5-323 0 0,63-4-49 0 0,26-3 23 0 0,10 0 42 0 0,51-5-68 0 0,55-2-19 0 0,-301 17 310 0 0,264-10-187 0 0,124-1-124 0 0,-163-1-17 0 0,-13 0 30 0 0,-20 2 63 0 0,-8 1 83 0 0,-196 4-91 0 0,186-5-83 0 0,35 1-805 0 0,83-3-9375 0 0,-81-1 8057 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:45:54.999"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">521 214 1724 0 0,'-23'-51'20062'0'0,"23"52"-19905"0"0,17 6 2160 0 0,14 13-1309 0 0,116 116 850 0 0,-29-24-1483 0 0,205 151-791 0 0,-203-178-2768 0 0,-65-47-2667 0 0,-54-37 5408 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.36">1316 103 740 0 0,'-4'-10'1459'0'0,"1"1"0"0"0,-1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-14-14 0 0 0,18 20-1248 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-2 4-1 0 0,-59 50 2929 0 0,-71 81 1 0 0,-43 72-2275 0 0,-40 43-2058 0 0,29-59-2831 0 0,-7-7-5080 0 0,54-48 1042 0 0,76-75 4836 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:05.940"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">275 8 332 0 0,'-15'-7'16497'0'0,"5"12"-15566"0"0,-44 35 7451 0 0,53-39-8315 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,1 2 76 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,7 8 0 0 0,29 27 1025 0 0,75 57 1 0 0,31 18-462 0 0,-60-54-404 0 0,-35-22-196 0 0,-25-18-21 0 0,30 18 0 0 0,-35-24-86 0 0,22 18 0 0 0,-29-21 0 0 0,7 7 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,15 22 0 0 0,-25-30 0 0 0,5 7 0 0 0,-4-11 0 0 0,0 1 0 0 0,14 20 0 0 0,10 10 0 0 0,5 7 0 0 0,-16-18 0 0 0,33 46 0 0 0,0-12 0 0 0,70 57 0 0 0,-114-109 0 0 0,83 77 0 0 0,-23-25 0 0 0,-51-44 0 0 0,2-2 0 0 0,27 18 0 0 0,-28-22 0 0 0,-7-6 0 0 0,-1 1 0 0 0,23 18 0 0 0,19 7 0 0 0,-48-27 0 0 0,1 0 0 0 0,0-1 0 0 0,11 6 0 0 0,19 13 0 0 0,-26-11 0 0 0,11 7 0 0 0,-10-6 0 0 0,3 8 0 0 0,-14-20 0 0 0,-38-21 0 0 0,-1 2 0 0 0,-47-16 0 0 0,4 1 0 0 0,-23-9 0 0 0,45 19 0 0 0,-105-56 0 0 0,140 65 0 0 0,-29-10 0 0 0,28 13 0 0 0,-27-16 0 0 0,19 7 0 0 0,-48-31 0 0 0,70 42 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-10-15 0 0 0,-37-43 0 0 0,42 50 0 0 0,0 0 0 0 0,-1 1 0 0 0,-17-14 0 0 0,0 1 0 0 0,-51-48 0 0 0,45 39 0 0 0,-44-49 0 0 0,17 18 0 0 0,38 39 0 0 0,21 23 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-14-9 0 0 0,2 3 0 0 0,-26-23 0 0 0,7 5 0 0 0,10 8 0 0 0,1-2 0 0 0,-24-28 0 0 0,-22-21 0 0 0,56 59 0 0 0,-1 0 0 0 0,-31-19 0 0 0,15 4 0 0 0,31 23 0 0 0,-3 2 0 0 0,5 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-1 0 0 0,14 7 0 0 0,0 0 0 0 0,28 18 0 0 0,78 60 0 0 0,-35-23 0 0 0,14 9 0 0 0,56 35 0 0 0,-139-95 0 0 0,11 8 0 0 0,1-2 0 0 0,53 22 0 0 0,-47-24 0 0 0,-37-15 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 8 0 0 0,-8-10 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-20-12 0 0 0,24 17 0 0 0,-61-44 0 0 0,-274-185 0 0 0,268 186 0 0 0,2-3 0 0 0,-85-79 0 0 0,101 67 0 0 0,66 65 0 0 0,8 6 0 0 0,85 74 0 0 0,144 147 0 0 0,-27-21 0 0 0,-200-191 0 0 0,-7-7 0 0 0,-1 1 0 0 0,15 16 0 0 0,-22-22 0 0 0,-12-15 0 0 0,-16-19 0 0 0,3 11 0 0 0,-145-124 0 0 0,131 117 0 0 0,0 1 0 0 0,-1 1 0 0 0,-51-23 0 0 0,43 27 0 0 0,-46-14 0 0 0,87 32 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,4 12 0 0 0,20 20 0 0 0,-20-30 0 0 0,23 28 0 0 0,1-2 0 0 0,37 31 0 0 0,-10-11 0 0 0,269 225 0 0 0,22-27 0 0 0,-135-103 0 0 0,96 65 0 0 0,-284-193 0 0 0,-10-7 0 0 0,0-1 0 0 0,26 13 0 0 0,-38-21 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3-9 0 0 0,-8-10 0 0 0,-9-4 0 0 0,-1 2 0 0 0,0 0 0 0 0,-33-24 0 0 0,-153-127 0 0 0,-185-139 0 0 0,376 300 0 0 0,-30-22 0 0 0,-76-40 0 0 0,41 25 0 0 0,172 124 0 0 0,-61-50 0 0 0,483 384 0 0 0,-404-327 0 0 0,103 69 0 0 0,-212-152 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-10 0 0 0,-11-14 0 0 0,-237-212 0 0 0,204 193 0 0 0,-92-72 0 0 0,-283-174 0 0 0,397 270 0 0 0,21 14 0 0 0,0 0 0 0 0,0 0 0 0 0,-15-6 0 0 0,46 42 0 0 0,20 24 0 0 0,38 42 0 0 0,5-7 0 0 0,180 143 0 0 0,-221-197 0 0 0,331 276 0 0 0,-364-300-49 0 0,5 4-693 0 0,-1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,20 31 1 0 0,-35-48 233 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-2 2-1 0 0,-1 1-1248 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-8 6-1 0 0,3-2 777 0 0,-16 14-2471 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2159.13">1571 1646 532 0 0,'-6'-1'519'0'0,"1"0"-1"0"0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-8 3-1 0 0,6-1-196 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-7 9 1 0 0,1 0-11 0 0,1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,2 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-3 21-1 0 0,7-27-262 0 0,1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,2 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,15 4 1 0 0,-11-5-31 0 0,0-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-2 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 0 0 0 0,26-13-1 0 0,-31 13 105 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,3-20 0 0 0,-4 14 13 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-2 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-15-21 0 0 0,18 31-61 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,-6-1-1 0 0,3 1-22 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-11 8 0 0 0,-10 9-282 0 0,2 0 0 0 0,0 2 1 0 0,2 1-1 0 0,0 2 0 0 0,2 0 0 0 0,-36 50 1 0 0,30-31-2300 0 0,1 2 0 0 0,2 1 0 0 0,-34 86 0 0 0,13 8-3683 0 0,45-131 5820 0 0,-22 70-2251 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:22.492"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1745 354 104 0 0,'-9'-1'2128'0'0,"-1"-2"-1"0"0,1 1 1 0 0,0-1-1 0 0,-17-9 1 0 0,25 12-2045 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,13-5 1900 0 0,21 3-61 0 0,-33 2-1758 0 0,166-8 6014 0 0,81-22-4190 0 0,-84 9-1235 0 0,-25 7-124 0 0,0 6-1 0 0,0 7 1 0 0,216 24 0 0 0,184 19 36 0 0,1-29-236 0 0,-469-12-375 0 0,1719-8 1031 0 0,-1520 3-1033 0 0,776-3 150 0 0,574-31-106 0 0,-701 13 0 0 0,-43-16 47 0 0,-718 32-109 0 0,2011-77 165 0 0,-1453 64-264 0 0,261 3 115 0 0,-358 10-73 0 0,638-6 44 0 0,-626 10-17 0 0,993 11-4 0 0,-1358 5 0 0 0,-252-12-231 0 0,-24-3-302 0 0,-25-3-480 0 0,-326-12-1476 0 0,189 14 1737 0 0,-136-3-3436 0 0,-1 10-3718 0 0,-71 5-2905 0 0,232-5 7767 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1041.43">2949 903 784 0 0,'-130'25'1982'0'0,"49"-11"-155"0"0,-141 43-1 0 0,215-55-1698 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,-12 8 1 0 0,18-11-94 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 9 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,2 1-1 0 0,9 6 247 0 0,1-1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,31 4 0 0 0,-16-2 91 0 0,101 14 249 0 0,1-5 1 0 0,214-7 0 0 0,268-48 483 0 0,-523 33-865 0 0,756-67 89 0 0,1000-83 3443 0 0,145 49-922 0 0,-1701 103-2838 0 0,-277 8-46 0 0,-24 1-2 0 0,-25 2-5 0 0,-500 46 94 0 0,301-31-155 0 0,-1633 125-740 0 0,1409-113 888 0 0,-702 56 289 0 0,-1306 85 426 0 0,1461-122-654 0 0,466-24-143 0 0,-46-12 392 0 0,572-14-347 0 0,8-1-10 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-4-1 1 0 0,9 2-8 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,13-7-6 0 0,21-4 46 0 0,2 1 0 0 0,70-10 0 0 0,-62 13 42 0 0,1018-130 3066 0 0,-805 109-2842 0 0,3697-325 585 0 0,-1975 253-612 0 0,2 89-4056 0 0,-1561 24-1996 0 0,-4 10-4638 0 0,-297-12 7126 0 0,-15 1 500 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:24.548"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">124 636 1224 0 0,'112'-45'6075'0'0,"2"8"-4221"0"0,120-25-1395 0 0,-212 57-147 0 0,717-133 1915 0 0,12 57-307 0 0,601-14-1065 0 0,-1226 88-790 0 0,953-40 1179 0 0,-619 30-921 0 0,-35 2-224 0 0,-406 13-19 0 0,-34 1 77 0 0,-41 2 36 0 0,-610 3 629 0 0,-12 1-761 0 0,-241 27 253 0 0,-524 14 936 0 0,597-22-657 0 0,4 23 797 0 0,819-46-1336 0 0,16-2-33 0 0,1 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-11 4-1 0 0,17-5-18 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,113 8 207 0 0,175-11 0 0 0,-160-2 25 0 0,908-48 635 0 0,2-36-7108 0 0,-242-3-7062 0 0,-793 92 13234 0 0,196-27-2626 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:25.271"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 1072 1984 0 0,'-1'2'622'0'0,"1"0"0"0"0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-2 3-1 0 0,-5 5 2044 0 0,29-35 4309 0 0,60-69-4358 0 0,-21 26-2426 0 0,-2-3 1 0 0,-4-2-1 0 0,-2-2 1 0 0,63-132-1 0 0,-6 1 796 0 0,-82 151 176 0 0,-25 54-949 0 0,-5 18 400 0 0,-8 47 212 0 0,-3 76-1 0 0,-18 363 935 0 0,18-289-1755 0 0,11-134-12 0 0,8 93 1 0 0,-4-161-137 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,5 16 0 0 0,-7-26 40 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,5-4-1428 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,6-8 1 0 0,42-56-10271 0 0,-54 69 11428 0 0,17-24-2601 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="852.79">1705 148 228 0 0,'1'-4'585'0'0,"0"0"0"0"0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-6 0 0 0,2 8-322 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-5 0 0 0 0,-7 0 484 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 2 0 0 0,1 0 1 0 0,-24 6-1 0 0,11 0 520 0 0,0 1 1 0 0,-39 20-1 0 0,44-18-943 0 0,1 2 0 0 0,0 0 1 0 0,1 2-1 0 0,1 0 0 0 0,0 1 0 0 0,1 1 1 0 0,1 0-1 0 0,0 2 0 0 0,1 0 1 0 0,-13 23-1 0 0,8-9-76 0 0,2 1 1 0 0,1 1-1 0 0,2 0 1 0 0,1 2-1 0 0,-16 62 0 0 0,26-77-219 0 0,1 1 0 0 0,0-1 0 0 0,2 1-1 0 0,1 0 1 0 0,0-1 0 0 0,2 1 0 0 0,0 0-1 0 0,2-1 1 0 0,0 1 0 0 0,2-1 0 0 0,0 0-1 0 0,13 32 1 0 0,-15-46-34 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-2 1 0 0,12 12-1 0 0,-15-15-50 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,6-1 0 0 0,8-4-738 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,17-27 1 0 0,2-14-2055 0 0,-3-1 0 0 0,-2-1-1 0 0,26-89 1 0 0,-41 115 2029 0 0,38-116-936 0 0,-4-1 4644 0 0,-40 129-1200 0 0,0 0 0 0 0,-1 0 0 0 0,2-40 0 0 0,-6 60-1632 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-15 13 2658 0 0,9 0-1716 0 0,0 1 0 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 20 0 0 0,3-33-933 0 0,-5 70 997 0 0,4-1 1 0 0,6 85-1 0 0,-2-123-850 0 0,16 137 547 0 0,-10-109-570 0 0,33 136 221 0 0,-7-46-128 0 0,-21-78-118 0 0,1-4 136 0 0,-4 0 0 0 0,3 89 1 0 0,-13-135-197 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-11 39 1 0 0,10-52-72 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-12 8 0 0 0,0-3 4 0 0,0-1 1 0 0,-1 0-1 0 0,0-2 0 0 0,0 0 0 0 0,-40 9 1 0 0,-111 10-88 0 0,116-19-63 0 0,-103 6-1376 0 0,28-2-3298 0 0,4 10-8304 0 0,115-20 10996 0 0,0 2-1 0 0,0-1 1 0 0,-12 7 0 0 0,-2 4-1071 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:52.279"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 17 572 0 0,'-5'-6'14863'0'0,"9"5"-11864"0"0,13-1-1533 0 0,-7 2-934 0 0,39-1 1408 0 0,71 10 0 0 0,-57-5-946 0 0,-46-4-810 0 0,0 1 0 0 0,20 3 0 0 0,-20 0 52 0 0,-1-2 0 0 0,24 2 0 0 0,333-1 560 0 0,-285-2-766 0 0,119-5 125 0 0,-115-2-79 0 0,-40 1-55 0 0,84 3 1 0 0,-80 3 10 0 0,493 5 150 0 0,-340-9-169 0 0,-50-3-29 0 0,-76 2-2 0 0,90 7 1 0 0,-134-1 3 0 0,40-4 1 0 0,-11 0-15 0 0,311-10-12 0 0,-77 7 139 0 0,-178 7-64 0 0,257 1-17 0 0,-136 7-78 0 0,-155-5 32 0 0,863 26 82 0 0,-332-14-86 0 0,-51-7-37 0 0,-225-6 147 0 0,668 3-153 0 0,-402-19 123 0 0,-327 4 18 0 0,-2 1-44 0 0,-197 1-14 0 0,-20-3 0 0 0,-29-3 8 0 0,-14 6-24 0 0,-19 5 7 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,4 1-1 0 0,250-5-74 0 0,152 3-12 0 0,120 17 245 0 0,133-8-193 0 0,-479-7-10 0 0,137-12-70 0 0,245 9 278 0 0,-441 4-143 0 0,177-5-39 0 0,-100 0-8 0 0,23-1-46 0 0,-43 5 5 0 0,-78 3 53 0 0,270 13 155 0 0,-176-5-117 0 0,504 21-95 0 0,-444-25-33 0 0,166 7 142 0 0,-29-12 51 0 0,-204-3-84 0 0,-154 1 4 0 0,169-6-40 0 0,65 1-9 0 0,-160 7-6 0 0,-42 0 26 0 0,-38 0 11 0 0,51-3 1 0 0,-22-4-10 0 0,97-14 65 0 0,-125 14-21 0 0,38-1 1 0 0,11-1-12 0 0,-57 5-14 0 0,-1 1 0 0 0,29 2 0 0 0,-7 1 12 0 0,29 1 387 0 0,-25 0-4567 0 0,-62 1-6595 0 0,2 0 7078 0 0,-9-3-296 0 0,-8-1 520 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:46:58.833"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">209 157 60 0 0,'-2'-2'130'0'0,"1"1"0"0"0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0-3 0 0 0,-11-25 1209 0 0,10 28-1231 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-3 1 0 0,-1 3 4 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,-27-22 4768 0 0,28 24-4747 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-9 19 1570 0 0,0 31-932 0 0,8-43-149 0 0,-6 64 1093 0 0,4 96 0 0 0,4-109-1389 0 0,9 82 384 0 0,-5-94-53 0 0,-5-46-646 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-66 198 0 0,6-156-194 0 0,-4 171-26 0 0,-1 33 4 0 0,1 0 0 0 0,3-20 0 0 0,0 11 20 0 0,2-54-1 0 0,4 30 466 0 0,-20 95 112 0 0,5 52 107 0 0,-5 109 156 0 0,10 195-182 0 0,-1-416-648 0 0,-6-31 1 0 0,4 32-26 0 0,-1-33 1 0 0,-6-363-80 0 0,5 381 47 0 0,-4 53 14 0 0,3 25 72 0 0,3 0 0 0 0,2 0 0 0 0,9 87 0 0 0,-6-120-37 0 0,8 85 62 0 0,4 63 84 0 0,-14-161-138 0 0,0-23 56 0 0,-10-127-79 0 0,10 103-4 0 0,1 11 3 0 0,-6-64 0 0 0,4 51-42 0 0,-14 81-34 0 0,10-13 65 0 0,1 1 1 0 0,-2 34-1 0 0,-1 2 15 0 0,-17 139 18 0 0,19-153-17 0 0,1-18-4 0 0,-1 14 7 0 0,0-7 60 0 0,5-31-41 0 0,5-17 32 0 0,-4 0-62 0 0,1 0-1 0 0,1 0 0 0 0,9-30 1 0 0,1-4-51 0 0,-10 32 30 0 0,37-221-246 0 0,-34 155 170 0 0,-31 145 32 0 0,-19 81-218 0 0,42-135 557 0 0,-3 7-3083 0 0,4-14 2669 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-2-5-637 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-8 0 0 0,6-52-3852 0 0,-6 62 4311 0 0,2-16-1105 0 0,14-80-4326 0 0,-7 56 3859 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:47:06.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">221 43 336 0 0,'7'-16'4710'0'0,"-7"16"-4586"0"0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0 372 0 0,-1 1-372 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 24 3119 0 0,0-22-2977 0 0,0-1-219 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,8 6 849 0 0,4 2 292 0 0,-6-5-698 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,7 7 0 0 0,-12-11-484 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 2 1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-4 2 0 0 0,-98 47 54 0 0,87-46 427 0 0,15-4-164 0 0,9-1-137 0 0,-6 0-183 0 0,40-16 907 0 0,335-14 477 0 0,497 19-691 0 0,-818 11-688 0 0,305 8 18 0 0,349 1 8 0 0,-432-11 112 0 0,593 5-80 0 0,-65 0 28 0 0,-430-6 17 0 0,-42-6-70 0 0,-141 0-2 0 0,-145 7-65 0 0,64-12 0 0 0,5 0-14 0 0,499-1 161 0 0,-252-2-33 0 0,-195 6-48 0 0,37-5 13 0 0,124-3-116 0 0,-4 22 165 0 0,75-9 317 0 0,-374 9-387 0 0,-24-3-32 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 2 1 0 0,5 5 13 0 0,1-1 3 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 0 1 0 0,7 15-1 0 0,-2-2 76 0 0,-2 1 0 0 0,6 25 1 0 0,-11-39-70 0 0,2 6 59 0 0,-1 0 0 0 0,-1 1 0 0 0,1 21-1 0 0,-2-25-18 0 0,0 0-1 0 0,5 19 0 0 0,-4-19 19 0 0,0 1 0 0 0,1 21 0 0 0,7 48 270 0 0,0-6-22 0 0,-10-57-262 0 0,0-7-6 0 0,0 1 0 0 0,0-1 0 0 0,5 20 0 0 0,-4-18-7 0 0,1 0 0 0 0,-2 0 0 0 0,1 0-1 0 0,-3 17 1 0 0,0 5 86 0 0,7 185 644 0 0,-10-194-591 0 0,5-25-61 0 0,-25-1 323 0 0,12 3-433 0 0,-1 0 0 0 0,1-2 1 0 0,-26 1-1 0 0,-2 0-4 0 0,-115 7-17 0 0,-38 4-68 0 0,34 1 20 0 0,31-4 85 0 0,-32 2 41 0 0,-113 18-34 0 0,199-22-27 0 0,-371 46-64 0 0,-213 1-103 0 0,548-50 207 0 0,-223 14 56 0 0,264-14-103 0 0,-251 28-7 0 0,171-23-4 0 0,35-4-19 0 0,-285 1-85 0 0,246-8 38 0 0,-181-5 204 0 0,120-9-78 0 0,28 0-29 0 0,44 6-24 0 0,-143-9-32 0 0,157 12 8 0 0,-405-21-49 0 0,-83 18 228 0 0,587 9-158 0 0,-214 9-20 0 0,4 3-11 0 0,-44 2-88 0 0,268-13 106 0 0,-179 7-64 0 0,107-5 128 0 0,-90-10 0 0 0,154 5-45 0 0,4 1-3 0 0,-39-2 25 0 0,-67-13-1 0 0,87 10-21 0 0,30 5-6 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-10-7 0 0 0,-18-11-4 0 0,31 20 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-9-7 0 0 0,1-7 0 0 0,1-13 0 0 0,-6-25 0 0 0,17 54 0 0 0,-2-14 0 0 0,0 1 0 0 0,1-1 0 0 0,0-16 0 0 0,-8-67 0 0 0,10-75 0 0 0,5 90 0 0 0,0 12 0 0 0,0 12 0 0 0,5-30 0 0 0,0-1 0 0 0,-5 41 0 0 0,-4 41 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,4-10 0 0 0,-1 4 0 0 0,15-27 0 0 0,-19 40 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,5-2 0 0 0,31-10 0 0 0,22 0 0 0 0,0 4 0 0 0,86-3 0 0 0,125 11 0 0 0,-128 3 0 0 0,314-8 0 0 0,-34-3 0 0 0,-97 6 0 0 0,60-9 0 0 0,227 9 0 0 0,-38-12 0 0 0,-21 9 0 0 0,-432 6 0 0 0,392 9 0 0 0,92-9 0 0 0,-211-6 0 0 0,524 0 0 0 0,-717 6 0 0 0,100 0 0 0 0,-176 0 0 0 0,42 11 0 0 0,-86-4 0 0 0,72 9 0 0 0,-53-2 0 0 0,-71-10 0 0 0,0 1 0 0 0,-1 2 0 0 0,0 1 0 0 0,0 2 0 0 0,-1 0 0 0 0,37 20 0 0 0,-55-22 0 0 0,1-1 0 0 0,14 16 0 0 0,-6-7 0 0 0,-6-4 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,10 23 0 0 0,0 11 0 0 0,20 77 0 0 0,-19-42 0 0 0,10 93 0 0 0,-27-135 0 0 0,-1 51 0 0 0,-2-73 0 0 0,-10 52 0 0 0,10-68 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-4 2 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-13 2 0 0 0,-96 13 0 0 0,-59-2 0 0 0,-1 0 0 0 0,-17-1 0 0 0,-11 1 0 0 0,-31 4 0 0 0,-24-2 0 0 0,131-11 0 0 0,7-1 0 0 0,-180 18 0 0 0,1 11 0 0 0,191-23 0 0 0,-209 11 0 0 0,107-16 0 0 0,88-4 0 0 0,-278 1 0 0 0,299-4 0 0 0,-230-9 0 0 0,133 2 0 0 0,67 5 0 0 0,-147 2 0 0 0,-59-6 0 0 0,113-1 0 0 0,-49-11 0 0 0,2 0 0 0 0,-339-24 0 0 0,469 31 0 0 0,-33 0 0 0 0,-54-5 0 0 0,-496-4 0 0 0,512 22 0 0 0,-6 7 0 0 0,110-6 0 0 0,105-3 0 0 0,0 2 0 0 0,1-1-9 0 0,64 1-28811 0 0,-31-7 25530 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-14T11:48:26.117"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3613 50 176 0 0,'10'-9'27159'0'0,"-2"15"-24605"0"0,-16-9-1775 0 0,-5-1-516 0 0,9 2-127 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-7 0-1 0 0,8-1 84 0 0,-3-3 291 0 0,14 6-225 0 0,35 10-286 0 0,3 2 0 0 0,-28-8 0 0 0,-16-4 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,2 1 0 0 0,11 7 0 0 0,-14-10 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,27 21 0 0 0,-14-12 0 0 0,19 8 0 0 0,-31-19 0 0 0,-3-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-25 0 0 0,-1 19 0 0 0,1 3-2 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-7-4 0 0 0,7 4 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-4 5-1 0 0,3-2-3 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 7 0 0 0,1-8 3 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,3 3-1 0 0,-2-3 3 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,9 1 0 0 0,-13-1 2 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,2-3 0 0 0,-3 2 1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-2-2 0 0 0,2 2-3 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-4-2 0 0 0,3 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-6 1 1 0 0,-2 1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-17 11 1 0 0,21-12-2 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 11 0 0 0,6-14 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,15-5 0 0 0,-13 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,11-12 0 0 0,-14 15 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-9 0 0 0,-3 13 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3-5 0 0 0,3 7 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-31 8 0 0 0,17-3 0 0 0,1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-18 15 0 0 0,23-15 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-5 12 0 0 0,10-19 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 1 0 0 0,-3-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-5 0 0 0,-3 3 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-9 0 0 0,3 7 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-8-6 0 0 0,9 9 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5 1 0 0 0,4 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-6 10 0 0 0,8-8 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 7 0 0 0,0-4 0 0 0,0 0 0 0 0,-1 0 0 0 0,-3 11 0 0 0,-11 23 0 0 0,-2-1 0 0 0,-47 79 0 0 0,-264 349 0 0 0,277-401 0 0 0,33-45 0 0 0,-656 834 0 0 0,102-220 0 0 0,413-472 0 0 0,149-158-20 0 0,11-15-71 0 0,15-18-483 0 0,105-135-5953 0 0,-38 54 2056 0 0,236-308-11653 0 0,-229 300 12916 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.03">3768 248 1080 0 0,'-24'-17'5412'0'0,"22"16"-4865"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-8-10 9118 0 0,12 15-8339 0 0,1 6-483 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,3 18-1 0 0,4 16-126 0 0,50 178 1519 0 0,79 194-1600 0 0,25-9-262 0 0,-151-379-373 0 0,270 563 0 0 0,2 62 0 0 0,-271-602 0 0 0,-14-51-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-12-2164 0 0,-2-19-2829 0 0,-5-55-10442 0 0,2 28 8716 0 0,2 23 4256 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1877.57">107 3164 848 0 0,'63'-91'2508'0'0,"83"-158"1"0"0,-100 164 619 0 0,-43 81-2672 0 0,-1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-5-1 0 0,-2 9-366 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 144 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-11 7 629 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-16 22 1 0 0,5 0-41 0 0,-35 72-1 0 0,48-87-731 0 0,1 1 1 0 0,1 0-1 0 0,-7 32 0 0 0,12-43-70 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,5 17 0 0 0,-5-26-14 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,3 1-1 0 0,-2-1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,3-3-1 0 0,4-4 4 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,14-17 1 0 0,-8 4 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,11-33 1 0 0,-6 1 70 0 0,12-76 0 0 0,-21 97 16 0 0,-3 21 53 0 0,-1 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,-1-28 0 0 0,1 41-129 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-2 0-1 0 0,1 0 13 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-6 5 112 0 0,1-1-1 0 0,-13 15 0 0 0,18-19-87 0 0,-13 16 135 0 0,0 1 1 0 0,1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-13 28 1 0 0,-43 115 420 0 0,63-149-570 0 0,-10 29-12 0 0,2 1 0 0 0,-10 54 0 0 0,21-60-27 0 0,3-36 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1 3 0 0 0,-1-5 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,30-26 0 0 0,-2-6 0 0 0,-2-1 0 0 0,-1-1 0 0 0,-2-2 0 0 0,30-61 0 0 0,62-174 0 0 0,-79 179 0 0 0,-16 34 0 0 0,-12 33 0 0 0,1-1 0 0 0,27-48 0 0 0,-37 76 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2 0 0 0,2 4 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 11 0 0 0,7 28 0 0 0,11 92 0 0 0,-16-85 0 0 0,30 476 0 0 0,-30-313 0 0 0,7-45 0 0 0,-15-169 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-3-5 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,5-12 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-27 0 0 0,-2-3 0 0 0,-2 1 0 0 0,-9-45 0 0 0,9 73 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-11-20 0 0 0,12 28 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-6-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,-18 3 0 0 0,-15 3 0 0 0,-50 13 0 0 0,46-8 0 0 0,-99 25 0 0 0,76-16 0 0 0,48-11 0 0 0,47-11-389 0 0,1 0 0 0 0,0 2-1 0 0,43 2 1 0 0,-17 0-8833 0 0,-47-1 8471 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1-1 1 0 0,2-3-1750 0 0,-4 0 480 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2233.35">288 3062 1300 0 0,'3'-7'1574'0'0,"0"1"-1"0"0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-11 0 0 0,-2 18-1472 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-16 15 3424 0 0,-5 17-684 0 0,-36 59 482 0 0,18-16-2273 0 0,5 3 0 0 0,-30 96 0 0 0,17-8-212 0 0,44-138-701 0 0,4-29-136 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,10-13-141 0 0,1-10-672 0 0,11-31-1 0 0,-6 13-725 0 0,-2 6-284 0 0,-9 20 345 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,15-16 0 0 0,72-68-10293 0 0,-70 71 9267 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3537.6">1417 2933 844 0 0,'1'-2'253'0'0,"-1"1"0"0"0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,26-15 533 0 0,-8 3 34 0 0,23-21 7834 0 0,-38 29-9064 0 0,2-1 416 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,5-8 0 0 0,-8 10 19 0 0,-2 3 2 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 2 29 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,0 0 74 0 0,0-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,-2 0 1 0 0,-3 2 86 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-8 9 1 0 0,11-12-192 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 6 0 0 0,-1-7-12 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,6 0 0 0 0,-5 0 54 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-7 0 0 0,-3 3 212 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-12 0 0 0,-3 15-192 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-4 0 0 0,-1 1-12 0 0,1 1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-10-6 0 0 0,13 8-69 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 2 0 0 0,1 1-57 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,2 5 1 0 0,-1-4-271 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,8 6-1 0 0,-2-4-812 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,17 3-1 0 0,3-1-2922 0 0,57 1 1 0 0,-28-5 1130 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4910.34">4643 2786 1500 0 0,'-10'0'1777'0'0,"-3"-1"-83"0"0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-15 4-1 0 0,28-5-1682 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,11 2 323 0 0,14-1-50 0 0,49-6 58 0 0,-1-4-1 0 0,0-3 1 0 0,81-24 0 0 0,-150 32 1023 0 0,-11 1-647 0 0,-15 1-6 0 0,10 3-418 0 0,-80 12 1791 0 0,80-11-1931 0 0,1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,0 1 1 0 0,-18 9 0 0 0,28-14-154 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,2-1 0 0 0,1 1-3 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,4 0 1 0 0,-4-1-3 0 0,8-2-20 0 0,0 0 0 0 0,20-9 0 0 0,-29 11 26 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-3-1 0 0,-3 5 4 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,-26-2 26 0 0,-31 9 93 0 0,-7 9 222 0 0,60-11-301 0 0,11 0 7 0 0,13-1 1 0 0,13-7-26 0 0,0-1 0 0 0,49-15 0 0 0,-81 20-23 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-9-2 5 0 0,-14 0-3 0 0,-27 4 115 0 0,-54 10 1 0 0,26-2 297 0 0,7 2 342 0 0,62-8-582 0 0,19-1-100 0 0,18-1-35 0 0,386-26-18 0 0,-373 15 110 0 0,-41 9-129 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-9-2 135 0 0,-13 0 45 0 0,-382 16 3520 0 0,336-11-3501 0 0,56-3-158 0 0,8 0-30 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-3 2-1 0 0,8-2-9 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,3 0 1 0 0,516 1-164 0 0,-467-1 175 0 0,-372 21 483 0 0,317-21-502 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-2-17 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,24 5-1882 0 0,-10-3-400 0 0,-1 2 0 0 0,16 5 0 0 0,-27-8 1389 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,2 3 1 0 0,-2 3-1651 0 0,-2 3 545 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5242.75">4412 3536 1736 0 0,'-7'-8'15325'0'0,"6"8"-14686"0"0,0 0-243 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 396 0 0,1 0-396 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-430 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0-260 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 1 0 0 0,0-2-172 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 1-1393 0 0,-1-2 1393 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 1 0 0,3 3-2078 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5585.48">4798 3461 2128 0 0,'-28'-18'16299'0'0,"15"9"-5088"0"0,15 9-11317 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 2 0 0 0,5 10-5398 0 0,-5-4 202 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5926.87">5012 3488 1676 0 0,'5'-1'995'0'0,"6"-1"3863"0"0,0-1 0 0 0,18-6 1 0 0,4 0 4459 0 0,-34 25-12631 0 0,-2-9 1417 0 0,0 2-1449 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-9 13 0 0 0,-1-4-297 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:05.091"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">25 1 88 0 0,'-1'-1'481'0'0,"0"1"0"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-8 6 7970 0 0,10 21-2018 0 0,5 12-2947 0 0,-5-16-2141 0 0,-1-14-1117 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,3 13 0 0 0,-2-18-186 0 0,-1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 9 1 0 0,1 20 111 0 0,5 12 66 0 0,-6-36-158 0 0,0-6-22 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 6 0 0 0,0-6-25 0 0,-2 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 6-1 0 0,1 21 35 0 0,4 14-5 0 0,-3-35-3 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-2-1-1 0 0,0 12 1 0 0,-1 10 101 0 0,2 154 258 0 0,-5-150-338 0 0,5 122 355 0 0,0-157-381 0 0,1-7-956 0 0,-2 6 1248 0 0,3 0-309 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,4 1 1 0 0,-1 0 1 0 0,194-8 31 0 0,-163 6-52 0 0,50-4 7 0 0,62-2-14 0 0,-124 5 15 0 0,-23 3-4 0 0,6-1-3207 0 0,-30 2-17393 0 0,4 2 17292 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-18T13:06:08.746"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 124 332 0 0,'-8'-1'1036'0'0,"7"-2"81"0"0,16-2 407 0 0,238-5 2905 0 0,-207 7-3681 0 0,476-16 2326 0 0,-489 19-2876 0 0,224 4 1043 0 0,-51-1-958 0 0,18 0 7 0 0,-7 2-101 0 0,-14-1-159 0 0,137-2-92 0 0,-270-5 86 0 0,-42 0-2 0 0,53 4 0 0 0,82 4 6 0 0,-2 4 581 0 0,-168-10-509 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-9-4-1 0 0,-15-3-66 0 0,-392-47 0 0 0,-2 24 21 0 0,398 29-61 0 0,-550-5-6 0 0,303 25 22 0 0,194-11-25 0 0,-137 15-80 0 0,44-3 94 0 0,58-11 52 0 0,-31-5-62 0 0,78-4-26 0 0,-101 13 1 0 0,140-9 23 0 0,-2 0-15 0 0,28-2 25 0 0,5-1 4 0 0,17 2 14 0 0,369 1-151 0 0,-130-9-3123 0 0,-86 1-1901 0 0,-75 3 2144 0 0,-2-5 299 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:14.172"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 3 540 0 0,'2'-2'4658'0'0,"-2"2"-4572"0"0,3 7 2375 0 0,-3-6-2051 0 0,-5 14 4892 0 0,5-15-5022 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,2 2 0 0 0,20 10 3768 0 0,-16-9-3893 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,11 1-1 0 0,-3 0 2 0 0,79 13 502 0 0,84 11-35 0 0,-118-21-452 0 0,46 6 127 0 0,21-1 65 0 0,-57-6-150 0 0,227 15 294 0 0,-111-7-430 0 0,110 20-104 0 0,-146-17 50 0 0,87 6 133 0 0,-18-14-50 0 0,-176-7-92 0 0,73-9 22 0 0,-16-3-4 0 0,-92 11-30 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,9-2 0 0 0,18-5 19 0 0,-23 7-15 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,13-7-1 0 0,-2-4-17 0 0,-22 14 15 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-80-6-42 0 0,-137 9-1 0 0,122 0 16 0 0,-826-12 71 0 0,584-8-40 0 0,-189-2-442 0 0,528 18 422 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 2-1 0 0,0-2 3 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,2 1 0 0 0,87 9-75 0 0,1-3 1 0 0,103-6-1 0 0,-104-1 30 0 0,839-36-367 0 0,-410-12 494 0 0,-439 39 114 0 0,-116 3 31 0 0,-1107 57-258 0 0,1028-41 39 0 0,-564 62-125 0 0,606-64 109 0 0,-49 9-155 0 0,191-21-71 0 0,-16 3 248 0 0,487-31 34 0 0,285-14-104 0 0,-753 42 99 0 0,181-4 180 0 0,-251 8-137 0 0,-11 0 68 0 0,-968 24-9 0 0,488-6-208 0 0,318-12 25 0 0,-142 3-48 0 0,274-6-18 0 0,184 6 140 0 0,890-5-65 0 0,-579-5-3343 0 0,-411 1 2212 0 0,64-1-3935 0 0,-81 0 512 0 0,48-10 1 0 0,-49 3 465 0 0,-10-1 616 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:22.446"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 408 0 0,'0'12'19401'0'0,"30"0"-15704"0"0,-13-9-3184 0 0,0 0 0 0 0,1-1 0 0 0,-1-1-1 0 0,1 0 1 0 0,30-4 0 0 0,-23 1-330 0 0,40 3 1 0 0,99 5 296 0 0,-6-4-179 0 0,-16-1-57 0 0,70 1-65 0 0,16 2-46 0 0,-129-2-77 0 0,-7-1-20 0 0,41 2-33 0 0,8 1-2 0 0,147-2-72 0 0,-9-1 7 0 0,104 8 230 0 0,-312-10-155 0 0,143-5 39 0 0,146-14-50 0 0,-294 21-4 0 0,-50 0-2 0 0,-1 0 0 0 0,1-1 0 0 0,26-4 0 0 0,-2 1 30 0 0,-33 3-711 0 0,-24 0-7373 0 0,2 2 3869 0 0,1-1 0 0 0,-20 0-1 0 0,15-2 2058 0 0,-29 1-1694 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:45.858"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 611 1044 0 0,'-13'9'9664'0'0,"17"-18"-8923"0"0,40-64 2150 0 0,27-52-1415 0 0,-43 69-1230 0 0,-12 24-28 0 0,19-51 1 0 0,-35 82-214 0 0,44-114 1233 0 0,-29 72 142 0 0,-12 37-870 0 0,-3 6-469 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,3 18 368 0 0,9 89 1931 0 0,-5-32-1127 0 0,41 243 200 0 0,-42-270-1343 0 0,15 79 47 0 0,-18-104-124 0 0,-3-19-86 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,4 4 0 0 0,7-25-6010 0 0,61-100-6652 0 0,-41 59 8676 0 0,-13 30 2476 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="499.32">693 368 1512 0 0,'6'-16'2540'0'0,"-5"12"-1823"0"0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,4-6 1 0 0,-9 16 285 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-2 9-1 0 0,-1 2-398 0 0,1 1-1 0 0,1 0 1 0 0,-1 27-1 0 0,3-8 74 0 0,1 28 267 0 0,1-51-833 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1-1 0 0 0,1 1 1 0 0,11 15-1 0 0,-15-24-74 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,11-3-1 0 0,-4 0-20 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,14-14 0 0 0,-12 8 20 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,-1 1 0 0 0,-1-1 0 0 0,12-25 0 0 0,-16 28 46 0 0,-1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-2 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-2-1 1 0 0,-8-16-1 0 0,7 19 132 0 0,0 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-13-10-1 0 0,16 15-121 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 2-1 0 0,1-1 0 0 0,-2 0 1 0 0,-10-1-1 0 0,10 3-70 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-11 6 0 0 0,-2 3-14 0 0,1 1 0 0 0,0 0 0 0 0,-17 17 0 0 0,23-19 7 0 0,1 1-105 0 0,1-1 0 0 0,0 2 0 0 0,1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-6 29 0 0 0,10-31-994 0 0,-1 0 1 0 0,2 22-1 0 0,0-22-1095 0 0,2 0-1 0 0,3 19 1 0 0,-4-28 1505 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,3 3 1 0 0,8 4-2093 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2440.96">1354 167 316 0 0,'-20'3'25425'0'0,"21"-12"-24602"0"0,-1 9-818 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3-1 1 0 0,1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 1 0 0,9 0-1 0 0,9-1 13 0 0,-1 1-8 0 0,1 1 0 0 0,-1 1 0 0 0,0 1 1 0 0,29 8-1 0 0,-49-11 8 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,3 6 0 0 0,-2-4 15 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-2 11-1 0 0,-2 4 41 0 0,-1 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,-1 0 0 0 0,-12 23 1 0 0,-5 4 5 0 0,-2-2 1 0 0,-41 55-1 0 0,50-80-25 0 0,-1 0 0 0 0,-24 21 1 0 0,36-36-41 0 0,-15 12 40 0 0,21-18-30 0 0,17 6-12 0 0,65 7 214 0 0,1-2 0 0 0,119-2 0 0 0,-190-8-1715 0 0,-22-4-6840 0 0,3 1 5308 0 0,7 2 2732 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3-11-2150 0 0,-2 0 519 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3852.19">2179 35 1052 0 0,'29'-32'5331'0'0,"-22"29"-489"0"0,-9 9-1071 0 0,-2 9-1923 0 0,3-10-1401 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-4 10 0 0 0,-2 10 574 0 0,-2 6 95 0 0,-2 1-1 0 0,-27 50 1 0 0,14-30-323 0 0,-38 71 111 0 0,28-51-568 0 0,5-3 27 0 0,24-59-315 0 0,6-10-45 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,35 2 214 0 0,16 0-44 0 0,109-20-545 0 0,-143 14 471 0 0,-1-4-6931 0 0,-15 6 5827 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2 0 0 0,0 3 918 0 0,-1 0-126 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,2-1 0 0 0,8-21 3312 0 0,-5 15-1584 0 0,8-21 19402 0 0,-15 31-20828 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 30 155 0 0,1-22-20 0 0,-12 191 920 0 0,5-160-1038 0 0,2-15-31 0 0,0 36 0 0 0,-1 5-10 0 0,0-9 66 0 0,5-57-13 0 0,10-11-2035 0 0,-10 11 1629 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-4-3-3767 0 0,-9-4-7854 0 0,5 5 9433 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:55.086"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 221 432 0 0,'11'15'5852'0'0,"14"13"-1586"0"0,2-3-3421 0 0,-1 1 1 0 0,-2 2 0 0 0,0 0-1 0 0,-2 2 1 0 0,34 60-1 0 0,-51-78-1300 0 0,-4-10 65 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,2 2 0 0 0,-3-4 180 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,2-4-1322 0 0,6-2-444 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.15">380 230 808 0 0,'-3'-1'897'0'0,"-1"0"0"0"0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-6 1 0 0 0,8-1-644 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 3 0 0 0,-41 63 5452 0 0,34-49-4766 0 0,-15 37 1 0 0,-31 85-2960 0 0,56-139 1665 0 0,-2 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-3 2-1 0 0,2-1-684 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-6-1 1 0 0,-1 0-1415 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.59">1 467 168 0 0,'7'-6'8568'0'0,"9"3"-6069"0"0,16 0-795 0 0,102-3 5446 0 0,24 0-5910 0 0,-128 2-4318 0 0,43-10 0 0 0,-63 11 1136 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,9-6 0 0 0,1-1-1098 0 0,1-1 780 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1095.3">980 77 436 0 0,'-2'-11'3140'0'0,"1"10"-2937"0"0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,17-11 516 0 0,-13 9-494 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,6-1 1 0 0,-5 1-46 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,8 4 0 0 0,-11-6-71 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 3 1 0 0,-9 21 785 0 0,-2 0 0 0 0,0-1 1 0 0,-30 43-1 0 0,-48 73 592 0 0,77-117-1363 0 0,2 1 1 0 0,1 0-1 0 0,-16 52 0 0 0,25-68-108 0 0,0-6-10 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 6 1 0 0,2-3 1 0 0,-3-4 2 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,4 4-1 0 0,-5-6-4 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,1 1-1 0 0,6-2 9 0 0,1-1 0 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0-1-1 0 0,8-6 1 0 0,-12 8 16 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-2-1 0 0 0,7-10 0 0 0,-8 11-12 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-3-6-1 0 0,-3-6-9 0 0,0 1-1 0 0,-16-24 1 0 0,6 12-1 0 0,-22-36-16 0 0,27 45 2 0 0,0 0 0 0 0,2-1 0 0 0,0 0-1 0 0,-13-34 1 0 0,21 44 74 0 0,-1 0 0 0 0,1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-11 0 0 0,0 18-256 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3-4-1 0 0,-3 5-389 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-1 0 0 0,-1 1-732 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,3-4 1 0 0,4-3-1613 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:51.733"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">100 211 924 0 0,'-9'1'8978'0'0,"25"28"-6028"0"0,43 82 1026 0 0,-24-45-3736 0 0,4 6-769 0 0,-20-39-3722 0 0,-13-51-7769 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.01">306 271 1132 0 0,'-6'-8'8016'0'0,"3"11"-7576"0"0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 9-1 0 0,-9 18 196 0 0,-28 70 355 0 0,-2-11-1300 0 0,40-85-182 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-5 6 0 0 0,7-9 142 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-2 1 1 0 0,3-1 123 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-4-3-1459 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="681.13">10 469 1084 0 0,'-9'-3'6376'0'0,"32"-5"-2154"0"0,20 4-2983 0 0,-10 1-608 0 0,150-14 894 0 0,-97 11-1197 0 0,-11-1-2414 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1298.83">766 556 956 0 0,'-1'0'259'0'0,"0"0"-1"0"0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,8-15 972 0 0,-4 11-914 0 0,9-12 1202 0 0,25-32 0 0 0,-23 34-1261 0 0,-1-1 0 0 0,15-29 0 0 0,-6 6-29 0 0,-8 16 4 0 0,15-35 0 0 0,11-39 254 0 0,9-34 1822 0 0,-48 118-979 0 0,-1 12-205 0 0,0 9-782 0 0,-1 3-43 0 0,0 0-1 0 0,-1-1 0 0 0,-3 12 1 0 0,-2 19 720 0 0,0 37 535 0 0,3 1 0 0 0,10 111 1 0 0,-1-72-1379 0 0,0-60-632 0 0,-4-33-4518 0 0,11-24-3352 0 0,0-7 6549 0 0,28-30-4560 0 0,-35 32 5694 0 0,11-15-1244 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1783.87">1415 268 952 0 0,'1'-2'694'0'0,"1"-1"0"0"0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,6-2 0 0 0,-9 5-468 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 13 1118 0 0,-3-2-877 0 0,2 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1 19 1 0 0,3 5 230 0 0,5 42 1 0 0,-3-67-651 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,9 13 0 0 0,-13-18-36 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,-5-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,8-3-1 0 0,-2-1 4 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,17-21-1 0 0,-15 14 117 0 0,-1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,0 0 0 0 0,14-39-1 0 0,-21 48-10 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-2 0 0 0 0,1 0 0 0 0,-7-15 0 0 0,4 14 91 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 2 1 0 0,-1-1-1 0 0,0 1 0 0 0,-15-14 1 0 0,17 18-145 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-10 0-1 0 0,-3 3-33 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1 1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,1 1 0 0 0,-1 1 1 0 0,2 1-1 0 0,-19 12 0 0 0,22-12-171 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-20 24 1 0 0,21-20-1884 0 0,-19 30 0 0 0,28-40 1186 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 6 0 0 0,0-9 363 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,2 3 1 0 0,7 2-1748 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2518.96">2011 187 1040 0 0,'-4'-2'641'0'0,"1"0"1"0"0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-5 0 0 0,0 0 96 0 0,4 4 235 0 0,1 3-909 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 322 0 0,20 0 1187 0 0,-5 2-1240 0 0,0-1 0 0 0,-1-1 0 0 0,18-1 1 0 0,27 2 242 0 0,-40 0-296 0 0,-8-1-55 0 0,-1 1-1 0 0,0 0 1 0 0,1 1-1 0 0,13 3 1 0 0,-23-4-153 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 3-1 0 0,-2 5 244 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-11 14-1 0 0,-33 40 898 0 0,-82 115 213 0 0,128-171-1383 0 0,-1-1 25 0 0,1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3 11 0 0 0,5-15-48 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,35 1 255 0 0,-31-1-237 0 0,134-7-164 0 0,-120 4-1399 0 0,-1-1 1 0 0,31-9-1 0 0,-44 12 254 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,6-7 1 0 0,0-2-1444 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3015.85">2621 139 208 0 0,'0'-36'9956'0'0,"-15"52"-5788"0"0,8-3-3526 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-4 18 0 0 0,6-27-602 0 0,1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,4 9-1 0 0,-4-10-35 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,6 0 0 0 0,3 0-5 0 0,1 0 1 0 0,-1-1-1 0 0,24-5 1 0 0,-23 2 13 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-2-1 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,18-17 0 0 0,14-14 3175 0 0,-48 47 246 0 0,-3 14-2334 0 0,-1 3-782 0 0,1 0 11 0 0,0 1 0 0 0,1 0 0 0 0,-3 43 0 0 0,3-15-96 0 0,2-23-205 0 0,1 1 0 0 0,2-1 0 0 0,4 52 0 0 0,8-29-1241 0 0,-2-18-4823 0 0,-9-36 5901 0 0,0 1-158 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0-329 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,2-2 0 0 0,12-7-2711 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:59.014"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 54 600 0 0,'0'8'1492'0'0,"-1"-6"-1311"0"0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,1 2 0 0 0,8 17 3498 0 0,-4-12 6 0 0,-5-8-3362 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,3 2 1 0 0,5 2 943 0 0,-6-3-1043 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,4-1 1 0 0,189-5 3082 0 0,163-17-1015 0 0,-83 11-1946 0 0,-118 8-103 0 0,155 1 212 0 0,-18 1-160 0 0,218-11-102 0 0,-47-3-90 0 0,35 13 219 0 0,-258 3-163 0 0,114 10 31 0 0,0-1 8 0 0,248-10 25 0 0,-299-7-113 0 0,-1-1-11 0 0,294-4 39 0 0,-478 6-107 0 0,133-3 309 0 0,138 3-37 0 0,-248 6-262 0 0,-5-3-34 0 0,-37 0-21 0 0,427-3-92 0 0,961 3 200 0 0,-1256 12-172 0 0,-12-2 26 0 0,-173-4 72 0 0,99 5 44 0 0,167 4 24 0 0,127-18-50 0 0,52 3-148 0 0,-183 9 63 0 0,-48-6 150 0 0,-122-6-324 0 0,-154 0-2220 0 0,-108-10-9373 0 0,7 1 4318 0 0,20-2 3756 0 0,-14-1 881 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink96.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:09:01.698"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 249 36 0 0,'-14'-9'20494'0'0,"37"-8"-18671"0"0,-16 11-1806 0 0,1 0 0 0 0,0 1 0 0 0,11-6 0 0 0,11-1 82 0 0,1 2 1 0 0,0 1 0 0 0,0 1 0 0 0,56-6-1 0 0,-18 8 305 0 0,-61 5-295 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,11 5-1 0 0,-16-6-45 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 3 1 0 0,-1-2-7 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-3 4 1 0 0,-1 4 44 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-9 12 0 0 0,-3 3 74 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-2-1 0 0,-32 26 1 0 0,15-21 153 0 0,68-37-10 0 0,-3 6-304 0 0,-1 1 0 0 0,1 1 0 0 0,1 2 0 0 0,-1 0 0 0 0,49 9 0 0 0,-41-3-4 0 0,-1 2 1 0 0,35 13 0 0 0,-54-16 9 0 0,0 1-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 1-1 0 0,14 12 1 0 0,-23-18 10 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-8 4 0 0 0,-13 6 55 0 0,-1-1 0 0 0,1-2 0 0 0,-2 0 0 0 0,1-2 0 0 0,-2-1 0 0 0,1 0 0 0 0,0-2 0 0 0,-37 2 0 0 0,7-4-4 0 0,0-3 0 0 0,-110-13 0 0 0,135 8-67 0 0,-28-2-277 0 0,58 7 10 0 0,31 6-7596 0 0,-22-4 5641 0 0,0-1 1 0 0,0-1 0 0 0,14 1-1 0 0,-4-3-1790 0 0,30-6 0 0 0,-24 3 1693 0 0,20-2-475 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2011.57">1255 42 272 0 0,'-1'0'178'0'0,"1"1"0"0"0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 8 6899 0 0,-25-7-4023 0 0,19 0-2520 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-9 0-1 0 0,12 0-267 0 0,-13-3 3648 0 0,39-15-1811 0 0,-22 16-2019 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,4-1 0 0 0,44-9 283 0 0,-11 5-2 0 0,52-1 1 0 0,-87 8-316 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,12 7 0 0 0,4 8 128 0 0,-18-17-149 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 3-1 0 0,0 1 62 0 0,-3-6-69 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 4 1 0 0,9 39 378 0 0,-10-31-267 0 0,1-10-94 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-2 6-1 0 0,-14 25 305 0 0,14-29-296 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-6 10 0 0 0,-22 21 162 0 0,21-22-114 0 0,-2 0 0 0 0,-17 16-1 0 0,-46 43 254 0 0,-3 3-139 0 0,62-60-173 0 0,1 1 0 0 0,1 1 0 0 0,-19 28 0 0 0,31-41-30 0 0,-26 31 23 0 0,18-23-8 0 0,9-11-15 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 4 1 0 0,1-4 48 0 0,3-3 239 0 0,8 0-194 0 0,523 3 183 0 0,-243-3-46 0 0,-289 0-240 0 0,-3 9-4862 0 0,-3-6 2469 0 0,2-1 59 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-4 1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink97.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:09:04.616"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">24 0 616 0 0,'-24'9'20021'0'0,"69"-7"-15320"0"0,22 4-2996 0 0,27 2-1427 0 0,269-5 461 0 0,-228-4-628 0 0,-70 4-623 0 0,-96 0-5858 0 0,-54 10-1 0 0,6 1-704 0 0,34-7 3622 0 0,0 1 559 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="756.62">164 318 204 0 0,'-1'2'426'0'0,"1"-1"-1"0"0,-1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,-32 11 5198 0 0,27-10-3684 0 0,-8 3 1288 0 0,5-4 4820 0 0,17-3-7775 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,11 0 1 0 0,-13 1-189 0 0,263-10 1252 0 0,-58 5-602 0 0,109 1 121 0 0,-193 5-857 0 0,-122-1-52 0 0,7 0-893 0 0,0 0 0 0 0,0 1 1 0 0,11 2-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink98.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:09:11.888"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 78 676 0 0,'-16'-19'3369'0'0,"14"17"-3144"0"0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-4 1 0 0,-4-18 13799 0 0,6 26-13723 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,3 0 0 0 0,26 9 403 0 0,113 27 466 0 0,169 19-1 0 0,-131-26-745 0 0,500 118 96 0 0,-9 30-448 0 0,-561-147-1 0 0,370 89-956 0 0,-474-119 501 0 0,37 8-923 0 0,-17-7-4103 0 0,-36-14-5349 0 0,5 10 9804 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-7-2-1 0 0,3 1-95 0 0,-26-7-2240 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2658.62">3686 126 928 0 0,'-3'-1'611'0'0,"1"0"-1"0"0,0-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-5-1 0 0 0,5 3-8 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-3 4 0 0 0,-24 21 3265 0 0,10-14 1557 0 0,41-32-1944 0 0,-4 9-3362 0 0,-1 1-1 0 0,2 0 0 0 0,-1 1 0 0 0,26-6 0 0 0,-19 8-71 0 0,1 0-1 0 0,-1 1 0 0 0,1 1 0 0 0,0 2 1 0 0,33 2-1 0 0,-51-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,11 7-1 0 0,-15-8-18 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 3 0 0 0,-5 12 72 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-18 22 0 0 0,-76 80 206 0 0,94-109-274 0 0,-72 78 190 0 0,36-33-56 0 0,45-54-165 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,11 4 82 0 0,11-1 88 0 0,279-13 756 0 0,3-1-1938 0 0,-296 11 3213 0 0,4 0-4278 0 0,4 0-6924 0 0,-42 9-9597 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink99.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-05T13:08:40.220"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">151 1478 392 0 0,'-15'9'13321'0'0,"18"-21"-10068"0"0,15-24-2203 0 0,60-114-409 0 0,-68 129-561 0 0,14-39 0 0 0,4-9 248 0 0,-20 49 608 0 0,-2-1-1 0 0,9-40 0 0 0,-5 170 482 0 0,0 71 150 0 0,-5 23-761 0 0,-10 91 848 0 0,15-293-830 0 0,-10 5-797 0 0,0-5-23 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1 2 1 0 0,1-2-3 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 3 0 0 0,-1 0 9 0 0,-5 50 82 0 0,5-54-77 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,1-4 160 0 0,2-2-331 0 0,-1 2 83 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-13-27-14407 0 0,6-3 5965 0 0,6 15 5937 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1422.34">1180 1037 752 0 0,'5'0'2147'0'0,"-4"0"-2063"0"0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 556 0 0,-4 9 2403 0 0,3-9-2847 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,1 9 1021 0 0,-2-10-1154 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 101 0 0,-1-2 288 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1-3-1 0 0,0 1-341 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-8-3-1 0 0,6 3-25 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-9 7 0 0 0,-6 5 25 0 0,14-11-66 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-5 7 0 0 0,-13 20 231 0 0,2 0 1 0 0,-23 45-1 0 0,33-51-81 0 0,2 1-1 0 0,1 0 1 0 0,1 1 0 0 0,-6 36 0 0 0,1 31 134 0 0,12-78-286 0 0,0 17 98 0 0,1 0 0 0 0,2 0 0 0 0,9 64 0 0 0,-7-77-79 0 0,-2-13-34 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,6 11 0 0 0,20 34 202 0 0,-27-51-206 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6 3 0 0 0,-1 0 34 0 0,1-1 0 0 0,1 0 1 0 0,17 4-1 0 0,-11-5-24 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,31-4 0 0 0,-38 3-21 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,10-9-1 0 0,18-17 41 0 0,-6-12-19 0 0,-10 14-17 0 0,-15 20-6 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-2-1-1 0 0,3-10 1 0 0,-5 18-8 0 0,2-8 23 0 0,0 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-2-16 0 0 0,2 21-15 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-4-2 0 0 0,-3-1-135 0 0,-1 2 1 0 0,0-1-1 0 0,0 2 1 0 0,0-1-1 0 0,-24 2 1 0 0,-59 9-2897 0 0,81-7 2219 0 0,-51 11-4937 0 0,44-7 394 0 0,0 1-1 0 0,-30 15 0 0 0,39-16 2067 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2315.56">2040 1289 16 0 0,'-2'-4'7616'0'0,"2"4"-7489"0"0,0 0 42 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,102 108 6151 0 0,-34-33-5250 0 0,8 2-1746 0 0,-71-70 196 0 0,17 16-3273 0 0,-22-23 3458 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,4-7-2024 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2653.52">2295 1298 144 0 0,'0'0'308'0'0,"0"-1"1"0"0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1-191 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-16 36 3884 0 0,11-29-3532 0 0,1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-4 17-1 0 0,-17 86 709 0 0,8-42-1247 0 0,14-61-60 0 0,2-6-40 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 3-1 0 0,-4 4-1371 0 0,6-8 1270 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-4-1-1834 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3025.36">1989 1568 68 0 0,'-8'-9'12141'0'0,"8"8"-11708"0"0,11-6 4277 0 0,32 0-5075 0 0,-28 5 1704 0 0,274-52 1709 0 0,-263 48-2875 0 0,126-30 667 0 0,-165 37-6808 0 0,-17 6 478 0 0,-11 3-3235 0 0,27-5 6673 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32640.06">45 1055 64 0 0,'-4'-2'1054'0'0,"1"-1"-1"0"0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,-11-8 5491 0 0,16 9-6339 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,2 0 1225 0 0,-2 1-1226 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,2 1 297 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,6 4-1 0 0,31 23 288 0 0,-18-12-286 0 0,30 17-142 0 0,1-3 0 0 0,2-1-1 0 0,1-3 1 0 0,65 21 0 0 0,240 59 166 0 0,-299-90-416 0 0,144 37-42 0 0,205 58 359 0 0,-302-76-1333 0 0,179 85 1 0 0,-266-110-409 0 0,-1 2 0 0 0,31 21 0 0 0,-13 3-3708 0 0,-32-28 2905 0 0,1 0 0 0 0,-2 0 0 0 0,8 13 0 0 0,-4-6-796 0 0,4 11-2233 0 0,-11-6 2235 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35483.57">336 395 1056 0 0,'4'21'16316'0'0,"1"-31"-14292"0"0,9-18-769 0 0,33-49 1 0 0,-36 60-1033 0 0,69-135 1153 0 0,-52 94-464 0 0,-3-5 615 0 0,-19 52-1106 0 0,-2 11 5 0 0,-1 20 151 0 0,-1-6-569 0 0,12 108 694 0 0,4 77 48 0 0,-4-33-339 0 0,-3-47-211 0 0,12 74 90 0 0,-17-148-1705 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11780,10 +17486,10 @@
   <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12687,22 +18393,37 @@
         <v>45302</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="O27" s="2" t="s">
-        <v>28</v>
+      <c r="U27" s="27">
+        <v>28245</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>45309</v>
+      </c>
       <c r="C28" s="5"/>
+      <c r="O28" s="27">
+        <v>18440</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
+      <c r="O29" s="27">
+        <v>18493</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
+      <c r="O30" s="24">
+        <v>27381</v>
+      </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="17"/>
+      <c r="O31" s="17">
+        <v>10288</v>
+      </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
@@ -12802,6 +18523,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77659BFC-817F-4944-A61B-0A3CC3020EA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2BCC4-EE40-41E5-848D-1E3FEBE38EDB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12816,7 +18552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A0098B-1913-4B5D-954A-7F83D92431EB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12831,7 +18567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3537D3-7809-46CC-88E1-B8A108FAB24B}">
   <dimension ref="D53:D55"/>
   <sheetViews>

--- a/ЕГЭ Илья Казанцев.xlsx
+++ b/ЕГЭ Илья Казанцев.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3786DA00-75E8-4868-9625-E76349428A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE725A-C61E-4A8C-9133-46CC78DEF2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>СГ1</t>
+  </si>
+  <si>
+    <t>СГ2</t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>93161</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Рукописный ввод 7">
@@ -565,7 +568,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Рукописный ввод 7">
@@ -610,8 +613,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>149805</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Рукописный ввод 8">
@@ -630,7 +633,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Рукописный ввод 8">
@@ -675,8 +678,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>101205</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Рукописный ввод 9">
@@ -695,7 +698,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Рукописный ввод 9">
@@ -740,8 +743,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>186775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Рукописный ввод 20">
@@ -760,7 +763,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Рукописный ввод 20">
@@ -805,8 +808,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>8771</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Рукописный ввод 63">
@@ -825,7 +828,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Рукописный ввод 63">
@@ -914,8 +917,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>140534</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="66" name="Рукописный ввод 65">
@@ -934,7 +937,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="66" name="Рукописный ввод 65">
@@ -979,8 +982,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>167894</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="67" name="Рукописный ввод 66">
@@ -999,7 +1002,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="67" name="Рукописный ввод 66">
@@ -1044,8 +1047,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>47758</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Рукописный ввод 69">
@@ -1064,7 +1067,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Рукописный ввод 69">
@@ -1109,8 +1112,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28552</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Рукописный ввод 70">
@@ -1129,7 +1132,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Рукописный ввод 70">
@@ -1262,8 +1265,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>28004</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Рукописный ввод 79">
@@ -1282,7 +1285,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Рукописный ввод 79">
@@ -1327,8 +1330,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>9137</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Рукописный ввод 87">
@@ -1347,7 +1350,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Рукописный ввод 87">
@@ -1392,8 +1395,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>20126</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Рукописный ввод 97">
@@ -1412,7 +1415,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Рукописный ввод 97">
@@ -1457,8 +1460,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>27261</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="103" name="Рукописный ввод 102">
@@ -1477,7 +1480,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="103" name="Рукописный ввод 102">
@@ -1522,8 +1525,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>146885</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="113" name="Рукописный ввод 112">
@@ -1542,7 +1545,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="113" name="Рукописный ввод 112">
@@ -1587,8 +1590,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>166390</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Рукописный ввод 119">
@@ -1607,7 +1610,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Рукописный ввод 119">
@@ -1652,8 +1655,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>136575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Рукописный ввод 124">
@@ -1672,7 +1675,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Рукописный ввод 124">
@@ -1717,8 +1720,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>149830</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="127" name="Рукописный ввод 126">
@@ -1737,7 +1740,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="127" name="Рукописный ввод 126">
@@ -1782,8 +1785,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>70785</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="128" name="Рукописный ввод 127">
@@ -1802,7 +1805,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="128" name="Рукописный ввод 127">
@@ -1847,8 +1850,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>139815</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Рукописный ввод 128">
@@ -1867,7 +1870,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Рукописный ввод 128">
@@ -1912,8 +1915,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>162430</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Рукописный ввод 134">
@@ -1932,7 +1935,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Рукописный ввод 134">
@@ -1977,8 +1980,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>151695</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="144" name="Рукописный ввод 143">
@@ -1997,7 +2000,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="144" name="Рукописный ввод 143">
@@ -2042,8 +2045,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>30354</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="149" name="Рукописный ввод 148">
@@ -2062,7 +2065,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="149" name="Рукописный ввод 148">
@@ -2107,8 +2110,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171573</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="150" name="Рукописный ввод 149">
@@ -2127,7 +2130,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="150" name="Рукописный ввод 149">
@@ -2172,8 +2175,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>8797</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Рукописный ввод 150">
@@ -2192,7 +2195,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Рукописный ввод 150">
@@ -2237,8 +2240,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>11677</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="152" name="Рукописный ввод 151">
@@ -2257,7 +2260,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="152" name="Рукописный ввод 151">
@@ -2302,8 +2305,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>32917</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="153" name="Рукописный ввод 152">
@@ -2322,7 +2325,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="153" name="Рукописный ввод 152">
@@ -2367,8 +2370,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>16357</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Рукописный ввод 153">
@@ -2387,7 +2390,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Рукописный ввод 153">
@@ -2432,8 +2435,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>17077</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Рукописный ввод 154">
@@ -2452,7 +2455,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Рукописный ввод 154">
@@ -2497,8 +2500,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>17077</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="156" name="Рукописный ввод 155">
@@ -2517,7 +2520,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="156" name="Рукописный ввод 155">
@@ -2562,8 +2565,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>190406</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="Рукописный ввод 169">
@@ -2582,7 +2585,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="Рукописный ввод 169">
@@ -2627,8 +2630,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>14492</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="171" name="Рукописный ввод 170">
@@ -2647,7 +2650,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="171" name="Рукописный ввод 170">
@@ -2692,8 +2695,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>877</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="172" name="Рукописный ввод 171">
@@ -2712,7 +2715,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="172" name="Рукописный ввод 171">
@@ -2757,8 +2760,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>10532</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="173" name="Рукописный ввод 172">
@@ -2777,7 +2780,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="173" name="Рукописный ввод 172">
@@ -2822,8 +2825,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>32492</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="174" name="Рукописный ввод 173">
@@ -2842,7 +2845,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="174" name="Рукописный ввод 173">
@@ -2931,8 +2934,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>105041</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="176" name="Рукописный ввод 175">
@@ -2951,7 +2954,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="176" name="Рукописный ввод 175">
@@ -2996,8 +2999,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>133121</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="177" name="Рукописный ввод 176">
@@ -3016,7 +3019,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="177" name="Рукописный ввод 176">
@@ -3061,8 +3064,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>143921</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="Рукописный ввод 177">
@@ -3081,7 +3084,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="Рукописный ввод 177">
@@ -3170,8 +3173,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>48141</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="188" name="Рукописный ввод 187">
@@ -3190,7 +3193,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="188" name="Рукописный ввод 187">
@@ -3235,8 +3238,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>30566</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="197" name="Рукописный ввод 196">
@@ -3255,7 +3258,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="197" name="Рукописный ввод 196">
@@ -3300,8 +3303,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>56126</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="203" name="Рукописный ввод 202">
@@ -3320,7 +3323,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="203" name="Рукописный ввод 202">
@@ -3365,8 +3368,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>36326</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="204" name="Рукописный ввод 203">
@@ -3385,7 +3388,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="204" name="Рукописный ввод 203">
@@ -3430,8 +3433,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>54916</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Рукописный ввод 208">
@@ -3450,7 +3453,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Рукописный ввод 208">
@@ -3495,8 +3498,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>48141</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="214" name="Рукописный ввод 213">
@@ -3515,7 +3518,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="214" name="Рукописный ввод 213">
@@ -3560,8 +3563,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>137801</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="218" name="Рукописный ввод 217">
@@ -3580,7 +3583,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="218" name="Рукописный ввод 217">
@@ -3625,8 +3628,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>134921</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="219" name="Рукописный ввод 218">
@@ -3645,7 +3648,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="219" name="Рукописный ввод 218">
@@ -3690,8 +3693,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>151695</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="235" name="Рукописный ввод 234">
@@ -3710,7 +3713,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="235" name="Рукописный ввод 234">
@@ -3755,8 +3758,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>94905</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="236" name="Рукописный ввод 235">
@@ -3775,7 +3778,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="236" name="Рукописный ввод 235">
@@ -3820,8 +3823,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>137385</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="237" name="Рукописный ввод 236">
@@ -3840,7 +3843,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="237" name="Рукописный ввод 236">
@@ -3885,8 +3888,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>138105</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="238" name="Рукописный ввод 237">
@@ -3905,7 +3908,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="238" name="Рукописный ввод 237">
@@ -3950,8 +3953,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>14096</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="239" name="Рукописный ввод 238">
@@ -3970,7 +3973,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="239" name="Рукописный ввод 238">
@@ -4015,8 +4018,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>165713</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="247" name="Рукописный ввод 246">
@@ -4035,7 +4038,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="247" name="Рукописный ввод 246">
@@ -4080,8 +4083,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>34439</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="248" name="Рукописный ввод 247">
@@ -4100,7 +4103,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="248" name="Рукописный ввод 247">
@@ -4145,8 +4148,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>190128</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="254" name="Рукописный ввод 253">
@@ -4165,7 +4168,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="254" name="Рукописный ввод 253">
@@ -4210,8 +4213,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>173993</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="255" name="Рукописный ввод 254">
@@ -4230,7 +4233,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="255" name="Рукописный ввод 254">
@@ -4275,8 +4278,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>12839</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="262" name="Рукописный ввод 261">
@@ -4295,7 +4298,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="262" name="Рукописный ввод 261">
@@ -11655,7 +11658,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">205 96 288 0 0,'5'-4'8555'0'0,"-7"60"-5858"0"0,1 33-1434 0 0,2-29-855 0 0,-3 0 0 0 0,-10 64 0 0 0,11-113-402 0 0,-2 28-1327 0 0,3-66-8546 0 0,0 19 8086 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="508.16">13 42 52 0 0,'-12'-7'5691'0'0,"19"8"-4105"0"0,24 3-911 0 0,-1-1 0 0 0,0-1 0 0 0,1-2 1 0 0,35-4-1 0 0,-20 1-524 0 0,11 4-1192 0 0,-19 5-4859 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.26">32 586 364 0 0,'2'1'7077'0'0,"9"3"-5917"0"0,104-13 106 0 0,1 0-1498 0 0,-90 8-141 0 0,-14 1-1488 0 0,-1 0-4327 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2003.69">518 67 584 0 0,'-2'13'4166'0'0,"3"20"-2428"0"0,8 99 1299 0 0,-6-62-2381 0 0,0-3-411 0 0,4 51-356 0 0,-6-101-661 0 0,-1-17 625 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-3-1-1277 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2003.68">518 67 584 0 0,'-2'13'4166'0'0,"3"20"-2428"0"0,8 99 1299 0 0,-6-62-2381 0 0,0-3-411 0 0,4 51-356 0 0,-6-101-661 0 0,-1-17 625 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-3-1-1277 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2669.45">474 67 112 0 0,'-1'-1'95'0'0,"1"1"1"0"0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0 19 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,2-1 0 0 0,2-1 198 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,11-3-1 0 0,-10 6-180 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,8 7-1 0 0,-9-7-71 0 0,1 1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 9-1 0 0,-2-11 6 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-8 8 0 0 0,6-7-15 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-12-1 1 0 0,11-1-236 0 0,-30 1 169 0 0,21 6-2346 0 0,3 5-3729 0 0,13-8 4637 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3531.54">558 509 320 0 0,'0'20'7252'0'0,"0"50"-5392"0"0,0-69-1770 0 0,-1-3 839 0 0</inkml:trace>
 </inkml:ink>
@@ -12060,7 +12063,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">30 75 220 0 0,'2'-38'1737'0'0,"1"2"1538"0"0,-1 109 2404 0 0,5 42-3084 0 0,1 19-1945 0 0,-2-49-526 0 0,0 34-462 0 0,-5-106-120 0 0,0-10 169 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 2 0 0 0,1-5 122 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-5-13-2004 0 0,4 3 1041 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.69">1 391 584 0 0,'-1'-1'208'0'0,"1"0"1"0"0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-2 1 0 0,0 2 210 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,4 0 1 0 0,1-1-98 0 0,14-1 818 0 0,-1-1 0 0 0,34-10 0 0 0,-31 6-1897 0 0,0-1 0 0 0,22-11 1 0 0,-38 15-9 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,5-10 0 0 0,-5 2-451 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.65">339 50 704 0 0,'-4'-13'949'0'0,"-1"-5"1420"0"0,1 18-1128 0 0,0 11-211 0 0,-16 72 2188 0 0,14-44-2398 0 0,-3 49 1 0 0,7-44-693 0 0,0 146-744 0 0,8-156-1336 0 0,-6-33 1756 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,3-1-1246 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.85">427 390 228 0 0,'0'0'78'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,-6 19 436 0 0,6-19-474 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 0 0 0 0,-4 1-18 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-2 0 0 0,0 3 109 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,1 2-11 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5 3 0 0 0,3-1-145 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-8 7 0 0 0,11-10-119 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 4 0 0 0,1-7-168 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,7 2-1228 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.84">427 390 228 0 0,'0'0'78'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,-6 19 436 0 0,6-19-474 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 0 0 0 0,-4 1-18 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-2 0 0 0,0 3 109 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,1 2-11 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5 3 0 0 0,3-1-145 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-8 7 0 0 0,11-10-119 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 4 0 0 0,1-7-168 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,7 2-1228 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1410.04">807 343 48 0 0,'0'0'36'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-11 2 655 0 0,-14 9-24 0 0,24-11-632 0 0,-37 23 1322 0 0,35-21-1299 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 5 1 0 0,3-7-57 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,2 1-1 0 0,23 8-62 0 0,-26-9 60 0 0,45 10-339 0 0,-35-9 336 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,13 10-1 0 0,-21-14 82 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0 68 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 2 0 0 0,-7 4 387 0 0,1 0 0 0 0,-1-1 0 0 0,-16 8 0 0 0,18-10-595 0 0,0 1-39 0 0,-20 9 17 0 0,12-11-2734 0 0,16-4 2669 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-14 0 0,3-5-1581 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1749.01">1024 284 936 0 0,'3'59'9381'0'0,"3"7"-5605"0"0,1 13-4568 0 0,-3-3-3594 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2091.32">924 453 124 0 0,'0'0'184'0'0,"-1"0"0"0"0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,11-9 3472 0 0,34-8-1145 0 0,-33 14-2211 0 0,-1-1-220 0 0,0 2 1 0 0,1-1-1 0 0,0 1 0 0 0,18-2 0 0 0,-24 5-567 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,9 2 0 0 0,-11-1-359 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,4 2 0 0 0,3 5-1369 0 0</inkml:trace>
@@ -12450,8 +12453,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">27 127 120 0 0,'2'-9'1501'0'0,"-1"5"-887"0"0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,4-5 1 0 0,-6 8-460 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,4 17 1367 0 0,-2 27 95 0 0,-3 0 0 0 0,-8 68 0 0 0,3-50-1256 0 0,-14 111-41 0 0,13-128-4225 0 0,14-101-2235 0 0,-2-68 0 0 0,-5 88 4729 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.99">9 72 812 0 0,'-3'-14'1134'0'0,"2"10"-919"0"0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1-7-1 0 0,-1 11-140 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,15 17 1254 0 0,-9-6-683 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,4 14 0 0 0,14 70 893 0 0,-10-41-1188 0 0,-9-38-291 0 0,10 35 22 0 0,-13-49-82 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,5 3 0 0 0,-7-6-20 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0 0-57 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1-2 1 0 0,5-4-379 0 0,0-1 0 0 0,9-16 0 0 0,-13 20 297 0 0,15-26-745 0 0,27-62 0 0 0,-4 10 1854 0 0,-42 83-922 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 13 942 0 0,-3 19 142 0 0,-4 14 695 0 0,2 64 0 0 0,2-36-850 0 0,-1-25-908 0 0,3 0 0 0 0,7 58 0 0 0,-8-88-3137 0 0,7-35-9477 0 0,-3 7 10349 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1900.18">585 478 564 0 0,'2'0'230'0'0,"1"-1"-1"0"0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3-3 1 0 0,5-4 276 0 0,-5 3 278 0 0,-3 1 970 0 0,-7 5-1264 0 0,4-1-464 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 123 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-2 0 9 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-8 11 1 0 0,12-15-145 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 3 0 0 0,2-5-15 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0-119 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4-3 1 0 0,2 0-334 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,12-11 0 0 0,-12 9 733 0 0,-1 0-1 0 0,12-18 1 0 0,-18 27-193 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-31 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 12 694 0 0,0 0-1 0 0,-5 18 1 0 0,4-23-541 0 0,1 1 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 9 1 0 0,-2-15-178 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-102 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,7-5-1561 0 0,-1 0 1 0 0,0-1-1 0 0,9-11 0 0 0,-5 7-2627 0 0,-3 3 1923 0 0,-2 1 281 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.98">9 72 812 0 0,'-3'-14'1134'0'0,"2"10"-919"0"0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1-7-1 0 0,-1 11-140 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,15 17 1254 0 0,-9-6-683 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,4 14 0 0 0,14 70 893 0 0,-10-41-1188 0 0,-9-38-291 0 0,10 35 22 0 0,-13-49-82 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,5 3 0 0 0,-7-6-20 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0 0-57 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1-2 1 0 0,5-4-379 0 0,0-1 0 0 0,9-16 0 0 0,-13 20 297 0 0,15-26-745 0 0,27-62 0 0 0,-4 10 1854 0 0,-42 83-922 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 13 942 0 0,-3 19 142 0 0,-4 14 695 0 0,2 64 0 0 0,2-36-850 0 0,-1-25-908 0 0,3 0 0 0 0,7 58 0 0 0,-8-88-3137 0 0,7-35-9477 0 0,-3 7 10349 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1900.17">585 478 564 0 0,'2'0'230'0'0,"1"-1"-1"0"0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3-3 1 0 0,5-4 276 0 0,-5 3 278 0 0,-3 1 970 0 0,-7 5-1264 0 0,4-1-464 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 123 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-2 0 9 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-8 11 1 0 0,12-15-145 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 3 0 0 0,2-5-15 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0-119 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4-3 1 0 0,2 0-334 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,12-11 0 0 0,-12 9 733 0 0,-1 0-1 0 0,12-18 1 0 0,-18 27-193 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-31 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 12 694 0 0,0 0-1 0 0,-5 18 1 0 0,4-23-541 0 0,1 1 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 9 1 0 0,-2-15-178 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-102 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,7-5-1561 0 0,-1 0 1 0 0,0-1-1 0 0,9-11 0 0 0,-5 7-2627 0 0,-3 3 1923 0 0,-2 1 281 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2554.39">883 479 684 0 0,'14'0'2945'0'0,"-12"0"-2839"0"0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,2-2 0 0 0,-3 2-65 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-12 3 926 0 0,-14 7 80 0 0,25-9-1031 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2 2-9 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,3 4 0 0 0,4 7 154 0 0,13 14 730 0 0,-18-25-583 0 0,0 2 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,4 7-1 0 0,-8-12-241 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2 1 0 0 0,-31 9 257 0 0,28-9-508 0 0,-20 5 23 0 0,25-6-42 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0-373 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,3-2-1 0 0,2-3-930 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2927.53">1029 422 632 0 0,'1'13'8357'0'0,"2"5"-6836"0"0,-2 1-1 0 0,-1 25 1 0 0,-2-7-937 0 0,2-26-714 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-3 16 0 0 0,2-22-1743 0 0,2-18-7063 0 0,3 6 7280 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3301.16">1168 421 796 0 0,'1'-1'143'0'0,"-1"1"0"0"0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1 11 2842 0 0,-1-9-2644 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,-5 6-1 0 0,-29 16 741 0 0,-1 0-642 0 0,34-23-430 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-2 6 0 0 0,3-4 44 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 7 0 0 0,2 5 395 0 0,-3-7-246 0 0,16 51 1387 0 0,-15-21-3914 0 0,-12-54-8772 0 0</inkml:trace>
@@ -12824,7 +12827,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">59 4 156 0 0,'5'1'5074'0'0,"20"23"-3675"0"0,-25-23-1374 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2 1 1 0 0,9-2 13 0 0,-11 2-37 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1773.17">16 17 152 0 0,'0'1'190'0'0,"0"-1"1"0"0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,1 0 0 0 0,-1 1-142 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 0-1 0 0,-1-1-21 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,-10-3-14 0 0,17 3 1174 0 0,-17-3-1311 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1773.16">16 17 152 0 0,'0'1'190'0'0,"0"-1"1"0"0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,1 0 0 0 0,-1 1-142 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 0-1 0 0,-1-1-21 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,-10-3-14 0 0,17 3 1174 0 0,-17-3-1311 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2313.4">130 55 200 0 0,'0'0'989'0'0,"-8"0"480"0"0,-11 0-567 0 0,11-3-617 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,-12-9-1 0 0,12 7-1132 0 0,0 1 1 0 0,0 1 0 0 0,-14-7-1 0 0,17 10-152 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3201.02">87 73 180 0 0,'0'-3'464'0'0,"0"-2"-200"0"0,-3 1-164 0 0,1-2-176 0 0,2 0-272 0 0,-5 2-144 0 0</inkml:trace>
 </inkml:ink>
@@ -13222,7 +13225,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2372.95">1596 311 368 0 0,'4'-9'3973'0'0,"15"-14"-2631"0"0,-13 17-391 0 0,12-16-21 0 0,-1 1 1 0 0,-1-2-1 0 0,-1 0 0 0 0,14-29 1 0 0,-28 49-803 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,0 6-123 0 0,-2 20 100 0 0,-1-5-322 0 0,-15 115 882 0 0,18-66-2563 0 0,8 2-4796 0 0,-7-54 4898 0 0,1 0 188 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3395.93">2097 264 128 0 0,'0'0'287'0'0,"0"-1"-1"0"0,-2 0 1148 0 0,2 1-1148 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,4-11 2546 0 0,14-14-2268 0 0,-13 21-53 0 0,49-61 168 0 0,-42 54-446 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,15-34-1 0 0,-23 45 258 0 0,-2 5-177 0 0,-4 13-50 0 0,-7 24-13 0 0,2 15-700 0 0,-3 67 0 0 0,10-61-3286 0 0,2 1-3790 0 0,1-47 5970 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4096.17">2641 198 464 0 0,'5'-8'8439'0'0,"12"-7"-6856"0"0,-9 8-1044 0 0,4-3-295 0 0,-1-1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0-1 0 0 0,8-15 0 0 0,-12 17 19 0 0,-3 9-102 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-7 267 0 0,-5 36-39 0 0,-5 38-337 0 0,-1 95 1 0 0,9-120-2446 0 0,1-20-1037 0 0,1 1-4185 0 0,0-19 6075 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4687.94">2992 227 968 0 0,'2'-4'722'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,4-4 0 0 0,2-2 345 0 0,5-6-320 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,14-29 1 0 0,-17 32 439 0 0,-8 25-398 0 0,-9 32 33 0 0,1-10-539 0 0,2 1 0 0 0,0 53 0 0 0,3-21-3251 0 0,2-35-297 0 0,4-7-5294 0 0,-3-20 6621 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4687.93">2992 227 968 0 0,'2'-4'722'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,4-4 0 0 0,2-2 345 0 0,5-6-320 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,14-29 1 0 0,-17 32 439 0 0,-8 25-398 0 0,-9 32 33 0 0,1-10-539 0 0,2 1 0 0 0,0 53 0 0 0,3-21-3251 0 0,2-35-297 0 0,4-7-5294 0 0,-3-20 6621 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5405.31">3503 237 724 0 0,'2'-3'799'0'0,"-1"0"0"0"0,1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,3-1 0 0 0,3-5 1033 0 0,8-9-454 0 0,44-51 1323 0 0,-27 18-1042 0 0,-30 44-1424 0 0,-2 4 85 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-4 0 0 0,-2 6-172 0 0,-12 44 604 0 0,3-1-621 0 0,3 0 0 0 0,-2 63-1 0 0,6-41-5030 0 0,2 0-6763 0 0,0-64 11631 0 0,0 9-1853 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -14241,7 +14244,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">64 16 116 0 0,'0'0'665'0'0,"-18"23"2694"0"0,18-20-3113 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-11 21 433 0 0,11-13-476 0 0,2-9-128 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,2 6-1 0 0,3 11 104 0 0,-3-11-104 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,8 13-1 0 0,-11-22-24 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,2-1-4 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,11-10-1 0 0,-13 11 23 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,2-8-1 0 0,-1-1 242 0 0,0-1-1 0 0,4-27 0 0 0,-8 36-218 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-6-6 1 0 0,6 6-36 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-7 3 0 0 0,1 1-644 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-11 12-1 0 0,13-12-721 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-7 14 0 0 0,6-6-409 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1244.59">510 98 612 0 0,'0'-1'123'0'0,"-1"1"0"0"0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1-10 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 3-1 0 0,-4 16 398 0 0,1 0 0 0 0,-1 28-1 0 0,5-39-503 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,6 11 1 0 0,-6-15-7 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,5 4 1 0 0,-7-6 0 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,4-3 0 0 0,0-1 63 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-7-15 1 0 0,7 18 66 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,-6-3 0 0 0,9 7-92 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-3 2 1 0 0,-4 3-84 0 0,1 1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,2 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-10 21 1 0 0,11-21-912 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 16 0 0 0,3 3-2686 0 0,3-15 2075 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1244.58">510 98 612 0 0,'0'-1'123'0'0,"-1"1"0"0"0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1-10 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 3-1 0 0,-4 16 398 0 0,1 0 0 0 0,-1 28-1 0 0,5-39-503 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,6 11 1 0 0,-6-15-7 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,5 4 1 0 0,-7-6 0 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,4-3 0 0 0,0-1 63 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-7-15 1 0 0,7 18 66 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,-6-3 0 0 0,9 7-92 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-3 2 1 0 0,-4 3-84 0 0,1 1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,2 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-10 21 1 0 0,11-21-912 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 16 0 0 0,3 3-2686 0 0,3-15 2075 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1988.09">974 109 424 0 0,'-3'0'129'0'0,"1"1"1"0"0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 3-1 0 0,-1 2-87 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,4 7 0 0 0,-4-11-39 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,4 2 0 0 0,-4-4 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,7-3 0 0 0,-2 0 103 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-2-1 0 0,-1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,7-9 1 0 0,-11 13-24 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3-2 0 0 0,-1-2 125 0 0,-1 0 1 0 0,0 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-14-3 1 0 0,20 6-194 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-4 3 0 0 0,-25 32-2057 0 0,30-34 1351 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 4-1 0 0,0 2-1082 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3070.81">1485 75 276 0 0,'-3'-1'209'0'0,"0"1"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 5 0 0 0,0-1 98 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-7 16 1 0 0,11-21-296 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,5 4 1 0 0,-1-2-8 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,9-2 0 0 0,-5 0 12 0 0,0 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,17-18-1 0 0,-24 22 70 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-8-2-1 0 0,2 1-6 0 0,0 1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-17 4 1 0 0,22-3-207 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-4 6-1 0 0,7-9-149 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,3 2 1 0 0,7 6-1327 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3629.13">1966 86 880 0 0,'0'0'84'0'0,"0"-1"-1"0"0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-12 7 1578 0 0,-9 15-811 0 0,18-16-781 0 0,1-1-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 11 0 0 0,0-13-63 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,7 1-1 0 0,-5-2-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,7-6 0 0 0,-8 5 106 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-14 0 0 0,-2 19 24 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-3-3 0 0 0,2 3-50 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-5 0 1 0 0,-2 1-520 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-10 6 0 0 0,11-4-1919 0 0,-1 0 0 0 0,-14 13 0 0 0,12-9 408 0 0</inkml:trace>
@@ -14278,7 +14281,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">167 58 532 0 0,'-6'2'249'0'0,"0"0"0"0"0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-6 6 0 0 0,4-2-13 0 0,-1-1 0 0 0,1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,-7 11 1 0 0,12-17-186 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,4 3 0 0 0,-2-2-6 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5-3-1 0 0,-1 1 44 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,8-15 1 0 0,-10 18-36 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-5-4 0 0 0,3 4-22 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-9 2 1 0 0,6-1-47 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-8 12 0 0 0,10-13-248 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-2 9 1 0 0,4-10-185 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,4 5 0 0 0,1 3-986 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="558.64">517 113 60 0 0,'0'0'61'0'0,"0"-1"-1"0"0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-11 5 769 0 0,-7 12-190 0 0,15-13-587 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,5 0 0 0 0,-3-1-50 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,6-6 0 0 0,-8 7 95 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,-5-10-1 0 0,5 12-22 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-6 2 0 0 0,0 1-94 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-10 11 0 0 0,10-9-543 0 0,1 0-1 0 0,0 0 1 0 0,-8 16-1 0 0,12-21 32 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2 5 0 0 0,0 2-1083 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.63">1024 141 60 0 0,'0'-1'91'0'0,"0"1"-1"0"0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-11 6 1040 0 0,-6 14 5 0 0,15-15-1098 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 5 0 0 0,-1-6-15 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,6 1 1 0 0,0-1 31 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,18-10 0 0 0,-22 11-22 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1-8 0 0 0,0 9 85 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-6-3 0 0 0,5 3-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-12 2-1 0 0,9 0-169 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-10 9 0 0 0,12-11-610 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 10 0 0 0,4-3-1250 0 0,3 0 148 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.62">1024 141 60 0 0,'0'-1'91'0'0,"0"1"-1"0"0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-11 6 1040 0 0,-6 14 5 0 0,15-15-1098 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 5 0 0 0,-1-6-15 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,6 1 1 0 0,0-1 31 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,18-10 0 0 0,-22 11-22 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1-8 0 0 0,0 9 85 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-6-3 0 0 0,5 3-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-12 2-1 0 0,9 0-169 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-10 9 0 0 0,12-11-610 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 10 0 0 0,4-3-1250 0 0,3 0 148 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1796.13">1626 113 308 0 0,'-2'-1'188'0'0,"1"1"0"0"0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,-2 1 66 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5 10 0 0 0,6-9-174 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,2 7-1 0 0,-2-10-62 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,4 1-1 0 0,-2-1-6 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,7-9 0 0 0,-8 8 108 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-9 0 0 0,3 11 59 0 0,0-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-8-6-1 0 0,10 7-151 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-3 1-1 0 0,-1 1-131 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 1 1 0 0,-5 6-1 0 0,6-8-402 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 10 0 0 0,3-10-226 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 7-1 0 0,3 3-803 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2385.13">2184 79 956 0 0,'-3'-14'2132'0'0,"3"13"-1930"0"0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 1-99 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 2 0 0 0,-2 1 9 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 7 1 0 0,1-4-85 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0-1 1 0 0,4 9-1 0 0,-5-13-23 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-2 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,3-2 1 0 0,1 0 12 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,4-7 1 0 0,-5 6 42 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-5-10-1 0 0,5 15-43 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-3-1 0 0 0,1 0 8 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-6 3 0 0 0,-3 2-334 0 0,0 0-1 0 0,1 1 1 0 0,1 1-1 0 0,-21 16 0 0 0,26-20-536 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-4 11-1 0 0,5-4-829 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3092.71">2657 36 672 0 0,'-4'1'257'0'0,"-1"-1"0"0"0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-5 5 0 0 0,6-5-137 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,3 7-1 0 0,-1-4-98 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,10-1-1 0 0,-11 1 57 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,6-5 1 0 0,-7 5 80 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-9-1 0 0,-1 9-42 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5-3-1 0 0,4 3-96 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-7 4 0 0 0,8-3-209 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-5 8 1 0 0,6-7-625 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 11 0 0 0,2 0-1484 0 0</inkml:trace>
@@ -14317,7 +14320,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">7 0 672 0 0,'0'0'2579'0'0,"4"16"1560"0"0,-7-1-3451 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2 1 0 0 0,1 28 0 0 0,0-37-585 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7 11-1 0 0,37 38 166 0 0,-44-50-286 0 0,2 0 22 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,10 2 0 0 0,11 1-13 0 0,44 0-1 0 0,-47-3 16 0 0,68 2-42 0 0,179 10 75 0 0,593 12-48 0 0,-810-25 9 0 0,37-1-17 0 0,109 14 0 0 0,-193-12 12 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,4 10 1 0 0,1-2 44 0 0,0-1 1 0 0,18 22-1 0 0,-26-35-34 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,12-20 184 0 0,-12 19-181 0 0,3-5-10 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,9-1-1 0 0,363-10 65 0 0,-181 10-93 0 0,340-3 85 0 0,-457 5-63 0 0,-65 0 10 0 0,0 0 1 0 0,0-1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-2 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 0 0 0 0,24-16-1 0 0,-22 9 226 0 0,0 1-1 0 0,-1-2 1 0 0,-1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,16-30 1 0 0,-26 45-171 0 0,11-25-1026 0 0,-13 26 804 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 1 0 0 0,-5 0-2102 0 0,0 2 276 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="924.8">1128 926 316 0 0,'0'0'109'0'0,"0"0"0"0"0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,15-6 2178 0 0,19 3-29 0 0,-6 4-1304 0 0,37 3-1 0 0,-58-3-789 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,10 7 0 0 0,-17-9-105 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0 0 30 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 2-1 0 0,-6 4 146 0 0,1-1 1 0 0,-1 0-1 0 0,-8 6 1 0 0,12-10-156 0 0,-17 11 272 0 0,-26 12 0 0 0,31-18-267 0 0,0 1-1 0 0,0 1 1 0 0,1 0-1 0 0,-17 15 1 0 0,31-24-70 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 40 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 1 0 0 0,41 5 869 0 0,-41-6-942 0 0,156 5 242 0 0,-91-10-4415 0 0,-66 5 3530 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-2 0 0 0,-3 1-1452 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1620.19">1713 912 48 0 0,'-3'-4'1357'0'0,"-1"1"0"0"0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-7-5 796 0 0,22 8-429 0 0,9 3-1231 0 0,0-2-73 0 0,0 2 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,-1 1 0 0 0,21 9-1 0 0,-36-13-309 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,4 6-1 0 0,-6-7-50 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,-14 13 283 0 0,-1 0-1 0 0,-32 20 1 0 0,31-23-300 0 0,-1 2-1 0 0,-26 25 1 0 0,41-34 14 0 0,-15 15-24 0 0,20-19-18 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,37 5 696 0 0,0-2 1 0 0,54-1-1 0 0,20-7-4348 0 0,-106 4 2696 0 0,-2 1-317 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,3 0-1 0 0,-2-2-1275 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1620.18">1713 912 48 0 0,'-3'-4'1357'0'0,"-1"1"0"0"0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-7-5 796 0 0,22 8-429 0 0,9 3-1231 0 0,0-2-73 0 0,0 2 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,-1 1 0 0 0,21 9-1 0 0,-36-13-309 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,4 6-1 0 0,-6-7-50 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,-14 13 283 0 0,-1 0-1 0 0,-32 20 1 0 0,31-23-300 0 0,-1 2-1 0 0,-26 25 1 0 0,41-34 14 0 0,-15 15-24 0 0,20-19-18 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,37 5 696 0 0,0-2 1 0 0,54-1-1 0 0,20-7-4348 0 0,-106 4 2696 0 0,-2 1-317 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,3 0-1 0 0,-2-2-1275 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2221.83">2309 827 92 0 0,'6'-28'6324'0'0,"-6"27"-6231"0"0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-15 8 1990 0 0,10-3-1665 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-5 11-1 0 0,4-9-216 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 11 1 0 0,2-19-182 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,3 2 0 0 0,-1-2-8 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,2 0 0 0 0,8 0 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 0-1 0 0,26-7 1 0 0,-24 4 25 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,18-14 0 0 0,-23 14 1080 0 0,-1 1 1 0 0,15-16 0 0 0,-30 31-54 0 0,-8 9-220 0 0,1 1 1 0 0,-21 34-1 0 0,20-18-886 0 0,2 1-1 0 0,1 0 1 0 0,2 0 0 0 0,-8 46-1 0 0,-1 4-6198 0 0,-7-1-7972 0 0,15-57 11201 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -14943,14 +14946,14 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">23 16 696 0 0,'0'19'1230'0'0,"1"0"0"0"0,5 26 0 0 0,9 8-488 0 0,-13-49-806 0 0,11 34 341 0 0,-13-35-437 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2-4-1701 0 0,1-3 848 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.6">1 14 396 0 0,'0'-1'68'0'0,"0"0"1"0"0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,3 0-1 0 0,26 0 20 0 0,-24 0 47 0 0,20 0-43 0 0,0-1-86 0 0,0 1 0 0 0,-1 1 0 0 0,1 2 1 0 0,42 9-1 0 0,-66-12 27 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 3 1 0 0,0 3 116 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 7 0 0 0,1 17-9 0 0,1 6-66 0 0,2 5-535 0 0,-2-30-1966 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="891.46">352 176 572 0 0,'0'4'51'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,3 0 0 0 0,-4 0-42 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-5 0 0 0,-4 5 16 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-2-2-1 0 0,-2 0 38 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-7 1 0 0 0,9-1-176 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 4 1 0 0,1-1-870 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="891.45">352 176 572 0 0,'0'4'51'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,3 0 0 0 0,-4 0-42 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-5 0 0 0,-4 5 16 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-2-2-1 0 0,-2 0 38 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-7 1 0 0 0,9-1-176 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 4 1 0 0,1-1-870 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1249.24">689 160 300 0 0,'0'0'67'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,-6 15 269 0 0,-20 46 357 0 0,16-34-669 0 0,8-25-405 0 0,2-10-381 0 0,2-9-712 0 0,1 9 816 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1606.14">686 135 372 0 0,'1'-1'187'0'0,"0"0"1"0"0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,3-1 0 0 0,-3 2-148 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,13 55 714 0 0,-10-41-698 0 0,4 22 64 0 0,2-19-763 0 0,-4-18-1573 0 0,-2-2 1181 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2352.07">586 310 480 0 0,'73'0'2474'0'0,"98"-10"-2418"0"0,-171 10-37 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 30 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2-1 0 0,-1-1-226 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-3 1-1 0 0,-2-2-824 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2691.32">547 329 428 0 0,'5'6'3635'0'0,"15"18"-2916"0"0,-19-23-890 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,2 0 0 0 0,2-2-873 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3714.36">1051 166 644 0 0,'2'-1'1556'0'0,"4"0"-568"0"0,10-2-750 0 0,-16 3-232 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-15-3 77 0 0,-14 4 35 0 0,1 7 121 0 0,24-6-115 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-4 4-1 0 0,7-5-39 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 4-1 0 0,0-4-3 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,4 5 0 0 0,-2-4-33 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,7-1-1 0 0,9 0-87 0 0,0-2 0 0 0,0-1-1 0 0,30-9 1 0 0,-44 11 61 0 0,1 0-27 0 0,45-15-111 0 0,-51 16 111 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,1-2 1 0 0,-3 3 2 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-2-2 1 0 0,2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-2 1 0 0 0,1 0 32 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 6-1 0 0,3-7-6 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,2 2-1 0 0,0-3-132 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-1 0 0 0,0 1-649 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,11-4 0 0 0,-5 0-442 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4112.51">1439 142 100 0 0,'4'-5'1430'0'0,"2"-1"977"0"0,-7 16-815 0 0,-1-1-1400 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,3 11-1 0 0,-10-24-3498 0 0,-9-13 1155 0 0,12 13 1428 0 0,-4-3-221 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4498.23">1324 133 112 0 0,'-13'-10'2343'0'0,"13"9"-2321"0"0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,36 0-15 0 0,-19 1 25 0 0,28-3-773 0 0,75-11 1 0 0,-11-7 2300 0 0,-107 23-265 0 0,-6 6-414 0 0,-11 19 58 0 0,4-7-428 0 0,9-16-435 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 7 1 0 0,1-6-67 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 8 1 0 0,-3-10 37 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-2 0 0 0,7 0 0 0 0,-9 1 67 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-2 1 0 0,0 2-84 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-34 0-5214 0 0,-50 9 0 0 0,59-7 2964 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4498.22">1324 133 112 0 0,'-13'-10'2343'0'0,"13"9"-2321"0"0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,36 0-15 0 0,-19 1 25 0 0,28-3-773 0 0,75-11 1 0 0,-11-7 2300 0 0,-107 23-265 0 0,-6 6-414 0 0,-11 19 58 0 0,4-7-428 0 0,9-16-435 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 7 1 0 0,1-6-67 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 8 1 0 0,-3-10 37 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-2 0 0 0,7 0 0 0 0,-9 1 67 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-2 1 0 0,0 2-84 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-34 0-5214 0 0,-50 9 0 0 0,59-7 2964 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14985,7 +14988,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">12 88 556 0 0,'0'0'154'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 2-1 0 0,-1 31 1139 0 0,1-24-468 0 0,-2 28 628 0 0,-8 50 0 0 0,5-62-1588 0 0,2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 0-1 0 0,5 35 1 0 0,-5-57-411 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 4 0 0 0,-1-2-1537 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.65">454 50 692 0 0,'0'1'73'0'0,"0"-1"1"0"0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,9 12 787 0 0,-6-1-194 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-2 18-1 0 0,1 6-301 0 0,0 28-380 0 0,2 54 308 0 0,3-41-3758 0 0,2-54-2600 0 0,-4-18 4325 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.26">878 55 152 0 0,'3'0'440'0'0,"-1"0"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-2-2-174 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 7-1 0 0,1 4-161 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 15 0 0 0,-1-14 525 0 0,0 43-596 0 0,1 30-663 0 0,4-31-5295 0 0,-2-49 3913 0 0,1-1 183 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1048.6">1456 24 844 0 0,'1'-1'279'0'0,"0"0"-1"0"0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 0 1 0 0,-2 0-114 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 2-1 0 0,1 5 303 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 10 1 0 0,-20 208-1010 0 0,17-160-7993 0 0,5-52 6222 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1048.59">1456 24 844 0 0,'1'-1'279'0'0,"0"0"-1"0"0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 0 1 0 0,-2 0-114 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 2-1 0 0,1 5 303 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 10 1 0 0,-20 208-1010 0 0,17-160-7993 0 0,5-52 6222 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1635.41">1978 1 444 0 0,'-1'8'5980'0'0,"0"11"-3537"0"0,-3 41-1011 0 0,3-14-1382 0 0,7 56 0 0 0,-1 8-8001 0 0,-5-91 6219 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -15020,7 +15023,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 37 1068 0 0,'1'0'143'0'0,"0"0"1"0"0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 2 0 0 0,3 32 491 0 0,-3-30-274 0 0,0 55 803 0 0,-8 73 1 0 0,5-92-1546 0 0,-2-9-632 0 0,1 17-4937 0 0,3-44 4784 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.55">628 8 264 0 0,'1'-1'226'0'0,"0"0"0"0"0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1 1 0 0 0,-2-1-78 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 9 381 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-2 13 1 0 0,1-2-340 0 0,-10 124 191 0 0,3-70-1521 0 0,7-72 575 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,1 5 1 0 0,1-3-1080 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.85">1157 53 504 0 0,'1'0'251'0'0,"0"0"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 2-1 0 0,0-1-40 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 3-1 0 0,-1 7 143 0 0,-1 0 0 0 0,0 0 0 0 0,-4 16 0 0 0,5-29-312 0 0,-9 49-362 0 0,-4 96 0 0 0,13-138-769 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,4 14 0 0 0,-2-11-661 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.84">1157 53 504 0 0,'1'0'251'0'0,"0"0"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 2-1 0 0,0-1-40 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 3-1 0 0,-1 7 143 0 0,-1 0 0 0 0,0 0 0 0 0,-4 16 0 0 0,5-29-312 0 0,-9 49-362 0 0,-4 96 0 0 0,13-138-769 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,4 14 0 0 0,-2-11-661 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15092,7 +15095,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">44 9 752 0 0,'-8'-9'6871'0'0,"4"18"-3779"0"0,2-2-3269 0 0,-6 29 1053 0 0,0 0 0 0 0,-3 71 0 0 0,9-47-3887 0 0,1 1-4535 0 0,1-51 5773 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="582.25">552 30 660 0 0,'-3'36'7706'0'0,"-8"24"-4867"0"0,-2 13-2465 0 0,11-57-565 0 0,-6 82-204 0 0,11-32-7402 0 0,-3-56 5909 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.6">1049 67 848 0 0,'-2'13'10907'0'0,"4"45"-7276"0"0,0 0-2313 0 0,-1-6-1254 0 0,0-15-306 0 0,-4 44 1 0 0,-3-43-4086 0 0,-6 0-3944 0 0,9-28 5892 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.59">1049 67 848 0 0,'-2'13'10907'0'0,"4"45"-7276"0"0,0 0-2313 0 0,-1-6-1254 0 0,0-15-306 0 0,-4 44 1 0 0,-3-43-4086 0 0,-6 0-3944 0 0,9-28 5892 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2132.4">1545 77 832 0 0,'1'-5'9958'0'0,"0"5"-9687"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 3-1 0 0,0 7 817 0 0,1 1 0 0 0,-2-1 0 0 0,0 20 0 0 0,-13 64 654 0 0,8-62-1538 0 0,-4 33-120 0 0,-1 6-3004 0 0,0-24-7208 0 0,10-39 4985 0 0,0-5 3064 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -15346,7 +15349,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15845.99">3509 4542 172 0 0,'-4'2'1856'0'0,"5"-4"-773"0"0,12-2-558 0 0,-9 3-407 0 0,43-2 704 0 0,-43 2-713 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,7 3 0 0 0,-10-4-64 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-9 11 758 0 0,-24 11-296 0 0,19-14-358 0 0,-35 29-60 0 0,49-38-90 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,10 5 77 0 0,27 4 108 0 0,-15-3-119 0 0,-19-5-20 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 5 0 0 0,-6-6-32 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-2 1 1 0 0,-9 5 196 0 0,0-1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 1 0 0 0,0-2 0 0 0,-14 1 0 0 0,-20 3-23 0 0,36-3-243 0 0,17-2-1471 0 0,-2 0-951 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16681.2">165 4907 1220 0 0,'1'-1'110'0'0,"-1"1"0"0"0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 21 756 0 0,0-17-63 0 0,2 111 4082 0 0,-5 124-3742 0 0,3-238-1325 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,-3 5 1 0 0,4-7 73 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-10-13-3371 0 0,1-12 129 0 0,3 9 1928 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17008.89">9 4872 536 0 0,'-2'-4'300'0'0,"1"1"-1"0"0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-6-1 0 0,0 7-193 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,2-2 1 0 0,4 1 148 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,11 6 1 0 0,-5-2-825 0 0,-1 0 1 0 0,0 0-1 0 0,0 2 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,16 18 1 0 0,-23-24 112 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,2 5-1 0 0,0 6-897 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17350.6">16 5445 600 0 0,'0'0'120'0'0,"-1"0"1"0"0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,11 5 2079 0 0,20-4 470 0 0,-30-2-2258 0 0,47-2 490 0 0,48-9-1 0 0,-24 2-4895 0 0,-36 4-1054 0 0,-27 4 3494 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17350.59">16 5445 600 0 0,'0'0'120'0'0,"-1"0"1"0"0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,11 5 2079 0 0,20-4 470 0 0,-30-2-2258 0 0,47-2 490 0 0,48-9-1 0 0,-24 2-4895 0 0,-36 4-1054 0 0,-27 4 3494 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17690.87">436 5035 948 0 0,'0'-4'854'0'0,"0"0"1"0"0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-7 1 0 0,-6 44 2570 0 0,5 9-2509 0 0,1 1 0 0 0,3 0-1 0 0,7 73 1 0 0,0 12-902 0 0,-9-86-175 0 0,1-3-4414 0 0,-4-53-2842 0 0,5 6 5813 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18019.36">412 4918 800 0 0,'1'-9'437'0'0,"1"0"0"0"0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,2 0 0 0 0,0 0-1 0 0,0 1 1 0 0,9-15 0 0 0,-12 21-360 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 2 0 0 0,-2 1 60 0 0,1 0-1 0 0,-1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 0 1 0 0,4 10-1 0 0,1 5 75 0 0,-2 1-1 0 0,5 22 0 0 0,-8-33-144 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-4 10 0 0 0,4-13-33 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-6 4 0 0 0,-27 9-719 0 0,10-4-1535 0 0,2 2-4266 0 0,24-12 5101 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18534.79">707 5357 224 0 0,'0'-1'469'0'0,"1"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-1 0 0 0,1 5 2245 0 0,-3 10-309 0 0,-2-8-2218 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,4 9 1 0 0,-5-13-172 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3-1 1 0 0,4-2-8 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,8-6 0 0 0,-9 6 102 0 0,1-1 0 0 0,-1 1-1 0 0,17-6 1 0 0,-24 10-36 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3 15 1889 0 0,-4 18 416 0 0,1-31-2229 0 0,-2 27 147 0 0,2 0 1 0 0,0 0-1 0 0,7 42 0 0 0,-5-47-1756 0 0,1 8-4403 0 0,4-12-4084 0 0,-4-16 6931 0 0</inkml:trace>
@@ -15492,8 +15495,8 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">275 176 556 0 0,'-1'-2'662'0'0,"-6"-16"1481"0"0,7 17-1981 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 4 270 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 4 1 0 0,-1-3-40 0 0,0 45 2709 0 0,2 0 0 0 0,10 78 0 0 0,1-3-2232 0 0,-10-101-854 0 0,-1-7-85 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5 24 0 0 0,5-40-10 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-9-11-3989 0 0,-5-17-1890 0 0,2-10 333 0 0,5 16 3412 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.71">26 72 236 0 0,'-12'-7'892'0'0,"-1"-1"5252"0"0,29 9-1474 0 0,21 5-3220 0 0,0-1 1 0 0,50-1 0 0 0,2 1-1062 0 0,-55-2-724 0 0,56 11 0 0 0,-78-10-638 0 0,0-1 0 0 0,22 12-1 0 0,-26-12-157 0 0,-1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,10 9 0 0 0,-14-12 724 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 2 1 0 0,3 11-1278 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="759.85">40 773 572 0 0,'12'4'7278'0'0,"18"4"-4016"0"0,16-2-946 0 0,55 0 0 0 0,45-7-1566 0 0,-42 0-3093 0 0,-93 1 556 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,12-4 0 0 0,-12 2-287 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.34">719 78 736 0 0,'-1'0'182'0'0,"0"0"0"0"0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 1 0 0 0,-7 22 1833 0 0,5 33 384 0 0,3-51-1825 0 0,6 140 3233 0 0,-2-78-3236 0 0,-5 88 0 0 0,-2-129-719 0 0,-6 77 323 0 0,0-35-3489 0 0,8-62 121 0 0,1-15-4290 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="759.84">40 773 572 0 0,'12'4'7278'0'0,"18"4"-4016"0"0,16-2-946 0 0,55 0 0 0 0,45-7-1566 0 0,-42 0-3093 0 0,-93 1 556 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,12-4 0 0 0,-12 2-287 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.33">719 78 736 0 0,'-1'0'182'0'0,"0"0"0"0"0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 1 0 0 0,-7 22 1833 0 0,5 33 384 0 0,3-51-1825 0 0,6 140 3233 0 0,-2-78-3236 0 0,-5 88 0 0 0,-2-129-719 0 0,-6 77 323 0 0,0-35-3489 0 0,8-62 121 0 0,1-15-4290 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1523.12">679 83 876 0 0,'2'-4'174'0'0,"-1"-1"0"0"0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,1 0-1 0 0,5-2 1 0 0,-5 3 27 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,5 1 0 0 0,1 2 86 0 0,-1 0-1 0 0,-1 0 1 0 0,1 2 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,11 18 1 0 0,-13-19-88 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-2 11 1 0 0,2-16-128 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 0 1 0 0,-8 1-1 0 0,-6 2-47 0 0,-1-1 0 0 0,1 0 1 0 0,-33 1-1 0 0,18-3-362 0 0,-11 1-1746 0 0,15-2-8033 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -15560,7 +15563,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">71 118 520 0 0,'-4'-25'4191'0'0,"4"25"-4148"0"0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-3 16 1692 0 0,-4 92 2425 0 0,5 54-2752 0 0,2-146-1291 0 0,-3 71 9 0 0,-16 98 1 0 0,18-180-374 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-5 7 1 0 0,3-12-2202 0 0,1-7 979 0 0,1-10-259 0 0,7-66-3430 0 0,-3 53 3946 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.99">52 79 288 0 0,'3'-22'1651'0'0,"3"-12"493"0"0,-6 33-2065 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-2 0 0 0,-3 2-26 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,9 20 1144 0 0,-7-14-760 0 0,9 24 785 0 0,-1 1 1 0 0,10 50-1 0 0,-11-37-496 0 0,-2-14-383 0 0,-1-3-228 0 0,1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,20 41 0 0 0,-28-68-115 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,3-1 0 0 0,-2 0-5 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,3-2 0 0 0,4-6-51 0 0,-1-1-1 0 0,1 0 1 0 0,-2 1 0 0 0,11-20 0 0 0,128-257-671 0 0,-145 286 736 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 14 459 0 0,-8 36 378 0 0,6-36-559 0 0,-22 251 4107 0 0,25-221-4612 0 0,7 61 0 0 0,-4-69-1563 0 0,-4-35 1708 0 0,5 29-5379 0 0,-5-29 4966 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,4 1-1376 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.69">950 499 864 0 0,'2'-2'269'0'0,"-1"0"0"0"0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-6 0 0 0,0 6-138 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-3 0 0 0 0,1 0 35 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 0 1 0 0,-1 2 93 0 0,1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-12 6 0 0 0,14-6-222 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 9-1 0 0,3-15-39 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 0-1 0 0,-1-1 2 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,3-2 0 0 0,5-5 9 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,12-24 0 0 0,-18 31 881 0 0,-8 15 398 0 0,-10 19 868 0 0,10-10-1450 0 0,0 0-1 0 0,1 0 0 0 0,-4 25 0 0 0,8-34-1099 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,1 0-1 0 0,4 17 0 0 0,-5-25 111 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,2 1-1 0 0,-1 0-282 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,3-1 1 0 0,7-4-1235 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.68">950 499 864 0 0,'2'-2'269'0'0,"-1"0"0"0"0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-6 0 0 0,0 6-138 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-3 0 0 0 0,1 0 35 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 0 1 0 0,-1 2 93 0 0,1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-12 6 0 0 0,14-6-222 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 9-1 0 0,3-15-39 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 0-1 0 0,-1-1 2 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,3-2 0 0 0,5-5 9 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,12-24 0 0 0,-18 31 881 0 0,-8 15 398 0 0,-10 19 868 0 0,10-10-1450 0 0,0 0-1 0 0,1 0 0 0 0,-4 25 0 0 0,8-34-1099 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,1 0-1 0 0,4 17 0 0 0,-5-25 111 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,2 1-1 0 0,-1 0-282 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,3-1 1 0 0,7-4-1235 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.7">1274 478 896 0 0,'11'-7'1534'0'0,"-5"4"-868"0"0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,6-9 0 0 0,-12 13-612 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-12-2 725 0 0,-16 5-408 0 0,27-2-214 0 0,-12 1 51 0 0,1 2 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 1 1 0 0,0 1-1 0 0,0 0 1 0 0,-14 7-1 0 0,25-11-205 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 2-1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,4 3 1 0 0,5 6 8 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,19 12-1 0 0,-15-12 46 0 0,0 0 178 0 0,-1 1 0 0 0,14 12-1 0 0,-25-20-114 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 7 0 0 0,-3-8-10 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-2 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,-10 4 125 0 0,0 0-1 0 0,-26 4 1 0 0,23-5-253 0 0,6-1-516 0 0,-48 9-728 0 0,39-9-2467 0 0,2-2-3698 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2031.91">1552 431 256 0 0,'-2'49'10355'0'0,"-13"88"-3622"0"0,-13 5-4726 0 0,22-118-2673 0 0,4-18 521 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2465.01">1740 473 280 0 0,'3'-2'391'0'0,"0"1"0"0"0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,6 1 0 0 0,-8 0-309 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-14 18 910 0 0,13-18-880 0 0,-9 10 95 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-24 13-1 0 0,22-14-167 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-13 13-1 0 0,24-21 37 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,2 4 1 0 0,4 7 546 0 0,0 0 0 0 0,1-1-1 0 0,16 22 1 0 0,-9-14-29 0 0,46 70 278 0 0,-60-86-2872 0 0</inkml:trace>
@@ -15837,7 +15840,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">168 157 512 0 0,'-17'31'1227'0'0,"0"2"-1"0"0,-14 41 1 0 0,11-15-909 0 0,-15 71 0 0 0,19-44-60 0 0,3 1-1 0 0,-3 147 0 0 0,15-217-349 0 0,1-13-54 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 9-1 0 0,-2-18-2969 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.45">127 136 712 0 0,'6'-23'1061'0'0,"-5"15"-829"0"0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,4-11 0 0 0,-5 16-214 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,5-3 0 0 0,9-3 65 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,33 1-1 0 0,-41 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,9 5 0 0 0,-12-6-6 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,4 10-1 0 0,3 9 55 0 0,-2 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-2 0-1 0 0,0 32 0 0 0,-20 184 554 0 0,2-133-522 0 0,-4 33-902 0 0,11-61-3747 0 0,9-68 3075 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.09">798 694 680 0 0,'-1'6'2870'0'0,"-4"1"-2592"0"0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 11 0 0 0,-5 42 431 0 0,3-38-359 0 0,-1 46-1 0 0,1 182-345 0 0,5-249-123 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-3 1-1 0 0,4-3 33 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-80 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-3-1 0 0,-1-12-976 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.61">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.6">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1418.21">1213 1084 612 0 0,'10'6'6161'0'0,"-5"-6"-5141"0"0,0 0-1012 0 0,0 0-528 0 0,-5-3-1353 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.04">1808 544 576 0 0,'4'4'3217'0'0,"12"12"-2153"0"0,15-10 527 0 0,-30-5-1547 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-29 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-23-3 328 0 0,12 5-300 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-14 19 0 0 0,18-22-10 0 0,0 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 14 0 0 0,7-17-31 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 9 0 0 0,-2-6-310 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,9-1 1 0 0,9 0-891 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2098.19">2168 712 656 0 0,'23'-18'1981'0'0,"45"-25"-1"0"0,-49 32-1201 0 0,-19 10-749 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 12 759 0 0,-7 23-343 0 0,5-24-230 0 0,-9 44 100 0 0,6-27-263 0 0,5-23-49 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-4 6 1 0 0,0-1 14 0 0,3-5 1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-6 5 1 0 0,9-9-19 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-4 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,1-3-5 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,3-8 0 0 0,0 0-10 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,13-12 0 0 0,-16 18 15 0 0,-1-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,10-4 0 0 0,-13 6 43 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 1 1 0 0,-8 0 9 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 5-1 0 0,1 3 117 0 0,0 1 0 0 0,-1-1 0 0 0,0 18 0 0 0,-2-6-97 0 0,-2-1 1 0 0,0 1-1 0 0,-7 24 0 0 0,-4 22-1089 0 0,14-64 834 0 0,-1 0-418 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 7 0 0 0,-1-4-1246 0 0,-1-4 155 0 0</inkml:trace>
@@ -17486,10 +17489,10 @@
   <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18401,6 +18404,9 @@
       <c r="A28" s="30">
         <v>45309</v>
       </c>
+      <c r="B28" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="O28" s="27">
         <v>18440</v>
@@ -18426,6 +18432,9 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>45316</v>
+      </c>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/ЕГЭ Илья Казанцев.xlsx
+++ b/ЕГЭ Илья Казанцев.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE725A-C61E-4A8C-9133-46CC78DEF2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D27F8F-7BB8-434B-8587-6DBE32EB08CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>СГ2</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -11658,7 +11661,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">205 96 288 0 0,'5'-4'8555'0'0,"-7"60"-5858"0"0,1 33-1434 0 0,2-29-855 0 0,-3 0 0 0 0,-10 64 0 0 0,11-113-402 0 0,-2 28-1327 0 0,3-66-8546 0 0,0 19 8086 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="508.16">13 42 52 0 0,'-12'-7'5691'0'0,"19"8"-4105"0"0,24 3-911 0 0,-1-1 0 0 0,0-1 0 0 0,1-2 1 0 0,35-4-1 0 0,-20 1-524 0 0,11 4-1192 0 0,-19 5-4859 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.26">32 586 364 0 0,'2'1'7077'0'0,"9"3"-5917"0"0,104-13 106 0 0,1 0-1498 0 0,-90 8-141 0 0,-14 1-1488 0 0,-1 0-4327 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2003.68">518 67 584 0 0,'-2'13'4166'0'0,"3"20"-2428"0"0,8 99 1299 0 0,-6-62-2381 0 0,0-3-411 0 0,4 51-356 0 0,-6-101-661 0 0,-1-17 625 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-3-1-1277 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2003.66">518 67 584 0 0,'-2'13'4166'0'0,"3"20"-2428"0"0,8 99 1299 0 0,-6-62-2381 0 0,0-3-411 0 0,4 51-356 0 0,-6-101-661 0 0,-1-17 625 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-3-1-1277 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2669.45">474 67 112 0 0,'-1'-1'95'0'0,"1"1"1"0"0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0 19 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,2-1 0 0 0,2-1 198 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,11-3-1 0 0,-10 6-180 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,8 7-1 0 0,-9-7-71 0 0,1 1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 9-1 0 0,-2-11 6 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-8 8 0 0 0,6-7-15 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-12-1 1 0 0,11-1-236 0 0,-30 1 169 0 0,21 6-2346 0 0,3 5-3729 0 0,13-8 4637 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3531.54">558 509 320 0 0,'0'20'7252'0'0,"0"50"-5392"0"0,0-69-1770 0 0,-1-3 839 0 0</inkml:trace>
 </inkml:ink>
@@ -12063,7 +12066,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">30 75 220 0 0,'2'-38'1737'0'0,"1"2"1538"0"0,-1 109 2404 0 0,5 42-3084 0 0,1 19-1945 0 0,-2-49-526 0 0,0 34-462 0 0,-5-106-120 0 0,0-10 169 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 2 0 0 0,1-5 122 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-5-13-2004 0 0,4 3 1041 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.69">1 391 584 0 0,'-1'-1'208'0'0,"1"0"1"0"0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-2 1 0 0,0 2 210 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,4 0 1 0 0,1-1-98 0 0,14-1 818 0 0,-1-1 0 0 0,34-10 0 0 0,-31 6-1897 0 0,0-1 0 0 0,22-11 1 0 0,-38 15-9 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,5-10 0 0 0,-5 2-451 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.65">339 50 704 0 0,'-4'-13'949'0'0,"-1"-5"1420"0"0,1 18-1128 0 0,0 11-211 0 0,-16 72 2188 0 0,14-44-2398 0 0,-3 49 1 0 0,7-44-693 0 0,0 146-744 0 0,8-156-1336 0 0,-6-33 1756 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,3-1-1246 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.84">427 390 228 0 0,'0'0'78'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,-6 19 436 0 0,6-19-474 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 0 0 0 0,-4 1-18 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-2 0 0 0,0 3 109 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,1 2-11 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5 3 0 0 0,3-1-145 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-8 7 0 0 0,11-10-119 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 4 0 0 0,1-7-168 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,7 2-1228 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.83">427 390 228 0 0,'0'0'78'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,-6 19 436 0 0,6-19-474 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 0 0 0 0,-4 1-18 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-2 0 0 0,0 3 109 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,1 2-11 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-5 3 0 0 0,3-1-145 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-8 7 0 0 0,11-10-119 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 4 0 0 0,1-7-168 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,7 2-1228 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1410.04">807 343 48 0 0,'0'0'36'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-11 2 655 0 0,-14 9-24 0 0,24-11-632 0 0,-37 23 1322 0 0,35-21-1299 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 5 1 0 0,3-7-57 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,2 1-1 0 0,23 8-62 0 0,-26-9 60 0 0,45 10-339 0 0,-35-9 336 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,13 10-1 0 0,-21-14 82 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0 68 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 2 0 0 0,-7 4 387 0 0,1 0 0 0 0,-1-1 0 0 0,-16 8 0 0 0,18-10-595 0 0,0 1-39 0 0,-20 9 17 0 0,12-11-2734 0 0,16-4 2669 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-14 0 0,3-5-1581 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1749.01">1024 284 936 0 0,'3'59'9381'0'0,"3"7"-5605"0"0,1 13-4568 0 0,-3-3-3594 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2091.32">924 453 124 0 0,'0'0'184'0'0,"-1"0"0"0"0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,11-9 3472 0 0,34-8-1145 0 0,-33 14-2211 0 0,-1-1-220 0 0,0 2 1 0 0,1-1-1 0 0,0 1 0 0 0,18-2 0 0 0,-24 5-567 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,9 2 0 0 0,-11-1-359 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,4 2 0 0 0,3 5-1369 0 0</inkml:trace>
@@ -12453,8 +12456,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">27 127 120 0 0,'2'-9'1501'0'0,"-1"5"-887"0"0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,4-5 1 0 0,-6 8-460 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,4 17 1367 0 0,-2 27 95 0 0,-3 0 0 0 0,-8 68 0 0 0,3-50-1256 0 0,-14 111-41 0 0,13-128-4225 0 0,14-101-2235 0 0,-2-68 0 0 0,-5 88 4729 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.98">9 72 812 0 0,'-3'-14'1134'0'0,"2"10"-919"0"0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1-7-1 0 0,-1 11-140 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,15 17 1254 0 0,-9-6-683 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,4 14 0 0 0,14 70 893 0 0,-10-41-1188 0 0,-9-38-291 0 0,10 35 22 0 0,-13-49-82 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,5 3 0 0 0,-7-6-20 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0 0-57 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1-2 1 0 0,5-4-379 0 0,0-1 0 0 0,9-16 0 0 0,-13 20 297 0 0,15-26-745 0 0,27-62 0 0 0,-4 10 1854 0 0,-42 83-922 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 13 942 0 0,-3 19 142 0 0,-4 14 695 0 0,2 64 0 0 0,2-36-850 0 0,-1-25-908 0 0,3 0 0 0 0,7 58 0 0 0,-8-88-3137 0 0,7-35-9477 0 0,-3 7 10349 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1900.17">585 478 564 0 0,'2'0'230'0'0,"1"-1"-1"0"0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3-3 1 0 0,5-4 276 0 0,-5 3 278 0 0,-3 1 970 0 0,-7 5-1264 0 0,4-1-464 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 123 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-2 0 9 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-8 11 1 0 0,12-15-145 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 3 0 0 0,2-5-15 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0-119 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4-3 1 0 0,2 0-334 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,12-11 0 0 0,-12 9 733 0 0,-1 0-1 0 0,12-18 1 0 0,-18 27-193 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-31 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 12 694 0 0,0 0-1 0 0,-5 18 1 0 0,4-23-541 0 0,1 1 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 9 1 0 0,-2-15-178 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-102 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,7-5-1561 0 0,-1 0 1 0 0,0-1-1 0 0,9-11 0 0 0,-5 7-2627 0 0,-3 3 1923 0 0,-2 1 281 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.97">9 72 812 0 0,'-3'-14'1134'0'0,"2"10"-919"0"0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1-7-1 0 0,-1 11-140 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,15 17 1254 0 0,-9-6-683 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,4 14 0 0 0,14 70 893 0 0,-10-41-1188 0 0,-9-38-291 0 0,10 35 22 0 0,-13-49-82 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,5 3 0 0 0,-7-6-20 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0 0-57 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1-2 1 0 0,5-4-379 0 0,0-1 0 0 0,9-16 0 0 0,-13 20 297 0 0,15-26-745 0 0,27-62 0 0 0,-4 10 1854 0 0,-42 83-922 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 13 942 0 0,-3 19 142 0 0,-4 14 695 0 0,2 64 0 0 0,2-36-850 0 0,-1-25-908 0 0,3 0 0 0 0,7 58 0 0 0,-8-88-3137 0 0,7-35-9477 0 0,-3 7 10349 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1900.16">585 478 564 0 0,'2'0'230'0'0,"1"-1"-1"0"0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3-3 1 0 0,5-4 276 0 0,-5 3 278 0 0,-3 1 970 0 0,-7 5-1264 0 0,4-1-464 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 123 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-2 0 9 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-8 11 1 0 0,12-15-145 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 3 0 0 0,2-5-15 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0-119 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4-3 1 0 0,2 0-334 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,12-11 0 0 0,-12 9 733 0 0,-1 0-1 0 0,12-18 1 0 0,-18 27-193 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-31 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 12 694 0 0,0 0-1 0 0,-5 18 1 0 0,4-23-541 0 0,1 1 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 9 1 0 0,-2-15-178 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-102 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,7-5-1561 0 0,-1 0 1 0 0,0-1-1 0 0,9-11 0 0 0,-5 7-2627 0 0,-3 3 1923 0 0,-2 1 281 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2554.39">883 479 684 0 0,'14'0'2945'0'0,"-12"0"-2839"0"0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,2-2 0 0 0,-3 2-65 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-12 3 926 0 0,-14 7 80 0 0,25-9-1031 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2 2-9 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,3 4 0 0 0,4 7 154 0 0,13 14 730 0 0,-18-25-583 0 0,0 2 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,4 7-1 0 0,-8-12-241 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2 1 0 0 0,-31 9 257 0 0,28-9-508 0 0,-20 5 23 0 0,25-6-42 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0-373 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,3-2-1 0 0,2-3-930 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2927.53">1029 422 632 0 0,'1'13'8357'0'0,"2"5"-6836"0"0,-2 1-1 0 0,-1 25 1 0 0,-2-7-937 0 0,2-26-714 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-3 16 0 0 0,2-22-1743 0 0,2-18-7063 0 0,3 6 7280 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3301.16">1168 421 796 0 0,'1'-1'143'0'0,"-1"1"0"0"0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1 11 2842 0 0,-1-9-2644 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,-5 6-1 0 0,-29 16 741 0 0,-1 0-642 0 0,34-23-430 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-2 6 0 0 0,3-4 44 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 7 0 0 0,2 5 395 0 0,-3-7-246 0 0,16 51 1387 0 0,-15-21-3914 0 0,-12-54-8772 0 0</inkml:trace>
@@ -13225,7 +13228,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2372.95">1596 311 368 0 0,'4'-9'3973'0'0,"15"-14"-2631"0"0,-13 17-391 0 0,12-16-21 0 0,-1 1 1 0 0,-1-2-1 0 0,-1 0 0 0 0,14-29 1 0 0,-28 49-803 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,0 6-123 0 0,-2 20 100 0 0,-1-5-322 0 0,-15 115 882 0 0,18-66-2563 0 0,8 2-4796 0 0,-7-54 4898 0 0,1 0 188 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3395.93">2097 264 128 0 0,'0'0'287'0'0,"0"-1"-1"0"0,-2 0 1148 0 0,2 1-1148 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,4-11 2546 0 0,14-14-2268 0 0,-13 21-53 0 0,49-61 168 0 0,-42 54-446 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,15-34-1 0 0,-23 45 258 0 0,-2 5-177 0 0,-4 13-50 0 0,-7 24-13 0 0,2 15-700 0 0,-3 67 0 0 0,10-61-3286 0 0,2 1-3790 0 0,1-47 5970 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4096.17">2641 198 464 0 0,'5'-8'8439'0'0,"12"-7"-6856"0"0,-9 8-1044 0 0,4-3-295 0 0,-1-1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0-1 0 0 0,8-15 0 0 0,-12 17 19 0 0,-3 9-102 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-7 267 0 0,-5 36-39 0 0,-5 38-337 0 0,-1 95 1 0 0,9-120-2446 0 0,1-20-1037 0 0,1 1-4185 0 0,0-19 6075 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4687.93">2992 227 968 0 0,'2'-4'722'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,4-4 0 0 0,2-2 345 0 0,5-6-320 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,14-29 1 0 0,-17 32 439 0 0,-8 25-398 0 0,-9 32 33 0 0,1-10-539 0 0,2 1 0 0 0,0 53 0 0 0,3-21-3251 0 0,2-35-297 0 0,4-7-5294 0 0,-3-20 6621 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4687.92">2992 227 968 0 0,'2'-4'722'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,4-4 0 0 0,2-2 345 0 0,5-6-320 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,14-29 1 0 0,-17 32 439 0 0,-8 25-398 0 0,-9 32 33 0 0,1-10-539 0 0,2 1 0 0 0,0 53 0 0 0,3-21-3251 0 0,2-35-297 0 0,4-7-5294 0 0,-3-20 6621 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5405.31">3503 237 724 0 0,'2'-3'799'0'0,"-1"0"0"0"0,1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,3-1 0 0 0,3-5 1033 0 0,8-9-454 0 0,44-51 1323 0 0,-27 18-1042 0 0,-30 44-1424 0 0,-2 4 85 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-4 0 0 0,-2 6-172 0 0,-12 44 604 0 0,3-1-621 0 0,3 0 0 0 0,-2 63-1 0 0,6-41-5030 0 0,2 0-6763 0 0,0-64 11631 0 0,0 9-1853 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -14281,7 +14284,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">167 58 532 0 0,'-6'2'249'0'0,"0"0"0"0"0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-6 6 0 0 0,4-2-13 0 0,-1-1 0 0 0,1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,-7 11 1 0 0,12-17-186 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,4 3 0 0 0,-2-2-6 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5-3-1 0 0,-1 1 44 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,8-15 1 0 0,-10 18-36 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-5-4 0 0 0,3 4-22 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-9 2 1 0 0,6-1-47 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-8 12 0 0 0,10-13-248 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-2 9 1 0 0,4-10-185 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,4 5 0 0 0,1 3-986 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="558.64">517 113 60 0 0,'0'0'61'0'0,"0"-1"-1"0"0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-11 5 769 0 0,-7 12-190 0 0,15-13-587 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,5 0 0 0 0,-3-1-50 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,6-6 0 0 0,-8 7 95 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,-5-10-1 0 0,5 12-22 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-6 2 0 0 0,0 1-94 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-10 11 0 0 0,10-9-543 0 0,1 0-1 0 0,0 0 1 0 0,-8 16-1 0 0,12-21 32 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2 5 0 0 0,0 2-1083 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.62">1024 141 60 0 0,'0'-1'91'0'0,"0"1"-1"0"0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-11 6 1040 0 0,-6 14 5 0 0,15-15-1098 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 5 0 0 0,-1-6-15 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,6 1 1 0 0,0-1 31 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,18-10 0 0 0,-22 11-22 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1-8 0 0 0,0 9 85 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-6-3 0 0 0,5 3-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-12 2-1 0 0,9 0-169 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-10 9 0 0 0,12-11-610 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 10 0 0 0,4-3-1250 0 0,3 0 148 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.58">1024 141 60 0 0,'0'-1'91'0'0,"0"1"-1"0"0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-11 6 1040 0 0,-6 14 5 0 0,15-15-1098 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 5 0 0 0,-1-6-15 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,6 1 1 0 0,0-1 31 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,18-10 0 0 0,-22 11-22 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1-8 0 0 0,0 9 85 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-6-3 0 0 0,5 3-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-12 2-1 0 0,9 0-169 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-10 9 0 0 0,12-11-610 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 10 0 0 0,4-3-1250 0 0,3 0 148 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1796.13">1626 113 308 0 0,'-2'-1'188'0'0,"1"1"0"0"0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,-2 1 66 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5 10 0 0 0,6-9-174 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,2 7-1 0 0,-2-10-62 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,4 1-1 0 0,-2-1-6 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,7-9 0 0 0,-8 8 108 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-9 0 0 0,3 11 59 0 0,0-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-8-6-1 0 0,10 7-151 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-3 1-1 0 0,-1 1-131 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 1 1 0 0,-5 6-1 0 0,6-8-402 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 10 0 0 0,3-10-226 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 7-1 0 0,3 3-803 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2385.13">2184 79 956 0 0,'-3'-14'2132'0'0,"3"13"-1930"0"0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 1-99 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 2 0 0 0,-2 1 9 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 7 1 0 0,1-4-85 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0-1 1 0 0,4 9-1 0 0,-5-13-23 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-2 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,3-2 1 0 0,1 0 12 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,4-7 1 0 0,-5 6 42 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-5-10-1 0 0,5 15-43 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-3-1 0 0 0,1 0 8 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-6 3 0 0 0,-3 2-334 0 0,0 0-1 0 0,1 1 1 0 0,1 1-1 0 0,-21 16 0 0 0,26-20-536 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-4 11-1 0 0,5-4-829 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3092.71">2657 36 672 0 0,'-4'1'257'0'0,"-1"-1"0"0"0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-5 5 0 0 0,6-5-137 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,3 7-1 0 0,-1-4-98 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,10-1-1 0 0,-11 1 57 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,6-5 1 0 0,-7 5 80 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-9-1 0 0,-1 9-42 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5-3-1 0 0,4 3-96 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-7 4 0 0 0,8-3-209 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-5 8 1 0 0,6-7-625 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 11 0 0 0,2 0-1484 0 0</inkml:trace>
@@ -14320,7 +14323,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">7 0 672 0 0,'0'0'2579'0'0,"4"16"1560"0"0,-7-1-3451 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2 1 0 0 0,1 28 0 0 0,0-37-585 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7 11-1 0 0,37 38 166 0 0,-44-50-286 0 0,2 0 22 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,10 2 0 0 0,11 1-13 0 0,44 0-1 0 0,-47-3 16 0 0,68 2-42 0 0,179 10 75 0 0,593 12-48 0 0,-810-25 9 0 0,37-1-17 0 0,109 14 0 0 0,-193-12 12 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,4 10 1 0 0,1-2 44 0 0,0-1 1 0 0,18 22-1 0 0,-26-35-34 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,12-20 184 0 0,-12 19-181 0 0,3-5-10 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,9-1-1 0 0,363-10 65 0 0,-181 10-93 0 0,340-3 85 0 0,-457 5-63 0 0,-65 0 10 0 0,0 0 1 0 0,0-1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-2 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 0 0 0 0,24-16-1 0 0,-22 9 226 0 0,0 1-1 0 0,-1-2 1 0 0,-1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,16-30 1 0 0,-26 45-171 0 0,11-25-1026 0 0,-13 26 804 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 1 0 0 0,-5 0-2102 0 0,0 2 276 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="924.8">1128 926 316 0 0,'0'0'109'0'0,"0"0"0"0"0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,15-6 2178 0 0,19 3-29 0 0,-6 4-1304 0 0,37 3-1 0 0,-58-3-789 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,10 7 0 0 0,-17-9-105 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0 0 30 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 2-1 0 0,-6 4 146 0 0,1-1 1 0 0,-1 0-1 0 0,-8 6 1 0 0,12-10-156 0 0,-17 11 272 0 0,-26 12 0 0 0,31-18-267 0 0,0 1-1 0 0,0 1 1 0 0,1 0-1 0 0,-17 15 1 0 0,31-24-70 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 40 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 1 0 0 0,41 5 869 0 0,-41-6-942 0 0,156 5 242 0 0,-91-10-4415 0 0,-66 5 3530 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-2 0 0 0,-3 1-1452 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1620.18">1713 912 48 0 0,'-3'-4'1357'0'0,"-1"1"0"0"0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-7-5 796 0 0,22 8-429 0 0,9 3-1231 0 0,0-2-73 0 0,0 2 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,-1 1 0 0 0,21 9-1 0 0,-36-13-309 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,4 6-1 0 0,-6-7-50 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,-14 13 283 0 0,-1 0-1 0 0,-32 20 1 0 0,31-23-300 0 0,-1 2-1 0 0,-26 25 1 0 0,41-34 14 0 0,-15 15-24 0 0,20-19-18 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,37 5 696 0 0,0-2 1 0 0,54-1-1 0 0,20-7-4348 0 0,-106 4 2696 0 0,-2 1-317 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,3 0-1 0 0,-2-2-1275 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1620.16">1713 912 48 0 0,'-3'-4'1357'0'0,"-1"1"0"0"0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-7-5 796 0 0,22 8-429 0 0,9 3-1231 0 0,0-2-73 0 0,0 2 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,-1 1 0 0 0,21 9-1 0 0,-36-13-309 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,4 6-1 0 0,-6-7-50 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,-14 13 283 0 0,-1 0-1 0 0,-32 20 1 0 0,31-23-300 0 0,-1 2-1 0 0,-26 25 1 0 0,41-34 14 0 0,-15 15-24 0 0,20-19-18 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,37 5 696 0 0,0-2 1 0 0,54-1-1 0 0,20-7-4348 0 0,-106 4 2696 0 0,-2 1-317 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,3 0-1 0 0,-2-2-1275 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2221.83">2309 827 92 0 0,'6'-28'6324'0'0,"-6"27"-6231"0"0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-15 8 1990 0 0,10-3-1665 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-5 11-1 0 0,4-9-216 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 11 1 0 0,2-19-182 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,3 2 0 0 0,-1-2-8 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,2 0 0 0 0,8 0 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 0-1 0 0,26-7 1 0 0,-24 4 25 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,18-14 0 0 0,-23 14 1080 0 0,-1 1 1 0 0,15-16 0 0 0,-30 31-54 0 0,-8 9-220 0 0,1 1 1 0 0,-21 34-1 0 0,20-18-886 0 0,2 1-1 0 0,1 0 1 0 0,2 0 0 0 0,-8 46-1 0 0,-1 4-6198 0 0,-7-1-7972 0 0,15-57 11201 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -14988,7 +14991,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">12 88 556 0 0,'0'0'154'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 2-1 0 0,-1 31 1139 0 0,1-24-468 0 0,-2 28 628 0 0,-8 50 0 0 0,5-62-1588 0 0,2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 0-1 0 0,5 35 1 0 0,-5-57-411 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 4 0 0 0,-1-2-1537 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.65">454 50 692 0 0,'0'1'73'0'0,"0"-1"1"0"0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,9 12 787 0 0,-6-1-194 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-2 18-1 0 0,1 6-301 0 0,0 28-380 0 0,2 54 308 0 0,3-41-3758 0 0,2-54-2600 0 0,-4-18 4325 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.26">878 55 152 0 0,'3'0'440'0'0,"-1"0"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-2-2-174 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 7-1 0 0,1 4-161 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 15 0 0 0,-1-14 525 0 0,0 43-596 0 0,1 30-663 0 0,4-31-5295 0 0,-2-49 3913 0 0,1-1 183 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1048.59">1456 24 844 0 0,'1'-1'279'0'0,"0"0"-1"0"0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 0 1 0 0,-2 0-114 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 2-1 0 0,1 5 303 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 10 1 0 0,-20 208-1010 0 0,17-160-7993 0 0,5-52 6222 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1048.58">1456 24 844 0 0,'1'-1'279'0'0,"0"0"-1"0"0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 0 1 0 0,-2 0-114 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 2-1 0 0,1 5 303 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 10 1 0 0,-20 208-1010 0 0,17-160-7993 0 0,5-52 6222 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1635.41">1978 1 444 0 0,'-1'8'5980'0'0,"0"11"-3537"0"0,-3 41-1011 0 0,3-14-1382 0 0,7 56 0 0 0,-1 8-8001 0 0,-5-91 6219 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -15023,7 +15026,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 37 1068 0 0,'1'0'143'0'0,"0"0"1"0"0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 2 0 0 0,3 32 491 0 0,-3-30-274 0 0,0 55 803 0 0,-8 73 1 0 0,5-92-1546 0 0,-2-9-632 0 0,1 17-4937 0 0,3-44 4784 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.55">628 8 264 0 0,'1'-1'226'0'0,"0"0"0"0"0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1 1 0 0 0,-2-1-78 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 9 381 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-2 13 1 0 0,1-2-340 0 0,-10 124 191 0 0,3-70-1521 0 0,7-72 575 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,1 5 1 0 0,1-3-1080 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.84">1157 53 504 0 0,'1'0'251'0'0,"0"0"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 2-1 0 0,0-1-40 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 3-1 0 0,-1 7 143 0 0,-1 0 0 0 0,0 0 0 0 0,-4 16 0 0 0,5-29-312 0 0,-9 49-362 0 0,-4 96 0 0 0,13-138-769 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,4 14 0 0 0,-2-11-661 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.83">1157 53 504 0 0,'1'0'251'0'0,"0"0"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 2-1 0 0,0-1-40 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 3-1 0 0,-1 7 143 0 0,-1 0 0 0 0,0 0 0 0 0,-4 16 0 0 0,5-29-312 0 0,-9 49-362 0 0,-4 96 0 0 0,13-138-769 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,4 14 0 0 0,-2-11-661 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15095,7 +15098,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">44 9 752 0 0,'-8'-9'6871'0'0,"4"18"-3779"0"0,2-2-3269 0 0,-6 29 1053 0 0,0 0 0 0 0,-3 71 0 0 0,9-47-3887 0 0,1 1-4535 0 0,1-51 5773 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="582.25">552 30 660 0 0,'-3'36'7706'0'0,"-8"24"-4867"0"0,-2 13-2465 0 0,11-57-565 0 0,-6 82-204 0 0,11-32-7402 0 0,-3-56 5909 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.59">1049 67 848 0 0,'-2'13'10907'0'0,"4"45"-7276"0"0,0 0-2313 0 0,-1-6-1254 0 0,0-15-306 0 0,-4 44 1 0 0,-3-43-4086 0 0,-6 0-3944 0 0,9-28 5892 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.58">1049 67 848 0 0,'-2'13'10907'0'0,"4"45"-7276"0"0,0 0-2313 0 0,-1-6-1254 0 0,0-15-306 0 0,-4 44 1 0 0,-3-43-4086 0 0,-6 0-3944 0 0,9-28 5892 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2132.4">1545 77 832 0 0,'1'-5'9958'0'0,"0"5"-9687"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 3-1 0 0,0 7 817 0 0,1 1 0 0 0,-2-1 0 0 0,0 20 0 0 0,-13 64 654 0 0,8-62-1538 0 0,-4 33-120 0 0,-1 6-3004 0 0,0-24-7208 0 0,10-39 4985 0 0,0-5 3064 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -15495,7 +15498,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">275 176 556 0 0,'-1'-2'662'0'0,"-6"-16"1481"0"0,7 17-1981 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 4 270 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 4 1 0 0,-1-3-40 0 0,0 45 2709 0 0,2 0 0 0 0,10 78 0 0 0,1-3-2232 0 0,-10-101-854 0 0,-1-7-85 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5 24 0 0 0,5-40-10 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-9-11-3989 0 0,-5-17-1890 0 0,2-10 333 0 0,5 16 3412 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.71">26 72 236 0 0,'-12'-7'892'0'0,"-1"-1"5252"0"0,29 9-1474 0 0,21 5-3220 0 0,0-1 1 0 0,50-1 0 0 0,2 1-1062 0 0,-55-2-724 0 0,56 11 0 0 0,-78-10-638 0 0,0-1 0 0 0,22 12-1 0 0,-26-12-157 0 0,-1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,10 9 0 0 0,-14-12 724 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 2 1 0 0,3 11-1278 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="759.84">40 773 572 0 0,'12'4'7278'0'0,"18"4"-4016"0"0,16-2-946 0 0,55 0 0 0 0,45-7-1566 0 0,-42 0-3093 0 0,-93 1 556 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,12-4 0 0 0,-12 2-287 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="759.83">40 773 572 0 0,'12'4'7278'0'0,"18"4"-4016"0"0,16-2-946 0 0,55 0 0 0 0,45-7-1566 0 0,-42 0-3093 0 0,-93 1 556 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,12-4 0 0 0,-12 2-287 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.33">719 78 736 0 0,'-1'0'182'0'0,"0"0"0"0"0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 1 0 0 0,-7 22 1833 0 0,5 33 384 0 0,3-51-1825 0 0,6 140 3233 0 0,-2-78-3236 0 0,-5 88 0 0 0,-2-129-719 0 0,-6 77 323 0 0,0-35-3489 0 0,8-62 121 0 0,1-15-4290 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1523.12">679 83 876 0 0,'2'-4'174'0'0,"-1"-1"0"0"0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,1 0-1 0 0,5-2 1 0 0,-5 3 27 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,5 1 0 0 0,1 2 86 0 0,-1 0-1 0 0,-1 0 1 0 0,1 2 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,11 18 1 0 0,-13-19-88 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-2 11 1 0 0,2-16-128 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 0 1 0 0,-8 1-1 0 0,-6 2-47 0 0,-1-1 0 0 0,1 0 1 0 0,-33 1-1 0 0,18-3-362 0 0,-11 1-1746 0 0,15-2-8033 0 0</inkml:trace>
 </inkml:ink>
@@ -15563,7 +15566,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">71 118 520 0 0,'-4'-25'4191'0'0,"4"25"-4148"0"0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-3 16 1692 0 0,-4 92 2425 0 0,5 54-2752 0 0,2-146-1291 0 0,-3 71 9 0 0,-16 98 1 0 0,18-180-374 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-5 7 1 0 0,3-12-2202 0 0,1-7 979 0 0,1-10-259 0 0,7-66-3430 0 0,-3 53 3946 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.99">52 79 288 0 0,'3'-22'1651'0'0,"3"-12"493"0"0,-6 33-2065 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-2 0 0 0,-3 2-26 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,9 20 1144 0 0,-7-14-760 0 0,9 24 785 0 0,-1 1 1 0 0,10 50-1 0 0,-11-37-496 0 0,-2-14-383 0 0,-1-3-228 0 0,1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,20 41 0 0 0,-28-68-115 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,3-1 0 0 0,-2 0-5 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,3-2 0 0 0,4-6-51 0 0,-1-1-1 0 0,1 0 1 0 0,-2 1 0 0 0,11-20 0 0 0,128-257-671 0 0,-145 286 736 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 14 459 0 0,-8 36 378 0 0,6-36-559 0 0,-22 251 4107 0 0,25-221-4612 0 0,7 61 0 0 0,-4-69-1563 0 0,-4-35 1708 0 0,5 29-5379 0 0,-5-29 4966 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,4 1-1376 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.68">950 499 864 0 0,'2'-2'269'0'0,"-1"0"0"0"0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-6 0 0 0,0 6-138 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-3 0 0 0 0,1 0 35 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 0 1 0 0,-1 2 93 0 0,1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-12 6 0 0 0,14-6-222 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 9-1 0 0,3-15-39 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 0-1 0 0,-1-1 2 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,3-2 0 0 0,5-5 9 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,12-24 0 0 0,-18 31 881 0 0,-8 15 398 0 0,-10 19 868 0 0,10-10-1450 0 0,0 0-1 0 0,1 0 0 0 0,-4 25 0 0 0,8-34-1099 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,1 0-1 0 0,4 17 0 0 0,-5-25 111 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,2 1-1 0 0,-1 0-282 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,3-1 1 0 0,7-4-1235 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.63">950 499 864 0 0,'2'-2'269'0'0,"-1"0"0"0"0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-6 0 0 0,0 6-138 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-3 0 0 0 0,1 0 35 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 0 1 0 0,-1 2 93 0 0,1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-12 6 0 0 0,14-6-222 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 9-1 0 0,3-15-39 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 0-1 0 0,-1-1 2 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,3-2 0 0 0,5-5 9 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,12-24 0 0 0,-18 31 881 0 0,-8 15 398 0 0,-10 19 868 0 0,10-10-1450 0 0,0 0-1 0 0,1 0 0 0 0,-4 25 0 0 0,8-34-1099 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,1 0-1 0 0,4 17 0 0 0,-5-25 111 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,2 1-1 0 0,-1 0-282 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,3-1 1 0 0,7-4-1235 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.7">1274 478 896 0 0,'11'-7'1534'0'0,"-5"4"-868"0"0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,6-9 0 0 0,-12 13-612 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-12-2 725 0 0,-16 5-408 0 0,27-2-214 0 0,-12 1 51 0 0,1 2 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 1 1 0 0,0 1-1 0 0,0 0 1 0 0,-14 7-1 0 0,25-11-205 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 2-1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,4 3 1 0 0,5 6 8 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,19 12-1 0 0,-15-12 46 0 0,0 0 178 0 0,-1 1 0 0 0,14 12-1 0 0,-25-20-114 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 7 0 0 0,-3-8-10 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-2 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,-10 4 125 0 0,0 0-1 0 0,-26 4 1 0 0,23-5-253 0 0,6-1-516 0 0,-48 9-728 0 0,39-9-2467 0 0,2-2-3698 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2031.91">1552 431 256 0 0,'-2'49'10355'0'0,"-13"88"-3622"0"0,-13 5-4726 0 0,22-118-2673 0 0,4-18 521 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2465.01">1740 473 280 0 0,'3'-2'391'0'0,"0"1"0"0"0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,6 1 0 0 0,-8 0-309 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-14 18 910 0 0,13-18-880 0 0,-9 10 95 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-24 13-1 0 0,22-14-167 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-13 13-1 0 0,24-21 37 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,2 4 1 0 0,4 7 546 0 0,0 0 0 0 0,1-1-1 0 0,16 22 1 0 0,-9-14-29 0 0,46 70 278 0 0,-60-86-2872 0 0</inkml:trace>
@@ -15840,7 +15843,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">168 157 512 0 0,'-17'31'1227'0'0,"0"2"-1"0"0,-14 41 1 0 0,11-15-909 0 0,-15 71 0 0 0,19-44-60 0 0,3 1-1 0 0,-3 147 0 0 0,15-217-349 0 0,1-13-54 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 9-1 0 0,-2-18-2969 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.45">127 136 712 0 0,'6'-23'1061'0'0,"-5"15"-829"0"0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,4-11 0 0 0,-5 16-214 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,5-3 0 0 0,9-3 65 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,33 1-1 0 0,-41 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,9 5 0 0 0,-12-6-6 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,4 10-1 0 0,3 9 55 0 0,-2 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-2 0-1 0 0,0 32 0 0 0,-20 184 554 0 0,2-133-522 0 0,-4 33-902 0 0,11-61-3747 0 0,9-68 3075 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.09">798 694 680 0 0,'-1'6'2870'0'0,"-4"1"-2592"0"0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 11 0 0 0,-5 42 431 0 0,3-38-359 0 0,-1 46-1 0 0,1 182-345 0 0,5-249-123 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-3 1-1 0 0,4-3 33 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-80 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-3-1 0 0,-1-12-976 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.6">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.58">772 610 280 0 0,'1'-4'125'0'0,"0"0"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 1-1 0 0,1 2 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,16 16-1 0 0,-22-20-131 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 9 1 0 0,-4-12-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 0-438 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 4-1 0 0,-7 4-606 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1418.21">1213 1084 612 0 0,'10'6'6161'0'0,"-5"-6"-5141"0"0,0 0-1012 0 0,0 0-528 0 0,-5-3-1353 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.04">1808 544 576 0 0,'4'4'3217'0'0,"12"12"-2153"0"0,15-10 527 0 0,-30-5-1547 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-29 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-23-3 328 0 0,12 5-300 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-14 19 0 0 0,18-22-10 0 0,0 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 14 0 0 0,7-17-31 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 9 0 0 0,-2-6-310 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,9-1 1 0 0,9 0-891 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2098.19">2168 712 656 0 0,'23'-18'1981'0'0,"45"-25"-1"0"0,-49 32-1201 0 0,-19 10-749 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 12 759 0 0,-7 23-343 0 0,5-24-230 0 0,-9 44 100 0 0,6-27-263 0 0,5-23-49 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-4 6 1 0 0,0-1 14 0 0,3-5 1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-6 5 1 0 0,9-9-19 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-4 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,1-3-5 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,3-8 0 0 0,0 0-10 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,13-12 0 0 0,-16 18 15 0 0,-1-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,10-4 0 0 0,-13 6 43 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 1 1 0 0,-8 0 9 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 5-1 0 0,1 3 117 0 0,0 1 0 0 0,-1-1 0 0 0,0 18 0 0 0,-2-6-97 0 0,-2-1 1 0 0,0 1-1 0 0,-7 24 0 0 0,-4 22-1089 0 0,14-64 834 0 0,-1 0-418 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 7 0 0 0,-1-4-1246 0 0,-1-4 155 0 0</inkml:trace>
@@ -17489,10 +17492,10 @@
   <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17514,9 +17517,9 @@
     <col min="15" max="15" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="3"/>
     <col min="17" max="17" width="6" style="2"/>
-    <col min="18" max="18" width="6" style="3"/>
+    <col min="18" max="18" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="13"/>
-    <col min="20" max="20" width="6" style="3"/>
+    <col min="20" max="20" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" style="13"/>
     <col min="22" max="22" width="6" style="3"/>
     <col min="23" max="23" width="6" style="2"/>
@@ -18436,53 +18439,116 @@
         <v>45316</v>
       </c>
       <c r="C32" s="5"/>
+      <c r="R32" s="25">
+        <v>33761</v>
+      </c>
     </row>
-    <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
+      <c r="R33" s="25">
+        <v>52187</v>
+      </c>
     </row>
-    <row r="34" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
+      <c r="R34" s="26" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="35" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>45323</v>
+      </c>
       <c r="C35" s="5"/>
+      <c r="P35" s="25">
+        <v>48390</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>34516</v>
+      </c>
+      <c r="S35" s="27">
+        <v>55604</v>
+      </c>
     </row>
-    <row r="36" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
+      <c r="P36" s="26">
+        <v>45248</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>59755</v>
+      </c>
     </row>
-    <row r="37" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>45330</v>
+      </c>
       <c r="C37" s="5"/>
+      <c r="T37" s="25">
+        <v>59696</v>
+      </c>
     </row>
-    <row r="38" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
+      <c r="T38" s="31">
+        <v>57425</v>
+      </c>
     </row>
-    <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>45337</v>
+      </c>
       <c r="C39" s="5"/>
+      <c r="L39" s="25">
+        <v>63026</v>
+      </c>
+      <c r="M39" s="17">
+        <v>64896</v>
+      </c>
+      <c r="N39" s="31">
+        <v>63028</v>
+      </c>
+      <c r="O39" s="29">
+        <v>61393</v>
+      </c>
+      <c r="R39" s="25">
+        <v>63065</v>
+      </c>
+      <c r="U39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="40" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>45351</v>
+      </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
